--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="701">
   <si>
     <t>status</t>
   </si>
@@ -2426,6 +2426,9 @@
   </si>
   <si>
     <t>/get-menus</t>
+  </si>
+  <si>
+    <t>uuid</t>
   </si>
 </sst>
 </file>
@@ -6111,7 +6114,7 @@
   </sheetPr>
   <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12067,13 +12070,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O105"/>
+  <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F52" sqref="F52"/>
+      <selection pane="bottomRight" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -13929,32 +13932,24 @@
         <v>459</v>
       </c>
       <c r="B61" s="125" t="s">
-        <v>647</v>
-      </c>
-      <c r="C61" s="125" t="s">
-        <v>586</v>
-      </c>
-      <c r="D61" s="136" t="s">
-        <v>610</v>
-      </c>
+        <v>700</v>
+      </c>
+      <c r="C61" s="125"/>
+      <c r="D61" s="136"/>
       <c r="E61" s="125" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="137">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G61" s="137"/>
       <c r="H61" s="137"/>
       <c r="I61" s="137"/>
       <c r="J61" s="137"/>
       <c r="K61" s="137"/>
-      <c r="L61" s="134" t="s">
-        <v>460</v>
-      </c>
+      <c r="L61" s="137"/>
       <c r="M61" s="137"/>
-      <c r="N61" s="129">
-        <v>22</v>
-      </c>
+      <c r="N61" s="129"/>
       <c r="O61" s="133"/>
     </row>
     <row r="62" spans="1:15" s="88" customFormat="1">
@@ -13962,13 +13957,13 @@
         <v>459</v>
       </c>
       <c r="B62" s="125" t="s">
-        <v>450</v>
+        <v>647</v>
       </c>
       <c r="C62" s="125" t="s">
-        <v>612</v>
+        <v>586</v>
       </c>
       <c r="D62" s="136" t="s">
-        <v>457</v>
+        <v>610</v>
       </c>
       <c r="E62" s="125" t="s">
         <v>15</v>
@@ -13981,10 +13976,12 @@
       <c r="I62" s="137"/>
       <c r="J62" s="137"/>
       <c r="K62" s="137"/>
-      <c r="L62" s="137"/>
+      <c r="L62" s="134" t="s">
+        <v>460</v>
+      </c>
       <c r="M62" s="137"/>
       <c r="N62" s="129">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="O62" s="133"/>
     </row>
@@ -13993,13 +13990,13 @@
         <v>459</v>
       </c>
       <c r="B63" s="125" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C63" s="125" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D63" s="136" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E63" s="125" t="s">
         <v>15</v>
@@ -14015,7 +14012,7 @@
       <c r="L63" s="137"/>
       <c r="M63" s="137"/>
       <c r="N63" s="129">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="O63" s="133"/>
     </row>
@@ -14024,13 +14021,13 @@
         <v>459</v>
       </c>
       <c r="B64" s="125" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C64" s="125" t="s">
-        <v>590</v>
+        <v>613</v>
       </c>
       <c r="D64" s="136" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E64" s="125" t="s">
         <v>15</v>
@@ -14046,7 +14043,7 @@
       <c r="L64" s="137"/>
       <c r="M64" s="137"/>
       <c r="N64" s="129">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O64" s="133"/>
     </row>
@@ -14055,13 +14052,13 @@
         <v>459</v>
       </c>
       <c r="B65" s="125" t="s">
-        <v>391</v>
+        <v>452</v>
       </c>
       <c r="C65" s="125" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="D65" s="136" t="s">
-        <v>615</v>
+        <v>455</v>
       </c>
       <c r="E65" s="125" t="s">
         <v>15</v>
@@ -14077,7 +14074,7 @@
       <c r="L65" s="137"/>
       <c r="M65" s="137"/>
       <c r="N65" s="129">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O65" s="133"/>
     </row>
@@ -14086,18 +14083,20 @@
         <v>459</v>
       </c>
       <c r="B66" s="125" t="s">
-        <v>447</v>
+        <v>391</v>
       </c>
       <c r="C66" s="125" t="s">
-        <v>573</v>
+        <v>614</v>
       </c>
       <c r="D66" s="136" t="s">
-        <v>233</v>
+        <v>615</v>
       </c>
       <c r="E66" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="137"/>
+        <v>15</v>
+      </c>
+      <c r="F66" s="137">
+        <v>255</v>
+      </c>
       <c r="G66" s="137"/>
       <c r="H66" s="137"/>
       <c r="I66" s="137"/>
@@ -14106,7 +14105,7 @@
       <c r="L66" s="137"/>
       <c r="M66" s="137"/>
       <c r="N66" s="129">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O66" s="133"/>
     </row>
@@ -14115,20 +14114,18 @@
         <v>459</v>
       </c>
       <c r="B67" s="125" t="s">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="C67" s="125" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D67" s="136" t="s">
-        <v>581</v>
+        <v>233</v>
       </c>
       <c r="E67" s="125" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="137">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F67" s="137"/>
       <c r="G67" s="137"/>
       <c r="H67" s="137"/>
       <c r="I67" s="137"/>
@@ -14136,7 +14133,9 @@
       <c r="K67" s="137"/>
       <c r="L67" s="137"/>
       <c r="M67" s="137"/>
-      <c r="N67" s="129"/>
+      <c r="N67" s="129">
+        <v>27</v>
+      </c>
       <c r="O67" s="133"/>
     </row>
     <row r="68" spans="1:15" s="88" customFormat="1">
@@ -14144,18 +14143,20 @@
         <v>459</v>
       </c>
       <c r="B68" s="125" t="s">
-        <v>19</v>
+        <v>560</v>
       </c>
       <c r="C68" s="125" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D68" s="136" t="s">
-        <v>448</v>
+        <v>581</v>
       </c>
       <c r="E68" s="125" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="137"/>
+        <v>15</v>
+      </c>
+      <c r="F68" s="137">
+        <v>255</v>
+      </c>
       <c r="G68" s="137"/>
       <c r="H68" s="137"/>
       <c r="I68" s="137"/>
@@ -14163,9 +14164,7 @@
       <c r="K68" s="137"/>
       <c r="L68" s="137"/>
       <c r="M68" s="137"/>
-      <c r="N68" s="129">
-        <v>28</v>
-      </c>
+      <c r="N68" s="129"/>
       <c r="O68" s="133"/>
     </row>
     <row r="69" spans="1:15" s="88" customFormat="1">
@@ -14173,20 +14172,18 @@
         <v>459</v>
       </c>
       <c r="B69" s="125" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C69" s="125" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D69" s="136" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="E69" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="F69" s="137">
-        <v>50</v>
-      </c>
+      <c r="F69" s="137"/>
       <c r="G69" s="137"/>
       <c r="H69" s="137"/>
       <c r="I69" s="137"/>
@@ -14195,7 +14192,7 @@
       <c r="L69" s="137"/>
       <c r="M69" s="137"/>
       <c r="N69" s="129">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O69" s="133"/>
     </row>
@@ -14204,81 +14201,75 @@
         <v>459</v>
       </c>
       <c r="B70" s="125" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C70" s="125" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D70" s="136" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E70" s="125" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="137"/>
+        <v>50</v>
+      </c>
+      <c r="F70" s="137">
+        <v>50</v>
+      </c>
       <c r="G70" s="137"/>
       <c r="H70" s="137"/>
       <c r="I70" s="137"/>
       <c r="J70" s="137"/>
       <c r="K70" s="137"/>
       <c r="L70" s="137"/>
-      <c r="M70" s="137">
-        <v>1</v>
-      </c>
+      <c r="M70" s="137"/>
       <c r="N70" s="129">
+        <v>29</v>
+      </c>
+      <c r="O70" s="133"/>
+    </row>
+    <row r="71" spans="1:15" s="88" customFormat="1">
+      <c r="A71" s="125" t="s">
+        <v>459</v>
+      </c>
+      <c r="B71" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" s="125" t="s">
+        <v>572</v>
+      </c>
+      <c r="D71" s="136" t="s">
+        <v>453</v>
+      </c>
+      <c r="E71" s="125" t="s">
+        <v>17</v>
+      </c>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137">
+        <v>1</v>
+      </c>
+      <c r="N71" s="129">
         <v>30</v>
       </c>
-      <c r="O70" s="133"/>
-    </row>
-    <row r="71" spans="1:15" s="87" customFormat="1">
-      <c r="A71" s="114" t="s">
-        <v>382</v>
-      </c>
-      <c r="B71" s="114" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="114" t="s">
-        <v>583</v>
-      </c>
-      <c r="D71" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="E71" s="139" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" s="115"/>
-      <c r="G71" s="115">
-        <v>1</v>
-      </c>
-      <c r="H71" s="115">
-        <v>1</v>
-      </c>
-      <c r="I71" s="115">
-        <v>1</v>
-      </c>
-      <c r="J71" s="115">
-        <v>1</v>
-      </c>
-      <c r="K71" s="115"/>
-      <c r="L71" s="115"/>
-      <c r="M71" s="115"/>
-      <c r="N71" s="129">
-        <v>59</v>
-      </c>
-      <c r="O71" s="130"/>
+      <c r="O71" s="133"/>
     </row>
     <row r="72" spans="1:15" s="87" customFormat="1">
       <c r="A72" s="114" t="s">
         <v>382</v>
       </c>
       <c r="B72" s="114" t="s">
-        <v>655</v>
+        <v>18</v>
       </c>
       <c r="C72" s="114" t="s">
-        <v>656</v>
+        <v>583</v>
       </c>
       <c r="D72" s="138" t="s">
-        <v>657</v>
+        <v>383</v>
       </c>
       <c r="E72" s="139" t="s">
         <v>16</v>
@@ -14287,34 +14278,40 @@
       <c r="G72" s="115">
         <v>1</v>
       </c>
-      <c r="H72" s="115"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="115"/>
+      <c r="H72" s="115">
+        <v>1</v>
+      </c>
+      <c r="I72" s="115">
+        <v>1</v>
+      </c>
+      <c r="J72" s="115">
+        <v>1</v>
+      </c>
       <c r="K72" s="115"/>
       <c r="L72" s="115"/>
       <c r="M72" s="115"/>
-      <c r="N72" s="129"/>
+      <c r="N72" s="129">
+        <v>59</v>
+      </c>
       <c r="O72" s="130"/>
     </row>
-    <row r="73" spans="1:15" s="87" customFormat="1" ht="25.5">
+    <row r="73" spans="1:15" s="87" customFormat="1">
       <c r="A73" s="114" t="s">
         <v>382</v>
       </c>
       <c r="B73" s="114" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="C73" s="114" t="s">
-        <v>584</v>
+        <v>656</v>
       </c>
       <c r="D73" s="138" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="E73" s="139" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="115">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F73" s="115"/>
       <c r="G73" s="115">
         <v>1</v>
       </c>
@@ -14324,9 +14321,7 @@
       <c r="K73" s="115"/>
       <c r="L73" s="115"/>
       <c r="M73" s="115"/>
-      <c r="N73" s="129">
-        <v>60</v>
-      </c>
+      <c r="N73" s="129"/>
       <c r="O73" s="130"/>
     </row>
     <row r="74" spans="1:15" s="87" customFormat="1" ht="25.5">
@@ -14334,13 +14329,13 @@
         <v>382</v>
       </c>
       <c r="B74" s="114" t="s">
-        <v>25</v>
+        <v>582</v>
       </c>
       <c r="C74" s="114" t="s">
-        <v>449</v>
+        <v>584</v>
       </c>
       <c r="D74" s="138" t="s">
-        <v>617</v>
+        <v>654</v>
       </c>
       <c r="E74" s="139" t="s">
         <v>15</v>
@@ -14348,7 +14343,9 @@
       <c r="F74" s="115">
         <v>50</v>
       </c>
-      <c r="G74" s="115"/>
+      <c r="G74" s="115">
+        <v>1</v>
+      </c>
       <c r="H74" s="115"/>
       <c r="I74" s="115"/>
       <c r="J74" s="115"/>
@@ -14356,28 +14353,28 @@
       <c r="L74" s="115"/>
       <c r="M74" s="115"/>
       <c r="N74" s="129">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="O74" s="130"/>
     </row>
-    <row r="75" spans="1:15" s="87" customFormat="1">
+    <row r="75" spans="1:15" s="87" customFormat="1" ht="25.5">
       <c r="A75" s="114" t="s">
         <v>382</v>
       </c>
       <c r="B75" s="114" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C75" s="114" t="s">
-        <v>585</v>
+        <v>449</v>
       </c>
       <c r="D75" s="138" t="s">
-        <v>563</v>
+        <v>617</v>
       </c>
       <c r="E75" s="139" t="s">
         <v>15</v>
       </c>
       <c r="F75" s="115">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G75" s="115"/>
       <c r="H75" s="115"/>
@@ -14387,7 +14384,7 @@
       <c r="L75" s="115"/>
       <c r="M75" s="115"/>
       <c r="N75" s="129">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O75" s="130"/>
     </row>
@@ -14396,18 +14393,20 @@
         <v>382</v>
       </c>
       <c r="B76" s="114" t="s">
-        <v>447</v>
+        <v>4</v>
       </c>
       <c r="C76" s="114" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="D76" s="138" t="s">
-        <v>233</v>
-      </c>
-      <c r="E76" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="F76" s="115"/>
+        <v>563</v>
+      </c>
+      <c r="E76" s="139" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="115">
+        <v>255</v>
+      </c>
       <c r="G76" s="115"/>
       <c r="H76" s="115"/>
       <c r="I76" s="115"/>
@@ -14416,7 +14415,7 @@
       <c r="L76" s="115"/>
       <c r="M76" s="115"/>
       <c r="N76" s="129">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O76" s="130"/>
     </row>
@@ -14425,20 +14424,18 @@
         <v>382</v>
       </c>
       <c r="B77" s="114" t="s">
-        <v>560</v>
+        <v>447</v>
       </c>
       <c r="C77" s="114" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
       <c r="D77" s="138" t="s">
-        <v>581</v>
+        <v>233</v>
       </c>
       <c r="E77" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F77" s="115">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F77" s="115"/>
       <c r="G77" s="115"/>
       <c r="H77" s="115"/>
       <c r="I77" s="115"/>
@@ -14446,7 +14443,9 @@
       <c r="K77" s="115"/>
       <c r="L77" s="115"/>
       <c r="M77" s="115"/>
-      <c r="N77" s="129"/>
+      <c r="N77" s="129">
+        <v>63</v>
+      </c>
       <c r="O77" s="130"/>
     </row>
     <row r="78" spans="1:15" s="87" customFormat="1">
@@ -14454,18 +14453,20 @@
         <v>382</v>
       </c>
       <c r="B78" s="114" t="s">
-        <v>19</v>
+        <v>560</v>
       </c>
       <c r="C78" s="114" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="D78" s="138" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="E78" s="140" t="s">
-        <v>50</v>
-      </c>
-      <c r="F78" s="115"/>
+        <v>15</v>
+      </c>
+      <c r="F78" s="115">
+        <v>255</v>
+      </c>
       <c r="G78" s="115"/>
       <c r="H78" s="115"/>
       <c r="I78" s="115"/>
@@ -14473,9 +14474,7 @@
       <c r="K78" s="115"/>
       <c r="L78" s="115"/>
       <c r="M78" s="115"/>
-      <c r="N78" s="129">
-        <v>64</v>
-      </c>
+      <c r="N78" s="129"/>
       <c r="O78" s="130"/>
     </row>
     <row r="79" spans="1:15" s="87" customFormat="1">
@@ -14483,20 +14482,18 @@
         <v>382</v>
       </c>
       <c r="B79" s="114" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D79" s="138" t="s">
-        <v>384</v>
+        <v>587</v>
       </c>
       <c r="E79" s="140" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="115">
         <v>50</v>
       </c>
+      <c r="F79" s="115"/>
       <c r="G79" s="115"/>
       <c r="H79" s="115"/>
       <c r="I79" s="115"/>
@@ -14505,7 +14502,7 @@
       <c r="L79" s="115"/>
       <c r="M79" s="115"/>
       <c r="N79" s="129">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O79" s="130"/>
     </row>
@@ -14514,66 +14511,60 @@
         <v>382</v>
       </c>
       <c r="B80" s="114" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C80" s="114" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D80" s="138" t="s">
-        <v>385</v>
-      </c>
-      <c r="E80" s="139" t="s">
-        <v>17</v>
-      </c>
-      <c r="F80" s="115"/>
+        <v>384</v>
+      </c>
+      <c r="E80" s="140" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="115">
+        <v>50</v>
+      </c>
       <c r="G80" s="115"/>
       <c r="H80" s="115"/>
       <c r="I80" s="115"/>
       <c r="J80" s="115"/>
       <c r="K80" s="115"/>
       <c r="L80" s="115"/>
-      <c r="M80" s="115">
-        <v>1</v>
-      </c>
+      <c r="M80" s="115"/>
       <c r="N80" s="129">
+        <v>65</v>
+      </c>
+      <c r="O80" s="130"/>
+    </row>
+    <row r="81" spans="1:15" s="87" customFormat="1">
+      <c r="A81" s="114" t="s">
+        <v>382</v>
+      </c>
+      <c r="B81" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" s="114" t="s">
+        <v>572</v>
+      </c>
+      <c r="D81" s="138" t="s">
+        <v>385</v>
+      </c>
+      <c r="E81" s="139" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="115"/>
+      <c r="G81" s="115"/>
+      <c r="H81" s="115"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="115"/>
+      <c r="K81" s="115"/>
+      <c r="L81" s="115"/>
+      <c r="M81" s="115">
+        <v>1</v>
+      </c>
+      <c r="N81" s="129">
         <v>66</v>
-      </c>
-      <c r="O80" s="130"/>
-    </row>
-    <row r="81" spans="1:15" s="87" customFormat="1">
-      <c r="A81" s="73" t="s">
-        <v>393</v>
-      </c>
-      <c r="B81" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" s="73" t="s">
-        <v>583</v>
-      </c>
-      <c r="D81" s="89" t="s">
-        <v>555</v>
-      </c>
-      <c r="E81" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81" s="117"/>
-      <c r="G81" s="117">
-        <v>1</v>
-      </c>
-      <c r="H81" s="117">
-        <v>1</v>
-      </c>
-      <c r="I81" s="117">
-        <v>1</v>
-      </c>
-      <c r="J81" s="117">
-        <v>1</v>
-      </c>
-      <c r="K81" s="117"/>
-      <c r="L81" s="117"/>
-      <c r="M81" s="117"/>
-      <c r="N81" s="129">
-        <v>77</v>
       </c>
       <c r="O81" s="130"/>
     </row>
@@ -14582,29 +14573,35 @@
         <v>393</v>
       </c>
       <c r="B82" s="73" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C82" s="73" t="s">
-        <v>658</v>
+        <v>583</v>
       </c>
       <c r="D82" s="89" t="s">
-        <v>394</v>
+        <v>555</v>
       </c>
       <c r="E82" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="117">
-        <v>50</v>
-      </c>
-      <c r="G82" s="117"/>
-      <c r="H82" s="117"/>
-      <c r="I82" s="117"/>
-      <c r="J82" s="117"/>
+        <v>16</v>
+      </c>
+      <c r="F82" s="117"/>
+      <c r="G82" s="117">
+        <v>1</v>
+      </c>
+      <c r="H82" s="117">
+        <v>1</v>
+      </c>
+      <c r="I82" s="117">
+        <v>1</v>
+      </c>
+      <c r="J82" s="117">
+        <v>1</v>
+      </c>
       <c r="K82" s="117"/>
       <c r="L82" s="117"/>
       <c r="M82" s="117"/>
       <c r="N82" s="129">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O82" s="130"/>
     </row>
@@ -14613,13 +14610,13 @@
         <v>393</v>
       </c>
       <c r="B83" s="73" t="s">
-        <v>396</v>
+        <v>1</v>
       </c>
       <c r="C83" s="73" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D83" s="89" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E83" s="73" t="s">
         <v>15</v>
@@ -14635,7 +14632,7 @@
       <c r="L83" s="117"/>
       <c r="M83" s="117"/>
       <c r="N83" s="129">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O83" s="130"/>
     </row>
@@ -14644,29 +14641,29 @@
         <v>393</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C84" s="73" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D84" s="89" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="E84" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F84" s="117"/>
+        <v>15</v>
+      </c>
+      <c r="F84" s="117">
+        <v>50</v>
+      </c>
       <c r="G84" s="117"/>
       <c r="H84" s="117"/>
       <c r="I84" s="117"/>
       <c r="J84" s="117"/>
       <c r="K84" s="117"/>
-      <c r="L84" s="134" t="s">
-        <v>461</v>
-      </c>
+      <c r="L84" s="117"/>
       <c r="M84" s="117"/>
       <c r="N84" s="129">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O84" s="130"/>
     </row>
@@ -14675,29 +14672,29 @@
         <v>393</v>
       </c>
       <c r="B85" s="73" t="s">
-        <v>468</v>
+        <v>404</v>
       </c>
       <c r="C85" s="73" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D85" s="89" t="s">
-        <v>547</v>
+        <v>405</v>
       </c>
       <c r="E85" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F85" s="117">
-        <v>1000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F85" s="117"/>
       <c r="G85" s="117"/>
       <c r="H85" s="117"/>
       <c r="I85" s="117"/>
       <c r="J85" s="117"/>
       <c r="K85" s="117"/>
-      <c r="L85" s="117"/>
+      <c r="L85" s="134" t="s">
+        <v>461</v>
+      </c>
       <c r="M85" s="117"/>
       <c r="N85" s="129">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="O85" s="130"/>
     </row>
@@ -14706,19 +14703,19 @@
         <v>393</v>
       </c>
       <c r="B86" s="73" t="s">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="C86" s="73" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="D86" s="89" t="s">
-        <v>400</v>
+        <v>547</v>
       </c>
       <c r="E86" s="73" t="s">
         <v>15</v>
       </c>
       <c r="F86" s="117">
-        <v>255</v>
+        <v>1000</v>
       </c>
       <c r="G86" s="117"/>
       <c r="H86" s="117"/>
@@ -14728,7 +14725,7 @@
       <c r="L86" s="117"/>
       <c r="M86" s="117"/>
       <c r="N86" s="129">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O86" s="130"/>
     </row>
@@ -14737,13 +14734,13 @@
         <v>393</v>
       </c>
       <c r="B87" s="73" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C87" s="73" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D87" s="89" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E87" s="73" t="s">
         <v>15</v>
@@ -14759,7 +14756,7 @@
       <c r="L87" s="117"/>
       <c r="M87" s="117"/>
       <c r="N87" s="129">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O87" s="130"/>
     </row>
@@ -14768,18 +14765,20 @@
         <v>393</v>
       </c>
       <c r="B88" s="73" t="s">
-        <v>447</v>
+        <v>399</v>
       </c>
       <c r="C88" s="73" t="s">
-        <v>573</v>
+        <v>664</v>
       </c>
       <c r="D88" s="89" t="s">
-        <v>233</v>
+        <v>401</v>
       </c>
       <c r="E88" s="73" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="117"/>
+        <v>15</v>
+      </c>
+      <c r="F88" s="117">
+        <v>255</v>
+      </c>
       <c r="G88" s="117"/>
       <c r="H88" s="117"/>
       <c r="I88" s="117"/>
@@ -14788,7 +14787,7 @@
       <c r="L88" s="117"/>
       <c r="M88" s="117"/>
       <c r="N88" s="129">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O88" s="130"/>
     </row>
@@ -14797,13 +14796,13 @@
         <v>393</v>
       </c>
       <c r="B89" s="73" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
       <c r="C89" s="73" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D89" s="89" t="s">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="E89" s="73" t="s">
         <v>50</v>
@@ -14817,7 +14816,7 @@
       <c r="L89" s="117"/>
       <c r="M89" s="117"/>
       <c r="N89" s="129">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O89" s="130"/>
     </row>
@@ -14826,20 +14825,18 @@
         <v>393</v>
       </c>
       <c r="B90" s="73" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C90" s="73" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="D90" s="89" t="s">
-        <v>575</v>
+        <v>386</v>
       </c>
       <c r="E90" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F90" s="117">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F90" s="117"/>
       <c r="G90" s="117"/>
       <c r="H90" s="117"/>
       <c r="I90" s="117"/>
@@ -14848,7 +14845,7 @@
       <c r="L90" s="117"/>
       <c r="M90" s="117"/>
       <c r="N90" s="129">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O90" s="130"/>
     </row>
@@ -14857,64 +14854,60 @@
         <v>393</v>
       </c>
       <c r="B91" s="73" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C91" s="73" t="s">
-        <v>572</v>
+        <v>588</v>
       </c>
       <c r="D91" s="89" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E91" s="73" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="117"/>
+        <v>15</v>
+      </c>
+      <c r="F91" s="117">
+        <v>255</v>
+      </c>
       <c r="G91" s="117"/>
       <c r="H91" s="117"/>
       <c r="I91" s="117"/>
       <c r="J91" s="117"/>
       <c r="K91" s="117"/>
       <c r="L91" s="117"/>
-      <c r="M91" s="117">
-        <v>1</v>
-      </c>
+      <c r="M91" s="117"/>
       <c r="N91" s="129">
+        <v>89</v>
+      </c>
+      <c r="O91" s="130"/>
+    </row>
+    <row r="92" spans="1:15" s="87" customFormat="1">
+      <c r="A92" s="73" t="s">
+        <v>393</v>
+      </c>
+      <c r="B92" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" s="73" t="s">
+        <v>572</v>
+      </c>
+      <c r="D92" s="89" t="s">
+        <v>576</v>
+      </c>
+      <c r="E92" s="73" t="s">
+        <v>17</v>
+      </c>
+      <c r="F92" s="117"/>
+      <c r="G92" s="117"/>
+      <c r="H92" s="117"/>
+      <c r="I92" s="117"/>
+      <c r="J92" s="117"/>
+      <c r="K92" s="117"/>
+      <c r="L92" s="117"/>
+      <c r="M92" s="117">
+        <v>1</v>
+      </c>
+      <c r="N92" s="129">
         <v>90</v>
-      </c>
-      <c r="O91" s="130"/>
-    </row>
-    <row r="92" spans="1:15" s="87" customFormat="1">
-      <c r="A92" s="112" t="s">
-        <v>395</v>
-      </c>
-      <c r="B92" s="112" t="s">
-        <v>18</v>
-      </c>
-      <c r="C92" s="112"/>
-      <c r="D92" s="113" t="s">
-        <v>559</v>
-      </c>
-      <c r="E92" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92" s="118"/>
-      <c r="G92" s="118">
-        <v>1</v>
-      </c>
-      <c r="H92" s="118">
-        <v>1</v>
-      </c>
-      <c r="I92" s="118">
-        <v>1</v>
-      </c>
-      <c r="J92" s="118">
-        <v>1</v>
-      </c>
-      <c r="K92" s="118"/>
-      <c r="L92" s="118"/>
-      <c r="M92" s="118"/>
-      <c r="N92" s="129">
-        <v>91</v>
       </c>
       <c r="O92" s="130"/>
     </row>
@@ -14923,27 +14916,33 @@
         <v>395</v>
       </c>
       <c r="B93" s="112" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C93" s="112"/>
       <c r="D93" s="113" t="s">
-        <v>402</v>
+        <v>559</v>
       </c>
       <c r="E93" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F93" s="118">
-        <v>50</v>
-      </c>
-      <c r="G93" s="118"/>
-      <c r="H93" s="118"/>
-      <c r="I93" s="118"/>
-      <c r="J93" s="118"/>
+        <v>16</v>
+      </c>
+      <c r="F93" s="118"/>
+      <c r="G93" s="118">
+        <v>1</v>
+      </c>
+      <c r="H93" s="118">
+        <v>1</v>
+      </c>
+      <c r="I93" s="118">
+        <v>1</v>
+      </c>
+      <c r="J93" s="118">
+        <v>1</v>
+      </c>
       <c r="K93" s="118"/>
       <c r="L93" s="118"/>
       <c r="M93" s="118"/>
       <c r="N93" s="129">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O93" s="130"/>
     </row>
@@ -14952,16 +14951,18 @@
         <v>395</v>
       </c>
       <c r="B94" s="112" t="s">
-        <v>287</v>
+        <v>25</v>
       </c>
       <c r="C94" s="112"/>
       <c r="D94" s="113" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E94" s="112" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="118"/>
+        <v>15</v>
+      </c>
+      <c r="F94" s="118">
+        <v>50</v>
+      </c>
       <c r="G94" s="118"/>
       <c r="H94" s="118"/>
       <c r="I94" s="118"/>
@@ -14970,7 +14971,7 @@
       <c r="L94" s="118"/>
       <c r="M94" s="118"/>
       <c r="N94" s="129">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O94" s="130"/>
     </row>
@@ -14979,14 +14980,14 @@
         <v>395</v>
       </c>
       <c r="B95" s="112" t="s">
-        <v>447</v>
+        <v>287</v>
       </c>
       <c r="C95" s="112"/>
       <c r="D95" s="113" t="s">
-        <v>233</v>
+        <v>403</v>
       </c>
       <c r="E95" s="112" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F95" s="118"/>
       <c r="G95" s="118"/>
@@ -14997,7 +14998,7 @@
       <c r="L95" s="118"/>
       <c r="M95" s="118"/>
       <c r="N95" s="129">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="O95" s="130"/>
     </row>
@@ -15006,11 +15007,11 @@
         <v>395</v>
       </c>
       <c r="B96" s="112" t="s">
-        <v>19</v>
+        <v>447</v>
       </c>
       <c r="C96" s="112"/>
       <c r="D96" s="113" t="s">
-        <v>386</v>
+        <v>233</v>
       </c>
       <c r="E96" s="112" t="s">
         <v>50</v>
@@ -15024,7 +15025,7 @@
       <c r="L96" s="118"/>
       <c r="M96" s="118"/>
       <c r="N96" s="129">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="O96" s="130"/>
     </row>
@@ -15033,18 +15034,16 @@
         <v>395</v>
       </c>
       <c r="B97" s="112" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C97" s="112"/>
       <c r="D97" s="113" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E97" s="112" t="s">
-        <v>15</v>
-      </c>
-      <c r="F97" s="118">
         <v>50</v>
       </c>
+      <c r="F97" s="118"/>
       <c r="G97" s="118"/>
       <c r="H97" s="118"/>
       <c r="I97" s="118"/>
@@ -15053,7 +15052,7 @@
       <c r="L97" s="118"/>
       <c r="M97" s="118"/>
       <c r="N97" s="129">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O97" s="130"/>
     </row>
@@ -15062,89 +15061,91 @@
         <v>395</v>
       </c>
       <c r="B98" s="112" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C98" s="112"/>
       <c r="D98" s="113" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E98" s="112" t="s">
-        <v>17</v>
-      </c>
-      <c r="F98" s="118"/>
+        <v>15</v>
+      </c>
+      <c r="F98" s="118">
+        <v>50</v>
+      </c>
       <c r="G98" s="118"/>
       <c r="H98" s="118"/>
       <c r="I98" s="118"/>
       <c r="J98" s="118"/>
       <c r="K98" s="118"/>
       <c r="L98" s="118"/>
-      <c r="M98" s="118">
-        <v>1</v>
-      </c>
+      <c r="M98" s="118"/>
       <c r="N98" s="129">
+        <v>96</v>
+      </c>
+      <c r="O98" s="130"/>
+    </row>
+    <row r="99" spans="1:15" s="87" customFormat="1">
+      <c r="A99" s="112" t="s">
+        <v>395</v>
+      </c>
+      <c r="B99" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" s="112"/>
+      <c r="D99" s="113" t="s">
+        <v>388</v>
+      </c>
+      <c r="E99" s="112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="118"/>
+      <c r="G99" s="118"/>
+      <c r="H99" s="118"/>
+      <c r="I99" s="118"/>
+      <c r="J99" s="118"/>
+      <c r="K99" s="118"/>
+      <c r="L99" s="118"/>
+      <c r="M99" s="118">
+        <v>1</v>
+      </c>
+      <c r="N99" s="129">
         <v>97</v>
       </c>
-      <c r="O98" s="130"/>
-    </row>
-    <row r="99" spans="1:15">
-      <c r="A99" s="73" t="s">
-        <v>468</v>
-      </c>
-      <c r="B99" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="73"/>
-      <c r="D99" s="89" t="s">
-        <v>462</v>
-      </c>
-      <c r="E99" s="73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F99" s="117"/>
-      <c r="G99" s="117">
-        <v>1</v>
-      </c>
-      <c r="H99" s="117">
-        <v>1</v>
-      </c>
-      <c r="I99" s="117">
-        <v>1</v>
-      </c>
-      <c r="J99" s="117">
-        <v>1</v>
-      </c>
-      <c r="K99" s="117"/>
-      <c r="L99" s="117"/>
-      <c r="M99" s="117"/>
-      <c r="N99" s="129">
-        <v>98</v>
-      </c>
-      <c r="O99" s="94"/>
+      <c r="O99" s="130"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="73" t="s">
         <v>468</v>
       </c>
       <c r="B100" s="73" t="s">
-        <v>287</v>
+        <v>18</v>
       </c>
       <c r="C100" s="73"/>
       <c r="D100" s="89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E100" s="73" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="117"/>
-      <c r="G100" s="117"/>
-      <c r="H100" s="117"/>
-      <c r="I100" s="117"/>
-      <c r="J100" s="117"/>
+      <c r="G100" s="117">
+        <v>1</v>
+      </c>
+      <c r="H100" s="117">
+        <v>1</v>
+      </c>
+      <c r="I100" s="117">
+        <v>1</v>
+      </c>
+      <c r="J100" s="117">
+        <v>1</v>
+      </c>
       <c r="K100" s="117"/>
       <c r="L100" s="117"/>
       <c r="M100" s="117"/>
       <c r="N100" s="129">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="O100" s="94"/>
     </row>
@@ -15153,18 +15154,16 @@
         <v>468</v>
       </c>
       <c r="B101" s="73" t="s">
-        <v>486</v>
+        <v>287</v>
       </c>
       <c r="C101" s="73"/>
       <c r="D101" s="89" t="s">
-        <v>502</v>
+        <v>463</v>
       </c>
       <c r="E101" s="73" t="s">
-        <v>15</v>
-      </c>
-      <c r="F101" s="117">
-        <v>255</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F101" s="117"/>
       <c r="G101" s="117"/>
       <c r="H101" s="117"/>
       <c r="I101" s="117"/>
@@ -15173,7 +15172,7 @@
       <c r="L101" s="117"/>
       <c r="M101" s="117"/>
       <c r="N101" s="129">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O101" s="94"/>
     </row>
@@ -15182,11 +15181,11 @@
         <v>468</v>
       </c>
       <c r="B102" s="73" t="s">
-        <v>25</v>
+        <v>486</v>
       </c>
       <c r="C102" s="73"/>
       <c r="D102" s="89" t="s">
-        <v>464</v>
+        <v>502</v>
       </c>
       <c r="E102" s="73" t="s">
         <v>15</v>
@@ -15202,7 +15201,7 @@
       <c r="L102" s="117"/>
       <c r="M102" s="117"/>
       <c r="N102" s="129">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="O102" s="94"/>
     </row>
@@ -15211,11 +15210,11 @@
         <v>468</v>
       </c>
       <c r="B103" s="73" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C103" s="73"/>
       <c r="D103" s="89" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E103" s="73" t="s">
         <v>15</v>
@@ -15231,7 +15230,7 @@
       <c r="L103" s="117"/>
       <c r="M103" s="117"/>
       <c r="N103" s="129">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="O103" s="94"/>
     </row>
@@ -15240,11 +15239,11 @@
         <v>468</v>
       </c>
       <c r="B104" s="73" t="s">
-        <v>391</v>
+        <v>4</v>
       </c>
       <c r="C104" s="73"/>
       <c r="D104" s="89" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E104" s="73" t="s">
         <v>15</v>
@@ -15260,7 +15259,7 @@
       <c r="L104" s="117"/>
       <c r="M104" s="117"/>
       <c r="N104" s="129">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="O104" s="94"/>
     </row>
@@ -15269,11 +15268,11 @@
         <v>468</v>
       </c>
       <c r="B105" s="73" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="C105" s="73"/>
       <c r="D105" s="89" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E105" s="73" t="s">
         <v>15</v>
@@ -15289,9 +15288,38 @@
       <c r="L105" s="117"/>
       <c r="M105" s="117"/>
       <c r="N105" s="129">
+        <v>103</v>
+      </c>
+      <c r="O105" s="94"/>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="73" t="s">
+        <v>468</v>
+      </c>
+      <c r="B106" s="73" t="s">
+        <v>466</v>
+      </c>
+      <c r="C106" s="73"/>
+      <c r="D106" s="89" t="s">
+        <v>467</v>
+      </c>
+      <c r="E106" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="F106" s="117">
+        <v>255</v>
+      </c>
+      <c r="G106" s="117"/>
+      <c r="H106" s="117"/>
+      <c r="I106" s="117"/>
+      <c r="J106" s="117"/>
+      <c r="K106" s="117"/>
+      <c r="L106" s="117"/>
+      <c r="M106" s="117"/>
+      <c r="N106" s="129">
         <v>104</v>
       </c>
-      <c r="O105" s="94"/>
+      <c r="O106" s="94"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="800" firstSheet="5" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1711" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1739" uniqueCount="708">
   <si>
     <t>status</t>
   </si>
@@ -2429,6 +2429,27 @@
   </si>
   <si>
     <t>uuid</t>
+  </si>
+  <si>
+    <t>/get-function-group</t>
+  </si>
+  <si>
+    <t>/create-function-group</t>
+  </si>
+  <si>
+    <t>/update-function-group</t>
+  </si>
+  <si>
+    <t>/get-menu-api</t>
+  </si>
+  <si>
+    <t>/create-menu-api</t>
+  </si>
+  <si>
+    <t>/update-menu-api</t>
+  </si>
+  <si>
+    <t>/get-function-granted</t>
   </si>
 </sst>
 </file>
@@ -2592,7 +2613,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2707,6 +2728,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="8">
     <border>
@@ -3634,7 +3661,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3986,6 +4013,25 @@
     <xf numFmtId="0" fontId="22" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="830">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -6112,13 +6158,13 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N82"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H69" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:XFD51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -7973,228 +8019,233 @@
       <c r="M51" s="73"/>
       <c r="N51" s="74"/>
     </row>
-    <row r="52" spans="1:14">
-      <c r="A52" s="84">
-        <v>101</v>
-      </c>
-      <c r="B52" s="84" t="s">
+    <row r="52" spans="1:14" s="151" customFormat="1">
+      <c r="A52" s="145">
+        <v>51</v>
+      </c>
+      <c r="B52" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="84" t="s">
+      <c r="C52" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D52" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E52" s="84" t="s">
-        <v>667</v>
-      </c>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84">
-        <v>1</v>
-      </c>
-      <c r="H52" s="84">
-        <v>1</v>
-      </c>
-      <c r="I52" s="86"/>
-      <c r="J52" s="84"/>
-      <c r="K52" s="84"/>
-      <c r="L52" s="86">
-        <v>1</v>
-      </c>
-      <c r="M52" s="86"/>
-    </row>
-    <row r="53" spans="1:14">
-      <c r="A53" s="84">
-        <v>102</v>
-      </c>
-      <c r="B53" s="84" t="s">
+      <c r="D52" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E52" s="147" t="s">
+        <v>701</v>
+      </c>
+      <c r="F52" s="145"/>
+      <c r="G52" s="145">
+        <v>1</v>
+      </c>
+      <c r="H52" s="145">
+        <v>1</v>
+      </c>
+      <c r="I52" s="148"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="149">
+        <v>1</v>
+      </c>
+      <c r="M52" s="148"/>
+      <c r="N52" s="150"/>
+    </row>
+    <row r="53" spans="1:14" s="151" customFormat="1">
+      <c r="A53" s="145">
+        <v>52</v>
+      </c>
+      <c r="B53" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="84" t="s">
+      <c r="C53" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D53" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E53" s="120" t="s">
-        <v>668</v>
-      </c>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84">
-        <v>1</v>
-      </c>
-      <c r="H53" s="84">
-        <v>1</v>
-      </c>
-      <c r="I53" s="86"/>
-      <c r="J53" s="84"/>
-      <c r="K53" s="84"/>
-      <c r="L53" s="86">
-        <v>1</v>
-      </c>
-      <c r="M53" s="86"/>
-    </row>
-    <row r="54" spans="1:14">
-      <c r="A54" s="84">
-        <v>103</v>
-      </c>
-      <c r="B54" s="84" t="s">
+      <c r="D53" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E53" s="147" t="s">
+        <v>702</v>
+      </c>
+      <c r="F53" s="145"/>
+      <c r="G53" s="145">
+        <v>1</v>
+      </c>
+      <c r="H53" s="145">
+        <v>1</v>
+      </c>
+      <c r="I53" s="148"/>
+      <c r="J53" s="145"/>
+      <c r="K53" s="145"/>
+      <c r="L53" s="149">
+        <v>1</v>
+      </c>
+      <c r="M53" s="148"/>
+      <c r="N53" s="150"/>
+    </row>
+    <row r="54" spans="1:14" s="151" customFormat="1">
+      <c r="A54" s="145">
+        <v>53</v>
+      </c>
+      <c r="B54" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="84" t="s">
+      <c r="C54" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D54" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E54" s="120" t="s">
-        <v>669</v>
-      </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84">
-        <v>1</v>
-      </c>
-      <c r="H54" s="84">
-        <v>1</v>
-      </c>
-      <c r="I54" s="86"/>
-      <c r="J54" s="84"/>
-      <c r="K54" s="84"/>
-      <c r="L54" s="86">
-        <v>1</v>
-      </c>
-      <c r="M54" s="86"/>
-    </row>
-    <row r="55" spans="1:14">
-      <c r="A55" s="84">
-        <v>104</v>
-      </c>
-      <c r="B55" s="84" t="s">
+      <c r="D54" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="147" t="s">
+        <v>703</v>
+      </c>
+      <c r="F54" s="145"/>
+      <c r="G54" s="145">
+        <v>1</v>
+      </c>
+      <c r="H54" s="145">
+        <v>1</v>
+      </c>
+      <c r="I54" s="148"/>
+      <c r="J54" s="145"/>
+      <c r="K54" s="145"/>
+      <c r="L54" s="149">
+        <v>1</v>
+      </c>
+      <c r="M54" s="148"/>
+      <c r="N54" s="150"/>
+    </row>
+    <row r="55" spans="1:14" s="151" customFormat="1">
+      <c r="A55" s="145">
+        <v>54</v>
+      </c>
+      <c r="B55" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="84" t="s">
+      <c r="C55" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D55" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E55" s="120" t="s">
-        <v>670</v>
-      </c>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84">
-        <v>1</v>
-      </c>
-      <c r="H55" s="84">
-        <v>1</v>
-      </c>
-      <c r="I55" s="86"/>
-      <c r="J55" s="84"/>
-      <c r="K55" s="84"/>
-      <c r="L55" s="86">
-        <v>1</v>
-      </c>
-      <c r="M55" s="86"/>
-    </row>
-    <row r="56" spans="1:14">
-      <c r="A56" s="84">
-        <v>105</v>
-      </c>
-      <c r="B56" s="84" t="s">
+      <c r="D55" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="147" t="s">
+        <v>704</v>
+      </c>
+      <c r="F55" s="145"/>
+      <c r="G55" s="145">
+        <v>1</v>
+      </c>
+      <c r="H55" s="145">
+        <v>1</v>
+      </c>
+      <c r="I55" s="148"/>
+      <c r="J55" s="145"/>
+      <c r="K55" s="145"/>
+      <c r="L55" s="149">
+        <v>1</v>
+      </c>
+      <c r="M55" s="148"/>
+      <c r="N55" s="150"/>
+    </row>
+    <row r="56" spans="1:14" s="151" customFormat="1">
+      <c r="A56" s="145">
+        <v>55</v>
+      </c>
+      <c r="B56" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="84" t="s">
+      <c r="C56" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D56" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E56" s="120" t="s">
-        <v>671</v>
-      </c>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84">
-        <v>1</v>
-      </c>
-      <c r="H56" s="84">
-        <v>1</v>
-      </c>
-      <c r="I56" s="86"/>
-      <c r="J56" s="84" t="s">
-        <v>672</v>
-      </c>
-      <c r="K56" s="84"/>
-      <c r="L56" s="86">
-        <v>1</v>
-      </c>
-      <c r="M56" s="86"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="84">
-        <v>106</v>
-      </c>
-      <c r="B57" s="84" t="s">
+      <c r="D56" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="147" t="s">
+        <v>705</v>
+      </c>
+      <c r="F56" s="145"/>
+      <c r="G56" s="145">
+        <v>1</v>
+      </c>
+      <c r="H56" s="145">
+        <v>1</v>
+      </c>
+      <c r="I56" s="148"/>
+      <c r="J56" s="145"/>
+      <c r="K56" s="145"/>
+      <c r="L56" s="149">
+        <v>1</v>
+      </c>
+      <c r="M56" s="148"/>
+      <c r="N56" s="150"/>
+    </row>
+    <row r="57" spans="1:14" s="151" customFormat="1">
+      <c r="A57" s="145">
+        <v>56</v>
+      </c>
+      <c r="B57" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D57" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E57" s="120" t="s">
-        <v>673</v>
-      </c>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84">
-        <v>1</v>
-      </c>
-      <c r="H57" s="84">
-        <v>1</v>
-      </c>
-      <c r="I57" s="86"/>
-      <c r="J57" s="84"/>
-      <c r="K57" s="84"/>
-      <c r="L57" s="86">
-        <v>1</v>
-      </c>
-      <c r="M57" s="86"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="84">
-        <v>107</v>
-      </c>
-      <c r="B58" s="84" t="s">
+      <c r="D57" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="147" t="s">
+        <v>706</v>
+      </c>
+      <c r="F57" s="145"/>
+      <c r="G57" s="145">
+        <v>1</v>
+      </c>
+      <c r="H57" s="145">
+        <v>1</v>
+      </c>
+      <c r="I57" s="148"/>
+      <c r="J57" s="145"/>
+      <c r="K57" s="145"/>
+      <c r="L57" s="149">
+        <v>1</v>
+      </c>
+      <c r="M57" s="148"/>
+      <c r="N57" s="150"/>
+    </row>
+    <row r="58" spans="1:14" s="151" customFormat="1">
+      <c r="A58" s="145">
+        <v>57</v>
+      </c>
+      <c r="B58" s="145" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="84" t="s">
+      <c r="C58" s="145" t="s">
         <v>643</v>
       </c>
-      <c r="D58" s="85" t="s">
-        <v>381</v>
-      </c>
-      <c r="E58" s="120" t="s">
-        <v>674</v>
-      </c>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84">
-        <v>1</v>
-      </c>
-      <c r="H58" s="84">
-        <v>1</v>
-      </c>
-      <c r="I58" s="86"/>
-      <c r="J58" s="84"/>
-      <c r="K58" s="84"/>
-      <c r="L58" s="86">
-        <v>1</v>
-      </c>
-      <c r="M58" s="86"/>
+      <c r="D58" s="146" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="147" t="s">
+        <v>707</v>
+      </c>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145">
+        <v>1</v>
+      </c>
+      <c r="H58" s="145">
+        <v>1</v>
+      </c>
+      <c r="I58" s="148"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="149">
+        <v>1</v>
+      </c>
+      <c r="M58" s="148"/>
+      <c r="N58" s="150"/>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="84">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B59" s="84" t="s">
         <v>22</v>
@@ -8205,8 +8256,8 @@
       <c r="D59" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="E59" s="120" t="s">
-        <v>675</v>
+      <c r="E59" s="84" t="s">
+        <v>667</v>
       </c>
       <c r="F59" s="84"/>
       <c r="G59" s="84">
@@ -8225,7 +8276,7 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="84">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B60" s="84" t="s">
         <v>22</v>
@@ -8237,7 +8288,7 @@
         <v>381</v>
       </c>
       <c r="E60" s="120" t="s">
-        <v>677</v>
+        <v>668</v>
       </c>
       <c r="F60" s="84"/>
       <c r="G60" s="84">
@@ -8247,9 +8298,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="86"/>
-      <c r="J60" s="84" t="s">
-        <v>676</v>
-      </c>
+      <c r="J60" s="84"/>
       <c r="K60" s="84"/>
       <c r="L60" s="86">
         <v>1</v>
@@ -8258,7 +8307,7 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="84">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B61" s="84" t="s">
         <v>22</v>
@@ -8270,7 +8319,7 @@
         <v>381</v>
       </c>
       <c r="E61" s="120" t="s">
-        <v>678</v>
+        <v>669</v>
       </c>
       <c r="F61" s="84"/>
       <c r="G61" s="84">
@@ -8289,7 +8338,7 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="84">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B62" s="84" t="s">
         <v>22</v>
@@ -8301,7 +8350,7 @@
         <v>381</v>
       </c>
       <c r="E62" s="120" t="s">
-        <v>681</v>
+        <v>670</v>
       </c>
       <c r="F62" s="84"/>
       <c r="G62" s="84">
@@ -8320,7 +8369,7 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="84">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B63" s="84" t="s">
         <v>22</v>
@@ -8332,7 +8381,7 @@
         <v>381</v>
       </c>
       <c r="E63" s="120" t="s">
-        <v>682</v>
+        <v>671</v>
       </c>
       <c r="F63" s="84"/>
       <c r="G63" s="84">
@@ -8342,7 +8391,9 @@
         <v>1</v>
       </c>
       <c r="I63" s="86"/>
-      <c r="J63" s="84"/>
+      <c r="J63" s="84" t="s">
+        <v>672</v>
+      </c>
       <c r="K63" s="84"/>
       <c r="L63" s="86">
         <v>1</v>
@@ -8351,7 +8402,7 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="84">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B64" s="84" t="s">
         <v>22</v>
@@ -8363,7 +8414,7 @@
         <v>381</v>
       </c>
       <c r="E64" s="120" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F64" s="84"/>
       <c r="G64" s="84">
@@ -8382,7 +8433,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="84">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B65" s="84" t="s">
         <v>22</v>
@@ -8394,7 +8445,7 @@
         <v>381</v>
       </c>
       <c r="E65" s="120" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="F65" s="84"/>
       <c r="G65" s="84">
@@ -8403,17 +8454,17 @@
       <c r="H65" s="84">
         <v>1</v>
       </c>
-      <c r="I65" s="4"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="84"/>
       <c r="K65" s="84"/>
       <c r="L65" s="86">
         <v>1</v>
       </c>
-      <c r="M65" s="4"/>
+      <c r="M65" s="86"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="84">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B66" s="84" t="s">
         <v>22</v>
@@ -8425,7 +8476,7 @@
         <v>381</v>
       </c>
       <c r="E66" s="120" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="F66" s="84"/>
       <c r="G66" s="84">
@@ -8434,17 +8485,17 @@
       <c r="H66" s="84">
         <v>1</v>
       </c>
-      <c r="I66" s="4"/>
+      <c r="I66" s="86"/>
       <c r="J66" s="84"/>
       <c r="K66" s="84"/>
       <c r="L66" s="86">
         <v>1</v>
       </c>
-      <c r="M66" s="4"/>
+      <c r="M66" s="86"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="84">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B67" s="84" t="s">
         <v>22</v>
@@ -8456,7 +8507,7 @@
         <v>381</v>
       </c>
       <c r="E67" s="120" t="s">
-        <v>688</v>
+        <v>677</v>
       </c>
       <c r="F67" s="84"/>
       <c r="G67" s="84">
@@ -8465,17 +8516,19 @@
       <c r="H67" s="84">
         <v>1</v>
       </c>
-      <c r="I67" s="4"/>
-      <c r="J67" s="84"/>
+      <c r="I67" s="86"/>
+      <c r="J67" s="84" t="s">
+        <v>676</v>
+      </c>
       <c r="K67" s="84"/>
       <c r="L67" s="86">
         <v>1</v>
       </c>
-      <c r="M67" s="4"/>
+      <c r="M67" s="86"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="84">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B68" s="84" t="s">
         <v>22</v>
@@ -8487,7 +8540,7 @@
         <v>381</v>
       </c>
       <c r="E68" s="120" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="F68" s="84"/>
       <c r="G68" s="84">
@@ -8496,17 +8549,17 @@
       <c r="H68" s="84">
         <v>1</v>
       </c>
-      <c r="I68" s="4"/>
+      <c r="I68" s="86"/>
       <c r="J68" s="84"/>
       <c r="K68" s="84"/>
       <c r="L68" s="86">
         <v>1</v>
       </c>
-      <c r="M68" s="4"/>
+      <c r="M68" s="86"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="84">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B69" s="84" t="s">
         <v>22</v>
@@ -8518,7 +8571,7 @@
         <v>381</v>
       </c>
       <c r="E69" s="120" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="F69" s="84"/>
       <c r="G69" s="84">
@@ -8527,17 +8580,17 @@
       <c r="H69" s="84">
         <v>1</v>
       </c>
-      <c r="I69" s="4"/>
+      <c r="I69" s="86"/>
       <c r="J69" s="84"/>
       <c r="K69" s="84"/>
       <c r="L69" s="86">
         <v>1</v>
       </c>
-      <c r="M69" s="4"/>
+      <c r="M69" s="86"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="84">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B70" s="84" t="s">
         <v>22</v>
@@ -8549,7 +8602,7 @@
         <v>381</v>
       </c>
       <c r="E70" s="120" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="F70" s="84"/>
       <c r="G70" s="84">
@@ -8558,17 +8611,17 @@
       <c r="H70" s="84">
         <v>1</v>
       </c>
-      <c r="I70" s="4"/>
+      <c r="I70" s="86"/>
       <c r="J70" s="84"/>
       <c r="K70" s="84"/>
       <c r="L70" s="86">
         <v>1</v>
       </c>
-      <c r="M70" s="4"/>
+      <c r="M70" s="86"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="84">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B71" s="84" t="s">
         <v>22</v>
@@ -8580,7 +8633,7 @@
         <v>381</v>
       </c>
       <c r="E71" s="120" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="F71" s="84"/>
       <c r="G71" s="84">
@@ -8589,17 +8642,17 @@
       <c r="H71" s="84">
         <v>1</v>
       </c>
-      <c r="I71" s="4"/>
+      <c r="I71" s="86"/>
       <c r="J71" s="84"/>
       <c r="K71" s="84"/>
       <c r="L71" s="86">
         <v>1</v>
       </c>
-      <c r="M71" s="4"/>
+      <c r="M71" s="86"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="84">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B72" s="84" t="s">
         <v>22</v>
@@ -8611,7 +8664,7 @@
         <v>381</v>
       </c>
       <c r="E72" s="120" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="F72" s="84"/>
       <c r="G72" s="84">
@@ -8630,7 +8683,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="84">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B73" s="84" t="s">
         <v>22</v>
@@ -8642,7 +8695,7 @@
         <v>381</v>
       </c>
       <c r="E73" s="120" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F73" s="84"/>
       <c r="G73" s="84">
@@ -8661,7 +8714,7 @@
     </row>
     <row r="74" spans="1:13">
       <c r="A74" s="84">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B74" s="84" t="s">
         <v>22</v>
@@ -8673,7 +8726,7 @@
         <v>381</v>
       </c>
       <c r="E74" s="120" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F74" s="84"/>
       <c r="G74" s="84">
@@ -8692,7 +8745,7 @@
     </row>
     <row r="75" spans="1:13">
       <c r="A75" s="84">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B75" s="84" t="s">
         <v>22</v>
@@ -8704,7 +8757,7 @@
         <v>381</v>
       </c>
       <c r="E75" s="120" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="F75" s="84"/>
       <c r="G75" s="84">
@@ -8723,7 +8776,7 @@
     </row>
     <row r="76" spans="1:13">
       <c r="A76" s="84">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B76" s="84" t="s">
         <v>22</v>
@@ -8735,7 +8788,7 @@
         <v>381</v>
       </c>
       <c r="E76" s="120" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F76" s="84"/>
       <c r="G76" s="84">
@@ -8754,7 +8807,7 @@
     </row>
     <row r="77" spans="1:13">
       <c r="A77" s="84">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="B77" s="84" t="s">
         <v>22</v>
@@ -8766,7 +8819,7 @@
         <v>381</v>
       </c>
       <c r="E77" s="120" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
       <c r="F77" s="84"/>
       <c r="G77" s="84">
@@ -8785,7 +8838,7 @@
     </row>
     <row r="78" spans="1:13">
       <c r="A78" s="84">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="B78" s="84" t="s">
         <v>22</v>
@@ -8797,7 +8850,7 @@
         <v>381</v>
       </c>
       <c r="E78" s="120" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="F78" s="84"/>
       <c r="G78" s="84">
@@ -8816,7 +8869,7 @@
     </row>
     <row r="79" spans="1:13">
       <c r="A79" s="84">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B79" s="84" t="s">
         <v>22</v>
@@ -8828,7 +8881,7 @@
         <v>381</v>
       </c>
       <c r="E79" s="120" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="F79" s="84"/>
       <c r="G79" s="84">
@@ -8847,7 +8900,7 @@
     </row>
     <row r="80" spans="1:13">
       <c r="A80" s="84">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B80" s="84" t="s">
         <v>22</v>
@@ -8859,7 +8912,7 @@
         <v>381</v>
       </c>
       <c r="E80" s="120" t="s">
-        <v>698</v>
+        <v>687</v>
       </c>
       <c r="F80" s="84"/>
       <c r="G80" s="84">
@@ -8878,7 +8931,7 @@
     </row>
     <row r="81" spans="1:13">
       <c r="A81" s="84">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B81" s="84" t="s">
         <v>22</v>
@@ -8890,7 +8943,7 @@
         <v>381</v>
       </c>
       <c r="E81" s="120" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F81" s="84"/>
       <c r="G81" s="84">
@@ -8909,7 +8962,7 @@
     </row>
     <row r="82" spans="1:13">
       <c r="A82" s="84">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B82" s="84" t="s">
         <v>22</v>
@@ -8921,7 +8974,7 @@
         <v>381</v>
       </c>
       <c r="E82" s="120" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F82" s="84"/>
       <c r="G82" s="84">
@@ -8937,6 +8990,223 @@
         <v>1</v>
       </c>
       <c r="M82" s="4"/>
+    </row>
+    <row r="83" spans="1:13">
+      <c r="A83" s="84">
+        <v>125</v>
+      </c>
+      <c r="B83" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D83" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E83" s="120" t="s">
+        <v>693</v>
+      </c>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84">
+        <v>1</v>
+      </c>
+      <c r="H83" s="84">
+        <v>1</v>
+      </c>
+      <c r="I83" s="4"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="86">
+        <v>1</v>
+      </c>
+      <c r="M83" s="4"/>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="84">
+        <v>126</v>
+      </c>
+      <c r="B84" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D84" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E84" s="120" t="s">
+        <v>699</v>
+      </c>
+      <c r="F84" s="84"/>
+      <c r="G84" s="84">
+        <v>1</v>
+      </c>
+      <c r="H84" s="84">
+        <v>1</v>
+      </c>
+      <c r="I84" s="4"/>
+      <c r="J84" s="84"/>
+      <c r="K84" s="84"/>
+      <c r="L84" s="86">
+        <v>1</v>
+      </c>
+      <c r="M84" s="4"/>
+    </row>
+    <row r="85" spans="1:13">
+      <c r="A85" s="84">
+        <v>127</v>
+      </c>
+      <c r="B85" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D85" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E85" s="120" t="s">
+        <v>694</v>
+      </c>
+      <c r="F85" s="84"/>
+      <c r="G85" s="84">
+        <v>1</v>
+      </c>
+      <c r="H85" s="84">
+        <v>1</v>
+      </c>
+      <c r="I85" s="4"/>
+      <c r="J85" s="84"/>
+      <c r="K85" s="84"/>
+      <c r="L85" s="86">
+        <v>1</v>
+      </c>
+      <c r="M85" s="4"/>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="84">
+        <v>128</v>
+      </c>
+      <c r="B86" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D86" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E86" s="120" t="s">
+        <v>695</v>
+      </c>
+      <c r="F86" s="84"/>
+      <c r="G86" s="84">
+        <v>1</v>
+      </c>
+      <c r="H86" s="84">
+        <v>1</v>
+      </c>
+      <c r="I86" s="4"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="84"/>
+      <c r="L86" s="86">
+        <v>1</v>
+      </c>
+      <c r="M86" s="4"/>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="84">
+        <v>129</v>
+      </c>
+      <c r="B87" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D87" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E87" s="120" t="s">
+        <v>698</v>
+      </c>
+      <c r="F87" s="84"/>
+      <c r="G87" s="84">
+        <v>1</v>
+      </c>
+      <c r="H87" s="84">
+        <v>1</v>
+      </c>
+      <c r="I87" s="4"/>
+      <c r="J87" s="84"/>
+      <c r="K87" s="84"/>
+      <c r="L87" s="86">
+        <v>1</v>
+      </c>
+      <c r="M87" s="4"/>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="84">
+        <v>130</v>
+      </c>
+      <c r="B88" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D88" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E88" s="120" t="s">
+        <v>696</v>
+      </c>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84">
+        <v>1</v>
+      </c>
+      <c r="H88" s="84">
+        <v>1</v>
+      </c>
+      <c r="I88" s="4"/>
+      <c r="J88" s="84"/>
+      <c r="K88" s="84"/>
+      <c r="L88" s="86">
+        <v>1</v>
+      </c>
+      <c r="M88" s="4"/>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="84">
+        <v>131</v>
+      </c>
+      <c r="B89" s="84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89" s="84" t="s">
+        <v>643</v>
+      </c>
+      <c r="D89" s="85" t="s">
+        <v>381</v>
+      </c>
+      <c r="E89" s="120" t="s">
+        <v>697</v>
+      </c>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84">
+        <v>1</v>
+      </c>
+      <c r="H89" s="84">
+        <v>1</v>
+      </c>
+      <c r="I89" s="4"/>
+      <c r="J89" s="84"/>
+      <c r="K89" s="84"/>
+      <c r="L89" s="86">
+        <v>1</v>
+      </c>
+      <c r="M89" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16"/>
@@ -8958,7 +9228,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B14"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -11910,7 +12180,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -12072,8 +12342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F61" sqref="F61"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90A5E6-DDF6-FB4C-9BD4-B9B1032B630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E298DE-9DC0-F54B-815E-4436FD306413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -4743,8 +4743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5232,8 +5232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5245,7 +5245,7 @@
     <col min="5" max="5" width="22.83203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5361,7 +5361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5405,7 +5405,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5809,7 +5809,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
@@ -9223,7 +9223,7 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D7" sqref="D7"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E298DE-9DC0-F54B-815E-4436FD306413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8233836-81E7-1041-A6D8-9F1BEED0725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="516">
   <si>
     <t>status</t>
   </si>
@@ -4741,10 +4741,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4757,13 +4757,12 @@
     <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="62.5" style="85" customWidth="1"/>
     <col min="8" max="8" width="55" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="85" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="85" customWidth="1"/>
-    <col min="11" max="11" width="65" style="85" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="85"/>
+    <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="65" style="85" customWidth="1"/>
+    <col min="11" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -4789,19 +4788,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -4822,14 +4827,16 @@
       <c r="H2" s="90" t="s">
         <v>500</v>
       </c>
-      <c r="I2" s="90">
-        <v>1</v>
-      </c>
+      <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="90"/>
+      <c r="N2" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -4850,14 +4857,16 @@
       <c r="H3" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="I3" s="86">
-        <v>1</v>
-      </c>
+      <c r="I3" s="86"/>
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="86"/>
+      <c r="N3" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -4878,14 +4887,16 @@
       <c r="H4" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="86">
-        <v>1</v>
-      </c>
+      <c r="I4" s="86"/>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="86"/>
+      <c r="N4" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -4906,14 +4917,16 @@
       <c r="H5" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="86">
-        <v>1</v>
-      </c>
+      <c r="I5" s="86"/>
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="86"/>
+      <c r="N5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -4934,14 +4947,16 @@
       <c r="H6" s="86" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="86">
-        <v>1</v>
-      </c>
+      <c r="I6" s="86"/>
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="86"/>
+      <c r="N6" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -4962,14 +4977,16 @@
       <c r="H7" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="I7" s="86">
-        <v>1</v>
-      </c>
+      <c r="I7" s="86"/>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="86"/>
+      <c r="N7" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -4990,14 +5007,16 @@
       <c r="H8" s="86" t="s">
         <v>407</v>
       </c>
-      <c r="I8" s="86">
-        <v>1</v>
-      </c>
+      <c r="I8" s="86"/>
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="86"/>
+      <c r="N8" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -5016,14 +5035,16 @@
         <v>492</v>
       </c>
       <c r="H9" s="90"/>
-      <c r="I9" s="90">
-        <v>1</v>
-      </c>
+      <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5044,14 +5065,16 @@
       <c r="H10" s="86" t="s">
         <v>474</v>
       </c>
-      <c r="I10" s="86">
-        <v>1</v>
-      </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="88"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="86"/>
+      <c r="N10" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5072,14 +5095,16 @@
       <c r="H11" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="I11" s="86">
-        <v>1</v>
-      </c>
+      <c r="I11" s="86"/>
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="86"/>
+      <c r="N11" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5100,14 +5125,16 @@
       <c r="H12" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="I12" s="86">
-        <v>1</v>
-      </c>
+      <c r="I12" s="86"/>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="86"/>
+      <c r="N12" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5128,14 +5155,16 @@
       <c r="H13" s="86" t="s">
         <v>477</v>
       </c>
-      <c r="I13" s="86">
-        <v>1</v>
-      </c>
+      <c r="I13" s="86"/>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="86"/>
+      <c r="N13" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
@@ -5154,14 +5183,16 @@
         <v>499</v>
       </c>
       <c r="H14" s="90"/>
-      <c r="I14" s="90">
-        <v>1</v>
-      </c>
+      <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="90"/>
+      <c r="N14" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5182,14 +5213,16 @@
       <c r="H15" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="I15" s="86">
-        <v>1</v>
-      </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="88"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5210,12 +5243,14 @@
       <c r="H16" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="I16" s="90">
-        <v>1</v>
-      </c>
+      <c r="I16" s="90"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5232,7 +5267,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -5404,19 +5439,18 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5432,16 +5466,16 @@
         <v>245</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>45</v>
@@ -5477,7 +5511,7 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -5497,7 +5531,7 @@
       <c r="C4" t="s">
         <v>358</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -5517,7 +5551,7 @@
       <c r="C5" t="s">
         <v>356</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -5537,7 +5571,7 @@
       <c r="C6" t="s">
         <v>356</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -5557,7 +5591,7 @@
       <c r="C7" t="s">
         <v>359</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -5577,7 +5611,7 @@
       <c r="C8" t="s">
         <v>360</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -5597,7 +5631,7 @@
       <c r="C9" t="s">
         <v>361</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -5617,7 +5651,7 @@
       <c r="C10" t="s">
         <v>362</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -5637,7 +5671,7 @@
       <c r="C11" t="s">
         <v>364</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -5657,7 +5691,7 @@
       <c r="C12" t="s">
         <v>363</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -5677,7 +5711,7 @@
       <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -5697,7 +5731,7 @@
       <c r="C14" t="s">
         <v>366</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -5717,7 +5751,7 @@
       <c r="C15" t="s">
         <v>367</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -5737,7 +5771,7 @@
       <c r="C16" t="s">
         <v>368</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -5757,7 +5791,7 @@
       <c r="C17" t="s">
         <v>369</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
@@ -5777,7 +5811,7 @@
       <c r="C18" t="s">
         <v>370</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -9223,10 +9257,10 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="B49" sqref="B49:B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8233836-81E7-1041-A6D8-9F1BEED0725C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11526D7-5662-0144-8C6D-4DB2F25AD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -5439,7 +5439,7 @@
   </sheetPr>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -11178,11 +11178,11 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12966,7 +12966,7 @@
         <v>299</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>345</v>
@@ -12997,7 +12997,7 @@
         <v>299</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>343</v>
@@ -13028,7 +13028,7 @@
         <v>299</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E56" s="49" t="s">
         <v>344</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11526D7-5662-0144-8C6D-4DB2F25AD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90A751-E1F6-5A40-9D1E-D725533530B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="518">
   <si>
     <t>status</t>
   </si>
@@ -1878,12 +1878,18 @@
   <si>
     <t>ion-timer-outline</t>
   </si>
+  <si>
+    <t>Nhóm quản lý chỉ đạo lãnh đạo (chính)</t>
+  </si>
+  <si>
+    <t>Nhóm chức năng báo cáo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,8 +2020,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2115,6 +2128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,10 +3283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4655,7 +4674,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4743,8 +4762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4755,11 +4774,13 @@
     <col min="4" max="4" width="19.33203125" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="89" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="55" style="85" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.83203125" style="85" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
-    <col min="10" max="10" width="65" style="85" customWidth="1"/>
-    <col min="11" max="16384" width="11.5" style="85"/>
+    <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="85"/>
+    <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -5034,7 +5055,9 @@
       <c r="G9" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="90"/>
+      <c r="H9" s="90" t="s">
+        <v>516</v>
+      </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
@@ -5182,7 +5205,9 @@
       <c r="G14" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="H14" s="90"/>
+      <c r="H14" s="90" t="s">
+        <v>517</v>
+      </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
@@ -5268,7 +5293,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5277,7 +5302,7 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.83203125" customWidth="1"/>
@@ -5828,12 +5853,32 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC6DBE-9909-F047-9350-C064ACCA54DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9257,10 +9302,10 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B49" sqref="B49:B57"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11178,8 +11223,8 @@
   </sheetPr>
   <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K42" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E55" sqref="E55"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E90A5E6-DDF6-FB4C-9BD4-B9B1032B630E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90A751-E1F6-5A40-9D1E-D725533530B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16480" tabRatio="800" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="518">
   <si>
     <t>status</t>
   </si>
@@ -1878,12 +1878,18 @@
   <si>
     <t>ion-timer-outline</t>
   </si>
+  <si>
+    <t>Nhóm quản lý chỉ đạo lãnh đạo (chính)</t>
+  </si>
+  <si>
+    <t>Nhóm chức năng báo cáo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2014,8 +2020,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2115,6 +2128,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3264,10 +3283,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4655,7 +4674,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4741,10 +4760,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4755,15 +4774,16 @@
     <col min="4" max="4" width="19.33203125" style="85" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.1640625" style="89" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.5" style="85" customWidth="1"/>
-    <col min="8" max="8" width="55" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" style="85" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="85" customWidth="1"/>
-    <col min="11" max="11" width="65" style="85" customWidth="1"/>
-    <col min="12" max="16384" width="11.5" style="85"/>
+    <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.83203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="85"/>
+    <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -4789,19 +4809,25 @@
         <v>4</v>
       </c>
       <c r="I1" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>160</v>
+      </c>
+      <c r="K1" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="L1" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="84" t="s">
-        <v>153</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="L1" s="84" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -4822,14 +4848,16 @@
       <c r="H2" s="90" t="s">
         <v>500</v>
       </c>
-      <c r="I2" s="90">
-        <v>1</v>
-      </c>
+      <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2" s="90"/>
+      <c r="N2" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -4850,14 +4878,16 @@
       <c r="H3" s="86" t="s">
         <v>396</v>
       </c>
-      <c r="I3" s="86">
-        <v>1</v>
-      </c>
+      <c r="I3" s="86"/>
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3" s="86"/>
+      <c r="N3" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -4878,14 +4908,16 @@
       <c r="H4" s="86" t="s">
         <v>397</v>
       </c>
-      <c r="I4" s="86">
-        <v>1</v>
-      </c>
+      <c r="I4" s="86"/>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4" s="86"/>
+      <c r="N4" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -4906,14 +4938,16 @@
       <c r="H5" s="86" t="s">
         <v>398</v>
       </c>
-      <c r="I5" s="86">
-        <v>1</v>
-      </c>
+      <c r="I5" s="86"/>
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="86"/>
+      <c r="N5" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -4934,14 +4968,16 @@
       <c r="H6" s="86" t="s">
         <v>400</v>
       </c>
-      <c r="I6" s="86">
-        <v>1</v>
-      </c>
+      <c r="I6" s="86"/>
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6" s="86"/>
+      <c r="N6" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -4962,14 +4998,16 @@
       <c r="H7" s="86" t="s">
         <v>402</v>
       </c>
-      <c r="I7" s="86">
-        <v>1</v>
-      </c>
+      <c r="I7" s="86"/>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="86"/>
+      <c r="N7" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -4990,14 +5028,16 @@
       <c r="H8" s="86" t="s">
         <v>407</v>
       </c>
-      <c r="I8" s="86">
-        <v>1</v>
-      </c>
+      <c r="I8" s="86"/>
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="86"/>
+      <c r="N8" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -5015,15 +5055,19 @@
       <c r="G9" s="91" t="s">
         <v>492</v>
       </c>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90">
-        <v>1</v>
-      </c>
+      <c r="H9" s="90" t="s">
+        <v>516</v>
+      </c>
+      <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="90"/>
+      <c r="N9" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5044,14 +5088,16 @@
       <c r="H10" s="86" t="s">
         <v>474</v>
       </c>
-      <c r="I10" s="86">
-        <v>1</v>
-      </c>
-      <c r="J10" s="86"/>
-      <c r="K10" s="88"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="86"/>
+      <c r="N10" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5072,14 +5118,16 @@
       <c r="H11" s="86" t="s">
         <v>475</v>
       </c>
-      <c r="I11" s="86">
-        <v>1</v>
-      </c>
+      <c r="I11" s="86"/>
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="86"/>
+      <c r="N11" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5100,14 +5148,16 @@
       <c r="H12" s="86" t="s">
         <v>476</v>
       </c>
-      <c r="I12" s="86">
-        <v>1</v>
-      </c>
+      <c r="I12" s="86"/>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="86"/>
+      <c r="N12" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5128,14 +5178,16 @@
       <c r="H13" s="86" t="s">
         <v>477</v>
       </c>
-      <c r="I13" s="86">
-        <v>1</v>
-      </c>
+      <c r="I13" s="86"/>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="86"/>
+      <c r="N13" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
@@ -5153,15 +5205,19 @@
       <c r="G14" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90">
-        <v>1</v>
-      </c>
+      <c r="H14" s="90" t="s">
+        <v>517</v>
+      </c>
+      <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="90"/>
+      <c r="N14" s="90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5182,14 +5238,16 @@
       <c r="H15" s="86" t="s">
         <v>482</v>
       </c>
-      <c r="I15" s="86">
-        <v>1</v>
-      </c>
-      <c r="J15" s="86"/>
-      <c r="K15" s="88"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="86"/>
+      <c r="N15" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5210,12 +5268,14 @@
       <c r="H16" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="I16" s="90">
-        <v>1</v>
-      </c>
+      <c r="I16" s="90"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5233,7 +5293,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5242,10 +5302,10 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -5286,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5311,7 +5371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5336,7 +5396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5361,7 +5421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5405,18 +5465,17 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -5432,16 +5491,16 @@
         <v>245</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>206</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>181</v>
       </c>
       <c r="H1" s="40" t="s">
         <v>45</v>
@@ -5477,7 +5536,7 @@
       <c r="C3" t="s">
         <v>357</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
@@ -5497,7 +5556,7 @@
       <c r="C4" t="s">
         <v>358</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
@@ -5517,7 +5576,7 @@
       <c r="C5" t="s">
         <v>356</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
@@ -5537,7 +5596,7 @@
       <c r="C6" t="s">
         <v>356</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
@@ -5557,7 +5616,7 @@
       <c r="C7" t="s">
         <v>359</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
@@ -5577,7 +5636,7 @@
       <c r="C8" t="s">
         <v>360</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
@@ -5597,7 +5656,7 @@
       <c r="C9" t="s">
         <v>361</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
@@ -5617,7 +5676,7 @@
       <c r="C10" t="s">
         <v>362</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
@@ -5637,7 +5696,7 @@
       <c r="C11" t="s">
         <v>364</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
@@ -5657,7 +5716,7 @@
       <c r="C12" t="s">
         <v>363</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
@@ -5677,7 +5736,7 @@
       <c r="C13" t="s">
         <v>365</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
@@ -5697,7 +5756,7 @@
       <c r="C14" t="s">
         <v>366</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
@@ -5717,7 +5776,7 @@
       <c r="C15" t="s">
         <v>367</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
@@ -5737,7 +5796,7 @@
       <c r="C16" t="s">
         <v>368</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
@@ -5757,7 +5816,7 @@
       <c r="C17" t="s">
         <v>369</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
@@ -5777,7 +5836,7 @@
       <c r="C18" t="s">
         <v>370</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
@@ -5794,12 +5853,32 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC6DBE-9909-F047-9350-C064ACCA54DE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="4" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="67" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>379</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5809,7 +5888,7 @@
   <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
@@ -9223,10 +9302,10 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11145,10 +11224,10 @@
   <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K57" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12932,7 +13011,7 @@
         <v>299</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E54" s="49" t="s">
         <v>345</v>
@@ -12963,7 +13042,7 @@
         <v>299</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E55" s="49" t="s">
         <v>343</v>
@@ -12994,7 +13073,7 @@
         <v>299</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>169</v>
+        <v>53</v>
       </c>
       <c r="E56" s="49" t="s">
         <v>344</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF90A751-E1F6-5A40-9D1E-D725533530B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17287AD5-4D99-C048-8F78-D569C5797F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" firstSheet="1" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="583">
   <si>
     <t>status</t>
   </si>
@@ -985,15 +985,9 @@
     <t>Mô tả chi tiết hơn cho danh mục này (để làm gì cập nhập khi nào, thế nào?)</t>
   </si>
   <si>
-    <t>Mô tả cụ thể của trạng thái này (Dùng cho mục đích gì, khi nào)</t>
-  </si>
-  <si>
     <t>Id</t>
   </si>
   <si>
-    <t>Mô Tả</t>
-  </si>
-  <si>
     <t>Trạng Thái</t>
   </si>
   <si>
@@ -1106,9 +1100,6 @@
   </si>
   <si>
     <t>Tên danh mục (ví dụ DIRECT Thì có CHỈ ĐẠO THƯỜNG XUYÊN | CHỈ ĐẠO LÂU LÂU MỚI CHỈ ĐẠO)</t>
-  </si>
-  <si>
-    <t>Mã ID</t>
   </si>
   <si>
     <t>Đơn Vị Thực Hiện</t>
@@ -1216,9 +1207,6 @@
     </r>
   </si>
   <si>
-    <t>Trạng Thái Xử Lý</t>
-  </si>
-  <si>
     <t>Người Tạo Xử Lý</t>
   </si>
   <si>
@@ -1246,9 +1234,6 @@
     <t>Loại Cập Nhập</t>
   </si>
   <si>
-    <t>Lý do cập nhập history này (CẬP NHẬP THỰC HIỆN, ĐÁNH GIÁ TIẾN ĐỘ, ĐÁNH GIÁ CHẬM TIẾN ĐỘ) - lấy từ danh mục categories (code DIRECT_EXEC)</t>
-  </si>
-  <si>
     <t>{cat_id: 1, name: "Báo Cáo Thực Hiện"}</t>
   </si>
   <si>
@@ -1258,9 +1243,6 @@
     <t>Vai Trò của đơn vị đó (là NGƯỜI ĐÁNH GIÁ hay NGƯỜI THỰC HIỆN) -&gt; lấy từ bảng categories -&gt; ORGANIZATION</t>
   </si>
   <si>
-    <t>Lấy từ bảng categories -&gt; Mã Trạng Thái Là Gì (ĐANG THỰC HIỆN - HOÀN THÀNH 100% - HOÀN THÀNH 80% - KHÁC)</t>
-  </si>
-  <si>
     <t>Mã cho danh mục này (Vd danh mục này dùng cho HISTORY, DIRECT, MEETING, DIRECT_ORG hay ATTACHMENT hay STATUS)</t>
   </si>
   <si>
@@ -1324,18 +1306,6 @@
     <t>/update-direct-exe</t>
   </si>
   <si>
-    <t>/get-statuses</t>
-  </si>
-  <si>
-    <t>/get-status-by-cat-id</t>
-  </si>
-  <si>
-    <t>/create-status</t>
-  </si>
-  <si>
-    <t>/update-status</t>
-  </si>
-  <si>
     <t>/get-category</t>
   </si>
   <si>
@@ -1345,33 +1315,6 @@
     <t>/update-category</t>
   </si>
   <si>
-    <t>/get-users</t>
-  </si>
-  <si>
-    <t>/create-user</t>
-  </si>
-  <si>
-    <t>/update-user</t>
-  </si>
-  <si>
-    <t>/create-menu</t>
-  </si>
-  <si>
-    <t>/update-menu</t>
-  </si>
-  <si>
-    <t>/create-organization</t>
-  </si>
-  <si>
-    <t>/update-organization</t>
-  </si>
-  <si>
-    <t>/get-organizations</t>
-  </si>
-  <si>
-    <t>/get-menus</t>
-  </si>
-  <si>
     <t>uuid</t>
   </si>
   <si>
@@ -1576,12 +1519,6 @@
     <t>Danh mục cha chứa các thông itn trạng thái của chỉ đạo lãnh đạo</t>
   </si>
   <si>
-    <t>EXT1</t>
-  </si>
-  <si>
-    <t>EXT2</t>
-  </si>
-  <si>
     <t>Gia Hạn Lần 1</t>
   </si>
   <si>
@@ -1642,27 +1579,15 @@
     <t>ID của phân loại cấp cha của phân loại này (nếu có)</t>
   </si>
   <si>
-    <t>DIRECT_TYPE</t>
-  </si>
-  <si>
     <t>Loại chỉ đạo</t>
   </si>
   <si>
     <t>Danh mục phân loại chỉ đạo (chỉ đạo tuần, tháng, năm)</t>
   </si>
   <si>
-    <t>MONTH</t>
-  </si>
-  <si>
-    <t>YEAR</t>
-  </si>
-  <si>
     <t>Chỉ đạo tuần</t>
   </si>
   <si>
-    <t>WEEK</t>
-  </si>
-  <si>
     <t>Chỉ đạo tháng</t>
   </si>
   <si>
@@ -1678,15 +1603,6 @@
     <t>Chỉ đạo này thực hiện hàng năm</t>
   </si>
   <si>
-    <t>1WEEK</t>
-  </si>
-  <si>
-    <t>1MONTH</t>
-  </si>
-  <si>
-    <t>1YEAR</t>
-  </si>
-  <si>
     <t>Chỉ đạo chỉ thực hiện 1 lần trong tuần</t>
   </si>
   <si>
@@ -1696,9 +1612,6 @@
     <t>Chỉ đạo chỉ thực hiện 1 lần trong năm</t>
   </si>
   <si>
-    <t>MEETING_TYPE</t>
-  </si>
-  <si>
     <t>Loại cuộc họp</t>
   </si>
   <si>
@@ -1852,9 +1765,6 @@
     <t>[2,21,22,23,24,3,31,4]</t>
   </si>
   <si>
-    <t>menu_granted</t>
-  </si>
-  <si>
     <t>Chứa mảng id của các menu được phân quyền. Menus được phân cho group nên nếu muốn phân thêm menu riêng thì add vào đây</t>
   </si>
   <si>
@@ -1883,13 +1793,298 @@
   </si>
   <si>
     <t>Nhóm chức năng báo cáo</t>
+  </si>
+  <si>
+    <t>Lãnh Đạo Chỉ Đạo</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>Chuỗi chứa thông tin lãnh đạo chỉ đạo nội dung này</t>
+  </si>
+  <si>
+    <t>expired_date</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Deadline cho chỉ đạo này (do người đánh giá cập nhập)</t>
+  </si>
+  <si>
+    <t>percent_complete</t>
+  </si>
+  <si>
+    <t>Phần trăm hoàn thành</t>
+  </si>
+  <si>
+    <t>Tỷ lệ hoàn thành (dùng cập nhập khi trạng thái hoàn thành là %)</t>
+  </si>
+  <si>
+    <t>Lý do cập nhập cho history này (CẬP NHẬP THỰC HIỆN, ĐÁNH GIÁ TIẾN ĐỘ, ĐÁNH GIÁ CHẬM TIẾN ĐỘ) - lấy từ danh mục categories (code DIRECT_EXEC)</t>
+  </si>
+  <si>
+    <t>Trạng Thái Lịch Sử Này</t>
+  </si>
+  <si>
+    <t>Thời gian update history này</t>
+  </si>
+  <si>
+    <t>Trạng thái của chỉ đạo này (đang thực hiện, hoàn thành %, hoàn thành)</t>
+  </si>
+  <si>
+    <t>EXEC_TYPES</t>
+  </si>
+  <si>
+    <t>Loại lịch sử tác động</t>
+  </si>
+  <si>
+    <t>UPDATE_DEADLINE</t>
+  </si>
+  <si>
+    <t>Người đánh giá cập nhập hạn hoàn thành cho chỉ đạo</t>
+  </si>
+  <si>
+    <t>UPDATE_ASS_CRITERIA</t>
+  </si>
+  <si>
+    <t>Người đánh giá cập nhập chỉ số đánh giá</t>
+  </si>
+  <si>
+    <t>UPDATE_EXE_STATUS</t>
+  </si>
+  <si>
+    <t>Người thực hiện cập nhập trạng thái thực hiện</t>
+  </si>
+  <si>
+    <t>Cập nhập deadline</t>
+  </si>
+  <si>
+    <t>Cập nhập chỉ số</t>
+  </si>
+  <si>
+    <t>Cập nhập thực hiện</t>
+  </si>
+  <si>
+    <t>REQ_EXT1</t>
+  </si>
+  <si>
+    <t>Xin Gia Hạn Lần 1</t>
+  </si>
+  <si>
+    <t>Người thực hiện xin gia hạn lần 1</t>
+  </si>
+  <si>
+    <t>REQ_EXT2</t>
+  </si>
+  <si>
+    <t>Xin Gia Hạn Lần 2</t>
+  </si>
+  <si>
+    <t>Người thực hiện xin gia hạn lần 2</t>
+  </si>
+  <si>
+    <t>ACCEPT_EXT1</t>
+  </si>
+  <si>
+    <t>Đồng ý GH Lần 1</t>
+  </si>
+  <si>
+    <t>Người đánh giá đồng ý gia hạn lần 1</t>
+  </si>
+  <si>
+    <t>Người đánh giá đồng ý gia hạn lần 2</t>
+  </si>
+  <si>
+    <t>Đồng ý GH Lần 2</t>
+  </si>
+  <si>
+    <t>ACCEPT_EXT2</t>
+  </si>
+  <si>
+    <t>DIRECT_TYPES</t>
+  </si>
+  <si>
+    <t>MEETING_TYPES</t>
+  </si>
+  <si>
+    <t>UPDATE_CMPLT_PRCT</t>
+  </si>
+  <si>
+    <t>UPDATE_CMPLT</t>
+  </si>
+  <si>
+    <t>Hoàn Thành %</t>
+  </si>
+  <si>
+    <t>Người thực hiện cập nhập % hoàn thành</t>
+  </si>
+  <si>
+    <t>Người thực hiện cậpnhập hoàn thành toàn bộ</t>
+  </si>
+  <si>
+    <t>Chỉ Hoạt Động hay Ko Hoạt Động</t>
+  </si>
+  <si>
+    <t>ASS_EXE</t>
+  </si>
+  <si>
+    <t>delay_reason</t>
+  </si>
+  <si>
+    <t>Lý Do Chậm Trễ</t>
+  </si>
+  <si>
+    <t>Đơn vị thực hiện cậpnhập lý do chậm tiến độ vào trường này</t>
+  </si>
+  <si>
+    <t>leader_opinion</t>
+  </si>
+  <si>
+    <t>Ý Kiến Lãnh Đạo</t>
+  </si>
+  <si>
+    <t>P.TH nhập ý kiến của lãnh đạo vào cột này</t>
+  </si>
+  <si>
+    <t>UPDATE_DELAY_REASON</t>
+  </si>
+  <si>
+    <t>Nhập Lý do chậm tiến độ</t>
+  </si>
+  <si>
+    <t>Người thực hiện nhập lý do thực hiện chậm tiến độ</t>
+  </si>
+  <si>
+    <t>UPDATE_LEADER_OPINION</t>
+  </si>
+  <si>
+    <t>Nhập Ý Kiến Lãnh Đạo</t>
+  </si>
+  <si>
+    <t>P.TH nhập ý kiến của lãnh đạo</t>
+  </si>
+  <si>
+    <t>DT_WEEK</t>
+  </si>
+  <si>
+    <t>DT_MONTH</t>
+  </si>
+  <si>
+    <t>DT_YEAR</t>
+  </si>
+  <si>
+    <t>DT_1WEEK</t>
+  </si>
+  <si>
+    <t>DT_1MONTH</t>
+  </si>
+  <si>
+    <t>DT_1YEAR</t>
+  </si>
+  <si>
+    <t>CMPLT_PERCENT</t>
+  </si>
+  <si>
+    <t>Hoàn thành 1 phần</t>
+  </si>
+  <si>
+    <t>ASS_EXE_CMPLT</t>
+  </si>
+  <si>
+    <t>Đánh Giá Hoàn Thành Thực Hiện</t>
+  </si>
+  <si>
+    <t>Người đánh giá đánh giá hoàn thành thực hiện cho đơn vị thực hiện</t>
+  </si>
+  <si>
+    <t>Đánh giá thực hiện</t>
+  </si>
+  <si>
+    <t>Người đánh giá đánh giá thực hiện cho đơn vị thực hiện</t>
+  </si>
+  <si>
+    <t>Mã uuid</t>
+  </si>
+  <si>
+    <t>Mã uuid dùng để chủ động tạo id</t>
+  </si>
+  <si>
+    <t>Tài Khoản Tạo</t>
+  </si>
+  <si>
+    <t>Tài Khoản Cập Nhập</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Mô Tả</t>
+  </si>
+  <si>
+    <t>CREATE_DIRECT</t>
+  </si>
+  <si>
+    <t>Tạo mới chỉ đạo</t>
+  </si>
+  <si>
+    <t>P.TH nhập chỉ đạo lãnh đạo lên hệ thống</t>
+  </si>
+  <si>
+    <t>direct_loops</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>Tần Suất Lặp</t>
+  </si>
+  <si>
+    <t>Dựa vào phân loại của chỉ đạo này ở direct đầu tiên mà lưu tần suất này</t>
+  </si>
+  <si>
+    <t>Số Lần Lặp</t>
+  </si>
+  <si>
+    <t>Số lần đã lặp lại của chỉ đạo này</t>
+  </si>
+  <si>
+    <t>loop_number</t>
+  </si>
+  <si>
+    <t>Hoạt động hay Ko (Nếu Ko thì không tự tạo direct mới)</t>
+  </si>
+  <si>
+    <t>EXTEND1</t>
+  </si>
+  <si>
+    <t>EXTEND2</t>
+  </si>
+  <si>
+    <t>Chỉ đạo nào là lặp lại thì lưu riêng vào bảng này, mỗi tháng dựa vào cái này để tạo mới bảng directs</t>
+  </si>
+  <si>
+    <t>Mã ID Chỉ Đạo Gốc</t>
+  </si>
+  <si>
+    <t>Mã Id khởi xuất cho chỉ đạo lặp này</t>
+  </si>
+  <si>
+    <t>/get-direct-loop</t>
+  </si>
+  <si>
+    <t>/create-direct-loop</t>
+  </si>
+  <si>
+    <t>/update-direct-loop</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2023,6 +2218,20 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3052,7 +3261,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3287,6 +3496,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4674,7 +4905,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4695,7 +4926,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4712,16 +4943,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>503</v>
+        <v>474</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>504</v>
+        <v>475</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>91</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>502</v>
+        <v>473</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -4732,16 +4963,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>505</v>
+        <v>476</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>506</v>
+        <v>477</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -4762,8 +4993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4833,20 +5064,20 @@
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>491</v>
+        <v>462</v>
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="91" t="s">
-        <v>395</v>
+        <v>376</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>391</v>
+        <v>372</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>500</v>
+        <v>471</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -4865,18 +5096,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>485</v>
+        <v>456</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>396</v>
+        <v>377</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
@@ -4895,18 +5126,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>393</v>
+        <v>374</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>486</v>
+        <v>457</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -4925,18 +5156,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>394</v>
+        <v>375</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>487</v>
+        <v>458</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -4955,18 +5186,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>488</v>
+        <v>459</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>400</v>
+        <v>381</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -4985,18 +5216,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>489</v>
+        <v>460</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -5015,18 +5246,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>490</v>
+        <v>461</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -5043,20 +5274,20 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>478</v>
+        <v>449</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>492</v>
+        <v>463</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5075,18 +5306,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>493</v>
+        <v>464</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>474</v>
+        <v>445</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
@@ -5105,18 +5336,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>494</v>
+        <v>465</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>475</v>
+        <v>446</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -5135,18 +5366,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>495</v>
+        <v>466</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>476</v>
+        <v>447</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -5165,18 +5396,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>473</v>
+        <v>444</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>496</v>
+        <v>467</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>477</v>
+        <v>448</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -5193,20 +5424,20 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>479</v>
+        <v>450</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>481</v>
+        <v>452</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>499</v>
+        <v>470</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5225,18 +5456,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>480</v>
+        <v>451</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>497</v>
+        <v>468</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>482</v>
+        <v>453</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
@@ -5253,20 +5484,20 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
-        <v>483</v>
+        <v>454</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>498</v>
+        <v>469</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>484</v>
+        <v>455</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -5293,7 +5524,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5316,7 +5547,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5325,7 +5556,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>141</v>
@@ -5488,7 +5719,7 @@
         <v>25</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>181</v>
@@ -5514,10 +5745,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>371</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>372</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
         <v>189</v>
@@ -5534,7 +5765,7 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>357</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5554,7 +5785,7 @@
         <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>358</v>
+        <v>339</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -5574,7 +5805,7 @@
         <v>190</v>
       </c>
       <c r="C5" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -5594,7 +5825,7 @@
         <v>193</v>
       </c>
       <c r="C6" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -5614,7 +5845,7 @@
         <v>195</v>
       </c>
       <c r="C7" t="s">
-        <v>359</v>
+        <v>340</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -5634,7 +5865,7 @@
         <v>197</v>
       </c>
       <c r="C8" t="s">
-        <v>360</v>
+        <v>341</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -5654,7 +5885,7 @@
         <v>198</v>
       </c>
       <c r="C9" t="s">
-        <v>361</v>
+        <v>342</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -5674,7 +5905,7 @@
         <v>199</v>
       </c>
       <c r="C10" t="s">
-        <v>362</v>
+        <v>343</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -5694,7 +5925,7 @@
         <v>196</v>
       </c>
       <c r="C11" t="s">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -5714,7 +5945,7 @@
         <v>194</v>
       </c>
       <c r="C12" t="s">
-        <v>363</v>
+        <v>344</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -5734,7 +5965,7 @@
         <v>200</v>
       </c>
       <c r="C13" t="s">
-        <v>365</v>
+        <v>346</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -5754,7 +5985,7 @@
         <v>201</v>
       </c>
       <c r="C14" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -5774,7 +6005,7 @@
         <v>202</v>
       </c>
       <c r="C15" t="s">
-        <v>367</v>
+        <v>348</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -5794,7 +6025,7 @@
         <v>203</v>
       </c>
       <c r="C16" t="s">
-        <v>368</v>
+        <v>349</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -5814,7 +6045,7 @@
         <v>204</v>
       </c>
       <c r="C17" t="s">
-        <v>369</v>
+        <v>350</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -5834,7 +6065,7 @@
         <v>205</v>
       </c>
       <c r="C18" t="s">
-        <v>370</v>
+        <v>351</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -5853,29 +6084,153 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC6DBE-9909-F047-9350-C064ACCA54DE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C1" s="67" t="s">
         <v>19</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>232</v>
+      </c>
+      <c r="B4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>563</v>
+      </c>
+      <c r="D8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -5885,21 +6240,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q70"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D44" sqref="D44"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
@@ -5954,10 +6309,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
@@ -5966,13 +6321,13 @@
     </row>
     <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D2" s="50" t="s">
         <v>224</v>
@@ -6005,16 +6360,16 @@
     </row>
     <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>15</v>
@@ -6038,16 +6393,16 @@
     </row>
     <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="50" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>15</v>
@@ -6071,16 +6426,16 @@
     </row>
     <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C5" s="50" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D5" s="50" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>15</v>
@@ -6104,16 +6459,16 @@
     </row>
     <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>15</v>
@@ -6137,13 +6492,13 @@
     </row>
     <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>218</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>227</v>
@@ -6170,16 +6525,16 @@
     </row>
     <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>222</v>
       </c>
       <c r="C8" s="50" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>15</v>
@@ -6203,13 +6558,13 @@
     </row>
     <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>206</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D9" s="50" t="s">
         <v>133</v>
@@ -6234,16 +6589,16 @@
     </row>
     <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>232</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>15</v>
@@ -6264,18 +6619,18 @@
         <v>10</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D11" s="50" t="s">
         <v>177</v>
@@ -6300,13 +6655,13 @@
     </row>
     <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D12" s="50" t="s">
         <v>178</v>
@@ -6333,13 +6688,13 @@
     </row>
     <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D13" s="50" t="s">
         <v>186</v>
@@ -6372,7 +6727,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="D14" s="51" t="s">
         <v>224</v>
@@ -6411,7 +6766,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D15" s="51" t="s">
         <v>225</v>
@@ -6441,13 +6796,13 @@
         <v>222</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>170</v>
+        <v>299</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>15</v>
@@ -6474,19 +6829,19 @@
         <v>222</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>228</v>
+        <v>489</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>278</v>
+        <v>488</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>280</v>
+        <v>490</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="58">
-        <v>2000</v>
+        <v>255</v>
       </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
@@ -6497,9 +6852,7 @@
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="56">
-        <v>17</v>
-      </c>
+      <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -6507,19 +6860,19 @@
         <v>222</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="58">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -6531,7 +6884,7 @@
       <c r="N18" s="58"/>
       <c r="O18" s="58"/>
       <c r="P18" s="56">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q18" s="57"/>
     </row>
@@ -6540,19 +6893,19 @@
         <v>222</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="58">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -6564,7 +6917,7 @@
       <c r="N19" s="58"/>
       <c r="O19" s="58"/>
       <c r="P19" s="56">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q19" s="57"/>
     </row>
@@ -6573,19 +6926,19 @@
         <v>222</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="58">
-        <v>1000</v>
+        <v>255</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -6597,7 +6950,7 @@
       <c r="N20" s="58"/>
       <c r="O20" s="58"/>
       <c r="P20" s="56">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" s="57"/>
     </row>
@@ -6606,18 +6959,20 @@
         <v>222</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>133</v>
+        <v>227</v>
       </c>
       <c r="E21" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="F21" s="58">
+        <v>1000</v>
+      </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
       <c r="I21" s="58"/>
@@ -6628,7 +6983,7 @@
       <c r="N21" s="58"/>
       <c r="O21" s="58"/>
       <c r="P21" s="56">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="57"/>
     </row>
@@ -6637,20 +6992,18 @@
         <v>222</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>232</v>
+        <v>491</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>252</v>
+        <v>492</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>302</v>
+        <v>493</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F22" s="58"/>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
@@ -6660,9 +7013,7 @@
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="56">
-        <v>22</v>
-      </c>
+      <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
     <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -6670,13 +7021,13 @@
         <v>222</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>177</v>
+        <v>133</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -6692,7 +7043,7 @@
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
       <c r="P23" s="56">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Q23" s="57"/>
     </row>
@@ -6701,13 +7052,13 @@
         <v>222</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>178</v>
+        <v>298</v>
       </c>
       <c r="E24" s="51" t="s">
         <v>15</v>
@@ -6725,7 +7076,7 @@
       <c r="N24" s="58"/>
       <c r="O24" s="58"/>
       <c r="P24" s="56">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="Q24" s="57"/>
     </row>
@@ -6734,1520 +7085,1973 @@
         <v>222</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>282</v>
+        <v>239</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F25" s="58"/>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
       <c r="J25" s="58"/>
       <c r="K25" s="58"/>
       <c r="L25" s="58"/>
-      <c r="M25" s="58">
-        <v>1</v>
-      </c>
+      <c r="M25" s="58"/>
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="56">
+        <v>23</v>
+      </c>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="51" t="s">
+        <v>249</v>
+      </c>
+      <c r="D26" s="51" t="s">
+        <v>178</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="58">
+        <v>255</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="58"/>
+      <c r="K26" s="58"/>
+      <c r="L26" s="58"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="58"/>
+      <c r="P26" s="56">
+        <v>24</v>
+      </c>
+      <c r="Q26" s="57"/>
+    </row>
+    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" s="51" t="s">
+        <v>279</v>
+      </c>
+      <c r="D27" s="51" t="s">
+        <v>500</v>
+      </c>
+      <c r="E27" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="58">
+        <v>255</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="58"/>
+      <c r="J27" s="58"/>
+      <c r="K27" s="58"/>
+      <c r="L27" s="58"/>
+      <c r="M27" s="58">
+        <v>1</v>
+      </c>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="56">
         <v>25</v>
       </c>
-      <c r="Q25" s="57"/>
-    </row>
-    <row r="26" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="50" t="s">
+      <c r="Q27" s="57"/>
+    </row>
+    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B28" s="51" t="s">
+        <v>494</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>495</v>
+      </c>
+      <c r="D28" s="51" t="s">
+        <v>496</v>
+      </c>
+      <c r="E28" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="58">
+        <v>255</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="58"/>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58"/>
+      <c r="O28" s="58"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
+    </row>
+    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="D29" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="58">
+        <v>500</v>
+      </c>
+      <c r="G29" s="58"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="58"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
+    </row>
+    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="51" t="s">
+        <v>222</v>
+      </c>
+      <c r="B30" s="51" t="s">
+        <v>536</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>537</v>
+      </c>
+      <c r="D30" s="51" t="s">
+        <v>538</v>
+      </c>
+      <c r="E30" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="58">
+        <v>500</v>
+      </c>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="58"/>
+      <c r="K30" s="58"/>
+      <c r="L30" s="58"/>
+      <c r="M30" s="58"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="58"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="57"/>
+    </row>
+    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B31" s="100" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" s="100" t="s">
+        <v>244</v>
+      </c>
+      <c r="D31" s="100" t="s">
+        <v>577</v>
+      </c>
+      <c r="E31" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="57"/>
+    </row>
+    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B32" s="100" t="s">
+        <v>223</v>
+      </c>
+      <c r="C32" s="100" t="s">
+        <v>578</v>
+      </c>
+      <c r="D32" s="100" t="s">
+        <v>579</v>
+      </c>
+      <c r="E32" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
+      <c r="P32" s="56"/>
+      <c r="Q32" s="57"/>
+    </row>
+    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B33" s="100" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" s="100" t="s">
+        <v>275</v>
+      </c>
+      <c r="D33" s="100" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="101">
+        <v>500</v>
+      </c>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
+      <c r="P33" s="56"/>
+      <c r="Q33" s="57"/>
+    </row>
+    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B34" s="100" t="s">
+        <v>229</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="100" t="s">
+        <v>278</v>
+      </c>
+      <c r="E34" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="101">
+        <v>500</v>
+      </c>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57"/>
+    </row>
+    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>568</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>569</v>
+      </c>
+      <c r="D35" s="100" t="s">
+        <v>570</v>
+      </c>
+      <c r="E35" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="101">
+        <v>255</v>
+      </c>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
+      <c r="P35" s="56"/>
+      <c r="Q35" s="57"/>
+    </row>
+    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B36" s="100" t="s">
+        <v>573</v>
+      </c>
+      <c r="C36" s="100" t="s">
+        <v>571</v>
+      </c>
+      <c r="D36" s="100" t="s">
+        <v>572</v>
+      </c>
+      <c r="E36" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="57"/>
+    </row>
+    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" s="100" t="s">
+        <v>238</v>
+      </c>
+      <c r="D37" s="100" t="s">
+        <v>133</v>
+      </c>
+      <c r="E37" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="56"/>
+      <c r="Q37" s="57"/>
+    </row>
+    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B38" s="100" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="D38" s="100" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="57"/>
+    </row>
+    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B39" s="100" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="100" t="s">
+        <v>239</v>
+      </c>
+      <c r="D39" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E39" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="101">
+        <v>255</v>
+      </c>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="56"/>
+      <c r="Q39" s="57"/>
+    </row>
+    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B40" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="100" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="100" t="s">
+        <v>178</v>
+      </c>
+      <c r="E40" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
+      <c r="P40" s="56"/>
+      <c r="Q40" s="57"/>
+    </row>
+    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="100" t="s">
+        <v>567</v>
+      </c>
+      <c r="B41" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="100" t="s">
+        <v>237</v>
+      </c>
+      <c r="D41" s="100" t="s">
+        <v>574</v>
+      </c>
+      <c r="E41" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
+      <c r="P41" s="56"/>
+      <c r="Q41" s="57"/>
+    </row>
+    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B42" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="50" t="s">
+        <v>244</v>
+      </c>
+      <c r="D42" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="E42" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="56">
+        <v>26</v>
+      </c>
+      <c r="Q42" s="59"/>
+    </row>
+    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B43" s="50" t="s">
+        <v>223</v>
+      </c>
+      <c r="C43" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D43" s="50" t="s">
+        <v>368</v>
+      </c>
+      <c r="E43" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="56">
+        <v>27</v>
+      </c>
+      <c r="Q43" s="59"/>
+    </row>
+    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B44" s="50" t="s">
+        <v>185</v>
+      </c>
+      <c r="C44" s="50" t="s">
         <v>284</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="D44" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="E44" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="55">
+        <v>50</v>
+      </c>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q44" s="59"/>
+    </row>
+    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B45" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" s="50"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="56">
+        <v>29</v>
+      </c>
+      <c r="Q45" s="59"/>
+    </row>
+    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B46" s="50" t="s">
+        <v>230</v>
+      </c>
+      <c r="C46" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="D46" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="55">
+        <v>255</v>
+      </c>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="56">
+        <v>31</v>
+      </c>
+      <c r="Q46" s="59"/>
+    </row>
+    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B47" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D47" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="55">
+        <v>255</v>
+      </c>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="56">
+        <v>32</v>
+      </c>
+      <c r="Q47" s="59"/>
+    </row>
+    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B48" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D48" s="50" t="s">
+        <v>241</v>
+      </c>
+      <c r="E48" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="56">
+        <v>33</v>
+      </c>
+      <c r="Q48" s="59"/>
+    </row>
+    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="C49" s="50" t="s">
+        <v>250</v>
+      </c>
+      <c r="D49" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="E49" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="55">
+        <v>255</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="56">
+        <v>34</v>
+      </c>
+      <c r="Q49" s="59"/>
+    </row>
+    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B50" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D50" s="50" t="s">
+        <v>207</v>
+      </c>
+      <c r="E50" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
+      <c r="I50" s="55"/>
+      <c r="J50" s="55"/>
+      <c r="K50" s="55"/>
+      <c r="L50" s="55"/>
+      <c r="M50" s="55"/>
+      <c r="N50" s="55"/>
+      <c r="O50" s="55"/>
+      <c r="P50" s="56">
+        <v>35</v>
+      </c>
+      <c r="Q50" s="59"/>
+    </row>
+    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="50" t="s">
+        <v>281</v>
+      </c>
+      <c r="B51" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D51" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="55">
+        <v>255</v>
+      </c>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="55"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="55"/>
+      <c r="L51" s="55"/>
+      <c r="M51" s="55"/>
+      <c r="N51" s="55"/>
+      <c r="O51" s="55"/>
+      <c r="P51" s="56">
+        <v>36</v>
+      </c>
+      <c r="Q51" s="59"/>
+    </row>
+    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="50" t="s">
+      <c r="C52" s="52" t="s">
+        <v>244</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46">
+        <v>1</v>
+      </c>
+      <c r="H52" s="46">
+        <v>1</v>
+      </c>
+      <c r="I52" s="46">
+        <v>1</v>
+      </c>
+      <c r="J52" s="46">
+        <v>1</v>
+      </c>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
+      <c r="O52" s="46"/>
+      <c r="P52" s="56">
+        <v>37</v>
+      </c>
+      <c r="Q52" s="57"/>
+    </row>
+    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="52" t="s">
+        <v>223</v>
+      </c>
+      <c r="C53" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="46"/>
+      <c r="G53" s="46">
+        <v>1</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
+      <c r="O53" s="46"/>
+      <c r="P53" s="56">
+        <v>38</v>
+      </c>
+      <c r="Q53" s="57"/>
+    </row>
+    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>302</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" s="46"/>
+      <c r="G54" s="46">
+        <v>1</v>
+      </c>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
+      <c r="O54" s="46"/>
+      <c r="P54" s="56">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="57"/>
+    </row>
+    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="C55" s="52" t="s">
+        <v>287</v>
+      </c>
+      <c r="D55" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="46">
+        <v>255</v>
+      </c>
+      <c r="G55" s="46"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="46"/>
+      <c r="J55" s="46"/>
+      <c r="K55" s="46"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="46"/>
+      <c r="N55" s="46"/>
+      <c r="O55" s="46"/>
+      <c r="P55" s="56">
+        <v>40</v>
+      </c>
+      <c r="Q55" s="57"/>
+    </row>
+    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B56" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="52" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="52" t="s">
+        <v>234</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="46"/>
+      <c r="J56" s="46"/>
+      <c r="K56" s="46"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="46"/>
+      <c r="N56" s="46"/>
+      <c r="O56" s="46"/>
+      <c r="P56" s="56">
+        <v>41</v>
+      </c>
+      <c r="Q56" s="57"/>
+    </row>
+    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B57" s="52" t="s">
+        <v>299</v>
+      </c>
+      <c r="C57" s="52" t="s">
+        <v>300</v>
+      </c>
+      <c r="D57" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="46">
+        <v>255</v>
+      </c>
+      <c r="G57" s="46"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="46"/>
+      <c r="J57" s="46"/>
+      <c r="K57" s="46"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="46"/>
+      <c r="N57" s="46"/>
+      <c r="O57" s="46"/>
+      <c r="P57" s="56">
+        <v>42</v>
+      </c>
+      <c r="Q57" s="57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B58" s="52" t="s">
+        <v>218</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="D58" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="46"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="46"/>
+      <c r="J58" s="46"/>
+      <c r="K58" s="46"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="46"/>
+      <c r="N58" s="46"/>
+      <c r="O58" s="46"/>
+      <c r="P58" s="56">
+        <v>43</v>
+      </c>
+      <c r="Q58" s="57"/>
+    </row>
+    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B59" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="52" t="s">
+        <v>498</v>
+      </c>
+      <c r="D59" s="52" t="s">
+        <v>531</v>
+      </c>
+      <c r="E59" s="52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="46"/>
+      <c r="J59" s="46"/>
+      <c r="K59" s="46"/>
+      <c r="L59" s="60"/>
+      <c r="M59" s="46"/>
+      <c r="N59" s="46"/>
+      <c r="O59" s="46"/>
+      <c r="P59" s="56">
+        <v>44</v>
+      </c>
+      <c r="Q59" s="57"/>
+    </row>
+    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B60" s="52" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D60" s="52" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F60" s="46"/>
+      <c r="G60" s="46"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="46"/>
+      <c r="J60" s="46"/>
+      <c r="K60" s="46"/>
+      <c r="L60" s="46"/>
+      <c r="M60" s="46"/>
+      <c r="N60" s="46"/>
+      <c r="O60" s="46"/>
+      <c r="P60" s="56">
+        <v>45</v>
+      </c>
+      <c r="Q60" s="57"/>
+    </row>
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B61" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>233</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="46">
+        <v>50</v>
+      </c>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="60"/>
+      <c r="M61" s="46"/>
+      <c r="N61" s="46"/>
+      <c r="O61" s="46"/>
+      <c r="P61" s="56">
+        <v>46</v>
+      </c>
+      <c r="Q61" s="57"/>
+    </row>
+    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="B62" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="52" t="s">
+        <v>239</v>
+      </c>
+      <c r="D62" s="52" t="s">
+        <v>499</v>
+      </c>
+      <c r="E62" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="46"/>
+      <c r="I62" s="46"/>
+      <c r="J62" s="46"/>
+      <c r="K62" s="46"/>
+      <c r="L62" s="46"/>
+      <c r="M62" s="46"/>
+      <c r="N62" s="46"/>
+      <c r="O62" s="46"/>
+      <c r="P62" s="56">
+        <v>47</v>
+      </c>
+      <c r="Q62" s="57"/>
+    </row>
+    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="65" t="s">
+        <v>280</v>
+      </c>
+      <c r="B63" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="C63" s="65" t="s">
+        <v>249</v>
+      </c>
+      <c r="D63" s="65" t="s">
+        <v>178</v>
+      </c>
+      <c r="E63" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="48">
+        <v>255</v>
+      </c>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="48"/>
+      <c r="L63" s="48"/>
+      <c r="M63" s="48"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="48"/>
+      <c r="P63" s="56">
+        <v>48</v>
+      </c>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="62"/>
+      <c r="G64" s="62">
+        <v>1</v>
+      </c>
+      <c r="H64" s="62">
+        <v>1</v>
+      </c>
+      <c r="I64" s="62">
+        <v>1</v>
+      </c>
+      <c r="J64" s="62">
+        <v>1</v>
+      </c>
+      <c r="K64" s="62"/>
+      <c r="L64" s="62"/>
+      <c r="M64" s="62"/>
+      <c r="N64" s="62"/>
+      <c r="O64" s="62"/>
+      <c r="P64" s="56">
+        <v>59</v>
+      </c>
+      <c r="Q64" s="59"/>
+    </row>
+    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B65" s="53" t="s">
+        <v>328</v>
+      </c>
+      <c r="C65" s="53" t="s">
+        <v>558</v>
+      </c>
+      <c r="D65" s="53" t="s">
+        <v>559</v>
+      </c>
+      <c r="E65" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="62">
+        <v>50</v>
+      </c>
+      <c r="G65" s="62"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
+      <c r="J65" s="62"/>
+      <c r="K65" s="62"/>
+      <c r="L65" s="62"/>
+      <c r="M65" s="62"/>
+      <c r="N65" s="62"/>
+      <c r="O65" s="62"/>
+      <c r="P65" s="56">
+        <v>60</v>
+      </c>
+      <c r="Q65" s="59"/>
+    </row>
+    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B66" s="53" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D66" s="53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E66" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="62">
+        <v>255</v>
+      </c>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="60" t="s">
+        <v>219</v>
+      </c>
+      <c r="M66" s="62"/>
+      <c r="N66" s="62"/>
+      <c r="O66" s="62"/>
+      <c r="P66" s="56">
+        <v>61</v>
+      </c>
+      <c r="Q66" s="59"/>
+    </row>
+    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B67" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="62">
+        <v>255</v>
+      </c>
+      <c r="G67" s="62"/>
+      <c r="H67" s="62"/>
+      <c r="I67" s="62"/>
+      <c r="J67" s="62"/>
+      <c r="K67" s="62"/>
+      <c r="L67" s="62"/>
+      <c r="M67" s="62"/>
+      <c r="N67" s="62"/>
+      <c r="O67" s="62"/>
+      <c r="P67" s="56">
+        <v>62</v>
+      </c>
+      <c r="Q67" s="59"/>
+    </row>
+    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="53" t="s">
+        <v>210</v>
+      </c>
+      <c r="C68" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D68" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="E68" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="62">
+        <v>255</v>
+      </c>
+      <c r="G68" s="62"/>
+      <c r="H68" s="62"/>
+      <c r="I68" s="62"/>
+      <c r="J68" s="62"/>
+      <c r="K68" s="62"/>
+      <c r="L68" s="62"/>
+      <c r="M68" s="62"/>
+      <c r="N68" s="62"/>
+      <c r="O68" s="62"/>
+      <c r="P68" s="56">
+        <v>63</v>
+      </c>
+      <c r="Q68" s="59"/>
+    </row>
+    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B69" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="C69" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="D69" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="E69" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="62">
+        <v>255</v>
+      </c>
+      <c r="G69" s="62"/>
+      <c r="H69" s="62"/>
+      <c r="I69" s="62"/>
+      <c r="J69" s="62"/>
+      <c r="K69" s="62"/>
+      <c r="L69" s="62"/>
+      <c r="M69" s="62"/>
+      <c r="N69" s="62"/>
+      <c r="O69" s="62"/>
+      <c r="P69" s="56">
+        <v>64</v>
+      </c>
+      <c r="Q69" s="59"/>
+    </row>
+    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C70" s="53" t="s">
+        <v>271</v>
+      </c>
+      <c r="D70" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="62">
+        <v>255</v>
+      </c>
+      <c r="G70" s="62"/>
+      <c r="H70" s="62"/>
+      <c r="I70" s="62"/>
+      <c r="J70" s="62"/>
+      <c r="K70" s="62"/>
+      <c r="L70" s="62"/>
+      <c r="M70" s="62"/>
+      <c r="N70" s="62"/>
+      <c r="O70" s="62"/>
+      <c r="P70" s="56">
+        <v>65</v>
+      </c>
+      <c r="Q70" s="59"/>
+    </row>
+    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B71" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D71" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="E71" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="62"/>
+      <c r="G71" s="62"/>
+      <c r="H71" s="62"/>
+      <c r="I71" s="62"/>
+      <c r="J71" s="62"/>
+      <c r="K71" s="62"/>
+      <c r="L71" s="62"/>
+      <c r="M71" s="62"/>
+      <c r="N71" s="62"/>
+      <c r="O71" s="62"/>
+      <c r="P71" s="56">
+        <v>66</v>
+      </c>
+      <c r="Q71" s="59"/>
+    </row>
+    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B72" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="D72" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="E72" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="62">
+        <v>255</v>
+      </c>
+      <c r="G72" s="62"/>
+      <c r="H72" s="62"/>
+      <c r="I72" s="62"/>
+      <c r="J72" s="62"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="62"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="62"/>
+      <c r="O72" s="62"/>
+      <c r="P72" s="56">
+        <v>67</v>
+      </c>
+      <c r="Q72" s="59"/>
+    </row>
+    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B73" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C73" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="D73" s="53" t="s">
+        <v>207</v>
+      </c>
+      <c r="E73" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F73" s="62"/>
+      <c r="G73" s="62"/>
+      <c r="H73" s="62"/>
+      <c r="I73" s="62"/>
+      <c r="J73" s="62"/>
+      <c r="K73" s="62"/>
+      <c r="L73" s="62"/>
+      <c r="M73" s="62"/>
+      <c r="N73" s="62"/>
+      <c r="O73" s="62"/>
+      <c r="P73" s="56">
+        <v>68</v>
+      </c>
+      <c r="Q73" s="59"/>
+    </row>
+    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B74" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D74" s="53" t="s">
+        <v>213</v>
+      </c>
+      <c r="E74" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F74" s="62">
+        <v>50</v>
+      </c>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
+      <c r="J74" s="62"/>
+      <c r="K74" s="62"/>
+      <c r="L74" s="62"/>
+      <c r="M74" s="62"/>
+      <c r="N74" s="62"/>
+      <c r="O74" s="62"/>
+      <c r="P74" s="56">
+        <v>69</v>
+      </c>
+      <c r="Q74" s="59"/>
+    </row>
+    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="B75" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D75" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E75" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F75" s="62"/>
+      <c r="G75" s="62"/>
+      <c r="H75" s="62"/>
+      <c r="I75" s="62"/>
+      <c r="J75" s="62"/>
+      <c r="K75" s="62"/>
+      <c r="L75" s="62"/>
+      <c r="M75" s="62">
+        <v>1</v>
+      </c>
+      <c r="N75" s="62"/>
+      <c r="O75" s="62"/>
+      <c r="P75" s="56">
+        <v>70</v>
+      </c>
+      <c r="Q75" s="59"/>
+    </row>
+    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B76" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="44" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E76" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45">
+        <v>1</v>
+      </c>
+      <c r="H76" s="45">
+        <v>1</v>
+      </c>
+      <c r="I76" s="45">
+        <v>1</v>
+      </c>
+      <c r="J76" s="45">
+        <v>1</v>
+      </c>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
+      <c r="M76" s="45"/>
+      <c r="N76" s="45"/>
+      <c r="O76" s="45"/>
+      <c r="P76" s="56">
+        <v>71</v>
+      </c>
+      <c r="Q76" s="57"/>
+    </row>
+    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B77" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>414</v>
+      </c>
+      <c r="D77" s="63" t="s">
+        <v>415</v>
+      </c>
+      <c r="E77" s="63" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="45"/>
+      <c r="G77" s="45">
+        <v>1</v>
+      </c>
+      <c r="H77" s="45"/>
+      <c r="I77" s="45"/>
+      <c r="J77" s="45"/>
+      <c r="K77" s="45"/>
+      <c r="L77" s="45"/>
+      <c r="M77" s="45"/>
+      <c r="N77" s="45"/>
+      <c r="O77" s="45"/>
+      <c r="P77" s="56">
+        <v>72</v>
+      </c>
+      <c r="Q77" s="57"/>
+    </row>
+    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>243</v>
+      </c>
+      <c r="C78" s="44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D78" s="63" t="s">
+        <v>304</v>
+      </c>
+      <c r="E78" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="45">
+        <v>50</v>
+      </c>
+      <c r="G78" s="45">
+        <v>1</v>
+      </c>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
+      <c r="M78" s="45"/>
+      <c r="N78" s="45"/>
+      <c r="O78" s="45"/>
+      <c r="P78" s="56">
+        <v>73</v>
+      </c>
+      <c r="Q78" s="57"/>
+    </row>
+    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="44" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="E79" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="45">
+        <v>50</v>
+      </c>
+      <c r="G79" s="45"/>
+      <c r="H79" s="45"/>
+      <c r="I79" s="45"/>
+      <c r="J79" s="45"/>
+      <c r="K79" s="45"/>
+      <c r="L79" s="45"/>
+      <c r="M79" s="45"/>
+      <c r="N79" s="45"/>
+      <c r="O79" s="45"/>
+      <c r="P79" s="56">
+        <v>74</v>
+      </c>
+      <c r="Q79" s="57"/>
+    </row>
+    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="44" t="s">
         <v>246</v>
       </c>
-      <c r="D26" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="56">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="59"/>
-    </row>
-    <row r="27" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>223</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="D27" s="50" t="s">
-        <v>387</v>
-      </c>
-      <c r="E27" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="56">
-        <v>27</v>
-      </c>
-      <c r="Q27" s="59"/>
-    </row>
-    <row r="28" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="D28" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E28" s="50" t="s">
+      <c r="D80" s="63" t="s">
+        <v>235</v>
+      </c>
+      <c r="E80" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="F28" s="55">
+      <c r="F80" s="45">
+        <v>255</v>
+      </c>
+      <c r="G80" s="45"/>
+      <c r="H80" s="45"/>
+      <c r="I80" s="45"/>
+      <c r="J80" s="45"/>
+      <c r="K80" s="45"/>
+      <c r="L80" s="45"/>
+      <c r="M80" s="45"/>
+      <c r="N80" s="45"/>
+      <c r="O80" s="45"/>
+      <c r="P80" s="56">
+        <v>75</v>
+      </c>
+      <c r="Q80" s="57"/>
+    </row>
+    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>206</v>
+      </c>
+      <c r="C81" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D81" s="63" t="s">
+        <v>133</v>
+      </c>
+      <c r="E81" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="56">
-        <v>28</v>
-      </c>
-      <c r="Q28" s="59"/>
-    </row>
-    <row r="29" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="D29" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="61"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="56">
-        <v>29</v>
-      </c>
-      <c r="Q29" s="59"/>
-    </row>
-    <row r="30" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>238</v>
-      </c>
-      <c r="D30" s="50" t="s">
-        <v>236</v>
-      </c>
-      <c r="E30" s="50" t="s">
+      <c r="F81" s="45"/>
+      <c r="G81" s="45"/>
+      <c r="H81" s="45"/>
+      <c r="I81" s="45"/>
+      <c r="J81" s="45"/>
+      <c r="K81" s="45"/>
+      <c r="L81" s="45"/>
+      <c r="M81" s="45"/>
+      <c r="N81" s="45"/>
+      <c r="O81" s="45"/>
+      <c r="P81" s="56">
+        <v>76</v>
+      </c>
+      <c r="Q81" s="57"/>
+    </row>
+    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>232</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="63" t="s">
+        <v>242</v>
+      </c>
+      <c r="E82" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="55">
+      <c r="F82" s="45">
         <v>255</v>
       </c>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="56">
-        <v>30</v>
-      </c>
-      <c r="Q30" s="59"/>
-    </row>
-    <row r="31" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>230</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="E31" s="50" t="s">
+      <c r="G82" s="45"/>
+      <c r="H82" s="45"/>
+      <c r="I82" s="45"/>
+      <c r="J82" s="45"/>
+      <c r="K82" s="45"/>
+      <c r="L82" s="45"/>
+      <c r="M82" s="45"/>
+      <c r="N82" s="45"/>
+      <c r="O82" s="45"/>
+      <c r="P82" s="56">
+        <v>77</v>
+      </c>
+      <c r="Q82" s="57"/>
+    </row>
+    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>248</v>
+      </c>
+      <c r="E83" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F83" s="45"/>
+      <c r="G83" s="45"/>
+      <c r="H83" s="45"/>
+      <c r="I83" s="45"/>
+      <c r="J83" s="45"/>
+      <c r="K83" s="45"/>
+      <c r="L83" s="45"/>
+      <c r="M83" s="45"/>
+      <c r="N83" s="45"/>
+      <c r="O83" s="45"/>
+      <c r="P83" s="56">
+        <v>78</v>
+      </c>
+      <c r="Q83" s="57"/>
+    </row>
+    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D84" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E84" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="F31" s="55">
-        <v>255</v>
-      </c>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="56">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="59"/>
-    </row>
-    <row r="32" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" s="50" t="s">
+      <c r="F84" s="45">
+        <v>50</v>
+      </c>
+      <c r="G84" s="45"/>
+      <c r="H84" s="45"/>
+      <c r="I84" s="45"/>
+      <c r="J84" s="45"/>
+      <c r="K84" s="45"/>
+      <c r="L84" s="45"/>
+      <c r="M84" s="45"/>
+      <c r="N84" s="45"/>
+      <c r="O84" s="45"/>
+      <c r="P84" s="56">
+        <v>79</v>
+      </c>
+      <c r="Q84" s="57"/>
+    </row>
+    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B85" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="50" t="s">
-        <v>239</v>
-      </c>
-      <c r="D32" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="E32" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="55">
-        <v>255</v>
-      </c>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="56">
-        <v>32</v>
-      </c>
-      <c r="Q32" s="59"/>
-    </row>
-    <row r="33" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B33" s="50" t="s">
-        <v>206</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>240</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="56">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="59"/>
-    </row>
-    <row r="34" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B34" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="C34" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="D34" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F34" s="55">
-        <v>255</v>
-      </c>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="56">
-        <v>34</v>
-      </c>
-      <c r="Q34" s="59"/>
-    </row>
-    <row r="35" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B35" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="50" t="s">
-        <v>241</v>
-      </c>
-      <c r="D35" s="50" t="s">
-        <v>207</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="56">
-        <v>35</v>
-      </c>
-      <c r="Q35" s="59"/>
-    </row>
-    <row r="36" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C36" s="50" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F36" s="55">
-        <v>255</v>
-      </c>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="56">
-        <v>36</v>
-      </c>
-      <c r="Q36" s="59"/>
-    </row>
-    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B37" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" s="52" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="52" t="s">
-        <v>180</v>
-      </c>
-      <c r="E37" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="46"/>
-      <c r="G37" s="46">
-        <v>1</v>
-      </c>
-      <c r="H37" s="46">
-        <v>1</v>
-      </c>
-      <c r="I37" s="46">
-        <v>1</v>
-      </c>
-      <c r="J37" s="46">
-        <v>1</v>
-      </c>
-      <c r="K37" s="46"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="46"/>
-      <c r="N37" s="46"/>
-      <c r="O37" s="46"/>
-      <c r="P37" s="56">
-        <v>37</v>
-      </c>
-      <c r="Q37" s="57"/>
-    </row>
-    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>223</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38" s="46"/>
-      <c r="G38" s="46">
-        <v>1</v>
-      </c>
-      <c r="H38" s="46"/>
-      <c r="I38" s="46"/>
-      <c r="J38" s="46"/>
-      <c r="K38" s="46"/>
-      <c r="L38" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="M38" s="46"/>
-      <c r="N38" s="46"/>
-      <c r="O38" s="46"/>
-      <c r="P38" s="56">
-        <v>38</v>
-      </c>
-      <c r="Q38" s="57"/>
-    </row>
-    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B39" s="52" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" s="52" t="s">
-        <v>287</v>
-      </c>
-      <c r="D39" s="52" t="s">
-        <v>307</v>
-      </c>
-      <c r="E39" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39" s="46"/>
-      <c r="G39" s="46">
-        <v>1</v>
-      </c>
-      <c r="H39" s="46"/>
-      <c r="I39" s="46"/>
-      <c r="J39" s="46"/>
-      <c r="K39" s="46"/>
-      <c r="L39" s="60"/>
-      <c r="M39" s="46"/>
-      <c r="N39" s="46"/>
-      <c r="O39" s="46"/>
-      <c r="P39" s="56">
-        <v>39</v>
-      </c>
-      <c r="Q39" s="57"/>
-    </row>
-    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B40" s="52" t="s">
-        <v>289</v>
-      </c>
-      <c r="C40" s="52" t="s">
-        <v>290</v>
-      </c>
-      <c r="D40" s="52" t="s">
-        <v>308</v>
-      </c>
-      <c r="E40" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F40" s="46">
-        <v>255</v>
-      </c>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-      <c r="I40" s="46"/>
-      <c r="J40" s="46"/>
-      <c r="K40" s="46"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="46"/>
-      <c r="N40" s="46"/>
-      <c r="O40" s="46"/>
-      <c r="P40" s="56">
-        <v>40</v>
-      </c>
-      <c r="Q40" s="57"/>
-    </row>
-    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B41" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C41" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="E41" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="46"/>
-      <c r="L41" s="60"/>
-      <c r="M41" s="46"/>
-      <c r="N41" s="46"/>
-      <c r="O41" s="46"/>
-      <c r="P41" s="56">
-        <v>41</v>
-      </c>
-      <c r="Q41" s="57"/>
-    </row>
-    <row r="42" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B42" s="52" t="s">
-        <v>303</v>
-      </c>
-      <c r="C42" s="52" t="s">
-        <v>304</v>
-      </c>
-      <c r="D42" s="52" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F42" s="46">
-        <v>255</v>
-      </c>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="46"/>
-      <c r="J42" s="46"/>
-      <c r="K42" s="46"/>
-      <c r="L42" s="60"/>
-      <c r="M42" s="46"/>
-      <c r="N42" s="46"/>
-      <c r="O42" s="46"/>
-      <c r="P42" s="56">
-        <v>42</v>
-      </c>
-      <c r="Q42" s="57" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B43" s="52" t="s">
-        <v>218</v>
-      </c>
-      <c r="C43" s="52" t="s">
-        <v>259</v>
-      </c>
-      <c r="D43" s="52" t="s">
-        <v>311</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-      <c r="I43" s="46"/>
-      <c r="J43" s="46"/>
-      <c r="K43" s="46"/>
-      <c r="L43" s="60"/>
-      <c r="M43" s="46"/>
-      <c r="N43" s="46"/>
-      <c r="O43" s="46"/>
-      <c r="P43" s="56">
-        <v>43</v>
-      </c>
-      <c r="Q43" s="57"/>
-    </row>
-    <row r="44" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B44" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="52" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="52" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="46">
-        <v>255</v>
-      </c>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-      <c r="I44" s="46"/>
-      <c r="J44" s="46"/>
-      <c r="K44" s="46"/>
-      <c r="L44" s="60"/>
-      <c r="M44" s="46"/>
-      <c r="N44" s="46"/>
-      <c r="O44" s="46"/>
-      <c r="P44" s="56">
-        <v>44</v>
-      </c>
-      <c r="Q44" s="57"/>
-    </row>
-    <row r="45" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B45" s="52" t="s">
-        <v>206</v>
-      </c>
-      <c r="C45" s="52" t="s">
-        <v>240</v>
-      </c>
-      <c r="D45" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="E45" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-      <c r="H45" s="46"/>
-      <c r="I45" s="46"/>
-      <c r="J45" s="46"/>
-      <c r="K45" s="46"/>
-      <c r="L45" s="46"/>
-      <c r="M45" s="46"/>
-      <c r="N45" s="46"/>
-      <c r="O45" s="46"/>
-      <c r="P45" s="56">
-        <v>45</v>
-      </c>
-      <c r="Q45" s="57"/>
-    </row>
-    <row r="46" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B46" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C46" s="52" t="s">
-        <v>296</v>
-      </c>
-      <c r="D46" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="E46" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F46" s="46">
-        <v>50</v>
-      </c>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
-      <c r="J46" s="46"/>
-      <c r="K46" s="46"/>
-      <c r="L46" s="60"/>
-      <c r="M46" s="46"/>
-      <c r="N46" s="46"/>
-      <c r="O46" s="46"/>
-      <c r="P46" s="56">
-        <v>46</v>
-      </c>
-      <c r="Q46" s="57"/>
-    </row>
-    <row r="47" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="52" t="s">
-        <v>241</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>177</v>
-      </c>
-      <c r="E47" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-      <c r="H47" s="46"/>
-      <c r="I47" s="46"/>
-      <c r="J47" s="46"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="46"/>
-      <c r="M47" s="46"/>
-      <c r="N47" s="46"/>
-      <c r="O47" s="46"/>
-      <c r="P47" s="56">
-        <v>47</v>
-      </c>
-      <c r="Q47" s="57"/>
-    </row>
-    <row r="48" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65" t="s">
-        <v>283</v>
-      </c>
-      <c r="B48" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="65" t="s">
-        <v>251</v>
-      </c>
-      <c r="D48" s="65" t="s">
-        <v>178</v>
-      </c>
-      <c r="E48" s="65" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="48">
-        <v>255</v>
-      </c>
-      <c r="G48" s="48"/>
-      <c r="H48" s="48"/>
-      <c r="I48" s="48"/>
-      <c r="J48" s="48"/>
-      <c r="K48" s="48"/>
-      <c r="L48" s="48"/>
-      <c r="M48" s="48"/>
-      <c r="N48" s="48"/>
-      <c r="O48" s="48"/>
-      <c r="P48" s="56">
-        <v>48</v>
-      </c>
-      <c r="Q48" s="57"/>
-    </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="D49" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="E49" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62">
-        <v>1</v>
-      </c>
-      <c r="H49" s="62">
-        <v>1</v>
-      </c>
-      <c r="I49" s="62">
-        <v>1</v>
-      </c>
-      <c r="J49" s="62">
-        <v>1</v>
-      </c>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
-      <c r="O49" s="62"/>
-      <c r="P49" s="56">
-        <v>59</v>
-      </c>
-      <c r="Q49" s="59"/>
-    </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B50" s="53" t="s">
-        <v>347</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="62">
-        <v>50</v>
-      </c>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
-      <c r="O50" s="62"/>
-      <c r="P50" s="56">
-        <v>60</v>
-      </c>
-      <c r="Q50" s="59"/>
-    </row>
-    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B51" s="53" t="s">
-        <v>303</v>
-      </c>
-      <c r="C51" s="53" t="s">
-        <v>249</v>
-      </c>
-      <c r="D51" s="53" t="s">
-        <v>270</v>
-      </c>
-      <c r="E51" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="62">
-        <v>255</v>
-      </c>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="60" t="s">
-        <v>219</v>
-      </c>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
-      <c r="O51" s="62"/>
-      <c r="P51" s="56">
-        <v>61</v>
-      </c>
-      <c r="Q51" s="59"/>
-    </row>
-    <row r="52" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B52" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C52" s="53" t="s">
-        <v>271</v>
-      </c>
-      <c r="D52" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="62">
-        <v>255</v>
-      </c>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
-      <c r="O52" s="62"/>
-      <c r="P52" s="56">
-        <v>62</v>
-      </c>
-      <c r="Q52" s="59"/>
-    </row>
-    <row r="53" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>210</v>
-      </c>
-      <c r="C53" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="D53" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E53" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F53" s="62">
-        <v>255</v>
-      </c>
-      <c r="G53" s="62"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
-      <c r="O53" s="62"/>
-      <c r="P53" s="56">
-        <v>63</v>
-      </c>
-      <c r="Q53" s="59"/>
-    </row>
-    <row r="54" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B54" s="53" t="s">
-        <v>211</v>
-      </c>
-      <c r="C54" s="53" t="s">
-        <v>253</v>
-      </c>
-      <c r="D54" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E54" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="62">
-        <v>255</v>
-      </c>
-      <c r="G54" s="62"/>
-      <c r="H54" s="62"/>
-      <c r="I54" s="62"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
-      <c r="O54" s="62"/>
-      <c r="P54" s="56">
-        <v>64</v>
-      </c>
-      <c r="Q54" s="59"/>
-    </row>
-    <row r="55" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B55" s="53" t="s">
-        <v>179</v>
-      </c>
-      <c r="C55" s="53" t="s">
-        <v>273</v>
-      </c>
-      <c r="D55" s="53" t="s">
-        <v>274</v>
-      </c>
-      <c r="E55" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="62">
-        <v>255</v>
-      </c>
-      <c r="G55" s="62"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
-      <c r="O55" s="62"/>
-      <c r="P55" s="56">
-        <v>65</v>
-      </c>
-      <c r="Q55" s="59"/>
-    </row>
-    <row r="56" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B56" s="53" t="s">
-        <v>206</v>
-      </c>
-      <c r="C56" s="53" t="s">
-        <v>240</v>
-      </c>
-      <c r="D56" s="53" t="s">
-        <v>133</v>
-      </c>
-      <c r="E56" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F56" s="62"/>
-      <c r="G56" s="62"/>
-      <c r="H56" s="62"/>
-      <c r="I56" s="62"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="56">
-        <v>66</v>
-      </c>
-      <c r="Q56" s="59"/>
-    </row>
-    <row r="57" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B57" s="53" t="s">
-        <v>232</v>
-      </c>
-      <c r="C57" s="53" t="s">
-        <v>252</v>
-      </c>
-      <c r="D57" s="53" t="s">
-        <v>244</v>
-      </c>
-      <c r="E57" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="62">
-        <v>255</v>
-      </c>
-      <c r="G57" s="62"/>
-      <c r="H57" s="62"/>
-      <c r="I57" s="62"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
-      <c r="O57" s="62"/>
-      <c r="P57" s="56">
-        <v>67</v>
-      </c>
-      <c r="Q57" s="59"/>
-    </row>
-    <row r="58" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="C58" s="53" t="s">
-        <v>241</v>
-      </c>
-      <c r="D58" s="53" t="s">
-        <v>207</v>
-      </c>
-      <c r="E58" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="62"/>
-      <c r="G58" s="62"/>
-      <c r="H58" s="62"/>
-      <c r="I58" s="62"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
-      <c r="O58" s="62"/>
-      <c r="P58" s="56">
-        <v>68</v>
-      </c>
-      <c r="Q58" s="59"/>
-    </row>
-    <row r="59" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B59" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="C59" s="53" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" s="53" t="s">
-        <v>213</v>
-      </c>
-      <c r="E59" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F59" s="62">
-        <v>50</v>
-      </c>
-      <c r="G59" s="62"/>
-      <c r="H59" s="62"/>
-      <c r="I59" s="62"/>
-      <c r="J59" s="62"/>
-      <c r="K59" s="62"/>
-      <c r="L59" s="62"/>
-      <c r="M59" s="62"/>
-      <c r="N59" s="62"/>
-      <c r="O59" s="62"/>
-      <c r="P59" s="56">
-        <v>69</v>
-      </c>
-      <c r="Q59" s="59"/>
-    </row>
-    <row r="60" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="53" t="s">
-        <v>218</v>
-      </c>
-      <c r="B60" s="53" t="s">
-        <v>0</v>
-      </c>
-      <c r="C60" s="53" t="s">
-        <v>239</v>
-      </c>
-      <c r="D60" s="53" t="s">
-        <v>212</v>
-      </c>
-      <c r="E60" s="53" t="s">
+      <c r="C85" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D85" s="63" t="s">
+        <v>173</v>
+      </c>
+      <c r="E85" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
-      <c r="I60" s="62"/>
-      <c r="J60" s="62"/>
-      <c r="K60" s="62"/>
-      <c r="L60" s="62"/>
-      <c r="M60" s="62">
-        <v>1</v>
-      </c>
-      <c r="N60" s="62"/>
-      <c r="O60" s="62"/>
-      <c r="P60" s="56">
-        <v>70</v>
-      </c>
-      <c r="Q60" s="59"/>
-    </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B61" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C61" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="D61" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E61" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45">
-        <v>1</v>
-      </c>
-      <c r="H61" s="45">
-        <v>1</v>
-      </c>
-      <c r="I61" s="45">
-        <v>1</v>
-      </c>
-      <c r="J61" s="45">
-        <v>1</v>
-      </c>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
-      <c r="M61" s="45"/>
-      <c r="N61" s="45"/>
-      <c r="O61" s="45"/>
-      <c r="P61" s="56">
-        <v>71</v>
-      </c>
-      <c r="Q61" s="57"/>
-    </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B62" s="44" t="s">
-        <v>140</v>
-      </c>
-      <c r="C62" s="44" t="s">
-        <v>435</v>
-      </c>
-      <c r="D62" s="63" t="s">
-        <v>436</v>
-      </c>
-      <c r="E62" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="45"/>
-      <c r="G62" s="45">
-        <v>1</v>
-      </c>
-      <c r="H62" s="45"/>
-      <c r="I62" s="45"/>
-      <c r="J62" s="45"/>
-      <c r="K62" s="45"/>
-      <c r="L62" s="45"/>
-      <c r="M62" s="45"/>
-      <c r="N62" s="45"/>
-      <c r="O62" s="45"/>
-      <c r="P62" s="56">
-        <v>72</v>
-      </c>
-      <c r="Q62" s="57"/>
-    </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B63" s="44" t="s">
-        <v>245</v>
-      </c>
-      <c r="C63" s="44" t="s">
-        <v>247</v>
-      </c>
-      <c r="D63" s="63" t="s">
-        <v>310</v>
-      </c>
-      <c r="E63" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F63" s="45">
-        <v>50</v>
-      </c>
-      <c r="G63" s="45">
-        <v>1</v>
-      </c>
-      <c r="H63" s="45"/>
-      <c r="I63" s="45"/>
-      <c r="J63" s="45"/>
-      <c r="K63" s="45"/>
-      <c r="L63" s="45"/>
-      <c r="M63" s="45"/>
-      <c r="N63" s="45"/>
-      <c r="O63" s="45"/>
-      <c r="P63" s="56">
-        <v>73</v>
-      </c>
-      <c r="Q63" s="57"/>
-    </row>
-    <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B64" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>276</v>
-      </c>
-      <c r="E64" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="45">
-        <v>50</v>
-      </c>
-      <c r="G64" s="45"/>
-      <c r="H64" s="45"/>
-      <c r="I64" s="45"/>
-      <c r="J64" s="45"/>
-      <c r="K64" s="45"/>
-      <c r="L64" s="45"/>
-      <c r="M64" s="45"/>
-      <c r="N64" s="45"/>
-      <c r="O64" s="45"/>
-      <c r="P64" s="56">
-        <v>74</v>
-      </c>
-      <c r="Q64" s="57"/>
-    </row>
-    <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B65" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="44" t="s">
-        <v>248</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>235</v>
-      </c>
-      <c r="E65" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="45">
-        <v>255</v>
-      </c>
-      <c r="G65" s="45"/>
-      <c r="H65" s="45"/>
-      <c r="I65" s="45"/>
-      <c r="J65" s="45"/>
-      <c r="K65" s="45"/>
-      <c r="L65" s="45"/>
-      <c r="M65" s="45"/>
-      <c r="N65" s="45"/>
-      <c r="O65" s="45"/>
-      <c r="P65" s="56">
-        <v>75</v>
-      </c>
-      <c r="Q65" s="57"/>
-    </row>
-    <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B66" s="44" t="s">
-        <v>206</v>
-      </c>
-      <c r="C66" s="44" t="s">
-        <v>240</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>133</v>
-      </c>
-      <c r="E66" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F66" s="45"/>
-      <c r="G66" s="45"/>
-      <c r="H66" s="45"/>
-      <c r="I66" s="45"/>
-      <c r="J66" s="45"/>
-      <c r="K66" s="45"/>
-      <c r="L66" s="45"/>
-      <c r="M66" s="45"/>
-      <c r="N66" s="45"/>
-      <c r="O66" s="45"/>
-      <c r="P66" s="56">
-        <v>76</v>
-      </c>
-      <c r="Q66" s="57"/>
-    </row>
-    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B67" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="44" t="s">
-        <v>252</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="E67" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="45">
-        <v>255</v>
-      </c>
-      <c r="G67" s="45"/>
-      <c r="H67" s="45"/>
-      <c r="I67" s="45"/>
-      <c r="J67" s="45"/>
-      <c r="K67" s="45"/>
-      <c r="L67" s="45"/>
-      <c r="M67" s="45"/>
-      <c r="N67" s="45"/>
-      <c r="O67" s="45"/>
-      <c r="P67" s="56">
-        <v>77</v>
-      </c>
-      <c r="Q67" s="57"/>
-    </row>
-    <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="44" t="s">
-        <v>241</v>
-      </c>
-      <c r="D68" s="63" t="s">
-        <v>250</v>
-      </c>
-      <c r="E68" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F68" s="45"/>
-      <c r="G68" s="45"/>
-      <c r="H68" s="45"/>
-      <c r="I68" s="45"/>
-      <c r="J68" s="45"/>
-      <c r="K68" s="45"/>
-      <c r="L68" s="45"/>
-      <c r="M68" s="45"/>
-      <c r="N68" s="45"/>
-      <c r="O68" s="45"/>
-      <c r="P68" s="56">
-        <v>78</v>
-      </c>
-      <c r="Q68" s="57"/>
-    </row>
-    <row r="69" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="44" t="s">
-        <v>251</v>
-      </c>
-      <c r="D69" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E69" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="45">
-        <v>50</v>
-      </c>
-      <c r="G69" s="45"/>
-      <c r="H69" s="45"/>
-      <c r="I69" s="45"/>
-      <c r="J69" s="45"/>
-      <c r="K69" s="45"/>
-      <c r="L69" s="45"/>
-      <c r="M69" s="45"/>
-      <c r="N69" s="45"/>
-      <c r="O69" s="45"/>
-      <c r="P69" s="56">
-        <v>79</v>
-      </c>
-      <c r="Q69" s="57"/>
-    </row>
-    <row r="70" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="44" t="s">
-        <v>170</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="C70" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="D70" s="63" t="s">
-        <v>173</v>
-      </c>
-      <c r="E70" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F70" s="45"/>
-      <c r="G70" s="45"/>
-      <c r="H70" s="45"/>
-      <c r="I70" s="45"/>
-      <c r="J70" s="45"/>
-      <c r="K70" s="45"/>
-      <c r="L70" s="45"/>
-      <c r="M70" s="45">
-        <v>1</v>
-      </c>
-      <c r="N70" s="45"/>
-      <c r="O70" s="45"/>
-      <c r="P70" s="56">
+      <c r="F85" s="45"/>
+      <c r="G85" s="45"/>
+      <c r="H85" s="45"/>
+      <c r="I85" s="45"/>
+      <c r="J85" s="45"/>
+      <c r="K85" s="45"/>
+      <c r="L85" s="45"/>
+      <c r="M85" s="45">
+        <v>1</v>
+      </c>
+      <c r="N85" s="45"/>
+      <c r="O85" s="45"/>
+      <c r="P85" s="56">
         <v>80</v>
       </c>
-      <c r="Q70" s="57"/>
+      <c r="Q85" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8260,19 +9064,19 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="87.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
@@ -8286,7 +9090,7 @@
         <v>140</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>25</v>
@@ -8313,13 +9117,13 @@
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
-        <v>408</v>
+        <v>389</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>414</v>
+        <v>395</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
@@ -8338,13 +9142,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>411</v>
+        <v>392</v>
       </c>
       <c r="D3" t="s">
-        <v>410</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
-        <v>419</v>
+        <v>398</v>
       </c>
       <c r="H3" t="s">
         <v>189</v>
@@ -8361,13 +9165,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="D4" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>399</v>
       </c>
       <c r="H4" t="s">
         <v>189</v>
@@ -8384,13 +9188,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>415</v>
+        <v>402</v>
       </c>
       <c r="D5" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="H5" t="s">
         <v>189</v>
@@ -8407,13 +9211,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>416</v>
+        <v>551</v>
       </c>
       <c r="D6" t="s">
-        <v>418</v>
+        <v>528</v>
       </c>
       <c r="E6" t="s">
-        <v>422</v>
+        <v>552</v>
       </c>
       <c r="H6" t="s">
         <v>189</v>
@@ -8430,13 +9234,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>423</v>
+        <v>575</v>
       </c>
       <c r="D7" t="s">
-        <v>424</v>
+        <v>396</v>
       </c>
       <c r="E7" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="H7" t="s">
         <v>189</v>
@@ -8446,66 +9250,66 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="92">
+      <c r="A8">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>576</v>
+      </c>
+      <c r="D8" t="s">
+        <v>397</v>
+      </c>
+      <c r="E8" t="s">
+        <v>401</v>
+      </c>
+      <c r="H8" t="s">
+        <v>189</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="92">
         <v>2</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92" t="s">
-        <v>426</v>
-      </c>
-      <c r="D8" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>434</v>
-      </c>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="92" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="92" t="s">
+        <v>406</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I8" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D9" t="s">
-        <v>431</v>
-      </c>
-      <c r="E9" t="s">
-        <v>432</v>
-      </c>
-      <c r="H9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9">
+      <c r="I9" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>429</v>
+        <v>407</v>
       </c>
       <c r="D10" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="E10" t="s">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="H10" t="s">
         <v>189</v>
@@ -8515,66 +9319,66 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="92">
+      <c r="A11">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" t="s">
+        <v>412</v>
+      </c>
+      <c r="H11" t="s">
+        <v>189</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="92">
         <v>3</v>
       </c>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92" t="s">
-        <v>437</v>
-      </c>
-      <c r="D11" s="92" t="s">
-        <v>438</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>439</v>
-      </c>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
-      <c r="H11" s="92" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92" t="s">
+        <v>524</v>
+      </c>
+      <c r="D12" s="92" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I11" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>31</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
-        <v>443</v>
-      </c>
-      <c r="D12" t="s">
-        <v>442</v>
-      </c>
-      <c r="E12" t="s">
-        <v>446</v>
-      </c>
-      <c r="H12" t="s">
-        <v>189</v>
-      </c>
-      <c r="I12">
+      <c r="I12" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>440</v>
+        <v>545</v>
       </c>
       <c r="D13" t="s">
-        <v>444</v>
+        <v>418</v>
       </c>
       <c r="E13" t="s">
-        <v>447</v>
+        <v>421</v>
       </c>
       <c r="H13" t="s">
         <v>189</v>
@@ -8585,19 +9389,19 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14">
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>441</v>
+        <v>546</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>419</v>
       </c>
       <c r="E14" t="s">
-        <v>448</v>
+        <v>422</v>
       </c>
       <c r="H14" t="s">
         <v>189</v>
@@ -8608,19 +9412,19 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>449</v>
+        <v>547</v>
       </c>
       <c r="D15" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="E15" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="H15" t="s">
         <v>189</v>
@@ -8631,19 +9435,19 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>450</v>
+        <v>548</v>
       </c>
       <c r="D16" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="E16" t="s">
-        <v>453</v>
+        <v>424</v>
       </c>
       <c r="H16" t="s">
         <v>189</v>
@@ -8654,19 +9458,19 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17">
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="E17" t="s">
-        <v>454</v>
+        <v>425</v>
       </c>
       <c r="H17" t="s">
         <v>189</v>
@@ -8676,66 +9480,66 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="92">
+      <c r="A18">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>550</v>
+      </c>
+      <c r="D18" t="s">
+        <v>426</v>
+      </c>
+      <c r="E18" t="s">
+        <v>426</v>
+      </c>
+      <c r="H18" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="92">
         <v>4</v>
       </c>
-      <c r="B18" s="92"/>
-      <c r="C18" s="92" t="s">
-        <v>455</v>
-      </c>
-      <c r="D18" s="92" t="s">
-        <v>456</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>457</v>
-      </c>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92"/>
-      <c r="H18" s="92" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
+        <v>525</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>427</v>
+      </c>
+      <c r="E19" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I18" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>41</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>469</v>
-      </c>
-      <c r="D19" t="s">
-        <v>458</v>
-      </c>
-      <c r="E19" t="s">
-        <v>458</v>
-      </c>
-      <c r="H19" t="s">
-        <v>189</v>
-      </c>
-      <c r="I19">
+      <c r="I19" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20">
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="D20" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="E20" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="H20" t="s">
         <v>189</v>
@@ -8746,19 +9550,19 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
       <c r="D21" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="E21" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="H21" t="s">
         <v>189</v>
@@ -8769,24 +9573,392 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="D22" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E22" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="H22" t="s">
         <v>189</v>
       </c>
       <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23" t="s">
+        <v>443</v>
+      </c>
+      <c r="D23" t="s">
+        <v>432</v>
+      </c>
+      <c r="E23" t="s">
+        <v>432</v>
+      </c>
+      <c r="H23" t="s">
+        <v>189</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="92">
+        <v>5</v>
+      </c>
+      <c r="B24" s="92"/>
+      <c r="C24" s="92" t="s">
+        <v>501</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>502</v>
+      </c>
+      <c r="E24" s="92" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92" t="s">
+        <v>189</v>
+      </c>
+      <c r="I24" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>51</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>564</v>
+      </c>
+      <c r="D25" t="s">
+        <v>565</v>
+      </c>
+      <c r="E25" t="s">
+        <v>566</v>
+      </c>
+      <c r="H25" t="s">
+        <v>189</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>52</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>503</v>
+      </c>
+      <c r="D26" t="s">
+        <v>509</v>
+      </c>
+      <c r="E26" t="s">
+        <v>504</v>
+      </c>
+      <c r="H26" t="s">
+        <v>189</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>53</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>505</v>
+      </c>
+      <c r="D27" t="s">
+        <v>510</v>
+      </c>
+      <c r="E27" t="s">
+        <v>506</v>
+      </c>
+      <c r="H27" t="s">
+        <v>189</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>54</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>507</v>
+      </c>
+      <c r="D28" t="s">
+        <v>511</v>
+      </c>
+      <c r="E28" t="s">
+        <v>508</v>
+      </c>
+      <c r="H28" t="s">
+        <v>189</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>55</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>512</v>
+      </c>
+      <c r="D29" t="s">
+        <v>513</v>
+      </c>
+      <c r="E29" t="s">
+        <v>514</v>
+      </c>
+      <c r="H29" t="s">
+        <v>189</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>515</v>
+      </c>
+      <c r="D30" t="s">
+        <v>516</v>
+      </c>
+      <c r="E30" t="s">
+        <v>517</v>
+      </c>
+      <c r="H30" t="s">
+        <v>189</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>518</v>
+      </c>
+      <c r="D31" t="s">
+        <v>519</v>
+      </c>
+      <c r="E31" t="s">
+        <v>520</v>
+      </c>
+      <c r="H31" t="s">
+        <v>189</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>58</v>
+      </c>
+      <c r="B32">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>523</v>
+      </c>
+      <c r="D32" t="s">
+        <v>522</v>
+      </c>
+      <c r="E32" t="s">
+        <v>521</v>
+      </c>
+      <c r="H32" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I32" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>59</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>532</v>
+      </c>
+      <c r="D33" t="s">
+        <v>556</v>
+      </c>
+      <c r="E33" t="s">
+        <v>557</v>
+      </c>
+      <c r="H33" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I33" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>510</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>553</v>
+      </c>
+      <c r="D34" t="s">
+        <v>554</v>
+      </c>
+      <c r="E34" t="s">
+        <v>555</v>
+      </c>
+      <c r="H34" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I34" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>511</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>539</v>
+      </c>
+      <c r="D35" t="s">
+        <v>540</v>
+      </c>
+      <c r="E35" t="s">
+        <v>541</v>
+      </c>
+      <c r="H35" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I35" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>512</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>526</v>
+      </c>
+      <c r="D36" t="s">
+        <v>528</v>
+      </c>
+      <c r="E36" t="s">
+        <v>529</v>
+      </c>
+      <c r="H36" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I36" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>513</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>527</v>
+      </c>
+      <c r="D37" t="s">
+        <v>403</v>
+      </c>
+      <c r="E37" t="s">
+        <v>530</v>
+      </c>
+      <c r="H37" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I37" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>514</v>
+      </c>
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>542</v>
+      </c>
+      <c r="D38" t="s">
+        <v>543</v>
+      </c>
+      <c r="E38" t="s">
+        <v>544</v>
+      </c>
+      <c r="H38" s="99" t="s">
+        <v>189</v>
+      </c>
+      <c r="I38" s="99">
         <v>1</v>
       </c>
     </row>
@@ -8827,7 +9999,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>187</v>
@@ -8859,10 +10031,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -8951,16 +10123,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>462</v>
+        <v>433</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>464</v>
+        <v>435</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -8979,16 +10151,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>463</v>
+        <v>434</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
@@ -9007,16 +10179,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>465</v>
+        <v>436</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>466</v>
+        <v>437</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -9096,7 +10268,7 @@
         <v>185</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>4</v>
@@ -9247,13 +10419,13 @@
         <v>185</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>218</v>
@@ -9288,7 +10460,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>468</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -9302,10 +10474,10 @@
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D60" sqref="D60"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9369,10 +10541,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>389</v>
+        <v>370</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>388</v>
+        <v>369</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
@@ -9861,11 +11033,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>501</v>
+        <v>472</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -9979,7 +11151,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -10071,11 +11243,11 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>384</v>
+        <v>365</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>385</v>
+        <v>366</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>15</v>
@@ -10161,11 +11333,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>507</v>
+        <v>472</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -10313,7 +11485,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>355</v>
+        <v>336</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -10343,7 +11515,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -10527,7 +11699,7 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>386</v>
+        <v>367</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -10705,7 +11877,7 @@
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>375</v>
+        <v>356</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -10733,7 +11905,7 @@
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -10763,7 +11935,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -10857,11 +12029,11 @@
         <v>182</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>373</v>
+        <v>354</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -10892,7 +12064,7 @@
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -11065,14 +12237,14 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>378</v>
+        <v>359</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>380</v>
+        <v>361</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>15</v>
@@ -11101,14 +12273,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>379</v>
+        <v>360</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>381</v>
+        <v>362</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
@@ -11131,14 +12303,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B60" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>382</v>
+        <v>363</v>
       </c>
       <c r="E60" s="72" t="s">
         <v>50</v>
@@ -11159,14 +12331,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
-        <v>377</v>
+        <v>358</v>
       </c>
       <c r="B61" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>383</v>
+        <v>364</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>15</v>
@@ -11221,13 +12393,13 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E55" sqref="E55"/>
+      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11300,7 +12472,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>53</v>
@@ -11336,7 +12508,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>53</v>
@@ -11372,7 +12544,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>53</v>
@@ -11380,7 +12552,9 @@
       <c r="E4" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="25"/>
+      <c r="F4" s="25">
+        <v>1</v>
+      </c>
       <c r="G4" s="25">
         <v>1</v>
       </c>
@@ -11408,7 +12582,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -11416,7 +12590,9 @@
       <c r="E5" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="25"/>
+      <c r="F5" s="25">
+        <v>1</v>
+      </c>
       <c r="G5" s="25">
         <v>1</v>
       </c>
@@ -11444,7 +12620,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -11452,7 +12628,9 @@
       <c r="E6" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="25"/>
+      <c r="F6" s="25">
+        <v>1</v>
+      </c>
       <c r="G6" s="25">
         <v>1</v>
       </c>
@@ -11480,7 +12658,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -11488,7 +12666,9 @@
       <c r="E7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="25"/>
+      <c r="F7" s="25">
+        <v>1</v>
+      </c>
       <c r="G7" s="25">
         <v>1</v>
       </c>
@@ -11516,7 +12696,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -11524,7 +12704,9 @@
       <c r="E8" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="25"/>
+      <c r="F8" s="25">
+        <v>1</v>
+      </c>
       <c r="G8" s="25">
         <v>1</v>
       </c>
@@ -11552,7 +12734,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -11560,7 +12742,9 @@
       <c r="E9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="25"/>
+      <c r="F9" s="25">
+        <v>1</v>
+      </c>
       <c r="G9" s="25">
         <v>1</v>
       </c>
@@ -11588,7 +12772,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>53</v>
@@ -11624,7 +12808,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>53</v>
@@ -11632,7 +12816,9 @@
       <c r="E11" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="F11" s="25"/>
+      <c r="F11" s="25">
+        <v>1</v>
+      </c>
       <c r="G11" s="25">
         <v>1</v>
       </c>
@@ -11660,7 +12846,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>53</v>
@@ -11668,7 +12854,9 @@
       <c r="E12" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="F12" s="25"/>
+      <c r="F12" s="25">
+        <v>1</v>
+      </c>
       <c r="G12" s="25">
         <v>1</v>
       </c>
@@ -11696,7 +12884,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>53</v>
@@ -11704,7 +12892,9 @@
       <c r="E13" s="25" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="25"/>
+      <c r="F13" s="25">
+        <v>1</v>
+      </c>
       <c r="G13" s="25">
         <v>1</v>
       </c>
@@ -11732,7 +12922,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>53</v>
@@ -11740,7 +12930,9 @@
       <c r="E14" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="25"/>
+      <c r="F14" s="25">
+        <v>1</v>
+      </c>
       <c r="G14" s="25">
         <v>1</v>
       </c>
@@ -11768,7 +12960,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>53</v>
@@ -11776,7 +12968,9 @@
       <c r="E15" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F15" s="25"/>
+      <c r="F15" s="25">
+        <v>1</v>
+      </c>
       <c r="G15" s="25">
         <v>1</v>
       </c>
@@ -11804,7 +12998,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>53</v>
@@ -11812,7 +13006,9 @@
       <c r="E16" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="25"/>
+      <c r="F16" s="25">
+        <v>1</v>
+      </c>
       <c r="G16" s="25">
         <v>1</v>
       </c>
@@ -11840,7 +13036,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>53</v>
@@ -11848,7 +13044,9 @@
       <c r="E17" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="25"/>
+      <c r="F17" s="25">
+        <v>1</v>
+      </c>
       <c r="G17" s="25">
         <v>1</v>
       </c>
@@ -11876,7 +13074,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>53</v>
@@ -11884,7 +13082,9 @@
       <c r="E18" s="25" t="s">
         <v>162</v>
       </c>
-      <c r="F18" s="25"/>
+      <c r="F18" s="25">
+        <v>1</v>
+      </c>
       <c r="G18" s="25">
         <v>1</v>
       </c>
@@ -11912,15 +13112,17 @@
         <v>22</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>348</v>
-      </c>
-      <c r="F19" s="68"/>
+        <v>329</v>
+      </c>
+      <c r="F19" s="68">
+        <v>1</v>
+      </c>
       <c r="G19" s="68">
         <v>1</v>
       </c>
@@ -11944,15 +13146,17 @@
         <v>22</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>349</v>
-      </c>
-      <c r="F20" s="68"/>
+        <v>330</v>
+      </c>
+      <c r="F20" s="68">
+        <v>1</v>
+      </c>
       <c r="G20" s="68">
         <v>1</v>
       </c>
@@ -11976,15 +13180,17 @@
         <v>22</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>350</v>
-      </c>
-      <c r="F21" s="68"/>
+        <v>331</v>
+      </c>
+      <c r="F21" s="68">
+        <v>1</v>
+      </c>
       <c r="G21" s="68">
         <v>1</v>
       </c>
@@ -12008,15 +13214,17 @@
         <v>22</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>351</v>
-      </c>
-      <c r="F22" s="68"/>
+        <v>332</v>
+      </c>
+      <c r="F22" s="68">
+        <v>1</v>
+      </c>
       <c r="G22" s="68">
         <v>1</v>
       </c>
@@ -12040,15 +13248,17 @@
         <v>22</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>352</v>
-      </c>
-      <c r="F23" s="68"/>
+        <v>333</v>
+      </c>
+      <c r="F23" s="68">
+        <v>1</v>
+      </c>
       <c r="G23" s="68">
         <v>1</v>
       </c>
@@ -12072,15 +13282,17 @@
         <v>22</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>353</v>
-      </c>
-      <c r="F24" s="68"/>
+        <v>334</v>
+      </c>
+      <c r="F24" s="68">
+        <v>1</v>
+      </c>
       <c r="G24" s="68">
         <v>1</v>
       </c>
@@ -12104,15 +13316,17 @@
         <v>22</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>354</v>
-      </c>
-      <c r="F25" s="68"/>
+        <v>335</v>
+      </c>
+      <c r="F25" s="68">
+        <v>1</v>
+      </c>
       <c r="G25" s="68">
         <v>1</v>
       </c>
@@ -12136,15 +13350,17 @@
         <v>22</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E26" s="34" t="s">
-        <v>314</v>
-      </c>
-      <c r="F26" s="34"/>
+        <v>308</v>
+      </c>
+      <c r="F26" s="34">
+        <v>1</v>
+      </c>
       <c r="G26" s="34">
         <v>1</v>
       </c>
@@ -12167,15 +13383,17 @@
         <v>22</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E27" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="F27" s="34"/>
+        <v>309</v>
+      </c>
+      <c r="F27" s="34">
+        <v>1</v>
+      </c>
       <c r="G27" s="34">
         <v>1</v>
       </c>
@@ -12198,15 +13416,17 @@
         <v>22</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D28" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E28" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="F28" s="34"/>
+        <v>310</v>
+      </c>
+      <c r="F28" s="34">
+        <v>1</v>
+      </c>
       <c r="G28" s="34">
         <v>1</v>
       </c>
@@ -12229,15 +13449,17 @@
         <v>22</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E29" s="49" t="s">
-        <v>317</v>
-      </c>
-      <c r="F29" s="34"/>
+        <v>311</v>
+      </c>
+      <c r="F29" s="34">
+        <v>1</v>
+      </c>
       <c r="G29" s="34">
         <v>1</v>
       </c>
@@ -12260,15 +13482,17 @@
         <v>22</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D30" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>318</v>
-      </c>
-      <c r="F30" s="34"/>
+        <v>312</v>
+      </c>
+      <c r="F30" s="34">
+        <v>1</v>
+      </c>
       <c r="G30" s="34">
         <v>1</v>
       </c>
@@ -12277,7 +13501,7 @@
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="34" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K30" s="34"/>
       <c r="L30" s="36">
@@ -12293,15 +13517,17 @@
         <v>22</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>320</v>
-      </c>
-      <c r="F31" s="34"/>
+        <v>314</v>
+      </c>
+      <c r="F31" s="34">
+        <v>1</v>
+      </c>
       <c r="G31" s="34">
         <v>1</v>
       </c>
@@ -12324,15 +13550,17 @@
         <v>22</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>321</v>
-      </c>
-      <c r="F32" s="34"/>
+        <v>315</v>
+      </c>
+      <c r="F32" s="34">
+        <v>1</v>
+      </c>
       <c r="G32" s="34">
         <v>1</v>
       </c>
@@ -12355,15 +13583,17 @@
         <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>322</v>
-      </c>
-      <c r="F33" s="34"/>
+        <v>316</v>
+      </c>
+      <c r="F33" s="34">
+        <v>1</v>
+      </c>
       <c r="G33" s="34">
         <v>1</v>
       </c>
@@ -12386,15 +13616,17 @@
         <v>22</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>324</v>
-      </c>
-      <c r="F34" s="34"/>
+        <v>318</v>
+      </c>
+      <c r="F34" s="34">
+        <v>1</v>
+      </c>
       <c r="G34" s="34">
         <v>1</v>
       </c>
@@ -12403,7 +13635,7 @@
       </c>
       <c r="I34" s="36"/>
       <c r="J34" s="34" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="K34" s="34"/>
       <c r="L34" s="36">
@@ -12419,15 +13651,17 @@
         <v>22</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>325</v>
-      </c>
-      <c r="F35" s="34"/>
+        <v>319</v>
+      </c>
+      <c r="F35" s="34">
+        <v>1</v>
+      </c>
       <c r="G35" s="34">
         <v>1</v>
       </c>
@@ -12450,15 +13684,17 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>328</v>
-      </c>
-      <c r="F36" s="34"/>
+        <v>322</v>
+      </c>
+      <c r="F36" s="34">
+        <v>1</v>
+      </c>
       <c r="G36" s="34">
         <v>1</v>
       </c>
@@ -12481,15 +13717,17 @@
         <v>22</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="F37" s="34"/>
+        <v>323</v>
+      </c>
+      <c r="F37" s="34">
+        <v>1</v>
+      </c>
       <c r="G37" s="34">
         <v>1</v>
       </c>
@@ -12512,15 +13750,17 @@
         <v>22</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>326</v>
-      </c>
-      <c r="F38" s="34"/>
+        <v>320</v>
+      </c>
+      <c r="F38" s="34">
+        <v>1</v>
+      </c>
       <c r="G38" s="34">
         <v>1</v>
       </c>
@@ -12543,15 +13783,17 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>327</v>
-      </c>
-      <c r="F39" s="34"/>
+        <v>321</v>
+      </c>
+      <c r="F39" s="34">
+        <v>1</v>
+      </c>
       <c r="G39" s="34">
         <v>1</v>
       </c>
@@ -12574,15 +13816,17 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>330</v>
-      </c>
-      <c r="F40" s="34"/>
+        <v>324</v>
+      </c>
+      <c r="F40" s="34">
+        <v>1</v>
+      </c>
       <c r="G40" s="34">
         <v>1</v>
       </c>
@@ -12605,15 +13849,17 @@
         <v>22</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>335</v>
-      </c>
-      <c r="F41" s="34"/>
+        <v>325</v>
+      </c>
+      <c r="F41" s="34">
+        <v>1</v>
+      </c>
       <c r="G41" s="34">
         <v>1</v>
       </c>
@@ -12636,15 +13882,17 @@
         <v>22</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>336</v>
-      </c>
-      <c r="F42" s="34"/>
+        <v>326</v>
+      </c>
+      <c r="F42" s="34">
+        <v>1</v>
+      </c>
       <c r="G42" s="34">
         <v>1</v>
       </c>
@@ -12667,15 +13915,17 @@
         <v>22</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>169</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="F43" s="34"/>
+        <v>327</v>
+      </c>
+      <c r="F43" s="34">
+        <v>1</v>
+      </c>
       <c r="G43" s="34">
         <v>1</v>
       </c>
@@ -12691,407 +13941,103 @@
       <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="34">
+      <c r="A44" s="102">
         <v>119</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="B44" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D44" s="35" t="s">
+      <c r="C44" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>331</v>
-      </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34">
-        <v>1</v>
-      </c>
-      <c r="H44" s="34">
-        <v>1</v>
-      </c>
-      <c r="I44" s="3"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="36">
-        <v>1</v>
-      </c>
-      <c r="M44" s="3"/>
+      <c r="E44" s="103" t="s">
+        <v>580</v>
+      </c>
+      <c r="F44" s="102">
+        <v>1</v>
+      </c>
+      <c r="G44" s="102">
+        <v>1</v>
+      </c>
+      <c r="H44" s="102">
+        <v>1</v>
+      </c>
+      <c r="I44" s="104"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="102"/>
+      <c r="L44" s="105">
+        <v>1</v>
+      </c>
+      <c r="M44" s="104"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="34">
+      <c r="A45" s="102">
         <v>120</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D45" s="35" t="s">
+      <c r="C45" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="49" t="s">
-        <v>332</v>
-      </c>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34">
-        <v>1</v>
-      </c>
-      <c r="H45" s="34">
-        <v>1</v>
-      </c>
-      <c r="I45" s="3"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="36">
-        <v>1</v>
-      </c>
-      <c r="M45" s="3"/>
+      <c r="E45" s="103" t="s">
+        <v>581</v>
+      </c>
+      <c r="F45" s="102">
+        <v>1</v>
+      </c>
+      <c r="G45" s="102">
+        <v>1</v>
+      </c>
+      <c r="H45" s="102">
+        <v>1</v>
+      </c>
+      <c r="I45" s="104"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="102"/>
+      <c r="L45" s="105">
+        <v>1</v>
+      </c>
+      <c r="M45" s="104"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="34">
+      <c r="A46" s="102">
         <v>121</v>
       </c>
-      <c r="B46" s="34" t="s">
+      <c r="B46" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D46" s="35" t="s">
+      <c r="C46" s="102" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="49" t="s">
-        <v>333</v>
-      </c>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34">
-        <v>1</v>
-      </c>
-      <c r="H46" s="34">
-        <v>1</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="36">
-        <v>1</v>
-      </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="34">
-        <v>122</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E47" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="F47" s="34"/>
-      <c r="G47" s="34">
-        <v>1</v>
-      </c>
-      <c r="H47" s="34">
-        <v>1</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="34"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="36">
-        <v>1</v>
-      </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="34">
-        <v>123</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C48" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D48" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E48" s="49" t="s">
-        <v>338</v>
-      </c>
-      <c r="F48" s="34"/>
-      <c r="G48" s="34">
-        <v>1</v>
-      </c>
-      <c r="H48" s="34">
-        <v>1</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="34"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="36">
-        <v>1</v>
-      </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="34">
-        <v>124</v>
-      </c>
-      <c r="B49" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D49" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="49" t="s">
-        <v>339</v>
-      </c>
-      <c r="F49" s="34"/>
-      <c r="G49" s="34">
-        <v>1</v>
-      </c>
-      <c r="H49" s="34">
-        <v>1</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="34"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="36">
-        <v>1</v>
-      </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="34">
-        <v>125</v>
-      </c>
-      <c r="B50" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D50" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="49" t="s">
-        <v>340</v>
-      </c>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34">
-        <v>1</v>
-      </c>
-      <c r="H50" s="34">
-        <v>1</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="36">
-        <v>1</v>
-      </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="34">
-        <v>126</v>
-      </c>
-      <c r="B51" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C51" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D51" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>346</v>
-      </c>
-      <c r="F51" s="34"/>
-      <c r="G51" s="34">
-        <v>1</v>
-      </c>
-      <c r="H51" s="34">
-        <v>1</v>
-      </c>
-      <c r="I51" s="3"/>
-      <c r="J51" s="34"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="36">
-        <v>1</v>
-      </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="34">
-        <v>127</v>
-      </c>
-      <c r="B52" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="F52" s="34"/>
-      <c r="G52" s="34">
-        <v>1</v>
-      </c>
-      <c r="H52" s="34">
-        <v>1</v>
-      </c>
-      <c r="I52" s="3"/>
-      <c r="J52" s="34"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="36">
-        <v>1</v>
-      </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="34">
-        <v>128</v>
-      </c>
-      <c r="B53" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C53" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D53" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E53" s="49" t="s">
-        <v>342</v>
-      </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34">
-        <v>1</v>
-      </c>
-      <c r="H53" s="34">
-        <v>1</v>
-      </c>
-      <c r="I53" s="3"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="36">
-        <v>1</v>
-      </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="34">
-        <v>129</v>
-      </c>
-      <c r="B54" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="49" t="s">
-        <v>345</v>
-      </c>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34">
-        <v>1</v>
-      </c>
-      <c r="H54" s="34">
-        <v>1</v>
-      </c>
-      <c r="I54" s="3"/>
-      <c r="J54" s="34"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="36">
-        <v>1</v>
-      </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="34">
-        <v>130</v>
-      </c>
-      <c r="B55" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E55" s="49" t="s">
-        <v>343</v>
-      </c>
-      <c r="F55" s="34"/>
-      <c r="G55" s="34">
-        <v>1</v>
-      </c>
-      <c r="H55" s="34">
-        <v>1</v>
-      </c>
-      <c r="I55" s="3"/>
-      <c r="J55" s="34"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="36">
-        <v>1</v>
-      </c>
-      <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="34">
-        <v>131</v>
-      </c>
-      <c r="B56" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="49" t="s">
-        <v>344</v>
-      </c>
-      <c r="F56" s="34"/>
-      <c r="G56" s="34">
-        <v>1</v>
-      </c>
-      <c r="H56" s="34">
-        <v>1</v>
-      </c>
-      <c r="I56" s="3"/>
-      <c r="J56" s="34"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="36">
-        <v>1</v>
-      </c>
-      <c r="M56" s="3"/>
+      <c r="E46" s="103" t="s">
+        <v>582</v>
+      </c>
+      <c r="F46" s="102">
+        <v>1</v>
+      </c>
+      <c r="G46" s="102">
+        <v>1</v>
+      </c>
+      <c r="H46" s="102">
+        <v>1</v>
+      </c>
+      <c r="I46" s="104"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="102"/>
+      <c r="L46" s="105">
+        <v>1</v>
+      </c>
+      <c r="M46" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17287AD5-4D99-C048-8F78-D569C5797F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F644358-FC96-C842-8992-F24969A768AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1753,15 +1753,9 @@
     <t>Nhóm DEV nên cung cấp tất cả api và menus</t>
   </si>
   <si>
-    <t>[3,4,5,6,7,8,10,11,12,13,14,15,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131]</t>
-  </si>
-  <si>
     <t>[1,11,12,13,14,15,16,2,21,22,23,24,3,31,4]</t>
   </si>
   <si>
-    <t>[101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131]</t>
-  </si>
-  <si>
     <t>[2,21,22,23,24,3,31,4]</t>
   </si>
   <si>
@@ -2078,6 +2072,12 @@
   </si>
   <si>
     <t>/update-direct-loop</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131, 132,133,134,135,136,137,138,139,140]</t>
+  </si>
+  <si>
+    <t>[101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131,132,133,134,135,136,137,138,139,140]</t>
   </si>
 </sst>
 </file>
@@ -4905,13 +4905,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
     <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
@@ -4938,15 +4938,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="96" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="96">
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
+        <v>581</v>
+      </c>
+      <c r="C2" s="97" t="s">
         <v>474</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>475</v>
       </c>
       <c r="D2" s="96" t="s">
         <v>91</v>
@@ -4958,21 +4958,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="94">
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>475</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>479</v>
-      </c>
       <c r="E3" s="94" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5281,13 +5281,13 @@
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="G9" s="91" t="s">
         <v>463</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5431,13 +5431,13 @@
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G14" s="91" t="s">
         <v>470</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5491,7 +5491,7 @@
         <v>454</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="G16" s="91" t="s">
         <v>469</v>
@@ -6137,7 +6137,7 @@
         <v>232</v>
       </c>
       <c r="B4" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D4" t="s">
         <v>189</v>
@@ -6148,7 +6148,7 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D5" t="s">
         <v>189</v>
@@ -6170,7 +6170,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D7" t="s">
         <v>189</v>
@@ -6181,7 +6181,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D8" t="s">
         <v>189</v>
@@ -6243,10 +6243,10 @@
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C58" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6829,13 +6829,13 @@
         <v>222</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C17" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>488</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>490</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -6992,13 +6992,13 @@
         <v>222</v>
       </c>
       <c r="B22" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>491</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>492</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>493</v>
       </c>
       <c r="E22" s="51" t="s">
         <v>50</v>
@@ -7155,7 +7155,7 @@
         <v>279</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7184,13 +7184,13 @@
         <v>222</v>
       </c>
       <c r="B28" s="51" t="s">
+        <v>492</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>493</v>
+      </c>
+      <c r="D28" s="51" t="s">
         <v>494</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>495</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>496</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7215,13 +7215,13 @@
         <v>222</v>
       </c>
       <c r="B29" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>533</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>534</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>535</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7246,13 +7246,13 @@
         <v>222</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>535</v>
+      </c>
+      <c r="D30" s="51" t="s">
         <v>536</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>537</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>538</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>18</v>
@@ -7283,7 +7283,7 @@
         <v>244</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E31" s="100" t="s">
         <v>98</v>
@@ -7303,16 +7303,16 @@
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>223</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>98</v>
@@ -7332,7 +7332,7 @@
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>228</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B34" s="100" t="s">
         <v>229</v>
@@ -7394,16 +7394,16 @@
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
+        <v>565</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>566</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="D35" s="100" t="s">
         <v>568</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>569</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>570</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
@@ -7425,16 +7425,16 @@
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E36" s="100" t="s">
         <v>98</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B37" s="100" t="s">
         <v>206</v>
@@ -7483,7 +7483,7 @@
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B38" s="100" t="s">
         <v>232</v>
@@ -7512,7 +7512,7 @@
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>19</v>
@@ -7543,7 +7543,7 @@
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>45</v>
@@ -7572,7 +7572,7 @@
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>0</v>
@@ -7581,7 +7581,7 @@
         <v>237</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E41" s="100" t="s">
         <v>98</v>
@@ -8103,7 +8103,7 @@
         <v>300</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
@@ -8168,10 +8168,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>98</v>
@@ -8266,7 +8266,7 @@
         <v>239</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>50</v>
@@ -8366,10 +8366,10 @@
         <v>328</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>15</v>
@@ -9211,13 +9211,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D6" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E6" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H6" t="s">
         <v>189</v>
@@ -9234,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D7" t="s">
         <v>396</v>
@@ -9257,7 +9257,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D8" t="s">
         <v>397</v>
@@ -9347,7 +9347,7 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>416</v>
@@ -9372,7 +9372,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D13" t="s">
         <v>418</v>
@@ -9395,7 +9395,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D14" t="s">
         <v>419</v>
@@ -9418,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D15" t="s">
         <v>420</v>
@@ -9441,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D16" t="s">
         <v>424</v>
@@ -9464,7 +9464,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D17" t="s">
         <v>425</v>
@@ -9487,7 +9487,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D18" t="s">
         <v>426</v>
@@ -9508,7 +9508,7 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>427</v>
@@ -9623,10 +9623,10 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>428</v>
@@ -9648,13 +9648,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>562</v>
+      </c>
+      <c r="D25" t="s">
+        <v>563</v>
+      </c>
+      <c r="E25" t="s">
         <v>564</v>
-      </c>
-      <c r="D25" t="s">
-        <v>565</v>
-      </c>
-      <c r="E25" t="s">
-        <v>566</v>
       </c>
       <c r="H25" t="s">
         <v>189</v>
@@ -9671,13 +9671,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D26" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E26" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H26" t="s">
         <v>189</v>
@@ -9694,13 +9694,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H27" t="s">
         <v>189</v>
@@ -9717,13 +9717,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D28" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E28" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="H28" t="s">
         <v>189</v>
@@ -9740,13 +9740,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>510</v>
+      </c>
+      <c r="D29" t="s">
+        <v>511</v>
+      </c>
+      <c r="E29" t="s">
         <v>512</v>
-      </c>
-      <c r="D29" t="s">
-        <v>513</v>
-      </c>
-      <c r="E29" t="s">
-        <v>514</v>
       </c>
       <c r="H29" t="s">
         <v>189</v>
@@ -9763,13 +9763,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>513</v>
+      </c>
+      <c r="D30" t="s">
+        <v>514</v>
+      </c>
+      <c r="E30" t="s">
         <v>515</v>
-      </c>
-      <c r="D30" t="s">
-        <v>516</v>
-      </c>
-      <c r="E30" t="s">
-        <v>517</v>
       </c>
       <c r="H30" t="s">
         <v>189</v>
@@ -9786,13 +9786,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>516</v>
+      </c>
+      <c r="D31" t="s">
+        <v>517</v>
+      </c>
+      <c r="E31" t="s">
         <v>518</v>
-      </c>
-      <c r="D31" t="s">
-        <v>519</v>
-      </c>
-      <c r="E31" t="s">
-        <v>520</v>
       </c>
       <c r="H31" t="s">
         <v>189</v>
@@ -9809,13 +9809,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D32" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H32" s="99" t="s">
         <v>189</v>
@@ -9832,13 +9832,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D33" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E33" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="H33" s="99" t="s">
         <v>189</v>
@@ -9855,13 +9855,13 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>551</v>
+      </c>
+      <c r="D34" t="s">
+        <v>552</v>
+      </c>
+      <c r="E34" t="s">
         <v>553</v>
-      </c>
-      <c r="D34" t="s">
-        <v>554</v>
-      </c>
-      <c r="E34" t="s">
-        <v>555</v>
       </c>
       <c r="H34" s="99" t="s">
         <v>189</v>
@@ -9878,13 +9878,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>537</v>
+      </c>
+      <c r="D35" t="s">
+        <v>538</v>
+      </c>
+      <c r="E35" t="s">
         <v>539</v>
-      </c>
-      <c r="D35" t="s">
-        <v>540</v>
-      </c>
-      <c r="E35" t="s">
-        <v>541</v>
       </c>
       <c r="H35" s="99" t="s">
         <v>189</v>
@@ -9901,13 +9901,13 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>524</v>
+      </c>
+      <c r="D36" t="s">
         <v>526</v>
       </c>
-      <c r="D36" t="s">
-        <v>528</v>
-      </c>
       <c r="E36" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H36" s="99" t="s">
         <v>189</v>
@@ -9924,13 +9924,13 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D37" t="s">
         <v>403</v>
       </c>
       <c r="E37" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="H37" s="99" t="s">
         <v>189</v>
@@ -9947,13 +9947,13 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>540</v>
+      </c>
+      <c r="D38" t="s">
+        <v>541</v>
+      </c>
+      <c r="E38" t="s">
         <v>542</v>
-      </c>
-      <c r="D38" t="s">
-        <v>543</v>
-      </c>
-      <c r="E38" t="s">
-        <v>544</v>
       </c>
       <c r="H38" s="99" t="s">
         <v>189</v>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -11935,7 +11935,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12396,10 +12396,10 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12483,7 +12483,9 @@
       <c r="F2" s="25">
         <v>1</v>
       </c>
-      <c r="G2" s="25"/>
+      <c r="G2" s="25">
+        <v>1</v>
+      </c>
       <c r="H2" s="25">
         <v>1</v>
       </c>
@@ -12519,7 +12521,9 @@
       <c r="F3" s="25">
         <v>1</v>
       </c>
-      <c r="G3" s="25"/>
+      <c r="G3" s="25">
+        <v>1</v>
+      </c>
       <c r="H3" s="25">
         <v>1</v>
       </c>
@@ -12783,7 +12787,9 @@
       <c r="F10" s="25">
         <v>1</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="25">
+        <v>1</v>
+      </c>
       <c r="H10" s="25">
         <v>1</v>
       </c>
@@ -13139,7 +13145,7 @@
       <c r="N19" s="73"/>
     </row>
     <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68">
+      <c r="A20" s="25">
         <v>52</v>
       </c>
       <c r="B20" s="68" t="s">
@@ -13207,7 +13213,7 @@
       <c r="N21" s="73"/>
     </row>
     <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="68">
+      <c r="A22" s="25">
         <v>54</v>
       </c>
       <c r="B22" s="68" t="s">
@@ -13275,7 +13281,7 @@
       <c r="N23" s="73"/>
     </row>
     <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="68">
+      <c r="A24" s="25">
         <v>56</v>
       </c>
       <c r="B24" s="68" t="s">
@@ -13954,7 +13960,7 @@
         <v>169</v>
       </c>
       <c r="E44" s="103" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F44" s="102">
         <v>1</v>
@@ -13987,7 +13993,7 @@
         <v>169</v>
       </c>
       <c r="E45" s="103" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F45" s="102">
         <v>1</v>
@@ -14020,7 +14026,7 @@
         <v>169</v>
       </c>
       <c r="E46" s="103" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F46" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F644358-FC96-C842-8992-F24969A768AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="20055" tabRatio="800" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -239,17 +238,26 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={152BA087-38CF-9641-BBDF-2A7034154D08}</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{152BA087-38CF-9641-BBDF-2A7034154D08}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Khi đơn vị cập nhập thực hiện thì nhập thông tin vào đây</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -257,17 +265,26 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>tc={A523B58E-E469-E744-B82E-2CE5FD4DC608}</author>
+    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A523B58E-E469-E744-B82E-2CE5FD4DC608}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
-        <t>[Threaded comment]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Khi đơn vị thay đổi trạng thái thì cập nhập mô tả cho thay đổi đó ở đây</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -275,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1410" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="586">
   <si>
     <t>status</t>
   </si>
@@ -2079,11 +2096,20 @@
   <si>
     <t>[101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131,132,133,134,135,136,137,138,139,140]</t>
   </si>
+  <si>
+    <t>/get-organizations</t>
+  </si>
+  <si>
+    <t>/create-organization</t>
+  </si>
+  <si>
+    <t>/update-organization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4348,9 +4374,9 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
-    <cellStyle name="Normal 4" xfId="738" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
-    <cellStyle name="Normal 5" xfId="739" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="738"/>
+    <cellStyle name="Normal 5" xfId="739"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4447,23 +4473,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4499,23 +4508,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4707,26 +4699,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="9" customWidth="1"/>
-    <col min="7" max="64" width="11.5" style="9" customWidth="1"/>
-    <col min="65" max="16384" width="9.1640625" style="9"/>
+    <col min="6" max="6" width="55.42578125" style="9" customWidth="1"/>
+    <col min="7" max="64" width="11.42578125" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -4746,7 +4738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -4766,7 +4758,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4786,7 +4778,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>98</v>
       </c>
@@ -4806,7 +4798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4826,7 +4818,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
@@ -4846,7 +4838,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
@@ -4866,7 +4858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
@@ -4898,7 +4890,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4908,17 +4900,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4938,7 +4930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="96">
         <v>99</v>
       </c>
@@ -4958,7 +4950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="94">
         <v>21</v>
       </c>
@@ -4990,31 +4982,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="85" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="89" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.83203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="85"/>
-    <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="85"/>
+    <col min="8" max="8" width="78.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="85"/>
+    <col min="12" max="12" width="14.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -5058,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -5088,7 +5080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -5118,7 +5110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -5148,7 +5140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -5178,7 +5170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -5208,7 +5200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -5238,7 +5230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -5268,7 +5260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -5298,7 +5290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5328,7 +5320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5358,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5388,7 +5380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5418,7 +5410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
@@ -5448,7 +5440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5478,7 +5470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -5520,29 +5512,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5577,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5602,7 +5594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5627,7 +5619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5652,7 +5644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5689,7 +5681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5699,19 +5691,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5740,7 +5732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5757,7 +5749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5777,7 +5769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5797,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5817,7 +5809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5837,7 +5829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5857,7 +5849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5877,7 +5869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5897,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5917,7 +5909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5937,7 +5929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5957,7 +5949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5977,7 +5969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5997,7 +5989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6017,7 +6009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6037,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6057,7 +6049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6083,20 +6075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BC6DBE-9909-F047-9350-C064ACCA54DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
@@ -6110,7 +6102,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -6121,7 +6113,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6132,7 +6124,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -6143,7 +6135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6154,7 +6146,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +6157,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -6176,7 +6168,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6187,7 +6179,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6198,37 +6190,37 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>189</v>
       </c>
@@ -6239,7 +6231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6249,26 +6241,26 @@
       <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
@@ -6319,7 +6311,7 @@
       </c>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>258</v>
       </c>
@@ -6358,7 +6350,7 @@
       </c>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>258</v>
       </c>
@@ -6391,7 +6383,7 @@
       </c>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>258</v>
       </c>
@@ -6424,7 +6416,7 @@
       </c>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>258</v>
       </c>
@@ -6457,7 +6449,7 @@
       </c>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>258</v>
       </c>
@@ -6490,7 +6482,7 @@
       </c>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>258</v>
       </c>
@@ -6523,7 +6515,7 @@
       </c>
       <c r="Q7" s="57"/>
     </row>
-    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>258</v>
       </c>
@@ -6556,7 +6548,7 @@
       </c>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>258</v>
       </c>
@@ -6587,7 +6579,7 @@
       </c>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>258</v>
       </c>
@@ -6622,7 +6614,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>258</v>
       </c>
@@ -6653,7 +6645,7 @@
       </c>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>258</v>
       </c>
@@ -6686,7 +6678,7 @@
       </c>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>258</v>
       </c>
@@ -6719,7 +6711,7 @@
       </c>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>222</v>
       </c>
@@ -6758,7 +6750,7 @@
       </c>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>222</v>
       </c>
@@ -6791,7 +6783,7 @@
       </c>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
@@ -6824,7 +6816,7 @@
       </c>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>222</v>
       </c>
@@ -6855,7 +6847,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>222</v>
       </c>
@@ -6888,7 +6880,7 @@
       </c>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>222</v>
       </c>
@@ -6921,7 +6913,7 @@
       </c>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>222</v>
       </c>
@@ -6954,7 +6946,7 @@
       </c>
       <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>222</v>
       </c>
@@ -6987,7 +6979,7 @@
       </c>
       <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>222</v>
       </c>
@@ -7016,7 +7008,7 @@
       <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>222</v>
       </c>
@@ -7047,7 +7039,7 @@
       </c>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>222</v>
       </c>
@@ -7080,7 +7072,7 @@
       </c>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>222</v>
       </c>
@@ -7111,7 +7103,7 @@
       </c>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>222</v>
       </c>
@@ -7144,7 +7136,7 @@
       </c>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>222</v>
       </c>
@@ -7179,7 +7171,7 @@
       </c>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>222</v>
       </c>
@@ -7210,7 +7202,7 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>222</v>
       </c>
@@ -7241,7 +7233,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>222</v>
       </c>
@@ -7272,7 +7264,7 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="100" t="s">
         <v>565</v>
       </c>
@@ -7301,7 +7293,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
     </row>
-    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="100" t="s">
         <v>565</v>
       </c>
@@ -7330,7 +7322,7 @@
       <c r="P32" s="56"/>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
         <v>565</v>
       </c>
@@ -7361,7 +7353,7 @@
       <c r="P33" s="56"/>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
         <v>565</v>
       </c>
@@ -7392,7 +7384,7 @@
       <c r="P34" s="56"/>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100" t="s">
         <v>565</v>
       </c>
@@ -7423,7 +7415,7 @@
       <c r="P35" s="56"/>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="100" t="s">
         <v>565</v>
       </c>
@@ -7452,7 +7444,7 @@
       <c r="P36" s="56"/>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="100" t="s">
         <v>565</v>
       </c>
@@ -7481,7 +7473,7 @@
       <c r="P37" s="56"/>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="100" t="s">
         <v>565</v>
       </c>
@@ -7510,7 +7502,7 @@
       <c r="P38" s="56"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="100" t="s">
         <v>565</v>
       </c>
@@ -7541,7 +7533,7 @@
       <c r="P39" s="56"/>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="100" t="s">
         <v>565</v>
       </c>
@@ -7570,7 +7562,7 @@
       <c r="P40" s="56"/>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="100" t="s">
         <v>565</v>
       </c>
@@ -7599,7 +7591,7 @@
       <c r="P41" s="56"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>281</v>
       </c>
@@ -7630,7 +7622,7 @@
       </c>
       <c r="Q42" s="59"/>
     </row>
-    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>281</v>
       </c>
@@ -7661,7 +7653,7 @@
       </c>
       <c r="Q43" s="59"/>
     </row>
-    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>281</v>
       </c>
@@ -7696,7 +7688,7 @@
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>281</v>
       </c>
@@ -7725,7 +7717,7 @@
       </c>
       <c r="Q45" s="59"/>
     </row>
-    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>281</v>
       </c>
@@ -7758,7 +7750,7 @@
       </c>
       <c r="Q46" s="59"/>
     </row>
-    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>281</v>
       </c>
@@ -7791,7 +7783,7 @@
       </c>
       <c r="Q47" s="59"/>
     </row>
-    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>281</v>
       </c>
@@ -7822,7 +7814,7 @@
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>281</v>
       </c>
@@ -7855,7 +7847,7 @@
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>281</v>
       </c>
@@ -7886,7 +7878,7 @@
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>281</v>
       </c>
@@ -7919,7 +7911,7 @@
       </c>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>280</v>
       </c>
@@ -7958,7 +7950,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
         <v>280</v>
       </c>
@@ -7993,7 +7985,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>280</v>
       </c>
@@ -8026,7 +8018,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>280</v>
       </c>
@@ -8059,7 +8051,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>280</v>
       </c>
@@ -8092,7 +8084,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>280</v>
       </c>
@@ -8127,7 +8119,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>280</v>
       </c>
@@ -8160,7 +8152,7 @@
       </c>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>280</v>
       </c>
@@ -8191,7 +8183,7 @@
       </c>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>280</v>
       </c>
@@ -8222,7 +8214,7 @@
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
         <v>280</v>
       </c>
@@ -8255,7 +8247,7 @@
       </c>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
         <v>280</v>
       </c>
@@ -8286,7 +8278,7 @@
       </c>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
         <v>280</v>
       </c>
@@ -8319,7 +8311,7 @@
       </c>
       <c r="Q63" s="57"/>
     </row>
-    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>218</v>
       </c>
@@ -8358,7 +8350,7 @@
       </c>
       <c r="Q64" s="59"/>
     </row>
-    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>218</v>
       </c>
@@ -8391,7 +8383,7 @@
       </c>
       <c r="Q65" s="59"/>
     </row>
-    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>218</v>
       </c>
@@ -8426,7 +8418,7 @@
       </c>
       <c r="Q66" s="59"/>
     </row>
-    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>218</v>
       </c>
@@ -8459,7 +8451,7 @@
       </c>
       <c r="Q67" s="59"/>
     </row>
-    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>218</v>
       </c>
@@ -8492,7 +8484,7 @@
       </c>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>218</v>
       </c>
@@ -8525,7 +8517,7 @@
       </c>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>218</v>
       </c>
@@ -8558,7 +8550,7 @@
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>218</v>
       </c>
@@ -8589,7 +8581,7 @@
       </c>
       <c r="Q71" s="59"/>
     </row>
-    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>218</v>
       </c>
@@ -8622,7 +8614,7 @@
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>218</v>
       </c>
@@ -8653,7 +8645,7 @@
       </c>
       <c r="Q73" s="59"/>
     </row>
-    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>218</v>
       </c>
@@ -8686,7 +8678,7 @@
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>218</v>
       </c>
@@ -8719,7 +8711,7 @@
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>170</v>
       </c>
@@ -8758,7 +8750,7 @@
       </c>
       <c r="Q76" s="57"/>
     </row>
-    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>170</v>
       </c>
@@ -8791,7 +8783,7 @@
       </c>
       <c r="Q77" s="57"/>
     </row>
-    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>170</v>
       </c>
@@ -8826,7 +8818,7 @@
       </c>
       <c r="Q78" s="57"/>
     </row>
-    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>170</v>
       </c>
@@ -8859,7 +8851,7 @@
       </c>
       <c r="Q79" s="57"/>
     </row>
-    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
         <v>170</v>
       </c>
@@ -8892,7 +8884,7 @@
       </c>
       <c r="Q80" s="57"/>
     </row>
-    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
         <v>170</v>
       </c>
@@ -8923,7 +8915,7 @@
       </c>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
         <v>170</v>
       </c>
@@ -8956,7 +8948,7 @@
       </c>
       <c r="Q82" s="57"/>
     </row>
-    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
         <v>170</v>
       </c>
@@ -8987,7 +8979,7 @@
       </c>
       <c r="Q83" s="57"/>
     </row>
-    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
         <v>170</v>
       </c>
@@ -9020,7 +9012,7 @@
       </c>
       <c r="Q84" s="57"/>
     </row>
-    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
         <v>170</v>
       </c>
@@ -9060,7 +9052,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9070,19 +9062,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9111,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -9134,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9157,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9180,7 +9172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9203,7 +9195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9226,7 +9218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9249,7 +9241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9272,7 +9264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <v>2</v>
       </c>
@@ -9295,7 +9287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9318,7 +9310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9341,7 +9333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
         <v>3</v>
       </c>
@@ -9364,7 +9356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9387,7 +9379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9410,7 +9402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9433,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9456,7 +9448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9479,7 +9471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9502,7 +9494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="92">
         <v>4</v>
       </c>
@@ -9525,7 +9517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9548,7 +9540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9571,7 +9563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9594,7 +9586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9617,7 +9609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="92">
         <v>5</v>
       </c>
@@ -9640,7 +9632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9663,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9686,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9709,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9732,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9755,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9778,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9801,7 +9793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9824,7 +9816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9847,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>510</v>
       </c>
@@ -9870,7 +9862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>511</v>
       </c>
@@ -9893,7 +9885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>512</v>
       </c>
@@ -9916,7 +9908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>513</v>
       </c>
@@ -9939,7 +9931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>514</v>
       </c>
@@ -9969,7 +9961,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9979,16 +9971,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="12" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -10026,7 +10018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10055,7 +10047,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10065,22 +10057,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10118,7 +10110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -10146,7 +10138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -10174,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -10202,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10216,7 +10208,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10236,7 +10228,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10246,18 +10238,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10292,7 +10284,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10306,7 +10298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10320,7 +10312,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10334,7 +10326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10348,7 +10340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10362,7 +10354,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10383,7 +10375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10393,22 +10385,22 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
@@ -10446,7 +10438,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10470,7 +10462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10480,27 +10472,27 @@
       <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -10550,7 +10542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -10586,7 +10578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -10614,7 +10606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -10644,7 +10636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -10674,7 +10666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -10708,7 +10700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -10736,7 +10728,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10764,7 +10756,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10792,7 +10784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -10820,7 +10812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -10850,7 +10842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -10878,7 +10870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -10908,7 +10900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -10936,7 +10928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -10964,7 +10956,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
         <v>38</v>
       </c>
@@ -10998,7 +10990,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
         <v>38</v>
       </c>
@@ -11028,7 +11020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>38</v>
       </c>
@@ -11056,7 +11048,7 @@
       <c r="O18" s="80"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>38</v>
       </c>
@@ -11086,7 +11078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
         <v>38</v>
       </c>
@@ -11114,7 +11106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
         <v>38</v>
       </c>
@@ -11142,7 +11134,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>38</v>
       </c>
@@ -11172,7 +11164,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>38</v>
       </c>
@@ -11202,7 +11194,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -11238,7 +11230,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -11268,7 +11260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11298,7 +11290,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -11328,7 +11320,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -11358,7 +11350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -11388,7 +11380,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -11418,7 +11410,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -11448,7 +11440,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -11476,7 +11468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -11506,7 +11498,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -11536,7 +11528,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
         <v>145</v>
       </c>
@@ -11572,7 +11564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
         <v>145</v>
       </c>
@@ -11600,7 +11592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>145</v>
       </c>
@@ -11630,7 +11622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>145</v>
       </c>
@@ -11660,7 +11652,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
         <v>145</v>
       </c>
@@ -11690,7 +11682,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>145</v>
       </c>
@@ -11720,7 +11712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>145</v>
       </c>
@@ -11750,7 +11742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>145</v>
       </c>
@@ -11780,7 +11772,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
         <v>145</v>
       </c>
@@ -11810,7 +11802,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>145</v>
       </c>
@@ -11840,7 +11832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>145</v>
       </c>
@@ -11868,7 +11860,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>145</v>
       </c>
@@ -11896,7 +11888,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>145</v>
       </c>
@@ -11926,7 +11918,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>145</v>
       </c>
@@ -11956,7 +11948,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>182</v>
       </c>
@@ -11993,7 +11985,7 @@
       </c>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>182</v>
       </c>
@@ -12024,7 +12016,7 @@
       </c>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
         <v>182</v>
       </c>
@@ -12055,7 +12047,7 @@
       </c>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
         <v>182</v>
       </c>
@@ -12086,7 +12078,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>182</v>
       </c>
@@ -12115,7 +12107,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>182</v>
       </c>
@@ -12144,7 +12136,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>182</v>
       </c>
@@ -12173,7 +12165,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
         <v>182</v>
       </c>
@@ -12204,7 +12196,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
         <v>182</v>
       </c>
@@ -12235,7 +12227,7 @@
       </c>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
         <v>358</v>
       </c>
@@ -12271,7 +12263,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>358</v>
       </c>
@@ -12301,7 +12293,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
         <v>358</v>
       </c>
@@ -12329,7 +12321,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
         <v>358</v>
       </c>
@@ -12359,7 +12351,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
       <c r="C62" s="68"/>
@@ -12389,38 +12381,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -12464,7 +12456,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -12502,7 +12494,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -12540,7 +12532,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -12578,7 +12570,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -12616,7 +12608,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -12654,7 +12646,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -12692,7 +12684,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -12730,7 +12722,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -12768,7 +12760,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -12806,7 +12798,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -12844,7 +12836,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -12882,7 +12874,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -12920,7 +12912,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -12958,7 +12950,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -12996,7 +12988,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -13034,7 +13026,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -13072,7 +13064,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>50</v>
       </c>
@@ -13110,7 +13102,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>51</v>
       </c>
@@ -13144,7 +13136,7 @@
       <c r="M19" s="71"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>52</v>
       </c>
@@ -13178,7 +13170,7 @@
       <c r="M20" s="71"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>53</v>
       </c>
@@ -13212,7 +13204,7 @@
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>54</v>
       </c>
@@ -13246,7 +13238,7 @@
       <c r="M22" s="71"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68">
         <v>55</v>
       </c>
@@ -13280,7 +13272,7 @@
       <c r="M23" s="71"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>56</v>
       </c>
@@ -13314,7 +13306,7 @@
       <c r="M24" s="71"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68">
         <v>57</v>
       </c>
@@ -13348,108 +13340,111 @@
       <c r="M25" s="71"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" s="34">
+    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>58</v>
+      </c>
+      <c r="B26" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D26" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="70" t="s">
+        <v>583</v>
+      </c>
+      <c r="F26" s="68">
+        <v>1</v>
+      </c>
+      <c r="G26" s="68">
+        <v>1</v>
+      </c>
+      <c r="H26" s="68">
+        <v>1</v>
+      </c>
+      <c r="I26" s="71"/>
+      <c r="J26" s="68"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="72">
+        <v>1</v>
+      </c>
+      <c r="M26" s="71"/>
+      <c r="N26" s="73"/>
+    </row>
+    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68">
+        <v>59</v>
+      </c>
+      <c r="B27" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="70" t="s">
+        <v>584</v>
+      </c>
+      <c r="F27" s="68">
+        <v>1</v>
+      </c>
+      <c r="G27" s="68">
+        <v>1</v>
+      </c>
+      <c r="H27" s="68">
+        <v>1</v>
+      </c>
+      <c r="I27" s="71"/>
+      <c r="J27" s="68"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="72">
+        <v>1</v>
+      </c>
+      <c r="M27" s="71"/>
+      <c r="N27" s="73"/>
+    </row>
+    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>60</v>
+      </c>
+      <c r="B28" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="70" t="s">
+        <v>585</v>
+      </c>
+      <c r="F28" s="68">
+        <v>1</v>
+      </c>
+      <c r="G28" s="68">
+        <v>1</v>
+      </c>
+      <c r="H28" s="68">
+        <v>1</v>
+      </c>
+      <c r="I28" s="71"/>
+      <c r="J28" s="68"/>
+      <c r="K28" s="68"/>
+      <c r="L28" s="72">
+        <v>1</v>
+      </c>
+      <c r="M28" s="71"/>
+      <c r="N28" s="73"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="34">
         <v>101</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D26" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E26" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F26" s="34">
-        <v>1</v>
-      </c>
-      <c r="G26" s="34">
-        <v>1</v>
-      </c>
-      <c r="H26" s="34">
-        <v>1</v>
-      </c>
-      <c r="I26" s="36"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="36">
-        <v>1</v>
-      </c>
-      <c r="M26" s="36"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" s="34">
-        <v>102</v>
-      </c>
-      <c r="B27" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F27" s="34">
-        <v>1</v>
-      </c>
-      <c r="G27" s="34">
-        <v>1</v>
-      </c>
-      <c r="H27" s="34">
-        <v>1</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="36">
-        <v>1</v>
-      </c>
-      <c r="M27" s="36"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" s="34">
-        <v>103</v>
-      </c>
-      <c r="B28" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E28" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F28" s="34">
-        <v>1</v>
-      </c>
-      <c r="G28" s="34">
-        <v>1</v>
-      </c>
-      <c r="H28" s="34">
-        <v>1</v>
-      </c>
-      <c r="I28" s="36"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="36">
-        <v>1</v>
-      </c>
-      <c r="M28" s="36"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
-        <v>104</v>
       </c>
       <c r="B29" s="34" t="s">
         <v>22</v>
@@ -13460,8 +13455,8 @@
       <c r="D29" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E29" s="49" t="s">
-        <v>311</v>
+      <c r="E29" s="34" t="s">
+        <v>308</v>
       </c>
       <c r="F29" s="34">
         <v>1</v>
@@ -13480,9 +13475,9 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="34">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="34" t="s">
         <v>22</v>
@@ -13494,7 +13489,7 @@
         <v>169</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F30" s="34">
         <v>1</v>
@@ -13506,18 +13501,16 @@
         <v>1</v>
       </c>
       <c r="I30" s="36"/>
-      <c r="J30" s="34" t="s">
-        <v>313</v>
-      </c>
+      <c r="J30" s="34"/>
       <c r="K30" s="34"/>
       <c r="L30" s="36">
         <v>1</v>
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="34">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B31" s="34" t="s">
         <v>22</v>
@@ -13529,7 +13522,7 @@
         <v>169</v>
       </c>
       <c r="E31" s="49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F31" s="34">
         <v>1</v>
@@ -13548,9 +13541,9 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>22</v>
@@ -13562,7 +13555,7 @@
         <v>169</v>
       </c>
       <c r="E32" s="49" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -13581,9 +13574,9 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>22</v>
@@ -13595,7 +13588,7 @@
         <v>169</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -13607,16 +13600,18 @@
         <v>1</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="34"/>
+      <c r="J33" s="34" t="s">
+        <v>313</v>
+      </c>
       <c r="K33" s="34"/>
       <c r="L33" s="36">
         <v>1</v>
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>22</v>
@@ -13628,7 +13623,7 @@
         <v>169</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -13640,18 +13635,16 @@
         <v>1</v>
       </c>
       <c r="I34" s="36"/>
-      <c r="J34" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J34" s="34"/>
       <c r="K34" s="34"/>
       <c r="L34" s="36">
         <v>1</v>
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>22</v>
@@ -13663,7 +13656,7 @@
         <v>169</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -13682,9 +13675,9 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>22</v>
@@ -13696,7 +13689,7 @@
         <v>169</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -13715,9 +13708,9 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>22</v>
@@ -13729,7 +13722,7 @@
         <v>169</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -13741,16 +13734,18 @@
         <v>1</v>
       </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="34"/>
+      <c r="J37" s="34" t="s">
+        <v>317</v>
+      </c>
       <c r="K37" s="34"/>
       <c r="L37" s="36">
         <v>1</v>
       </c>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>22</v>
@@ -13762,7 +13757,7 @@
         <v>169</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -13781,9 +13776,9 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>22</v>
@@ -13795,7 +13790,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -13806,17 +13801,17 @@
       <c r="H39" s="34">
         <v>1</v>
       </c>
-      <c r="I39" s="3"/>
+      <c r="I39" s="36"/>
       <c r="J39" s="34"/>
       <c r="K39" s="34"/>
       <c r="L39" s="36">
         <v>1</v>
       </c>
-      <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M39" s="36"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>22</v>
@@ -13828,7 +13823,7 @@
         <v>169</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -13839,17 +13834,17 @@
       <c r="H40" s="34">
         <v>1</v>
       </c>
-      <c r="I40" s="3"/>
+      <c r="I40" s="36"/>
       <c r="J40" s="34"/>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
         <v>1</v>
       </c>
-      <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M40" s="36"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>22</v>
@@ -13861,7 +13856,7 @@
         <v>169</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -13872,17 +13867,17 @@
       <c r="H41" s="34">
         <v>1</v>
       </c>
-      <c r="I41" s="3"/>
+      <c r="I41" s="36"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="36">
         <v>1</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="36"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>22</v>
@@ -13894,7 +13889,7 @@
         <v>169</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -13913,9 +13908,9 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>22</v>
@@ -13927,7 +13922,7 @@
         <v>169</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -13946,107 +13941,206 @@
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="102">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="34">
+        <v>116</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="F44" s="34">
+        <v>1</v>
+      </c>
+      <c r="G44" s="34">
+        <v>1</v>
+      </c>
+      <c r="H44" s="34">
+        <v>1</v>
+      </c>
+      <c r="I44" s="3"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="36">
+        <v>1</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="34">
+        <v>117</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F45" s="34">
+        <v>1</v>
+      </c>
+      <c r="G45" s="34">
+        <v>1</v>
+      </c>
+      <c r="H45" s="34">
+        <v>1</v>
+      </c>
+      <c r="I45" s="3"/>
+      <c r="J45" s="34"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="36">
+        <v>1</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="34">
+        <v>118</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="F46" s="34">
+        <v>1</v>
+      </c>
+      <c r="G46" s="34">
+        <v>1</v>
+      </c>
+      <c r="H46" s="34">
+        <v>1</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="34"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="36">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="102">
         <v>119</v>
       </c>
-      <c r="B44" s="102" t="s">
+      <c r="B47" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C47" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D44" s="102" t="s">
+      <c r="D47" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E44" s="103" t="s">
+      <c r="E47" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="F44" s="102">
-        <v>1</v>
-      </c>
-      <c r="G44" s="102">
-        <v>1</v>
-      </c>
-      <c r="H44" s="102">
-        <v>1</v>
-      </c>
-      <c r="I44" s="104"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="102"/>
-      <c r="L44" s="105">
-        <v>1</v>
-      </c>
-      <c r="M44" s="104"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="102">
+      <c r="F47" s="102">
+        <v>1</v>
+      </c>
+      <c r="G47" s="102">
+        <v>1</v>
+      </c>
+      <c r="H47" s="102">
+        <v>1</v>
+      </c>
+      <c r="I47" s="104"/>
+      <c r="J47" s="102"/>
+      <c r="K47" s="102"/>
+      <c r="L47" s="105">
+        <v>1</v>
+      </c>
+      <c r="M47" s="104"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="102">
         <v>120</v>
       </c>
-      <c r="B45" s="102" t="s">
+      <c r="B48" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C45" s="102" t="s">
+      <c r="C48" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="102" t="s">
+      <c r="D48" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E45" s="103" t="s">
+      <c r="E48" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="F45" s="102">
-        <v>1</v>
-      </c>
-      <c r="G45" s="102">
-        <v>1</v>
-      </c>
-      <c r="H45" s="102">
-        <v>1</v>
-      </c>
-      <c r="I45" s="104"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="102"/>
-      <c r="L45" s="105">
-        <v>1</v>
-      </c>
-      <c r="M45" s="104"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="102">
+      <c r="F48" s="102">
+        <v>1</v>
+      </c>
+      <c r="G48" s="102">
+        <v>1</v>
+      </c>
+      <c r="H48" s="102">
+        <v>1</v>
+      </c>
+      <c r="I48" s="104"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="102"/>
+      <c r="L48" s="105">
+        <v>1</v>
+      </c>
+      <c r="M48" s="104"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="102">
         <v>121</v>
       </c>
-      <c r="B46" s="102" t="s">
+      <c r="B49" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C46" s="102" t="s">
+      <c r="C49" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D46" s="102" t="s">
+      <c r="D49" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E46" s="103" t="s">
+      <c r="E49" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="F46" s="102">
-        <v>1</v>
-      </c>
-      <c r="G46" s="102">
-        <v>1</v>
-      </c>
-      <c r="H46" s="102">
-        <v>1</v>
-      </c>
-      <c r="I46" s="104"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="102"/>
-      <c r="L46" s="105">
-        <v>1</v>
-      </c>
-      <c r="M46" s="104"/>
+      <c r="F49" s="102">
+        <v>1</v>
+      </c>
+      <c r="G49" s="102">
+        <v>1</v>
+      </c>
+      <c r="H49" s="102">
+        <v>1</v>
+      </c>
+      <c r="I49" s="104"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="102"/>
+      <c r="L49" s="105">
+        <v>1</v>
+      </c>
+      <c r="M49" s="104"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-00000B000000}"/>
+  <autoFilter ref="A1:M16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958979DF-E4E5-424B-A6FB-31141DC10B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="20055" tabRatio="800" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -238,12 +239,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,12 +266,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2109,7 +2110,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3287,7 +3288,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3485,9 +3486,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4374,9 +4372,9 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="738"/>
-    <cellStyle name="Normal 5" xfId="739"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 4" xfId="738" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 5" xfId="739" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4473,6 +4471,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4508,6 +4523,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4682,43 +4714,27 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2021-06-29T02:35:14.09" personId="{00000000-0000-0000-0000-000000000000}" id="{152BA087-38CF-9641-BBDF-2A7034154D08}">
-    <text>Khi đơn vị cập nhập thực hiện thì nhập thông tin vào đây</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2021-06-29T02:35:58.31" personId="{00000000-0000-0000-0000-000000000000}" id="{A523B58E-E469-E744-B82E-2CE5FD4DC608}">
-    <text>Khi đơn vị thay đổi trạng thái thì cập nhập mô tả cho thay đổi đó ở đây</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" style="9" customWidth="1"/>
-    <col min="7" max="64" width="11.42578125" style="9" customWidth="1"/>
-    <col min="65" max="16384" width="9.140625" style="9"/>
+    <col min="6" max="6" width="55.5" style="9" customWidth="1"/>
+    <col min="7" max="64" width="11.5" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -4738,7 +4754,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -4758,7 +4774,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4778,7 +4794,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>98</v>
       </c>
@@ -4798,7 +4814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4818,7 +4834,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
@@ -4838,7 +4854,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
@@ -4858,7 +4874,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
@@ -4890,7 +4906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4900,17 +4916,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4930,43 +4946,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A2" s="96">
+    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+      <c r="A2" s="95">
         <v>99</v>
       </c>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="96" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="97" t="s">
+      <c r="C2" s="96" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="95" t="s">
         <v>473</v>
       </c>
-      <c r="F2" s="96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="94">
+      <c r="F2" s="95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="93">
         <v>21</v>
       </c>
-      <c r="B3" s="95" t="s">
+      <c r="B3" s="94" t="s">
         <v>582</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="D3" s="93" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="94" t="s">
+      <c r="E3" s="93" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="93">
         <v>1</v>
       </c>
     </row>
@@ -4982,521 +4998,521 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="85"/>
-    <col min="12" max="12" width="14.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="85"/>
+    <col min="1" max="1" width="3" style="84" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="84" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="84" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="88" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="88" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="84" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.83203125" style="84" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="84" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="84" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="84"/>
+    <col min="12" max="12" width="14.1640625" style="84" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="83" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="84" t="s">
+      <c r="C1" s="83" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="84" t="s">
+      <c r="D1" s="83" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="84" t="s">
+      <c r="E1" s="83" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="84" t="s">
+      <c r="F1" s="83" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="84" t="s">
+      <c r="G1" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="84" t="s">
+      <c r="H1" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="84" t="s">
+      <c r="I1" s="83" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="84" t="s">
+      <c r="J1" s="83" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="84" t="s">
+      <c r="K1" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="84" t="s">
+      <c r="L1" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="84" t="s">
+      <c r="M1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="84" t="s">
+      <c r="N1" s="83" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A2" s="90">
-        <v>1</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="89">
+        <v>1</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="89" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91" t="s">
+      <c r="E2" s="90"/>
+      <c r="F2" s="90" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="90" t="s">
         <v>372</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="89" t="s">
         <v>471</v>
       </c>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-      <c r="N2" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A3" s="86">
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="85">
         <v>11</v>
       </c>
-      <c r="B3" s="86">
-        <v>1</v>
-      </c>
-      <c r="C3" s="86" t="s">
+      <c r="B3" s="85">
+        <v>1</v>
+      </c>
+      <c r="C3" s="85" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="87" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87" t="s">
+      <c r="F3" s="86"/>
+      <c r="G3" s="86" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="86" t="s">
+      <c r="H3" s="85" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="86"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="86"/>
-      <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
-      <c r="N3" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A4" s="86">
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="85">
         <v>12</v>
       </c>
-      <c r="B4" s="86">
-        <v>1</v>
-      </c>
-      <c r="C4" s="86" t="s">
+      <c r="B4" s="85">
+        <v>1</v>
+      </c>
+      <c r="C4" s="85" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="87" t="s">
+      <c r="D4" s="85"/>
+      <c r="E4" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87" t="s">
+      <c r="F4" s="86"/>
+      <c r="G4" s="86" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="86" t="s">
+      <c r="H4" s="85" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="86"/>
-      <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
-      <c r="N4" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A5" s="86">
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="85">
         <v>13</v>
       </c>
-      <c r="B5" s="86">
-        <v>1</v>
-      </c>
-      <c r="C5" s="86" t="s">
+      <c r="B5" s="85">
+        <v>1</v>
+      </c>
+      <c r="C5" s="85" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="86"/>
-      <c r="E5" s="87" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="86" t="s">
         <v>375</v>
       </c>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87" t="s">
+      <c r="F5" s="86"/>
+      <c r="G5" s="86" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="85" t="s">
         <v>379</v>
       </c>
-      <c r="I5" s="86"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A6" s="86">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="85">
         <v>14</v>
       </c>
-      <c r="B6" s="86">
-        <v>1</v>
-      </c>
-      <c r="C6" s="86" t="s">
+      <c r="B6" s="85">
+        <v>1</v>
+      </c>
+      <c r="C6" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="87" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87" t="s">
+      <c r="F6" s="86"/>
+      <c r="G6" s="86" t="s">
         <v>459</v>
       </c>
-      <c r="H6" s="86" t="s">
+      <c r="H6" s="85" t="s">
         <v>381</v>
       </c>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A7" s="86">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="85">
         <v>15</v>
       </c>
-      <c r="B7" s="86">
-        <v>1</v>
-      </c>
-      <c r="C7" s="86" t="s">
+      <c r="B7" s="85">
+        <v>1</v>
+      </c>
+      <c r="C7" s="85" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="86"/>
-      <c r="E7" s="87" t="s">
+      <c r="D7" s="85"/>
+      <c r="E7" s="86" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="86" t="s">
         <v>460</v>
       </c>
-      <c r="H7" s="86" t="s">
+      <c r="H7" s="85" t="s">
         <v>383</v>
       </c>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A8" s="86">
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="85">
         <v>16</v>
       </c>
-      <c r="B8" s="86">
-        <v>1</v>
-      </c>
-      <c r="C8" s="86" t="s">
+      <c r="B8" s="85">
+        <v>1</v>
+      </c>
+      <c r="C8" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="86"/>
-      <c r="E8" s="87" t="s">
+      <c r="D8" s="85"/>
+      <c r="E8" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87" t="s">
+      <c r="F8" s="86"/>
+      <c r="G8" s="86" t="s">
         <v>461</v>
       </c>
-      <c r="H8" s="86" t="s">
+      <c r="H8" s="85" t="s">
         <v>388</v>
       </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A9" s="90">
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="89">
         <v>2</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90" t="s">
+      <c r="B9" s="89"/>
+      <c r="C9" s="89" t="s">
         <v>384</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="89" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="91"/>
-      <c r="F9" s="91" t="s">
+      <c r="E9" s="90"/>
+      <c r="F9" s="90" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="91" t="s">
+      <c r="G9" s="90" t="s">
         <v>463</v>
       </c>
-      <c r="H9" s="90" t="s">
+      <c r="H9" s="89" t="s">
         <v>484</v>
       </c>
-      <c r="I9" s="90"/>
-      <c r="J9" s="90"/>
-      <c r="K9" s="90"/>
-      <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
-      <c r="N9" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A10" s="86">
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="85">
         <v>21</v>
       </c>
-      <c r="B10" s="86">
+      <c r="B10" s="85">
         <v>2</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="86"/>
-      <c r="E10" s="87" t="s">
+      <c r="D10" s="85"/>
+      <c r="E10" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87" t="s">
+      <c r="F10" s="86"/>
+      <c r="G10" s="86" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="86" t="s">
+      <c r="H10" s="85" t="s">
         <v>445</v>
       </c>
-      <c r="I10" s="86"/>
-      <c r="J10" s="88"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A11" s="86">
+      <c r="I10" s="85"/>
+      <c r="J10" s="87"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="85">
         <v>22</v>
       </c>
-      <c r="B11" s="86">
+      <c r="B11" s="85">
         <v>2</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="86"/>
-      <c r="E11" s="87" t="s">
+      <c r="D11" s="85"/>
+      <c r="E11" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87" t="s">
+      <c r="F11" s="86"/>
+      <c r="G11" s="86" t="s">
         <v>465</v>
       </c>
-      <c r="H11" s="86" t="s">
+      <c r="H11" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-      <c r="K11" s="86"/>
-      <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A12" s="86">
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
+      <c r="N11" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="85">
         <v>23</v>
       </c>
-      <c r="B12" s="86">
+      <c r="B12" s="85">
         <v>2</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="86"/>
-      <c r="E12" s="87" t="s">
+      <c r="D12" s="85"/>
+      <c r="E12" s="86" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87" t="s">
+      <c r="F12" s="86"/>
+      <c r="G12" s="86" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="86" t="s">
+      <c r="H12" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="86"/>
-      <c r="J12" s="86"/>
-      <c r="K12" s="86"/>
-      <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A13" s="86">
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="85"/>
+      <c r="N12" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="85">
         <v>24</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="85">
         <v>2</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="85" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="86"/>
-      <c r="E13" s="87" t="s">
+      <c r="D13" s="85"/>
+      <c r="E13" s="86" t="s">
         <v>444</v>
       </c>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87" t="s">
+      <c r="F13" s="86"/>
+      <c r="G13" s="86" t="s">
         <v>467</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="85" t="s">
         <v>448</v>
       </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A14" s="90">
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="89">
         <v>3</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="89" t="s">
         <v>450</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="89" t="s">
         <v>452</v>
       </c>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91" t="s">
+      <c r="E14" s="90"/>
+      <c r="F14" s="90" t="s">
         <v>482</v>
       </c>
-      <c r="G14" s="91" t="s">
+      <c r="G14" s="90" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="90" t="s">
+      <c r="H14" s="89" t="s">
         <v>485</v>
       </c>
-      <c r="I14" s="90"/>
-      <c r="J14" s="90"/>
-      <c r="K14" s="90"/>
-      <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
-      <c r="N14" s="90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A15" s="86">
+      <c r="I14" s="89"/>
+      <c r="J14" s="89"/>
+      <c r="K14" s="89"/>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="85">
         <v>31</v>
       </c>
-      <c r="B15" s="86">
+      <c r="B15" s="85">
         <v>3</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="85" t="s">
         <v>451</v>
       </c>
-      <c r="D15" s="86"/>
-      <c r="E15" s="87" t="s">
+      <c r="D15" s="85"/>
+      <c r="E15" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="87"/>
-      <c r="G15" s="87" t="s">
+      <c r="F15" s="86"/>
+      <c r="G15" s="86" t="s">
         <v>468</v>
       </c>
-      <c r="H15" s="86" t="s">
+      <c r="H15" s="85" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="88"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
-      <c r="A16" s="90">
+      <c r="I15" s="85"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="85"/>
+      <c r="L15" s="85"/>
+      <c r="M15" s="85"/>
+      <c r="N15" s="85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="89">
         <v>4</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="89" t="s">
         <v>454</v>
       </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="91" t="s">
+      <c r="D16" s="89"/>
+      <c r="E16" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="90" t="s">
         <v>483</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="90" t="s">
         <v>469</v>
       </c>
-      <c r="H16" s="90" t="s">
+      <c r="H16" s="89" t="s">
         <v>455</v>
       </c>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-      <c r="N16" s="90">
+      <c r="I16" s="89"/>
+      <c r="J16" s="89"/>
+      <c r="K16" s="89"/>
+      <c r="L16" s="89"/>
+      <c r="M16" s="89"/>
+      <c r="N16" s="89">
         <v>1</v>
       </c>
     </row>
@@ -5512,29 +5528,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5569,7 +5585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5594,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5619,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5644,7 +5660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5681,7 +5697,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5691,19 +5707,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5732,7 +5748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5749,7 +5765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5769,7 +5785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5789,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5809,7 +5825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5829,7 +5845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5849,7 +5865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5869,7 +5885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5889,7 +5905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5909,7 +5925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5929,7 +5945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5949,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5969,7 +5985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5989,7 +6005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6009,7 +6025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6029,7 +6045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6049,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6075,20 +6091,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
@@ -6102,7 +6118,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -6113,7 +6129,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6124,7 +6140,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -6135,7 +6151,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6146,7 +6162,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6157,7 +6173,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -6168,7 +6184,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6179,7 +6195,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6190,37 +6206,37 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>189</v>
       </c>
@@ -6231,36 +6247,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
@@ -6311,7 +6327,7 @@
       </c>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>258</v>
       </c>
@@ -6350,7 +6366,7 @@
       </c>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>258</v>
       </c>
@@ -6383,7 +6399,7 @@
       </c>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>258</v>
       </c>
@@ -6416,7 +6432,7 @@
       </c>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>258</v>
       </c>
@@ -6449,7 +6465,7 @@
       </c>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>258</v>
       </c>
@@ -6482,7 +6498,7 @@
       </c>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>258</v>
       </c>
@@ -6515,7 +6531,7 @@
       </c>
       <c r="Q7" s="57"/>
     </row>
-    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>258</v>
       </c>
@@ -6548,7 +6564,7 @@
       </c>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>258</v>
       </c>
@@ -6579,7 +6595,7 @@
       </c>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>258</v>
       </c>
@@ -6614,7 +6630,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>258</v>
       </c>
@@ -6645,7 +6661,7 @@
       </c>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>258</v>
       </c>
@@ -6678,7 +6694,7 @@
       </c>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>258</v>
       </c>
@@ -6711,7 +6727,7 @@
       </c>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>222</v>
       </c>
@@ -6750,7 +6766,7 @@
       </c>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>222</v>
       </c>
@@ -6783,7 +6799,7 @@
       </c>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
@@ -6816,7 +6832,7 @@
       </c>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>222</v>
       </c>
@@ -6847,7 +6863,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
         <v>222</v>
       </c>
@@ -6880,7 +6896,7 @@
       </c>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
         <v>222</v>
       </c>
@@ -6913,7 +6929,7 @@
       </c>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
         <v>222</v>
       </c>
@@ -6946,7 +6962,7 @@
       </c>
       <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
         <v>222</v>
       </c>
@@ -6979,7 +6995,7 @@
       </c>
       <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
         <v>222</v>
       </c>
@@ -7008,7 +7024,7 @@
       <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>222</v>
       </c>
@@ -7039,7 +7055,7 @@
       </c>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
         <v>222</v>
       </c>
@@ -7072,7 +7088,7 @@
       </c>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
         <v>222</v>
       </c>
@@ -7103,7 +7119,7 @@
       </c>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
         <v>222</v>
       </c>
@@ -7136,7 +7152,7 @@
       </c>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
         <v>222</v>
       </c>
@@ -7171,7 +7187,7 @@
       </c>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
         <v>222</v>
       </c>
@@ -7202,7 +7218,7 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51" t="s">
         <v>222</v>
       </c>
@@ -7233,7 +7249,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
         <v>222</v>
       </c>
@@ -7264,334 +7280,334 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="s">
+    <row r="31" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B31" s="100" t="s">
+      <c r="B31" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C31" s="99" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="100" t="s">
+      <c r="D31" s="99" t="s">
         <v>575</v>
       </c>
-      <c r="E31" s="100" t="s">
-        <v>98</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
+      <c r="E31" s="99" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
     </row>
-    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+    <row r="32" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="99" t="s">
         <v>576</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="99" t="s">
         <v>577</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
+    <row r="33" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="101">
+      <c r="F33" s="100">
         <v>500</v>
       </c>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="99" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="100">
         <v>500</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="56"/>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="s">
+    <row r="35" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="99" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="99" t="s">
         <v>567</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="100">
         <v>255</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
+    <row r="36" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="99" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="99" t="s">
         <v>569</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="99" t="s">
         <v>570</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="56"/>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
+    <row r="37" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="99" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="100" t="s">
+      <c r="E37" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="56"/>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+    <row r="38" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="99" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="99" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="99" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="100" t="s">
+      <c r="E38" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="56"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
+    <row r="39" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="99" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="101">
+      <c r="F39" s="100">
         <v>255</v>
       </c>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="56"/>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="99" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
       <c r="P40" s="56"/>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="100" t="s">
+    <row r="41" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="99" t="s">
         <v>565</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="99" t="s">
         <v>572</v>
       </c>
-      <c r="E41" s="100" t="s">
+      <c r="E41" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
       <c r="P41" s="56"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
         <v>281</v>
       </c>
@@ -7622,7 +7638,7 @@
       </c>
       <c r="Q42" s="59"/>
     </row>
-    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>281</v>
       </c>
@@ -7653,7 +7669,7 @@
       </c>
       <c r="Q43" s="59"/>
     </row>
-    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
         <v>281</v>
       </c>
@@ -7688,7 +7704,7 @@
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
         <v>281</v>
       </c>
@@ -7717,7 +7733,7 @@
       </c>
       <c r="Q45" s="59"/>
     </row>
-    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>281</v>
       </c>
@@ -7750,7 +7766,7 @@
       </c>
       <c r="Q46" s="59"/>
     </row>
-    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>281</v>
       </c>
@@ -7783,7 +7799,7 @@
       </c>
       <c r="Q47" s="59"/>
     </row>
-    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>281</v>
       </c>
@@ -7814,7 +7830,7 @@
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>281</v>
       </c>
@@ -7847,7 +7863,7 @@
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
         <v>281</v>
       </c>
@@ -7878,7 +7894,7 @@
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>281</v>
       </c>
@@ -7911,7 +7927,7 @@
       </c>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>280</v>
       </c>
@@ -7950,7 +7966,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
         <v>280</v>
       </c>
@@ -7985,7 +8001,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
         <v>280</v>
       </c>
@@ -8018,7 +8034,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
         <v>280</v>
       </c>
@@ -8051,7 +8067,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
         <v>280</v>
       </c>
@@ -8084,7 +8100,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
         <v>280</v>
       </c>
@@ -8094,7 +8110,7 @@
       <c r="C57" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="D57" s="98" t="s">
+      <c r="D57" s="97" t="s">
         <v>495</v>
       </c>
       <c r="E57" s="52" t="s">
@@ -8119,7 +8135,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
         <v>280</v>
       </c>
@@ -8152,7 +8168,7 @@
       </c>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="52" t="s">
         <v>280</v>
       </c>
@@ -8183,7 +8199,7 @@
       </c>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
         <v>280</v>
       </c>
@@ -8214,7 +8230,7 @@
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>280</v>
       </c>
@@ -8247,7 +8263,7 @@
       </c>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>280</v>
       </c>
@@ -8278,7 +8294,7 @@
       </c>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="65" t="s">
         <v>280</v>
       </c>
@@ -8311,7 +8327,7 @@
       </c>
       <c r="Q63" s="57"/>
     </row>
-    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
         <v>218</v>
       </c>
@@ -8350,7 +8366,7 @@
       </c>
       <c r="Q64" s="59"/>
     </row>
-    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
         <v>218</v>
       </c>
@@ -8383,7 +8399,7 @@
       </c>
       <c r="Q65" s="59"/>
     </row>
-    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="53" t="s">
         <v>218</v>
       </c>
@@ -8418,7 +8434,7 @@
       </c>
       <c r="Q66" s="59"/>
     </row>
-    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
         <v>218</v>
       </c>
@@ -8451,7 +8467,7 @@
       </c>
       <c r="Q67" s="59"/>
     </row>
-    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
         <v>218</v>
       </c>
@@ -8484,7 +8500,7 @@
       </c>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
         <v>218</v>
       </c>
@@ -8517,7 +8533,7 @@
       </c>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="53" t="s">
         <v>218</v>
       </c>
@@ -8550,7 +8566,7 @@
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
         <v>218</v>
       </c>
@@ -8581,7 +8597,7 @@
       </c>
       <c r="Q71" s="59"/>
     </row>
-    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="53" t="s">
         <v>218</v>
       </c>
@@ -8614,7 +8630,7 @@
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
         <v>218</v>
       </c>
@@ -8645,7 +8661,7 @@
       </c>
       <c r="Q73" s="59"/>
     </row>
-    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
         <v>218</v>
       </c>
@@ -8678,7 +8694,7 @@
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="53" t="s">
         <v>218</v>
       </c>
@@ -8711,7 +8727,7 @@
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44" t="s">
         <v>170</v>
       </c>
@@ -8750,7 +8766,7 @@
       </c>
       <c r="Q76" s="57"/>
     </row>
-    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44" t="s">
         <v>170</v>
       </c>
@@ -8783,7 +8799,7 @@
       </c>
       <c r="Q77" s="57"/>
     </row>
-    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44" t="s">
         <v>170</v>
       </c>
@@ -8818,7 +8834,7 @@
       </c>
       <c r="Q78" s="57"/>
     </row>
-    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44" t="s">
         <v>170</v>
       </c>
@@ -8851,7 +8867,7 @@
       </c>
       <c r="Q79" s="57"/>
     </row>
-    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44" t="s">
         <v>170</v>
       </c>
@@ -8884,7 +8900,7 @@
       </c>
       <c r="Q80" s="57"/>
     </row>
-    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44" t="s">
         <v>170</v>
       </c>
@@ -8915,7 +8931,7 @@
       </c>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44" t="s">
         <v>170</v>
       </c>
@@ -8948,7 +8964,7 @@
       </c>
       <c r="Q82" s="57"/>
     </row>
-    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
         <v>170</v>
       </c>
@@ -8979,7 +8995,7 @@
       </c>
       <c r="Q83" s="57"/>
     </row>
-    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="44" t="s">
         <v>170</v>
       </c>
@@ -9012,7 +9028,7 @@
       </c>
       <c r="Q84" s="57"/>
     </row>
-    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="44" t="s">
         <v>170</v>
       </c>
@@ -9052,7 +9068,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9062,19 +9078,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9103,30 +9119,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="92">
-        <v>1</v>
-      </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="91" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="91" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9149,7 +9165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9172,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9195,7 +9211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9218,7 +9234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9241,7 +9257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9264,30 +9280,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="92">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="91">
         <v>2</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92" t="s">
+      <c r="B9" s="91"/>
+      <c r="C9" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="92" t="s">
+      <c r="D9" s="91" t="s">
         <v>406</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="91" t="s">
         <v>413</v>
       </c>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92" t="s">
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9310,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9333,30 +9349,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="92">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="91">
         <v>3</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92" t="s">
+      <c r="B12" s="91"/>
+      <c r="C12" s="91" t="s">
         <v>522</v>
       </c>
-      <c r="D12" s="92" t="s">
+      <c r="D12" s="91" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="91" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92" t="s">
+      <c r="F12" s="91"/>
+      <c r="G12" s="91"/>
+      <c r="H12" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9379,7 +9395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9402,7 +9418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9425,7 +9441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9448,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9471,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9494,30 +9510,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="92">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="91">
         <v>4</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91" t="s">
         <v>523</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="91" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="92" t="s">
+      <c r="E19" s="91" t="s">
         <v>428</v>
       </c>
-      <c r="F19" s="92"/>
-      <c r="G19" s="92"/>
-      <c r="H19" s="92" t="s">
+      <c r="F19" s="91"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9540,7 +9556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9563,7 +9579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9586,7 +9602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9609,30 +9625,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="92">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="91">
         <v>5</v>
       </c>
-      <c r="B24" s="92"/>
-      <c r="C24" s="92" t="s">
+      <c r="B24" s="91"/>
+      <c r="C24" s="91" t="s">
         <v>499</v>
       </c>
-      <c r="D24" s="92" t="s">
+      <c r="D24" s="91" t="s">
         <v>500</v>
       </c>
-      <c r="E24" s="92" t="s">
+      <c r="E24" s="91" t="s">
         <v>428</v>
       </c>
-      <c r="F24" s="92"/>
-      <c r="G24" s="92"/>
-      <c r="H24" s="92" t="s">
+      <c r="F24" s="91"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="91" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9655,7 +9671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9678,7 +9694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9701,7 +9717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9724,7 +9740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9747,7 +9763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9770,7 +9786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9793,7 +9809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9809,14 +9825,14 @@
       <c r="E32" t="s">
         <v>519</v>
       </c>
-      <c r="H32" s="99" t="s">
+      <c r="H32" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9832,14 +9848,14 @@
       <c r="E33" t="s">
         <v>555</v>
       </c>
-      <c r="H33" s="99" t="s">
+      <c r="H33" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>510</v>
       </c>
@@ -9855,14 +9871,14 @@
       <c r="E34" t="s">
         <v>553</v>
       </c>
-      <c r="H34" s="99" t="s">
+      <c r="H34" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>511</v>
       </c>
@@ -9878,14 +9894,14 @@
       <c r="E35" t="s">
         <v>539</v>
       </c>
-      <c r="H35" s="99" t="s">
+      <c r="H35" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>512</v>
       </c>
@@ -9901,14 +9917,14 @@
       <c r="E36" t="s">
         <v>527</v>
       </c>
-      <c r="H36" s="99" t="s">
+      <c r="H36" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>513</v>
       </c>
@@ -9924,14 +9940,14 @@
       <c r="E37" t="s">
         <v>528</v>
       </c>
-      <c r="H37" s="99" t="s">
+      <c r="H37" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>514</v>
       </c>
@@ -9947,10 +9963,10 @@
       <c r="E38" t="s">
         <v>542</v>
       </c>
-      <c r="H38" s="99" t="s">
+      <c r="H38" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="99">
+      <c r="I38" s="98">
         <v>1</v>
       </c>
     </row>
@@ -9961,7 +9977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9971,16 +9987,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="12" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -10018,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10047,7 +10063,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10057,22 +10073,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10110,11 +10126,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="92" t="s">
         <v>433</v>
       </c>
       <c r="C2" s="41">
@@ -10138,11 +10154,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="92" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="41">
@@ -10166,11 +10182,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="92" t="s">
         <v>436</v>
       </c>
       <c r="C4" s="41">
@@ -10194,7 +10210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10208,7 +10224,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10228,7 +10244,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10238,18 +10254,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10284,7 +10300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10298,7 +10314,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10312,7 +10328,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10326,7 +10342,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10340,7 +10356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10354,7 +10370,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10375,7 +10391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10385,22 +10401,22 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
@@ -10438,7 +10454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10462,37 +10478,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="85.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -10542,7 +10558,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -10578,7 +10594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -10606,7 +10622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -10636,7 +10652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -10666,7 +10682,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -10700,7 +10716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -10728,7 +10744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10756,7 +10772,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10784,7 +10800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -10812,7 +10828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -10842,7 +10858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -10870,7 +10886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -10900,7 +10916,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -10928,7 +10944,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -10956,245 +10972,247 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="79" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="79" t="s">
+      <c r="B16" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="79" t="s">
+      <c r="C16" s="78"/>
+      <c r="D16" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80">
-        <v>1</v>
-      </c>
-      <c r="H16" s="80">
-        <v>1</v>
-      </c>
-      <c r="I16" s="80"/>
-      <c r="J16" s="80">
-        <v>1</v>
-      </c>
-      <c r="K16" s="80"/>
-      <c r="L16" s="80"/>
-      <c r="M16" s="80"/>
-      <c r="N16" s="80"/>
-      <c r="O16" s="80"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="79">
+        <v>1</v>
+      </c>
+      <c r="H16" s="79">
+        <v>1</v>
+      </c>
+      <c r="I16" s="79">
+        <v>1</v>
+      </c>
+      <c r="J16" s="79">
+        <v>1</v>
+      </c>
+      <c r="K16" s="79"/>
+      <c r="L16" s="79"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="79"/>
+      <c r="O16" s="79"/>
       <c r="P16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="79" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79" t="s">
+      <c r="C17" s="78"/>
+      <c r="D17" s="78" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="81" t="s">
+      <c r="E17" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80">
-        <v>1</v>
-      </c>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79">
+        <v>1</v>
+      </c>
+      <c r="H17" s="79"/>
+      <c r="I17" s="79"/>
+      <c r="J17" s="79"/>
+      <c r="K17" s="79"/>
+      <c r="L17" s="79"/>
+      <c r="M17" s="79"/>
+      <c r="N17" s="79"/>
+      <c r="O17" s="79"/>
       <c r="P17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="79" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="79" t="s">
+      <c r="B18" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="C18" s="79"/>
-      <c r="D18" s="79" t="s">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78" t="s">
         <v>479</v>
       </c>
-      <c r="E18" s="81" t="s">
+      <c r="E18" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="80">
+      <c r="F18" s="79">
         <v>2000</v>
       </c>
-      <c r="G18" s="80"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="80"/>
-      <c r="J18" s="80"/>
-      <c r="K18" s="80"/>
-      <c r="L18" s="80"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="80"/>
-      <c r="O18" s="80"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="79"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="79"/>
+      <c r="K18" s="79"/>
+      <c r="L18" s="79"/>
+      <c r="M18" s="79"/>
+      <c r="N18" s="79"/>
+      <c r="O18" s="79"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="79" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79" t="s">
+      <c r="C19" s="78"/>
+      <c r="D19" s="78" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="80">
+      <c r="F19" s="79">
         <v>255</v>
       </c>
-      <c r="G19" s="80"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="80"/>
-      <c r="J19" s="80"/>
-      <c r="K19" s="80"/>
-      <c r="L19" s="80"/>
-      <c r="M19" s="80"/>
-      <c r="N19" s="80"/>
-      <c r="O19" s="80"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="79"/>
+      <c r="L19" s="79"/>
+      <c r="M19" s="79"/>
+      <c r="N19" s="79"/>
+      <c r="O19" s="79"/>
       <c r="P19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="79" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="79" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="78" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="80"/>
-      <c r="G20" s="80"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="80"/>
-      <c r="J20" s="80"/>
-      <c r="K20" s="80"/>
-      <c r="L20" s="80"/>
-      <c r="M20" s="80"/>
-      <c r="N20" s="80"/>
-      <c r="O20" s="80"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="79"/>
+      <c r="I20" s="79"/>
+      <c r="J20" s="79"/>
+      <c r="K20" s="79"/>
+      <c r="L20" s="79"/>
+      <c r="M20" s="79"/>
+      <c r="N20" s="79"/>
+      <c r="O20" s="79"/>
       <c r="P20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="79" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="79" t="s">
+      <c r="B21" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="79" t="s">
+      <c r="C21" s="78"/>
+      <c r="D21" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="80" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="80"/>
-      <c r="J21" s="80"/>
-      <c r="K21" s="80"/>
-      <c r="L21" s="80"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="80"/>
-      <c r="O21" s="80"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="79"/>
+      <c r="I21" s="79"/>
+      <c r="J21" s="79"/>
+      <c r="K21" s="79"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="79"/>
+      <c r="N21" s="79"/>
+      <c r="O21" s="79"/>
       <c r="P21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="79" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="79"/>
-      <c r="D22" s="79" t="s">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78" t="s">
         <v>364</v>
       </c>
-      <c r="E22" s="81" t="s">
+      <c r="E22" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="80">
+      <c r="F22" s="79">
         <v>50</v>
       </c>
-      <c r="G22" s="80"/>
-      <c r="H22" s="80"/>
-      <c r="I22" s="80"/>
-      <c r="J22" s="80"/>
-      <c r="K22" s="80"/>
-      <c r="L22" s="80"/>
-      <c r="M22" s="80"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="80"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
+      <c r="I22" s="79"/>
+      <c r="J22" s="79"/>
+      <c r="K22" s="79"/>
+      <c r="L22" s="79"/>
+      <c r="M22" s="79"/>
+      <c r="N22" s="79"/>
+      <c r="O22" s="79"/>
       <c r="P22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="79" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="79" t="s">
+      <c r="B23" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="79"/>
-      <c r="D23" s="79" t="s">
+      <c r="C23" s="78"/>
+      <c r="D23" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="81" t="s">
+      <c r="E23" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="80"/>
-      <c r="J23" s="80"/>
-      <c r="K23" s="80"/>
-      <c r="L23" s="80"/>
-      <c r="M23" s="80">
-        <v>1</v>
-      </c>
-      <c r="N23" s="80"/>
-      <c r="O23" s="80"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
+      <c r="I23" s="79"/>
+      <c r="J23" s="79"/>
+      <c r="K23" s="79"/>
+      <c r="L23" s="79"/>
+      <c r="M23" s="79">
+        <v>1</v>
+      </c>
+      <c r="N23" s="79"/>
+      <c r="O23" s="79"/>
       <c r="P23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -11230,7 +11248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -11242,11 +11260,9 @@
         <v>366</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="16">
-        <v>200</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -11260,7 +11276,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11290,7 +11306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -11320,7 +11336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -11350,7 +11366,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -11380,7 +11396,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -11410,7 +11426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -11440,7 +11456,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -11468,7 +11484,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -11498,7 +11514,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -11528,427 +11544,427 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="79" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="79" t="s">
+      <c r="B35" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79" t="s">
+      <c r="C35" s="78"/>
+      <c r="D35" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="79" t="s">
+      <c r="E35" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80">
-        <v>1</v>
-      </c>
-      <c r="H35" s="80">
-        <v>1</v>
-      </c>
-      <c r="I35" s="80">
-        <v>1</v>
-      </c>
-      <c r="J35" s="80">
-        <v>1</v>
-      </c>
-      <c r="K35" s="80"/>
-      <c r="L35" s="80"/>
-      <c r="M35" s="80"/>
-      <c r="N35" s="80"/>
-      <c r="O35" s="80"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79">
+        <v>1</v>
+      </c>
+      <c r="H35" s="79">
+        <v>1</v>
+      </c>
+      <c r="I35" s="79">
+        <v>1</v>
+      </c>
+      <c r="J35" s="79">
+        <v>1</v>
+      </c>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
       <c r="P35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="79" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A36" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="79" t="s">
+      <c r="B36" s="78" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="79"/>
-      <c r="D36" s="79" t="s">
+      <c r="C36" s="78"/>
+      <c r="D36" s="78" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="79" t="s">
+      <c r="E36" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="80"/>
-      <c r="J36" s="80"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="80"/>
-      <c r="M36" s="80"/>
-      <c r="N36" s="80"/>
-      <c r="O36" s="80"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="79"/>
+      <c r="J36" s="79"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="79"/>
+      <c r="M36" s="79"/>
+      <c r="N36" s="79"/>
+      <c r="O36" s="79"/>
       <c r="P36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="79" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A37" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="79" t="s">
+      <c r="B37" s="78" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="78" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="79" t="s">
+      <c r="E37" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="80">
+      <c r="F37" s="79">
         <v>30</v>
       </c>
-      <c r="G37" s="80"/>
-      <c r="H37" s="80"/>
-      <c r="I37" s="80"/>
-      <c r="J37" s="80"/>
-      <c r="K37" s="80"/>
-      <c r="L37" s="80"/>
-      <c r="M37" s="80"/>
-      <c r="N37" s="80"/>
-      <c r="O37" s="80"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
+      <c r="L37" s="79"/>
+      <c r="M37" s="79"/>
+      <c r="N37" s="79"/>
+      <c r="O37" s="79"/>
       <c r="P37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="79" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A38" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="79" t="s">
+      <c r="B38" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="79"/>
-      <c r="D38" s="79" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="79" t="s">
+      <c r="E38" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="80">
+      <c r="F38" s="79">
         <v>30</v>
       </c>
-      <c r="G38" s="80"/>
-      <c r="H38" s="80"/>
-      <c r="I38" s="80"/>
-      <c r="J38" s="80"/>
-      <c r="K38" s="80"/>
-      <c r="L38" s="80"/>
-      <c r="M38" s="80"/>
-      <c r="N38" s="80"/>
-      <c r="O38" s="80"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
+      <c r="L38" s="79"/>
+      <c r="M38" s="79"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="79"/>
       <c r="P38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="79" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A39" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="79" t="s">
+      <c r="B39" s="78" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="79"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="78" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="79" t="s">
+      <c r="E39" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="80">
+      <c r="F39" s="79">
         <v>100</v>
       </c>
-      <c r="G39" s="80"/>
-      <c r="H39" s="80"/>
-      <c r="I39" s="80"/>
-      <c r="J39" s="80"/>
-      <c r="K39" s="80"/>
-      <c r="L39" s="80"/>
-      <c r="M39" s="80"/>
-      <c r="N39" s="80"/>
-      <c r="O39" s="80"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
+      <c r="L39" s="79"/>
+      <c r="M39" s="79"/>
+      <c r="N39" s="79"/>
+      <c r="O39" s="79"/>
       <c r="P39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="79" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A40" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="79" t="s">
+      <c r="B40" s="78" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="79"/>
-      <c r="D40" s="79" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="78" t="s">
         <v>367</v>
       </c>
-      <c r="E40" s="79" t="s">
+      <c r="E40" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="80">
+      <c r="F40" s="79">
         <v>50</v>
       </c>
-      <c r="G40" s="80"/>
-      <c r="H40" s="80"/>
-      <c r="I40" s="80"/>
-      <c r="J40" s="80"/>
-      <c r="K40" s="80"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
+      <c r="L40" s="79"/>
+      <c r="M40" s="79"/>
+      <c r="N40" s="79"/>
+      <c r="O40" s="79"/>
       <c r="P40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="79" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A41" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="78" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="79" t="s">
+      <c r="E41" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="80">
+      <c r="F41" s="79">
         <v>100</v>
       </c>
-      <c r="G41" s="80"/>
-      <c r="H41" s="80"/>
-      <c r="I41" s="80"/>
-      <c r="J41" s="80"/>
-      <c r="K41" s="80"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
       <c r="P41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="79" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A42" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="79" t="s">
+      <c r="B42" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="79"/>
-      <c r="D42" s="79" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="79" t="s">
+      <c r="E42" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="80">
+      <c r="F42" s="79">
         <v>100</v>
       </c>
-      <c r="G42" s="80"/>
-      <c r="H42" s="80"/>
-      <c r="I42" s="80"/>
-      <c r="J42" s="80"/>
-      <c r="K42" s="80"/>
-      <c r="L42" s="80"/>
-      <c r="M42" s="80"/>
-      <c r="N42" s="80"/>
-      <c r="O42" s="80"/>
+      <c r="G42" s="79"/>
+      <c r="H42" s="79"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
+      <c r="L42" s="79"/>
+      <c r="M42" s="79"/>
+      <c r="N42" s="79"/>
+      <c r="O42" s="79"/>
       <c r="P42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="79" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A43" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="79" t="s">
+      <c r="B43" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="79"/>
-      <c r="D43" s="79" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="78" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="79" t="s">
+      <c r="E43" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="80">
+      <c r="F43" s="79">
         <v>1000</v>
       </c>
-      <c r="G43" s="80"/>
-      <c r="H43" s="80"/>
-      <c r="I43" s="80"/>
-      <c r="J43" s="80"/>
-      <c r="K43" s="80"/>
-      <c r="L43" s="80"/>
-      <c r="M43" s="80"/>
-      <c r="N43" s="80"/>
-      <c r="O43" s="80"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
+      <c r="L43" s="79"/>
+      <c r="M43" s="79"/>
+      <c r="N43" s="79"/>
+      <c r="O43" s="79"/>
       <c r="P43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44" s="79" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A44" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="79" t="s">
+      <c r="B44" s="78" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="79" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="79" t="s">
+      <c r="E44" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="80">
+      <c r="F44" s="79">
         <v>2000</v>
       </c>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-      <c r="K44" s="80"/>
-      <c r="L44" s="80"/>
-      <c r="M44" s="80"/>
-      <c r="N44" s="80"/>
-      <c r="O44" s="80"/>
+      <c r="G44" s="79"/>
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="79"/>
+      <c r="K44" s="79"/>
+      <c r="L44" s="79"/>
+      <c r="M44" s="79"/>
+      <c r="N44" s="79"/>
+      <c r="O44" s="79"/>
       <c r="P44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45" s="79" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A45" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="79" t="s">
+      <c r="B45" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="79" t="s">
+      <c r="C45" s="78"/>
+      <c r="D45" s="78" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="79" t="s">
+      <c r="E45" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
-      <c r="K45" s="80"/>
-      <c r="L45" s="80"/>
-      <c r="M45" s="80"/>
-      <c r="N45" s="80"/>
-      <c r="O45" s="80"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
       <c r="P45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46" s="79" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A46" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="79" t="s">
+      <c r="B46" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="79" t="s">
+      <c r="C46" s="78"/>
+      <c r="D46" s="78" t="s">
         <v>356</v>
       </c>
-      <c r="E46" s="79" t="s">
+      <c r="E46" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="80"/>
-      <c r="G46" s="80"/>
-      <c r="H46" s="80"/>
-      <c r="I46" s="80"/>
-      <c r="J46" s="80"/>
-      <c r="K46" s="80"/>
-      <c r="L46" s="80"/>
-      <c r="M46" s="80"/>
-      <c r="N46" s="80"/>
-      <c r="O46" s="80"/>
+      <c r="F46" s="79"/>
+      <c r="G46" s="79"/>
+      <c r="H46" s="79"/>
+      <c r="I46" s="79"/>
+      <c r="J46" s="79"/>
+      <c r="K46" s="79"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
       <c r="P46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47" s="79" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A47" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="79" t="s">
+      <c r="B47" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="79" t="s">
+      <c r="C47" s="78"/>
+      <c r="D47" s="78" t="s">
         <v>357</v>
       </c>
-      <c r="E47" s="79" t="s">
+      <c r="E47" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="80">
+      <c r="F47" s="79">
         <v>50</v>
       </c>
-      <c r="G47" s="80"/>
-      <c r="H47" s="80"/>
-      <c r="I47" s="80"/>
-      <c r="J47" s="80"/>
-      <c r="K47" s="80"/>
-      <c r="L47" s="80"/>
-      <c r="M47" s="80"/>
-      <c r="N47" s="80"/>
-      <c r="O47" s="80"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="79"/>
+      <c r="I47" s="79"/>
+      <c r="J47" s="79"/>
+      <c r="K47" s="79"/>
+      <c r="L47" s="79"/>
+      <c r="M47" s="79"/>
+      <c r="N47" s="79"/>
+      <c r="O47" s="79"/>
       <c r="P47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48" s="79" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A48" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="79" t="s">
+      <c r="B48" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79" t="s">
+      <c r="C48" s="78"/>
+      <c r="D48" s="78" t="s">
         <v>480</v>
       </c>
-      <c r="E48" s="79" t="s">
+      <c r="E48" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="80"/>
-      <c r="G48" s="80"/>
-      <c r="H48" s="80"/>
-      <c r="I48" s="80"/>
-      <c r="J48" s="80"/>
-      <c r="K48" s="80"/>
-      <c r="L48" s="80"/>
-      <c r="M48" s="80">
-        <v>1</v>
-      </c>
-      <c r="N48" s="80"/>
-      <c r="O48" s="80"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="79"/>
+      <c r="H48" s="79"/>
+      <c r="I48" s="79"/>
+      <c r="J48" s="79"/>
+      <c r="K48" s="79"/>
+      <c r="L48" s="79"/>
+      <c r="M48" s="79">
+        <v>1</v>
+      </c>
+      <c r="N48" s="79"/>
+      <c r="O48" s="79"/>
       <c r="P48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
         <v>182</v>
       </c>
@@ -11985,7 +12001,7 @@
       </c>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
         <v>182</v>
       </c>
@@ -12016,7 +12032,7 @@
       </c>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
         <v>182</v>
       </c>
@@ -12047,7 +12063,7 @@
       </c>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
         <v>182</v>
       </c>
@@ -12078,7 +12094,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
         <v>182</v>
       </c>
@@ -12107,7 +12123,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
         <v>182</v>
       </c>
@@ -12136,7 +12152,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
         <v>182</v>
       </c>
@@ -12165,7 +12181,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
         <v>182</v>
       </c>
@@ -12196,7 +12212,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
         <v>182</v>
       </c>
@@ -12227,7 +12243,7 @@
       </c>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
         <v>358</v>
       </c>
@@ -12263,7 +12279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
         <v>358</v>
       </c>
@@ -12293,7 +12309,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
         <v>358</v>
       </c>
@@ -12321,7 +12337,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
         <v>358</v>
       </c>
@@ -12350,24 +12366,6 @@
       <c r="P61" s="1">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="77"/>
-      <c r="G62" s="77"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="77"/>
-      <c r="J62" s="77"/>
-      <c r="K62" s="77"/>
-      <c r="L62" s="77"/>
-      <c r="M62" s="77"/>
-      <c r="N62" s="77"/>
-      <c r="O62" s="77"/>
-      <c r="P62" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12381,38 +12379,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K17" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -12456,7 +12454,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -12494,7 +12492,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -12532,7 +12530,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -12570,7 +12568,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -12608,7 +12606,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -12646,7 +12644,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -12684,7 +12682,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -12722,7 +12720,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -12760,7 +12758,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -12798,7 +12796,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -12836,7 +12834,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -12874,7 +12872,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -12912,7 +12910,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -12950,7 +12948,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -12988,7 +12986,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -13026,7 +13024,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -13064,7 +13062,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>50</v>
       </c>
@@ -13102,7 +13100,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68">
         <v>51</v>
       </c>
@@ -13136,7 +13134,7 @@
       <c r="M19" s="71"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>52</v>
       </c>
@@ -13170,7 +13168,7 @@
       <c r="M20" s="71"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68">
         <v>53</v>
       </c>
@@ -13204,7 +13202,7 @@
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>54</v>
       </c>
@@ -13238,7 +13236,7 @@
       <c r="M22" s="71"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68">
         <v>55</v>
       </c>
@@ -13272,7 +13270,7 @@
       <c r="M23" s="71"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>56</v>
       </c>
@@ -13306,7 +13304,7 @@
       <c r="M24" s="71"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="68">
         <v>57</v>
       </c>
@@ -13340,7 +13338,7 @@
       <c r="M25" s="71"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>58</v>
       </c>
@@ -13374,7 +13372,7 @@
       <c r="M26" s="71"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="68">
         <v>59</v>
       </c>
@@ -13408,7 +13406,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>60</v>
       </c>
@@ -13442,7 +13440,7 @@
       <c r="M28" s="71"/>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="34">
         <v>101</v>
       </c>
@@ -13475,7 +13473,7 @@
       </c>
       <c r="M29" s="36"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="34">
         <v>102</v>
       </c>
@@ -13508,7 +13506,7 @@
       </c>
       <c r="M30" s="36"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="34">
         <v>103</v>
       </c>
@@ -13541,7 +13539,7 @@
       </c>
       <c r="M31" s="36"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>104</v>
       </c>
@@ -13574,7 +13572,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>105</v>
       </c>
@@ -13609,7 +13607,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>106</v>
       </c>
@@ -13642,7 +13640,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="34">
         <v>107</v>
       </c>
@@ -13675,7 +13673,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <v>108</v>
       </c>
@@ -13708,7 +13706,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
         <v>109</v>
       </c>
@@ -13743,7 +13741,7 @@
       </c>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <v>110</v>
       </c>
@@ -13776,7 +13774,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="34">
         <v>111</v>
       </c>
@@ -13809,7 +13807,7 @@
       </c>
       <c r="M39" s="36"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
         <v>112</v>
       </c>
@@ -13842,7 +13840,7 @@
       </c>
       <c r="M40" s="36"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="34">
         <v>113</v>
       </c>
@@ -13875,7 +13873,7 @@
       </c>
       <c r="M41" s="36"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="34">
         <v>114</v>
       </c>
@@ -13908,7 +13906,7 @@
       </c>
       <c r="M42" s="3"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="34">
         <v>115</v>
       </c>
@@ -13941,7 +13939,7 @@
       </c>
       <c r="M43" s="3"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="34">
         <v>116</v>
       </c>
@@ -13974,7 +13972,7 @@
       </c>
       <c r="M44" s="3"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="34">
         <v>117</v>
       </c>
@@ -14007,7 +14005,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="34">
         <v>118</v>
       </c>
@@ -14040,107 +14038,107 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="102">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="101">
         <v>119</v>
       </c>
-      <c r="B47" s="102" t="s">
+      <c r="B47" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="102" t="s">
+      <c r="C47" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="102" t="s">
+      <c r="D47" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="103" t="s">
+      <c r="E47" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="F47" s="102">
-        <v>1</v>
-      </c>
-      <c r="G47" s="102">
-        <v>1</v>
-      </c>
-      <c r="H47" s="102">
-        <v>1</v>
-      </c>
-      <c r="I47" s="104"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="102"/>
-      <c r="L47" s="105">
-        <v>1</v>
-      </c>
-      <c r="M47" s="104"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="102">
+      <c r="F47" s="101">
+        <v>1</v>
+      </c>
+      <c r="G47" s="101">
+        <v>1</v>
+      </c>
+      <c r="H47" s="101">
+        <v>1</v>
+      </c>
+      <c r="I47" s="103"/>
+      <c r="J47" s="101"/>
+      <c r="K47" s="101"/>
+      <c r="L47" s="104">
+        <v>1</v>
+      </c>
+      <c r="M47" s="103"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="101">
         <v>120</v>
       </c>
-      <c r="B48" s="102" t="s">
+      <c r="B48" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="102" t="s">
+      <c r="C48" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="D48" s="102" t="s">
+      <c r="D48" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="103" t="s">
+      <c r="E48" s="102" t="s">
         <v>579</v>
       </c>
-      <c r="F48" s="102">
-        <v>1</v>
-      </c>
-      <c r="G48" s="102">
-        <v>1</v>
-      </c>
-      <c r="H48" s="102">
-        <v>1</v>
-      </c>
-      <c r="I48" s="104"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="102"/>
-      <c r="L48" s="105">
-        <v>1</v>
-      </c>
-      <c r="M48" s="104"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="102">
+      <c r="F48" s="101">
+        <v>1</v>
+      </c>
+      <c r="G48" s="101">
+        <v>1</v>
+      </c>
+      <c r="H48" s="101">
+        <v>1</v>
+      </c>
+      <c r="I48" s="103"/>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="104">
+        <v>1</v>
+      </c>
+      <c r="M48" s="103"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="101">
         <v>121</v>
       </c>
-      <c r="B49" s="102" t="s">
+      <c r="B49" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="102" t="s">
+      <c r="C49" s="101" t="s">
         <v>295</v>
       </c>
-      <c r="D49" s="102" t="s">
+      <c r="D49" s="101" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="103" t="s">
+      <c r="E49" s="102" t="s">
         <v>580</v>
       </c>
-      <c r="F49" s="102">
-        <v>1</v>
-      </c>
-      <c r="G49" s="102">
-        <v>1</v>
-      </c>
-      <c r="H49" s="102">
-        <v>1</v>
-      </c>
-      <c r="I49" s="104"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="102"/>
-      <c r="L49" s="105">
-        <v>1</v>
-      </c>
-      <c r="M49" s="104"/>
+      <c r="F49" s="101">
+        <v>1</v>
+      </c>
+      <c r="G49" s="101">
+        <v>1</v>
+      </c>
+      <c r="H49" s="101">
+        <v>1</v>
+      </c>
+      <c r="I49" s="103"/>
+      <c r="J49" s="101"/>
+      <c r="K49" s="101"/>
+      <c r="L49" s="104">
+        <v>1</v>
+      </c>
+      <c r="M49" s="103"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16"/>
+  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{958979DF-E4E5-424B-A6FB-31141DC10B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="20055" tabRatio="800" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -239,12 +238,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,12 +265,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="589">
   <si>
     <t>status</t>
   </si>
@@ -2106,11 +2105,20 @@
   <si>
     <t>/update-organization</t>
   </si>
+  <si>
+    <t>/get-users</t>
+  </si>
+  <si>
+    <t>/create-user</t>
+  </si>
+  <si>
+    <t>/update-user</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3288,7 +3296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3486,6 +3494,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4372,9 +4383,9 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
-    <cellStyle name="Normal 4" xfId="738" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
-    <cellStyle name="Normal 5" xfId="739" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="738"/>
+    <cellStyle name="Normal 5" xfId="739"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4471,23 +4482,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4523,23 +4517,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4714,27 +4691,43 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2021-06-29T02:35:14.09" personId="{00000000-0000-0000-0000-000000000000}" id="{152BA087-38CF-9641-BBDF-2A7034154D08}">
+    <text>Khi đơn vị cập nhập thực hiện thì nhập thông tin vào đây</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E1" dT="2021-06-29T02:35:58.31" personId="{00000000-0000-0000-0000-000000000000}" id="{A523B58E-E469-E744-B82E-2CE5FD4DC608}">
+    <text>Khi đơn vị thay đổi trạng thái thì cập nhập mô tả cho thay đổi đó ở đây</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="9" customWidth="1"/>
-    <col min="7" max="64" width="11.5" style="9" customWidth="1"/>
-    <col min="65" max="16384" width="9.1640625" style="9"/>
+    <col min="6" max="6" width="55.42578125" style="9" customWidth="1"/>
+    <col min="7" max="64" width="11.42578125" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -4754,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -4774,7 +4767,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4794,7 +4787,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>98</v>
       </c>
@@ -4814,7 +4807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4834,7 +4827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
@@ -4854,7 +4847,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
@@ -4874,7 +4867,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
@@ -4906,7 +4899,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4916,17 +4909,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4946,43 +4939,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="95">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="96">
         <v>99</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="97" t="s">
         <v>581</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>473</v>
       </c>
-      <c r="F2" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="93">
+      <c r="F2" s="96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="94">
         <v>21</v>
       </c>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="95" t="s">
         <v>582</v>
       </c>
-      <c r="C3" s="94" t="s">
+      <c r="C3" s="95" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="93" t="s">
+      <c r="D3" s="94" t="s">
         <v>477</v>
       </c>
-      <c r="E3" s="93" t="s">
+      <c r="E3" s="94" t="s">
         <v>478</v>
       </c>
-      <c r="F3" s="93">
+      <c r="F3" s="94">
         <v>1</v>
       </c>
     </row>
@@ -4998,521 +4991,521 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="84" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="84" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="88" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="88" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21" style="84" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.83203125" style="84" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="84" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="84" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="84"/>
-    <col min="12" max="12" width="14.1640625" style="84" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="84"/>
+    <col min="1" max="1" width="3" style="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="78.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="85"/>
+    <col min="12" max="12" width="14.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="84" t="s">
         <v>140</v>
       </c>
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="84" t="s">
         <v>157</v>
       </c>
-      <c r="E1" s="83" t="s">
+      <c r="E1" s="84" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="83" t="s">
+      <c r="F1" s="84" t="s">
         <v>220</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="84" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="83" t="s">
+      <c r="H1" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="83" t="s">
+      <c r="I1" s="84" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="84" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="83" t="s">
+      <c r="K1" s="84" t="s">
         <v>154</v>
       </c>
-      <c r="L1" s="83" t="s">
+      <c r="L1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="83" t="s">
+      <c r="M1" s="84" t="s">
         <v>45</v>
       </c>
-      <c r="N1" s="83" t="s">
+      <c r="N1" s="84" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="89">
-        <v>1</v>
-      </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89" t="s">
+      <c r="A2" s="90">
+        <v>1</v>
+      </c>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90" t="s">
         <v>371</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>462</v>
       </c>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90" t="s">
+      <c r="E2" s="91"/>
+      <c r="F2" s="91" t="s">
         <v>376</v>
       </c>
-      <c r="G2" s="90" t="s">
+      <c r="G2" s="91" t="s">
         <v>372</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89">
+      <c r="I2" s="90"/>
+      <c r="J2" s="90"/>
+      <c r="K2" s="90"/>
+      <c r="L2" s="90"/>
+      <c r="M2" s="90"/>
+      <c r="N2" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="85">
+      <c r="A3" s="86">
         <v>11</v>
       </c>
-      <c r="B3" s="85">
-        <v>1</v>
-      </c>
-      <c r="C3" s="85" t="s">
+      <c r="B3" s="86">
+        <v>1</v>
+      </c>
+      <c r="C3" s="86" t="s">
         <v>373</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86" t="s">
+      <c r="D3" s="86"/>
+      <c r="E3" s="87" t="s">
         <v>373</v>
       </c>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87" t="s">
         <v>456</v>
       </c>
-      <c r="H3" s="85" t="s">
+      <c r="H3" s="86" t="s">
         <v>377</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85">
+      <c r="I3" s="86"/>
+      <c r="J3" s="86"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
+      <c r="N3" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="85">
+      <c r="A4" s="86">
         <v>12</v>
       </c>
-      <c r="B4" s="85">
-        <v>1</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="86">
+        <v>1</v>
+      </c>
+      <c r="C4" s="86" t="s">
         <v>374</v>
       </c>
-      <c r="D4" s="85"/>
-      <c r="E4" s="86" t="s">
+      <c r="D4" s="86"/>
+      <c r="E4" s="87" t="s">
         <v>374</v>
       </c>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86" t="s">
+      <c r="F4" s="87"/>
+      <c r="G4" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="86" t="s">
         <v>378</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85">
+      <c r="I4" s="86"/>
+      <c r="J4" s="86"/>
+      <c r="K4" s="86"/>
+      <c r="L4" s="86"/>
+      <c r="M4" s="86"/>
+      <c r="N4" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="85">
+      <c r="A5" s="86">
         <v>13</v>
       </c>
-      <c r="B5" s="85">
-        <v>1</v>
-      </c>
-      <c r="C5" s="85" t="s">
+      <c r="B5" s="86">
+        <v>1</v>
+      </c>
+      <c r="C5" s="86" t="s">
         <v>375</v>
       </c>
-      <c r="D5" s="85"/>
-      <c r="E5" s="86" t="s">
+      <c r="D5" s="86"/>
+      <c r="E5" s="87" t="s">
         <v>375</v>
       </c>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86" t="s">
+      <c r="F5" s="87"/>
+      <c r="G5" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="H5" s="85" t="s">
+      <c r="H5" s="86" t="s">
         <v>379</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85">
+      <c r="I5" s="86"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="85">
+      <c r="A6" s="86">
         <v>14</v>
       </c>
-      <c r="B6" s="85">
-        <v>1</v>
-      </c>
-      <c r="C6" s="85" t="s">
+      <c r="B6" s="86">
+        <v>1</v>
+      </c>
+      <c r="C6" s="86" t="s">
         <v>380</v>
       </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="86" t="s">
+      <c r="D6" s="86"/>
+      <c r="E6" s="87" t="s">
         <v>380</v>
       </c>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86" t="s">
+      <c r="F6" s="87"/>
+      <c r="G6" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="H6" s="85" t="s">
+      <c r="H6" s="86" t="s">
         <v>381</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85">
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="85">
+      <c r="A7" s="86">
         <v>15</v>
       </c>
-      <c r="B7" s="85">
-        <v>1</v>
-      </c>
-      <c r="C7" s="85" t="s">
+      <c r="B7" s="86">
+        <v>1</v>
+      </c>
+      <c r="C7" s="86" t="s">
         <v>382</v>
       </c>
-      <c r="D7" s="85"/>
-      <c r="E7" s="86" t="s">
+      <c r="D7" s="86"/>
+      <c r="E7" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="F7" s="86"/>
-      <c r="G7" s="86" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="H7" s="85" t="s">
+      <c r="H7" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85">
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="85">
+      <c r="A8" s="86">
         <v>16</v>
       </c>
-      <c r="B8" s="85">
-        <v>1</v>
-      </c>
-      <c r="C8" s="85" t="s">
+      <c r="B8" s="86">
+        <v>1</v>
+      </c>
+      <c r="C8" s="86" t="s">
         <v>387</v>
       </c>
-      <c r="D8" s="85"/>
-      <c r="E8" s="86" t="s">
+      <c r="D8" s="86"/>
+      <c r="E8" s="87" t="s">
         <v>387</v>
       </c>
-      <c r="F8" s="86"/>
-      <c r="G8" s="86" t="s">
+      <c r="F8" s="87"/>
+      <c r="G8" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="H8" s="85" t="s">
+      <c r="H8" s="86" t="s">
         <v>388</v>
       </c>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85">
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="86"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="89">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89" t="s">
+      <c r="B9" s="90"/>
+      <c r="C9" s="90" t="s">
         <v>384</v>
       </c>
-      <c r="D9" s="89" t="s">
+      <c r="D9" s="90" t="s">
         <v>449</v>
       </c>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90" t="s">
+      <c r="E9" s="91"/>
+      <c r="F9" s="91" t="s">
         <v>481</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="91" t="s">
         <v>463</v>
       </c>
-      <c r="H9" s="89" t="s">
+      <c r="H9" s="90" t="s">
         <v>484</v>
       </c>
-      <c r="I9" s="89"/>
-      <c r="J9" s="89"/>
-      <c r="K9" s="89"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="89"/>
-      <c r="N9" s="89">
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="90"/>
+      <c r="L9" s="90"/>
+      <c r="M9" s="90"/>
+      <c r="N9" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="85">
+      <c r="A10" s="86">
         <v>21</v>
       </c>
-      <c r="B10" s="85">
+      <c r="B10" s="86">
         <v>2</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="86" t="s">
         <v>385</v>
       </c>
-      <c r="D10" s="85"/>
-      <c r="E10" s="86" t="s">
+      <c r="D10" s="86"/>
+      <c r="E10" s="87" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86" t="s">
+      <c r="F10" s="87"/>
+      <c r="G10" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="H10" s="85" t="s">
+      <c r="H10" s="86" t="s">
         <v>445</v>
       </c>
-      <c r="I10" s="85"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="85"/>
-      <c r="N10" s="85">
+      <c r="I10" s="86"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="85">
+      <c r="A11" s="86">
         <v>22</v>
       </c>
-      <c r="B11" s="85">
+      <c r="B11" s="86">
         <v>2</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="86" t="s">
         <v>384</v>
       </c>
-      <c r="D11" s="85"/>
-      <c r="E11" s="86" t="s">
+      <c r="D11" s="86"/>
+      <c r="E11" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86" t="s">
+      <c r="F11" s="87"/>
+      <c r="G11" s="87" t="s">
         <v>465</v>
       </c>
-      <c r="H11" s="85" t="s">
+      <c r="H11" s="86" t="s">
         <v>446</v>
       </c>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="85"/>
-      <c r="N11" s="85">
+      <c r="I11" s="86"/>
+      <c r="J11" s="86"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="86"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="85">
+      <c r="A12" s="86">
         <v>23</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="86">
         <v>2</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="86" t="s">
         <v>386</v>
       </c>
-      <c r="D12" s="85"/>
-      <c r="E12" s="86" t="s">
+      <c r="D12" s="86"/>
+      <c r="E12" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="F12" s="86"/>
-      <c r="G12" s="86" t="s">
+      <c r="F12" s="87"/>
+      <c r="G12" s="87" t="s">
         <v>466</v>
       </c>
-      <c r="H12" s="85" t="s">
+      <c r="H12" s="86" t="s">
         <v>447</v>
       </c>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
-      <c r="N12" s="85">
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="86"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="85">
+      <c r="A13" s="86">
         <v>24</v>
       </c>
-      <c r="B13" s="85">
+      <c r="B13" s="86">
         <v>2</v>
       </c>
-      <c r="C13" s="85" t="s">
+      <c r="C13" s="86" t="s">
         <v>444</v>
       </c>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86" t="s">
+      <c r="D13" s="86"/>
+      <c r="E13" s="87" t="s">
         <v>444</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86" t="s">
+      <c r="F13" s="87"/>
+      <c r="G13" s="87" t="s">
         <v>467</v>
       </c>
-      <c r="H13" s="85" t="s">
+      <c r="H13" s="86" t="s">
         <v>448</v>
       </c>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
-      <c r="N13" s="85">
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="89">
+      <c r="A14" s="90">
         <v>3</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="89" t="s">
+      <c r="B14" s="90"/>
+      <c r="C14" s="90" t="s">
         <v>450</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="90" t="s">
         <v>452</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90" t="s">
+      <c r="E14" s="91"/>
+      <c r="F14" s="91" t="s">
         <v>482</v>
       </c>
-      <c r="G14" s="90" t="s">
+      <c r="G14" s="91" t="s">
         <v>470</v>
       </c>
-      <c r="H14" s="89" t="s">
+      <c r="H14" s="90" t="s">
         <v>485</v>
       </c>
-      <c r="I14" s="89"/>
-      <c r="J14" s="89"/>
-      <c r="K14" s="89"/>
-      <c r="L14" s="89"/>
-      <c r="M14" s="89"/>
-      <c r="N14" s="89">
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="90"/>
+      <c r="L14" s="90"/>
+      <c r="M14" s="90"/>
+      <c r="N14" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="85">
+      <c r="A15" s="86">
         <v>31</v>
       </c>
-      <c r="B15" s="85">
+      <c r="B15" s="86">
         <v>3</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="86" t="s">
         <v>451</v>
       </c>
-      <c r="D15" s="85"/>
-      <c r="E15" s="86" t="s">
+      <c r="D15" s="86"/>
+      <c r="E15" s="87" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86" t="s">
+      <c r="F15" s="87"/>
+      <c r="G15" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="H15" s="85" t="s">
+      <c r="H15" s="86" t="s">
         <v>453</v>
       </c>
-      <c r="I15" s="85"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="85"/>
-      <c r="L15" s="85"/>
-      <c r="M15" s="85"/>
-      <c r="N15" s="85">
+      <c r="I15" s="86"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="89">
+      <c r="A16" s="90">
         <v>4</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="89" t="s">
+      <c r="B16" s="90"/>
+      <c r="C16" s="90" t="s">
         <v>454</v>
       </c>
-      <c r="D16" s="89"/>
-      <c r="E16" s="90" t="s">
+      <c r="D16" s="90"/>
+      <c r="E16" s="91" t="s">
         <v>454</v>
       </c>
-      <c r="F16" s="90" t="s">
+      <c r="F16" s="91" t="s">
         <v>483</v>
       </c>
-      <c r="G16" s="90" t="s">
+      <c r="G16" s="91" t="s">
         <v>469</v>
       </c>
-      <c r="H16" s="89" t="s">
+      <c r="H16" s="90" t="s">
         <v>455</v>
       </c>
-      <c r="I16" s="89"/>
-      <c r="J16" s="89"/>
-      <c r="K16" s="89"/>
-      <c r="L16" s="89"/>
-      <c r="M16" s="89"/>
-      <c r="N16" s="89">
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
+      <c r="N16" s="90">
         <v>1</v>
       </c>
     </row>
@@ -5528,29 +5521,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5585,7 +5578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5610,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5635,7 +5628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5660,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5697,7 +5690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5707,19 +5700,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5748,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5765,7 +5758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5785,7 +5778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5805,7 +5798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5825,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5845,7 +5838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5865,7 +5858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5885,7 +5878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5905,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5925,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5945,7 +5938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5965,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5985,7 +5978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6005,7 +5998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6025,7 +6018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6045,7 +6038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6065,7 +6058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6091,20 +6084,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="4" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
@@ -6118,7 +6111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -6129,7 +6122,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6140,7 +6133,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -6151,7 +6144,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6162,7 +6155,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6173,7 +6166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -6184,7 +6177,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6195,7 +6188,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6206,37 +6199,37 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>189</v>
       </c>
@@ -6247,36 +6240,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
@@ -6327,7 +6320,7 @@
       </c>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>258</v>
       </c>
@@ -6366,7 +6359,7 @@
       </c>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>258</v>
       </c>
@@ -6399,7 +6392,7 @@
       </c>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>258</v>
       </c>
@@ -6432,7 +6425,7 @@
       </c>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>258</v>
       </c>
@@ -6465,7 +6458,7 @@
       </c>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>258</v>
       </c>
@@ -6498,7 +6491,7 @@
       </c>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>258</v>
       </c>
@@ -6531,7 +6524,7 @@
       </c>
       <c r="Q7" s="57"/>
     </row>
-    <row r="8" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>258</v>
       </c>
@@ -6564,7 +6557,7 @@
       </c>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>258</v>
       </c>
@@ -6595,7 +6588,7 @@
       </c>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>258</v>
       </c>
@@ -6630,7 +6623,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>258</v>
       </c>
@@ -6661,7 +6654,7 @@
       </c>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>258</v>
       </c>
@@ -6694,7 +6687,7 @@
       </c>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>258</v>
       </c>
@@ -6727,7 +6720,7 @@
       </c>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>222</v>
       </c>
@@ -6766,7 +6759,7 @@
       </c>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>222</v>
       </c>
@@ -6799,7 +6792,7 @@
       </c>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
@@ -6832,7 +6825,7 @@
       </c>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>222</v>
       </c>
@@ -6863,7 +6856,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>222</v>
       </c>
@@ -6896,7 +6889,7 @@
       </c>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>222</v>
       </c>
@@ -6929,7 +6922,7 @@
       </c>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>222</v>
       </c>
@@ -6962,7 +6955,7 @@
       </c>
       <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>222</v>
       </c>
@@ -6995,7 +6988,7 @@
       </c>
       <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>222</v>
       </c>
@@ -7024,7 +7017,7 @@
       <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>222</v>
       </c>
@@ -7055,7 +7048,7 @@
       </c>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>222</v>
       </c>
@@ -7088,7 +7081,7 @@
       </c>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>222</v>
       </c>
@@ -7119,7 +7112,7 @@
       </c>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>222</v>
       </c>
@@ -7152,7 +7145,7 @@
       </c>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>222</v>
       </c>
@@ -7187,7 +7180,7 @@
       </c>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>222</v>
       </c>
@@ -7218,7 +7211,7 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>222</v>
       </c>
@@ -7249,7 +7242,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>222</v>
       </c>
@@ -7280,334 +7273,334 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="99" t="s">
+    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="100" t="s">
         <v>244</v>
       </c>
-      <c r="D31" s="99" t="s">
+      <c r="D31" s="100" t="s">
         <v>575</v>
       </c>
-      <c r="E31" s="99" t="s">
-        <v>16</v>
-      </c>
-      <c r="F31" s="100"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="100"/>
-      <c r="J31" s="100"/>
-      <c r="K31" s="100"/>
-      <c r="L31" s="100"/>
-      <c r="M31" s="100"/>
-      <c r="N31" s="100"/>
-      <c r="O31" s="100"/>
+      <c r="E31" s="100" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="101"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
+      <c r="N31" s="101"/>
+      <c r="O31" s="101"/>
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
     </row>
-    <row r="32" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="99" t="s">
+    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B32" s="99" t="s">
+      <c r="B32" s="100" t="s">
         <v>223</v>
       </c>
-      <c r="C32" s="99" t="s">
+      <c r="C32" s="100" t="s">
         <v>576</v>
       </c>
-      <c r="D32" s="99" t="s">
+      <c r="D32" s="100" t="s">
         <v>577</v>
       </c>
-      <c r="E32" s="99" t="s">
+      <c r="E32" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="100"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="100"/>
-      <c r="I32" s="100"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="100"/>
-      <c r="L32" s="100"/>
-      <c r="M32" s="100"/>
-      <c r="N32" s="100"/>
-      <c r="O32" s="100"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="101"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="101"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
+      <c r="M32" s="101"/>
+      <c r="N32" s="101"/>
+      <c r="O32" s="101"/>
       <c r="P32" s="56"/>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="99" t="s">
+    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="100" t="s">
         <v>228</v>
       </c>
-      <c r="C33" s="99" t="s">
+      <c r="C33" s="100" t="s">
         <v>275</v>
       </c>
-      <c r="D33" s="99" t="s">
+      <c r="D33" s="100" t="s">
         <v>277</v>
       </c>
-      <c r="E33" s="99" t="s">
+      <c r="E33" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F33" s="100">
+      <c r="F33" s="101">
         <v>500</v>
       </c>
-      <c r="G33" s="100"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="100"/>
-      <c r="J33" s="100"/>
-      <c r="K33" s="100"/>
-      <c r="L33" s="100"/>
-      <c r="M33" s="100"/>
-      <c r="N33" s="100"/>
-      <c r="O33" s="100"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
+      <c r="M33" s="101"/>
+      <c r="N33" s="101"/>
+      <c r="O33" s="101"/>
       <c r="P33" s="56"/>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="99" t="s">
+    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B34" s="99" t="s">
+      <c r="B34" s="100" t="s">
         <v>229</v>
       </c>
-      <c r="C34" s="99" t="s">
+      <c r="C34" s="100" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="100" t="s">
         <v>278</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="E34" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="100">
+      <c r="F34" s="101">
         <v>500</v>
       </c>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="100"/>
-      <c r="J34" s="100"/>
-      <c r="K34" s="100"/>
-      <c r="L34" s="100"/>
-      <c r="M34" s="100"/>
-      <c r="N34" s="100"/>
-      <c r="O34" s="100"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+      <c r="M34" s="101"/>
+      <c r="N34" s="101"/>
+      <c r="O34" s="101"/>
       <c r="P34" s="56"/>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="99" t="s">
+    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="100" t="s">
         <v>566</v>
       </c>
-      <c r="C35" s="99" t="s">
+      <c r="C35" s="100" t="s">
         <v>567</v>
       </c>
-      <c r="D35" s="99" t="s">
+      <c r="D35" s="100" t="s">
         <v>568</v>
       </c>
-      <c r="E35" s="99" t="s">
+      <c r="E35" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="100">
+      <c r="F35" s="101">
         <v>255</v>
       </c>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
-      <c r="K35" s="100"/>
-      <c r="L35" s="100"/>
-      <c r="M35" s="100"/>
-      <c r="N35" s="100"/>
-      <c r="O35" s="100"/>
+      <c r="G35" s="101"/>
+      <c r="H35" s="101"/>
+      <c r="I35" s="101"/>
+      <c r="J35" s="101"/>
+      <c r="K35" s="101"/>
+      <c r="L35" s="101"/>
+      <c r="M35" s="101"/>
+      <c r="N35" s="101"/>
+      <c r="O35" s="101"/>
       <c r="P35" s="56"/>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="99" t="s">
+    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="100" t="s">
         <v>571</v>
       </c>
-      <c r="C36" s="99" t="s">
+      <c r="C36" s="100" t="s">
         <v>569</v>
       </c>
-      <c r="D36" s="99" t="s">
+      <c r="D36" s="100" t="s">
         <v>570</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
-      <c r="K36" s="100"/>
-      <c r="L36" s="100"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="100"/>
+      <c r="F36" s="101"/>
+      <c r="G36" s="101"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="101"/>
+      <c r="J36" s="101"/>
+      <c r="K36" s="101"/>
+      <c r="L36" s="101"/>
+      <c r="M36" s="101"/>
+      <c r="N36" s="101"/>
+      <c r="O36" s="101"/>
       <c r="P36" s="56"/>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="99" t="s">
+    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B37" s="99" t="s">
+      <c r="B37" s="100" t="s">
         <v>206</v>
       </c>
-      <c r="C37" s="99" t="s">
+      <c r="C37" s="100" t="s">
         <v>238</v>
       </c>
-      <c r="D37" s="99" t="s">
+      <c r="D37" s="100" t="s">
         <v>133</v>
       </c>
-      <c r="E37" s="99" t="s">
+      <c r="E37" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="100"/>
-      <c r="J37" s="100"/>
-      <c r="K37" s="100"/>
-      <c r="L37" s="100"/>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
+      <c r="F37" s="101"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="101"/>
+      <c r="J37" s="101"/>
+      <c r="K37" s="101"/>
+      <c r="L37" s="101"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
       <c r="P37" s="56"/>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="99" t="s">
+    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B38" s="99" t="s">
+      <c r="B38" s="100" t="s">
         <v>232</v>
       </c>
-      <c r="C38" s="99" t="s">
+      <c r="C38" s="100" t="s">
         <v>250</v>
       </c>
-      <c r="D38" s="99" t="s">
+      <c r="D38" s="100" t="s">
         <v>298</v>
       </c>
-      <c r="E38" s="99" t="s">
+      <c r="E38" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="100"/>
-      <c r="G38" s="100"/>
-      <c r="H38" s="100"/>
-      <c r="I38" s="100"/>
-      <c r="J38" s="100"/>
-      <c r="K38" s="100"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
+      <c r="F38" s="101"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="101"/>
+      <c r="I38" s="101"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="101"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
       <c r="P38" s="56"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="99" t="s">
+    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B39" s="99" t="s">
+      <c r="B39" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="99" t="s">
+      <c r="C39" s="100" t="s">
         <v>239</v>
       </c>
-      <c r="D39" s="99" t="s">
+      <c r="D39" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="E39" s="99" t="s">
+      <c r="E39" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="100">
+      <c r="F39" s="101">
         <v>255</v>
       </c>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="100"/>
-      <c r="J39" s="100"/>
-      <c r="K39" s="100"/>
-      <c r="L39" s="100"/>
-      <c r="M39" s="100"/>
-      <c r="N39" s="100"/>
-      <c r="O39" s="100"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="101"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="101"/>
+      <c r="K39" s="101"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
       <c r="P39" s="56"/>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="99" t="s">
+    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B40" s="99" t="s">
+      <c r="B40" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="99" t="s">
+      <c r="C40" s="100" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="99" t="s">
+      <c r="D40" s="100" t="s">
         <v>178</v>
       </c>
-      <c r="E40" s="99" t="s">
+      <c r="E40" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="100"/>
-      <c r="G40" s="100"/>
-      <c r="H40" s="100"/>
-      <c r="I40" s="100"/>
-      <c r="J40" s="100"/>
-      <c r="K40" s="100"/>
-      <c r="L40" s="100"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="100"/>
+      <c r="F40" s="101"/>
+      <c r="G40" s="101"/>
+      <c r="H40" s="101"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="101"/>
+      <c r="K40" s="101"/>
+      <c r="L40" s="101"/>
+      <c r="M40" s="101"/>
+      <c r="N40" s="101"/>
+      <c r="O40" s="101"/>
       <c r="P40" s="56"/>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="99" t="s">
+    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="99" t="s">
+      <c r="C41" s="100" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="99" t="s">
+      <c r="D41" s="100" t="s">
         <v>572</v>
       </c>
-      <c r="E41" s="99" t="s">
+      <c r="E41" s="100" t="s">
         <v>98</v>
       </c>
-      <c r="F41" s="100"/>
-      <c r="G41" s="100"/>
-      <c r="H41" s="100"/>
-      <c r="I41" s="100"/>
-      <c r="J41" s="100"/>
-      <c r="K41" s="100"/>
-      <c r="L41" s="100"/>
-      <c r="M41" s="100"/>
-      <c r="N41" s="100"/>
-      <c r="O41" s="100"/>
+      <c r="F41" s="101"/>
+      <c r="G41" s="101"/>
+      <c r="H41" s="101"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="101"/>
+      <c r="K41" s="101"/>
+      <c r="L41" s="101"/>
+      <c r="M41" s="101"/>
+      <c r="N41" s="101"/>
+      <c r="O41" s="101"/>
       <c r="P41" s="56"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="50" t="s">
         <v>281</v>
       </c>
@@ -7638,7 +7631,7 @@
       </c>
       <c r="Q42" s="59"/>
     </row>
-    <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="50" t="s">
         <v>281</v>
       </c>
@@ -7669,7 +7662,7 @@
       </c>
       <c r="Q43" s="59"/>
     </row>
-    <row r="44" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>281</v>
       </c>
@@ -7704,7 +7697,7 @@
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>281</v>
       </c>
@@ -7733,7 +7726,7 @@
       </c>
       <c r="Q45" s="59"/>
     </row>
-    <row r="46" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>281</v>
       </c>
@@ -7766,7 +7759,7 @@
       </c>
       <c r="Q46" s="59"/>
     </row>
-    <row r="47" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>281</v>
       </c>
@@ -7799,7 +7792,7 @@
       </c>
       <c r="Q47" s="59"/>
     </row>
-    <row r="48" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>281</v>
       </c>
@@ -7830,7 +7823,7 @@
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>281</v>
       </c>
@@ -7863,7 +7856,7 @@
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>281</v>
       </c>
@@ -7894,7 +7887,7 @@
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>281</v>
       </c>
@@ -7927,7 +7920,7 @@
       </c>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="52" t="s">
         <v>280</v>
       </c>
@@ -7966,7 +7959,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="52" t="s">
         <v>280</v>
       </c>
@@ -8001,7 +7994,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="52" t="s">
         <v>280</v>
       </c>
@@ -8034,7 +8027,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="52" t="s">
         <v>280</v>
       </c>
@@ -8067,7 +8060,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>280</v>
       </c>
@@ -8100,7 +8093,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="81" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>280</v>
       </c>
@@ -8110,7 +8103,7 @@
       <c r="C57" s="52" t="s">
         <v>300</v>
       </c>
-      <c r="D57" s="97" t="s">
+      <c r="D57" s="98" t="s">
         <v>495</v>
       </c>
       <c r="E57" s="52" t="s">
@@ -8135,7 +8128,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="81" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>280</v>
       </c>
@@ -8168,7 +8161,7 @@
       </c>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>280</v>
       </c>
@@ -8199,7 +8192,7 @@
       </c>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>280</v>
       </c>
@@ -8230,7 +8223,7 @@
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
         <v>280</v>
       </c>
@@ -8263,7 +8256,7 @@
       </c>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
         <v>280</v>
       </c>
@@ -8294,7 +8287,7 @@
       </c>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="65" t="s">
         <v>280</v>
       </c>
@@ -8327,7 +8320,7 @@
       </c>
       <c r="Q63" s="57"/>
     </row>
-    <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="53" t="s">
         <v>218</v>
       </c>
@@ -8366,7 +8359,7 @@
       </c>
       <c r="Q64" s="59"/>
     </row>
-    <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="53" t="s">
         <v>218</v>
       </c>
@@ -8399,7 +8392,7 @@
       </c>
       <c r="Q65" s="59"/>
     </row>
-    <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="53" t="s">
         <v>218</v>
       </c>
@@ -8434,7 +8427,7 @@
       </c>
       <c r="Q66" s="59"/>
     </row>
-    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="53" t="s">
         <v>218</v>
       </c>
@@ -8467,7 +8460,7 @@
       </c>
       <c r="Q67" s="59"/>
     </row>
-    <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="53" t="s">
         <v>218</v>
       </c>
@@ -8500,7 +8493,7 @@
       </c>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>218</v>
       </c>
@@ -8533,7 +8526,7 @@
       </c>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>218</v>
       </c>
@@ -8566,7 +8559,7 @@
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>218</v>
       </c>
@@ -8597,7 +8590,7 @@
       </c>
       <c r="Q71" s="59"/>
     </row>
-    <row r="72" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>218</v>
       </c>
@@ -8630,7 +8623,7 @@
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>218</v>
       </c>
@@ -8661,7 +8654,7 @@
       </c>
       <c r="Q73" s="59"/>
     </row>
-    <row r="74" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>218</v>
       </c>
@@ -8694,7 +8687,7 @@
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>218</v>
       </c>
@@ -8727,7 +8720,7 @@
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="44" t="s">
         <v>170</v>
       </c>
@@ -8766,7 +8759,7 @@
       </c>
       <c r="Q76" s="57"/>
     </row>
-    <row r="77" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="44" t="s">
         <v>170</v>
       </c>
@@ -8799,7 +8792,7 @@
       </c>
       <c r="Q77" s="57"/>
     </row>
-    <row r="78" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="44" t="s">
         <v>170</v>
       </c>
@@ -8834,7 +8827,7 @@
       </c>
       <c r="Q78" s="57"/>
     </row>
-    <row r="79" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="44" t="s">
         <v>170</v>
       </c>
@@ -8867,7 +8860,7 @@
       </c>
       <c r="Q79" s="57"/>
     </row>
-    <row r="80" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
         <v>170</v>
       </c>
@@ -8900,7 +8893,7 @@
       </c>
       <c r="Q80" s="57"/>
     </row>
-    <row r="81" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
         <v>170</v>
       </c>
@@ -8931,7 +8924,7 @@
       </c>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
         <v>170</v>
       </c>
@@ -8964,7 +8957,7 @@
       </c>
       <c r="Q82" s="57"/>
     </row>
-    <row r="83" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
         <v>170</v>
       </c>
@@ -8995,7 +8988,7 @@
       </c>
       <c r="Q83" s="57"/>
     </row>
-    <row r="84" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
         <v>170</v>
       </c>
@@ -9028,7 +9021,7 @@
       </c>
       <c r="Q84" s="57"/>
     </row>
-    <row r="85" spans="1:17" s="81" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
         <v>170</v>
       </c>
@@ -9068,7 +9061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9078,19 +9071,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9119,30 +9112,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="91">
-        <v>1</v>
-      </c>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="92">
+        <v>1</v>
+      </c>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="91" t="s">
+      <c r="D2" s="92" t="s">
         <v>390</v>
       </c>
-      <c r="E2" s="91" t="s">
+      <c r="E2" s="92" t="s">
         <v>395</v>
       </c>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I2" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9165,7 +9158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9188,7 +9181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9211,7 +9204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9234,7 +9227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9257,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9280,30 +9273,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="91">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="92">
         <v>2</v>
       </c>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="92" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="92" t="s">
         <v>406</v>
       </c>
-      <c r="E9" s="91" t="s">
+      <c r="E9" s="92" t="s">
         <v>413</v>
       </c>
-      <c r="F9" s="91"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="91" t="s">
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I9" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9326,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9349,30 +9342,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="91">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="92">
         <v>3</v>
       </c>
-      <c r="B12" s="91"/>
-      <c r="C12" s="91" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="92" t="s">
         <v>522</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="92" t="s">
         <v>416</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="E12" s="92" t="s">
         <v>417</v>
       </c>
-      <c r="F12" s="91"/>
-      <c r="G12" s="91"/>
-      <c r="H12" s="91" t="s">
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I12" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9395,7 +9388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9418,7 +9411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9441,7 +9434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9464,7 +9457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9487,7 +9480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9510,30 +9503,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="91">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="92">
         <v>4</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92" t="s">
         <v>523</v>
       </c>
-      <c r="D19" s="91" t="s">
+      <c r="D19" s="92" t="s">
         <v>427</v>
       </c>
-      <c r="E19" s="91" t="s">
+      <c r="E19" s="92" t="s">
         <v>428</v>
       </c>
-      <c r="F19" s="91"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="91" t="s">
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I19" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9556,7 +9549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9579,7 +9572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9602,7 +9595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9625,30 +9618,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="91">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="92">
         <v>5</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91" t="s">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92" t="s">
         <v>499</v>
       </c>
-      <c r="D24" s="91" t="s">
+      <c r="D24" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="E24" s="91" t="s">
+      <c r="E24" s="92" t="s">
         <v>428</v>
       </c>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91" t="s">
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="91">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I24" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9671,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9694,7 +9687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9717,7 +9710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9740,7 +9733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9763,7 +9756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9786,7 +9779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9809,7 +9802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9825,14 +9818,14 @@
       <c r="E32" t="s">
         <v>519</v>
       </c>
-      <c r="H32" s="98" t="s">
+      <c r="H32" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I32" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I32" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9848,14 +9841,14 @@
       <c r="E33" t="s">
         <v>555</v>
       </c>
-      <c r="H33" s="98" t="s">
+      <c r="H33" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I33" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I33" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>510</v>
       </c>
@@ -9871,14 +9864,14 @@
       <c r="E34" t="s">
         <v>553</v>
       </c>
-      <c r="H34" s="98" t="s">
+      <c r="H34" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I34" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>511</v>
       </c>
@@ -9894,14 +9887,14 @@
       <c r="E35" t="s">
         <v>539</v>
       </c>
-      <c r="H35" s="98" t="s">
+      <c r="H35" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I35" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I35" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>512</v>
       </c>
@@ -9917,14 +9910,14 @@
       <c r="E36" t="s">
         <v>527</v>
       </c>
-      <c r="H36" s="98" t="s">
+      <c r="H36" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I36" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I36" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>513</v>
       </c>
@@ -9940,14 +9933,14 @@
       <c r="E37" t="s">
         <v>528</v>
       </c>
-      <c r="H37" s="98" t="s">
+      <c r="H37" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I37" s="98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I37" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>514</v>
       </c>
@@ -9963,10 +9956,10 @@
       <c r="E38" t="s">
         <v>542</v>
       </c>
-      <c r="H38" s="98" t="s">
+      <c r="H38" s="99" t="s">
         <v>189</v>
       </c>
-      <c r="I38" s="98">
+      <c r="I38" s="99">
         <v>1</v>
       </c>
     </row>
@@ -9977,7 +9970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9987,16 +9980,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="12" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -10034,7 +10027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10063,7 +10056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10073,22 +10066,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10126,11 +10119,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="93" t="s">
         <v>433</v>
       </c>
       <c r="C2" s="41">
@@ -10154,11 +10147,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="93" t="s">
         <v>434</v>
       </c>
       <c r="C3" s="41">
@@ -10182,11 +10175,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>3</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="93" t="s">
         <v>436</v>
       </c>
       <c r="C4" s="41">
@@ -10210,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10224,7 +10217,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10244,7 +10237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10254,18 +10247,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10300,7 +10293,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10314,7 +10307,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10328,7 +10321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10342,7 +10335,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10356,7 +10349,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10370,7 +10363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10391,7 +10384,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10401,22 +10394,22 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
@@ -10454,7 +10447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10478,37 +10471,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -10558,7 +10551,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -10594,7 +10587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -10622,7 +10615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -10652,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -10682,7 +10675,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -10716,7 +10709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -10744,7 +10737,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10772,7 +10765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10800,7 +10793,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -10828,7 +10821,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -10858,7 +10851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -10886,7 +10879,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -10916,7 +10909,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -10944,7 +10937,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -10972,247 +10965,245 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="78" t="s">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78" t="s">
+      <c r="C16" s="79"/>
+      <c r="D16" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="80" t="s">
+      <c r="E16" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="79">
-        <v>1</v>
-      </c>
-      <c r="H16" s="79">
-        <v>1</v>
-      </c>
-      <c r="I16" s="79">
-        <v>1</v>
-      </c>
-      <c r="J16" s="79">
-        <v>1</v>
-      </c>
-      <c r="K16" s="79"/>
-      <c r="L16" s="79"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="79"/>
-      <c r="O16" s="79"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80">
+        <v>1</v>
+      </c>
+      <c r="H16" s="80">
+        <v>1</v>
+      </c>
+      <c r="I16" s="80"/>
+      <c r="J16" s="80">
+        <v>1</v>
+      </c>
+      <c r="K16" s="80"/>
+      <c r="L16" s="80"/>
+      <c r="M16" s="80"/>
+      <c r="N16" s="80"/>
+      <c r="O16" s="80"/>
       <c r="P16" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="78" t="s">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78" t="s">
+      <c r="C17" s="79"/>
+      <c r="D17" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79">
-        <v>1</v>
-      </c>
-      <c r="H17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="79"/>
-      <c r="K17" s="79"/>
-      <c r="L17" s="79"/>
-      <c r="M17" s="79"/>
-      <c r="N17" s="79"/>
-      <c r="O17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80">
+        <v>1</v>
+      </c>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="80"/>
+      <c r="N17" s="80"/>
+      <c r="O17" s="80"/>
       <c r="P17" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="78" t="s">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="79" t="s">
         <v>472</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78" t="s">
+      <c r="C18" s="79"/>
+      <c r="D18" s="79" t="s">
         <v>479</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="79">
+      <c r="F18" s="80">
         <v>2000</v>
       </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="79"/>
-      <c r="K18" s="79"/>
-      <c r="L18" s="79"/>
-      <c r="M18" s="79"/>
-      <c r="N18" s="79"/>
-      <c r="O18" s="79"/>
+      <c r="G18" s="80"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="80"/>
+      <c r="J18" s="80"/>
+      <c r="K18" s="80"/>
+      <c r="L18" s="80"/>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="78" t="s">
+      <c r="B19" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78" t="s">
+      <c r="C19" s="79"/>
+      <c r="D19" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="80" t="s">
+      <c r="E19" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F19" s="79">
+      <c r="F19" s="80">
         <v>255</v>
       </c>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="79"/>
-      <c r="L19" s="79"/>
-      <c r="M19" s="79"/>
-      <c r="N19" s="79"/>
-      <c r="O19" s="79"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="80"/>
+      <c r="J19" s="80"/>
+      <c r="K19" s="80"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
       <c r="P19" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="78" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="78" t="s">
+      <c r="B20" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78" t="s">
+      <c r="C20" s="79"/>
+      <c r="D20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="E20" s="80" t="s">
+      <c r="E20" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="79"/>
-      <c r="I20" s="79"/>
-      <c r="J20" s="79"/>
-      <c r="K20" s="79"/>
-      <c r="L20" s="79"/>
-      <c r="M20" s="79"/>
-      <c r="N20" s="79"/>
-      <c r="O20" s="79"/>
+      <c r="F20" s="80"/>
+      <c r="G20" s="80"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="80"/>
+      <c r="J20" s="80"/>
+      <c r="K20" s="80"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
       <c r="P20" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="78" t="s">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="78" t="s">
+      <c r="B21" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78" t="s">
+      <c r="C21" s="79"/>
+      <c r="D21" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="80" t="s">
+      <c r="E21" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="79"/>
-      <c r="I21" s="79"/>
-      <c r="J21" s="79"/>
-      <c r="K21" s="79"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="79"/>
-      <c r="N21" s="79"/>
-      <c r="O21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="80"/>
+      <c r="J21" s="80"/>
+      <c r="K21" s="80"/>
+      <c r="L21" s="80"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="80"/>
+      <c r="O21" s="80"/>
       <c r="P21" s="1">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="78" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78" t="s">
+      <c r="C22" s="79"/>
+      <c r="D22" s="79" t="s">
         <v>364</v>
       </c>
-      <c r="E22" s="80" t="s">
+      <c r="E22" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="79">
+      <c r="F22" s="80">
         <v>50</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="79"/>
-      <c r="J22" s="79"/>
-      <c r="K22" s="79"/>
-      <c r="L22" s="79"/>
-      <c r="M22" s="79"/>
-      <c r="N22" s="79"/>
-      <c r="O22" s="79"/>
+      <c r="G22" s="80"/>
+      <c r="H22" s="80"/>
+      <c r="I22" s="80"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
+      <c r="L22" s="80"/>
+      <c r="M22" s="80"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
       <c r="P22" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="78" t="s">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="79" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78" t="s">
+      <c r="C23" s="79"/>
+      <c r="D23" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="80" t="s">
+      <c r="E23" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="79"/>
-      <c r="I23" s="79"/>
-      <c r="J23" s="79"/>
-      <c r="K23" s="79"/>
-      <c r="L23" s="79"/>
-      <c r="M23" s="79">
-        <v>1</v>
-      </c>
-      <c r="N23" s="79"/>
-      <c r="O23" s="79"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="80"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="80"/>
+      <c r="L23" s="80"/>
+      <c r="M23" s="80">
+        <v>1</v>
+      </c>
+      <c r="N23" s="80"/>
+      <c r="O23" s="80"/>
       <c r="P23" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -11248,7 +11239,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -11260,9 +11251,11 @@
         <v>366</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="16"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="16">
+        <v>200</v>
+      </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -11276,7 +11269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11306,7 +11299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -11336,7 +11329,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -11366,7 +11359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -11396,7 +11389,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -11426,7 +11419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -11456,7 +11449,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -11484,7 +11477,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -11514,7 +11507,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -11544,427 +11537,427 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="78" t="s">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B35" s="78" t="s">
+      <c r="B35" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78" t="s">
+      <c r="C35" s="79"/>
+      <c r="D35" s="79" t="s">
         <v>146</v>
       </c>
-      <c r="E35" s="78" t="s">
+      <c r="E35" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79">
-        <v>1</v>
-      </c>
-      <c r="H35" s="79">
-        <v>1</v>
-      </c>
-      <c r="I35" s="79">
-        <v>1</v>
-      </c>
-      <c r="J35" s="79">
-        <v>1</v>
-      </c>
-      <c r="K35" s="79"/>
-      <c r="L35" s="79"/>
-      <c r="M35" s="79"/>
-      <c r="N35" s="79"/>
-      <c r="O35" s="79"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80">
+        <v>1</v>
+      </c>
+      <c r="H35" s="80">
+        <v>1</v>
+      </c>
+      <c r="I35" s="80">
+        <v>1</v>
+      </c>
+      <c r="J35" s="80">
+        <v>1</v>
+      </c>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
       <c r="P35" s="1">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="78" t="s">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B36" s="78" t="s">
+      <c r="B36" s="79" t="s">
         <v>140</v>
       </c>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78" t="s">
+      <c r="C36" s="79"/>
+      <c r="D36" s="79" t="s">
         <v>148</v>
       </c>
-      <c r="E36" s="78" t="s">
+      <c r="E36" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="79"/>
-      <c r="J36" s="79"/>
-      <c r="K36" s="79"/>
-      <c r="L36" s="79"/>
-      <c r="M36" s="79"/>
-      <c r="N36" s="79"/>
-      <c r="O36" s="79"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="80"/>
+      <c r="J36" s="80"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="80"/>
+      <c r="M36" s="80"/>
+      <c r="N36" s="80"/>
+      <c r="O36" s="80"/>
       <c r="P36" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="78" t="s">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="79" t="s">
         <v>156</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78" t="s">
+      <c r="C37" s="79"/>
+      <c r="D37" s="79" t="s">
         <v>158</v>
       </c>
-      <c r="E37" s="78" t="s">
+      <c r="E37" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="79">
+      <c r="F37" s="80">
         <v>30</v>
       </c>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79"/>
-      <c r="M37" s="79"/>
-      <c r="N37" s="79"/>
-      <c r="O37" s="79"/>
+      <c r="G37" s="80"/>
+      <c r="H37" s="80"/>
+      <c r="I37" s="80"/>
+      <c r="J37" s="80"/>
+      <c r="K37" s="80"/>
+      <c r="L37" s="80"/>
+      <c r="M37" s="80"/>
+      <c r="N37" s="80"/>
+      <c r="O37" s="80"/>
       <c r="P37" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="78" t="s">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="79" t="s">
         <v>157</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78" t="s">
+      <c r="C38" s="79"/>
+      <c r="D38" s="79" t="s">
         <v>159</v>
       </c>
-      <c r="E38" s="78" t="s">
+      <c r="E38" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="79">
+      <c r="F38" s="80">
         <v>30</v>
       </c>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
-      <c r="L38" s="79"/>
-      <c r="M38" s="79"/>
-      <c r="N38" s="79"/>
-      <c r="O38" s="79"/>
+      <c r="G38" s="80"/>
+      <c r="H38" s="80"/>
+      <c r="I38" s="80"/>
+      <c r="J38" s="80"/>
+      <c r="K38" s="80"/>
+      <c r="L38" s="80"/>
+      <c r="M38" s="80"/>
+      <c r="N38" s="80"/>
+      <c r="O38" s="80"/>
       <c r="P38" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="78" t="s">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="79" t="s">
         <v>147</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78" t="s">
+      <c r="C39" s="79"/>
+      <c r="D39" s="79" t="s">
         <v>150</v>
       </c>
-      <c r="E39" s="78" t="s">
+      <c r="E39" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F39" s="79">
+      <c r="F39" s="80">
         <v>100</v>
       </c>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
-      <c r="L39" s="79"/>
-      <c r="M39" s="79"/>
-      <c r="N39" s="79"/>
-      <c r="O39" s="79"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="80"/>
+      <c r="I39" s="80"/>
+      <c r="J39" s="80"/>
+      <c r="K39" s="80"/>
+      <c r="L39" s="80"/>
+      <c r="M39" s="80"/>
+      <c r="N39" s="80"/>
+      <c r="O39" s="80"/>
       <c r="P39" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="78" t="s">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="79" t="s">
         <v>220</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78" t="s">
+      <c r="C40" s="79"/>
+      <c r="D40" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="E40" s="78" t="s">
+      <c r="E40" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="79">
+      <c r="F40" s="80">
         <v>50</v>
       </c>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
-      <c r="L40" s="79"/>
-      <c r="M40" s="79"/>
-      <c r="N40" s="79"/>
-      <c r="O40" s="79"/>
+      <c r="G40" s="80"/>
+      <c r="H40" s="80"/>
+      <c r="I40" s="80"/>
+      <c r="J40" s="80"/>
+      <c r="K40" s="80"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
       <c r="P40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="78" t="s">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78" t="s">
+      <c r="C41" s="79"/>
+      <c r="D41" s="79" t="s">
         <v>149</v>
       </c>
-      <c r="E41" s="78" t="s">
+      <c r="E41" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="79">
+      <c r="F41" s="80">
         <v>100</v>
       </c>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
-      <c r="L41" s="79"/>
-      <c r="M41" s="79"/>
-      <c r="N41" s="79"/>
-      <c r="O41" s="79"/>
+      <c r="G41" s="80"/>
+      <c r="H41" s="80"/>
+      <c r="I41" s="80"/>
+      <c r="J41" s="80"/>
+      <c r="K41" s="80"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
       <c r="P41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A42" s="78" t="s">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78" t="s">
+      <c r="C42" s="79"/>
+      <c r="D42" s="79" t="s">
         <v>151</v>
       </c>
-      <c r="E42" s="78" t="s">
+      <c r="E42" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="79">
+      <c r="F42" s="80">
         <v>100</v>
       </c>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
-      <c r="L42" s="79"/>
-      <c r="M42" s="79"/>
-      <c r="N42" s="79"/>
-      <c r="O42" s="79"/>
+      <c r="G42" s="80"/>
+      <c r="H42" s="80"/>
+      <c r="I42" s="80"/>
+      <c r="J42" s="80"/>
+      <c r="K42" s="80"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
       <c r="P42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="78" t="s">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="79" t="s">
         <v>153</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78" t="s">
+      <c r="C43" s="79"/>
+      <c r="D43" s="79" t="s">
         <v>161</v>
       </c>
-      <c r="E43" s="78" t="s">
+      <c r="E43" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F43" s="79">
+      <c r="F43" s="80">
         <v>1000</v>
       </c>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
       <c r="P43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A44" s="78" t="s">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A44" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78" t="s">
+      <c r="C44" s="79"/>
+      <c r="D44" s="79" t="s">
         <v>152</v>
       </c>
-      <c r="E44" s="78" t="s">
+      <c r="E44" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F44" s="79">
+      <c r="F44" s="80">
         <v>2000</v>
       </c>
-      <c r="G44" s="79"/>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="79"/>
-      <c r="K44" s="79"/>
-      <c r="L44" s="79"/>
-      <c r="M44" s="79"/>
-      <c r="N44" s="79"/>
-      <c r="O44" s="79"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+      <c r="K44" s="80"/>
+      <c r="L44" s="80"/>
+      <c r="M44" s="80"/>
+      <c r="N44" s="80"/>
+      <c r="O44" s="80"/>
       <c r="P44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A45" s="78" t="s">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A45" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B45" s="78" t="s">
+      <c r="B45" s="79" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78" t="s">
+      <c r="C45" s="79"/>
+      <c r="D45" s="79" t="s">
         <v>155</v>
       </c>
-      <c r="E45" s="78" t="s">
+      <c r="E45" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="79"/>
-      <c r="G45" s="79"/>
-      <c r="H45" s="79"/>
-      <c r="I45" s="79"/>
-      <c r="J45" s="79"/>
-      <c r="K45" s="79"/>
-      <c r="L45" s="79"/>
-      <c r="M45" s="79"/>
-      <c r="N45" s="79"/>
-      <c r="O45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
+      <c r="K45" s="80"/>
+      <c r="L45" s="80"/>
+      <c r="M45" s="80"/>
+      <c r="N45" s="80"/>
+      <c r="O45" s="80"/>
       <c r="P45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="78" t="s">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A46" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B46" s="78" t="s">
+      <c r="B46" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78" t="s">
+      <c r="C46" s="79"/>
+      <c r="D46" s="79" t="s">
         <v>356</v>
       </c>
-      <c r="E46" s="78" t="s">
+      <c r="E46" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="F46" s="79"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="79"/>
-      <c r="J46" s="79"/>
-      <c r="K46" s="79"/>
-      <c r="L46" s="79"/>
-      <c r="M46" s="79"/>
-      <c r="N46" s="79"/>
-      <c r="O46" s="79"/>
+      <c r="F46" s="80"/>
+      <c r="G46" s="80"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
       <c r="P46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" s="78" t="s">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A47" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="78" t="s">
+      <c r="B47" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78" t="s">
+      <c r="C47" s="79"/>
+      <c r="D47" s="79" t="s">
         <v>357</v>
       </c>
-      <c r="E47" s="78" t="s">
+      <c r="E47" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="F47" s="79">
+      <c r="F47" s="80">
         <v>50</v>
       </c>
-      <c r="G47" s="79"/>
-      <c r="H47" s="79"/>
-      <c r="I47" s="79"/>
-      <c r="J47" s="79"/>
-      <c r="K47" s="79"/>
-      <c r="L47" s="79"/>
-      <c r="M47" s="79"/>
-      <c r="N47" s="79"/>
-      <c r="O47" s="79"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="80"/>
+      <c r="I47" s="80"/>
+      <c r="J47" s="80"/>
+      <c r="K47" s="80"/>
+      <c r="L47" s="80"/>
+      <c r="M47" s="80"/>
+      <c r="N47" s="80"/>
+      <c r="O47" s="80"/>
       <c r="P47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48" s="78" t="s">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A48" s="79" t="s">
         <v>145</v>
       </c>
-      <c r="B48" s="78" t="s">
+      <c r="B48" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
+      <c r="C48" s="79"/>
+      <c r="D48" s="79" t="s">
         <v>480</v>
       </c>
-      <c r="E48" s="78" t="s">
+      <c r="E48" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
-      <c r="H48" s="79"/>
-      <c r="I48" s="79"/>
-      <c r="J48" s="79"/>
-      <c r="K48" s="79"/>
-      <c r="L48" s="79"/>
-      <c r="M48" s="79">
-        <v>1</v>
-      </c>
-      <c r="N48" s="79"/>
-      <c r="O48" s="79"/>
+      <c r="F48" s="80"/>
+      <c r="G48" s="80"/>
+      <c r="H48" s="80"/>
+      <c r="I48" s="80"/>
+      <c r="J48" s="80"/>
+      <c r="K48" s="80"/>
+      <c r="L48" s="80"/>
+      <c r="M48" s="80">
+        <v>1</v>
+      </c>
+      <c r="N48" s="80"/>
+      <c r="O48" s="80"/>
       <c r="P48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>182</v>
       </c>
@@ -12001,7 +11994,7 @@
       </c>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>182</v>
       </c>
@@ -12032,7 +12025,7 @@
       </c>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
         <v>182</v>
       </c>
@@ -12063,7 +12056,7 @@
       </c>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
         <v>182</v>
       </c>
@@ -12094,7 +12087,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>182</v>
       </c>
@@ -12123,7 +12116,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>182</v>
       </c>
@@ -12152,7 +12145,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>182</v>
       </c>
@@ -12181,7 +12174,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
         <v>182</v>
       </c>
@@ -12212,7 +12205,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
         <v>182</v>
       </c>
@@ -12243,7 +12236,7 @@
       </c>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
         <v>358</v>
       </c>
@@ -12279,7 +12272,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
         <v>358</v>
       </c>
@@ -12309,7 +12302,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
         <v>358</v>
       </c>
@@ -12337,7 +12330,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
         <v>358</v>
       </c>
@@ -12366,6 +12359,24 @@
       <c r="P61" s="1">
         <v>59</v>
       </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="68"/>
+      <c r="B62" s="68"/>
+      <c r="C62" s="68"/>
+      <c r="D62" s="72"/>
+      <c r="E62" s="68"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="77"/>
+      <c r="H62" s="77"/>
+      <c r="I62" s="77"/>
+      <c r="J62" s="77"/>
+      <c r="K62" s="77"/>
+      <c r="L62" s="77"/>
+      <c r="M62" s="77"/>
+      <c r="N62" s="77"/>
+      <c r="O62" s="77"/>
+      <c r="P62" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12379,38 +12390,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -12454,7 +12465,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -12492,7 +12503,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -12530,7 +12541,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -12568,7 +12579,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -12606,7 +12617,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -12644,7 +12655,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -12682,7 +12693,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -12720,7 +12731,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -12758,7 +12769,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -12796,7 +12807,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -12834,7 +12845,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -12872,7 +12883,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -12910,7 +12921,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -12948,7 +12959,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -12986,7 +12997,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -13024,7 +13035,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -13062,7 +13073,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>50</v>
       </c>
@@ -13100,7 +13111,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>51</v>
       </c>
@@ -13134,7 +13145,7 @@
       <c r="M19" s="71"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>52</v>
       </c>
@@ -13168,7 +13179,7 @@
       <c r="M20" s="71"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>53</v>
       </c>
@@ -13202,7 +13213,7 @@
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>54</v>
       </c>
@@ -13236,7 +13247,7 @@
       <c r="M22" s="71"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68">
         <v>55</v>
       </c>
@@ -13270,7 +13281,7 @@
       <c r="M23" s="71"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>56</v>
       </c>
@@ -13304,7 +13315,7 @@
       <c r="M24" s="71"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68">
         <v>57</v>
       </c>
@@ -13338,7 +13349,7 @@
       <c r="M25" s="71"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>58</v>
       </c>
@@ -13372,7 +13383,7 @@
       <c r="M26" s="71"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68">
         <v>59</v>
       </c>
@@ -13406,7 +13417,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>60</v>
       </c>
@@ -13440,108 +13451,111 @@
       <c r="M28" s="71"/>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" s="34">
+    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="68">
+        <v>61</v>
+      </c>
+      <c r="B29" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D29" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="70" t="s">
+        <v>586</v>
+      </c>
+      <c r="F29" s="68">
+        <v>1</v>
+      </c>
+      <c r="G29" s="68">
+        <v>1</v>
+      </c>
+      <c r="H29" s="68">
+        <v>1</v>
+      </c>
+      <c r="I29" s="71"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="72">
+        <v>1</v>
+      </c>
+      <c r="M29" s="71"/>
+      <c r="N29" s="73"/>
+    </row>
+    <row r="30" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25">
+        <v>62</v>
+      </c>
+      <c r="B30" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D30" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>587</v>
+      </c>
+      <c r="F30" s="68">
+        <v>1</v>
+      </c>
+      <c r="G30" s="68">
+        <v>1</v>
+      </c>
+      <c r="H30" s="68">
+        <v>1</v>
+      </c>
+      <c r="I30" s="71"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="72">
+        <v>1</v>
+      </c>
+      <c r="M30" s="71"/>
+      <c r="N30" s="73"/>
+    </row>
+    <row r="31" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="68">
+        <v>63</v>
+      </c>
+      <c r="B31" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="68" t="s">
+        <v>295</v>
+      </c>
+      <c r="D31" s="69" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="F31" s="68">
+        <v>1</v>
+      </c>
+      <c r="G31" s="68">
+        <v>1</v>
+      </c>
+      <c r="H31" s="68">
+        <v>1</v>
+      </c>
+      <c r="I31" s="71"/>
+      <c r="J31" s="68"/>
+      <c r="K31" s="68"/>
+      <c r="L31" s="72">
+        <v>1</v>
+      </c>
+      <c r="M31" s="71"/>
+      <c r="N31" s="73"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="34">
         <v>101</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E29" s="34" t="s">
-        <v>308</v>
-      </c>
-      <c r="F29" s="34">
-        <v>1</v>
-      </c>
-      <c r="G29" s="34">
-        <v>1</v>
-      </c>
-      <c r="H29" s="34">
-        <v>1</v>
-      </c>
-      <c r="I29" s="36"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="36">
-        <v>1</v>
-      </c>
-      <c r="M29" s="36"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" s="34">
-        <v>102</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E30" s="49" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" s="34">
-        <v>1</v>
-      </c>
-      <c r="G30" s="34">
-        <v>1</v>
-      </c>
-      <c r="H30" s="34">
-        <v>1</v>
-      </c>
-      <c r="I30" s="36"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="36">
-        <v>1</v>
-      </c>
-      <c r="M30" s="36"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="34">
-        <v>103</v>
-      </c>
-      <c r="B31" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>169</v>
-      </c>
-      <c r="E31" s="49" t="s">
-        <v>310</v>
-      </c>
-      <c r="F31" s="34">
-        <v>1</v>
-      </c>
-      <c r="G31" s="34">
-        <v>1</v>
-      </c>
-      <c r="H31" s="34">
-        <v>1</v>
-      </c>
-      <c r="I31" s="36"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="36">
-        <v>1</v>
-      </c>
-      <c r="M31" s="36"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" s="34">
-        <v>104</v>
       </c>
       <c r="B32" s="34" t="s">
         <v>22</v>
@@ -13552,8 +13566,8 @@
       <c r="D32" s="35" t="s">
         <v>169</v>
       </c>
-      <c r="E32" s="49" t="s">
-        <v>311</v>
+      <c r="E32" s="34" t="s">
+        <v>308</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -13572,9 +13586,9 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" s="34" t="s">
         <v>22</v>
@@ -13586,7 +13600,7 @@
         <v>169</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -13598,18 +13612,16 @@
         <v>1</v>
       </c>
       <c r="I33" s="36"/>
-      <c r="J33" s="34" t="s">
-        <v>313</v>
-      </c>
+      <c r="J33" s="34"/>
       <c r="K33" s="34"/>
       <c r="L33" s="36">
         <v>1</v>
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B34" s="34" t="s">
         <v>22</v>
@@ -13621,7 +13633,7 @@
         <v>169</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -13640,9 +13652,9 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B35" s="34" t="s">
         <v>22</v>
@@ -13654,7 +13666,7 @@
         <v>169</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -13673,9 +13685,9 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B36" s="34" t="s">
         <v>22</v>
@@ -13687,7 +13699,7 @@
         <v>169</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -13699,16 +13711,18 @@
         <v>1</v>
       </c>
       <c r="I36" s="36"/>
-      <c r="J36" s="34"/>
+      <c r="J36" s="34" t="s">
+        <v>313</v>
+      </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36">
         <v>1</v>
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B37" s="34" t="s">
         <v>22</v>
@@ -13720,7 +13734,7 @@
         <v>169</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -13732,18 +13746,16 @@
         <v>1</v>
       </c>
       <c r="I37" s="36"/>
-      <c r="J37" s="34" t="s">
-        <v>317</v>
-      </c>
+      <c r="J37" s="34"/>
       <c r="K37" s="34"/>
       <c r="L37" s="36">
         <v>1</v>
       </c>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B38" s="34" t="s">
         <v>22</v>
@@ -13755,7 +13767,7 @@
         <v>169</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -13774,9 +13786,9 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B39" s="34" t="s">
         <v>22</v>
@@ -13788,7 +13800,7 @@
         <v>169</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -13807,9 +13819,9 @@
       </c>
       <c r="M39" s="36"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B40" s="34" t="s">
         <v>22</v>
@@ -13821,7 +13833,7 @@
         <v>169</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -13833,16 +13845,18 @@
         <v>1</v>
       </c>
       <c r="I40" s="36"/>
-      <c r="J40" s="34"/>
+      <c r="J40" s="34" t="s">
+        <v>317</v>
+      </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
         <v>1</v>
       </c>
       <c r="M40" s="36"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B41" s="34" t="s">
         <v>22</v>
@@ -13854,7 +13868,7 @@
         <v>169</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -13873,9 +13887,9 @@
       </c>
       <c r="M41" s="36"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B42" s="34" t="s">
         <v>22</v>
@@ -13887,7 +13901,7 @@
         <v>169</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -13898,17 +13912,17 @@
       <c r="H42" s="34">
         <v>1</v>
       </c>
-      <c r="I42" s="3"/>
+      <c r="I42" s="36"/>
       <c r="J42" s="34"/>
       <c r="K42" s="34"/>
       <c r="L42" s="36">
         <v>1</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="36"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="34" t="s">
         <v>22</v>
@@ -13920,7 +13934,7 @@
         <v>169</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -13931,17 +13945,17 @@
       <c r="H43" s="34">
         <v>1</v>
       </c>
-      <c r="I43" s="3"/>
+      <c r="I43" s="36"/>
       <c r="J43" s="34"/>
       <c r="K43" s="34"/>
       <c r="L43" s="36">
         <v>1</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="36"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B44" s="34" t="s">
         <v>22</v>
@@ -13953,7 +13967,7 @@
         <v>169</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F44" s="34">
         <v>1</v>
@@ -13964,17 +13978,17 @@
       <c r="H44" s="34">
         <v>1</v>
       </c>
-      <c r="I44" s="3"/>
+      <c r="I44" s="36"/>
       <c r="J44" s="34"/>
       <c r="K44" s="34"/>
       <c r="L44" s="36">
         <v>1</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="36"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B45" s="34" t="s">
         <v>22</v>
@@ -13986,7 +14000,7 @@
         <v>169</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="F45" s="34">
         <v>1</v>
@@ -14005,9 +14019,9 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B46" s="34" t="s">
         <v>22</v>
@@ -14019,7 +14033,7 @@
         <v>169</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F46" s="34">
         <v>1</v>
@@ -14038,107 +14052,206 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="101">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="34">
+        <v>116</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="F47" s="34">
+        <v>1</v>
+      </c>
+      <c r="G47" s="34">
+        <v>1</v>
+      </c>
+      <c r="H47" s="34">
+        <v>1</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="36">
+        <v>1</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="34">
+        <v>117</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E48" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F48" s="34">
+        <v>1</v>
+      </c>
+      <c r="G48" s="34">
+        <v>1</v>
+      </c>
+      <c r="H48" s="34">
+        <v>1</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="36">
+        <v>1</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" s="34">
+        <v>118</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>295</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>169</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="F49" s="34">
+        <v>1</v>
+      </c>
+      <c r="G49" s="34">
+        <v>1</v>
+      </c>
+      <c r="H49" s="34">
+        <v>1</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="36">
+        <v>1</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="102">
         <v>119</v>
       </c>
-      <c r="B47" s="101" t="s">
+      <c r="B50" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C47" s="101" t="s">
+      <c r="C50" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D47" s="101" t="s">
+      <c r="D50" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E50" s="103" t="s">
         <v>578</v>
       </c>
-      <c r="F47" s="101">
-        <v>1</v>
-      </c>
-      <c r="G47" s="101">
-        <v>1</v>
-      </c>
-      <c r="H47" s="101">
-        <v>1</v>
-      </c>
-      <c r="I47" s="103"/>
-      <c r="J47" s="101"/>
-      <c r="K47" s="101"/>
-      <c r="L47" s="104">
-        <v>1</v>
-      </c>
-      <c r="M47" s="103"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="101">
+      <c r="F50" s="102">
+        <v>1</v>
+      </c>
+      <c r="G50" s="102">
+        <v>1</v>
+      </c>
+      <c r="H50" s="102">
+        <v>1</v>
+      </c>
+      <c r="I50" s="104"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="102"/>
+      <c r="L50" s="105">
+        <v>1</v>
+      </c>
+      <c r="M50" s="104"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" s="102">
         <v>120</v>
       </c>
-      <c r="B48" s="101" t="s">
+      <c r="B51" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C48" s="101" t="s">
+      <c r="C51" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D48" s="101" t="s">
+      <c r="D51" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E51" s="103" t="s">
         <v>579</v>
       </c>
-      <c r="F48" s="101">
-        <v>1</v>
-      </c>
-      <c r="G48" s="101">
-        <v>1</v>
-      </c>
-      <c r="H48" s="101">
-        <v>1</v>
-      </c>
-      <c r="I48" s="103"/>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="104">
-        <v>1</v>
-      </c>
-      <c r="M48" s="103"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="101">
+      <c r="F51" s="102">
+        <v>1</v>
+      </c>
+      <c r="G51" s="102">
+        <v>1</v>
+      </c>
+      <c r="H51" s="102">
+        <v>1</v>
+      </c>
+      <c r="I51" s="104"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="105">
+        <v>1</v>
+      </c>
+      <c r="M51" s="104"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" s="102">
         <v>121</v>
       </c>
-      <c r="B49" s="101" t="s">
+      <c r="B52" s="102" t="s">
         <v>22</v>
       </c>
-      <c r="C49" s="101" t="s">
+      <c r="C52" s="102" t="s">
         <v>295</v>
       </c>
-      <c r="D49" s="101" t="s">
+      <c r="D52" s="102" t="s">
         <v>169</v>
       </c>
-      <c r="E49" s="102" t="s">
+      <c r="E52" s="103" t="s">
         <v>580</v>
       </c>
-      <c r="F49" s="101">
-        <v>1</v>
-      </c>
-      <c r="G49" s="101">
-        <v>1</v>
-      </c>
-      <c r="H49" s="101">
-        <v>1</v>
-      </c>
-      <c r="I49" s="103"/>
-      <c r="J49" s="101"/>
-      <c r="K49" s="101"/>
-      <c r="L49" s="104">
-        <v>1</v>
-      </c>
-      <c r="M49" s="103"/>
+      <c r="F52" s="102">
+        <v>1</v>
+      </c>
+      <c r="G52" s="102">
+        <v>1</v>
+      </c>
+      <c r="H52" s="102">
+        <v>1</v>
+      </c>
+      <c r="I52" s="104"/>
+      <c r="J52" s="102"/>
+      <c r="K52" s="102"/>
+      <c r="L52" s="105">
+        <v>1</v>
+      </c>
+      <c r="M52" s="104"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:M16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBDE97-7AC6-954A-AAD9-033DA598BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="38400" windowHeight="20055" tabRatio="800" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -238,12 +239,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -265,12 +266,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2118,7 +2119,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4383,9 +4384,9 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 4" xfId="738"/>
-    <cellStyle name="Normal 5" xfId="739"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 4" xfId="738" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 5" xfId="739" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4482,6 +4483,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4517,6 +4535,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4691,43 +4726,27 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2021-06-29T02:35:14.09" personId="{00000000-0000-0000-0000-000000000000}" id="{152BA087-38CF-9641-BBDF-2A7034154D08}">
-    <text>Khi đơn vị cập nhập thực hiện thì nhập thông tin vào đây</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="E1" dT="2021-06-29T02:35:58.31" personId="{00000000-0000-0000-0000-000000000000}" id="{A523B58E-E469-E744-B82E-2CE5FD4DC608}">
-    <text>Khi đơn vị thay đổi trạng thái thì cập nhập mô tả cho thay đổi đó ở đây</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.42578125" style="9" customWidth="1"/>
-    <col min="7" max="64" width="11.42578125" style="9" customWidth="1"/>
-    <col min="65" max="16384" width="9.140625" style="9"/>
+    <col min="6" max="6" width="55.5" style="9" customWidth="1"/>
+    <col min="7" max="64" width="11.5" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="9.1640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -4747,7 +4766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -4767,7 +4786,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4787,7 +4806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>98</v>
       </c>
@@ -4807,7 +4826,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4827,7 +4846,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
@@ -4847,7 +4866,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
@@ -4867,7 +4886,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
         <v>107</v>
       </c>
@@ -4899,7 +4918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4909,17 +4928,17 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" customWidth="1"/>
-    <col min="3" max="3" width="40.140625" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" customWidth="1"/>
+    <col min="3" max="3" width="40.1640625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4939,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
       <c r="A2" s="96">
         <v>99</v>
       </c>
@@ -4959,7 +4978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="94">
         <v>21</v>
       </c>
@@ -4991,31 +5010,31 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="85" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.140625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.28515625" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.1640625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.85546875" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.85546875" style="85" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="85"/>
-    <col min="12" max="12" width="14.140625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="85"/>
+    <col min="8" max="8" width="78.83203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="85"/>
+    <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -5521,29 +5540,29 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
@@ -5578,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>166</v>
       </c>
@@ -5603,7 +5622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>221</v>
       </c>
@@ -5628,7 +5647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
         <v>167</v>
       </c>
@@ -5653,7 +5672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
         <v>168</v>
       </c>
@@ -5690,7 +5709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -5700,19 +5719,19 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5741,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5758,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5778,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5818,7 +5837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5838,7 +5857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5858,7 +5877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5878,7 +5897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5898,7 +5917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5918,7 +5937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5938,7 +5957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5958,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5978,7 +5997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5998,7 +6017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6018,7 +6037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6038,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6058,7 +6077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6084,20 +6103,20 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="4" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="4" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>359</v>
       </c>
@@ -6111,7 +6130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>206</v>
       </c>
@@ -6122,7 +6141,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -6133,7 +6152,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -6144,7 +6163,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -6155,7 +6174,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -6166,7 +6185,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -6177,7 +6196,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -6188,7 +6207,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>299</v>
       </c>
@@ -6199,37 +6218,37 @@
         <v>189</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D13" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>189</v>
       </c>
@@ -6240,7 +6259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q85"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -6250,26 +6269,26 @@
       <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.83203125" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
@@ -6320,7 +6339,7 @@
       </c>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
         <v>258</v>
       </c>
@@ -6359,7 +6378,7 @@
       </c>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
         <v>258</v>
       </c>
@@ -6392,7 +6411,7 @@
       </c>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
         <v>258</v>
       </c>
@@ -6425,7 +6444,7 @@
       </c>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
         <v>258</v>
       </c>
@@ -6458,7 +6477,7 @@
       </c>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
         <v>258</v>
       </c>
@@ -6491,7 +6510,7 @@
       </c>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
         <v>258</v>
       </c>
@@ -6524,7 +6543,7 @@
       </c>
       <c r="Q7" s="57"/>
     </row>
-    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
         <v>258</v>
       </c>
@@ -6557,7 +6576,7 @@
       </c>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
         <v>258</v>
       </c>
@@ -6588,7 +6607,7 @@
       </c>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
         <v>258</v>
       </c>
@@ -6623,7 +6642,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
         <v>258</v>
       </c>
@@ -6654,7 +6673,7 @@
       </c>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
         <v>258</v>
       </c>
@@ -6687,7 +6706,7 @@
       </c>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
         <v>258</v>
       </c>
@@ -6720,7 +6739,7 @@
       </c>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
         <v>222</v>
       </c>
@@ -6759,7 +6778,7 @@
       </c>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
         <v>222</v>
       </c>
@@ -6792,7 +6811,7 @@
       </c>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
         <v>222</v>
       </c>
@@ -6825,7 +6844,7 @@
       </c>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
         <v>222</v>
       </c>
@@ -6856,7 +6875,7 @@
       <c r="P17" s="56"/>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
         <v>222</v>
       </c>
@@ -6889,7 +6908,7 @@
       </c>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
         <v>222</v>
       </c>
@@ -6922,7 +6941,7 @@
       </c>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
         <v>222</v>
       </c>
@@ -6955,7 +6974,7 @@
       </c>
       <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
         <v>222</v>
       </c>
@@ -6988,7 +7007,7 @@
       </c>
       <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
         <v>222</v>
       </c>
@@ -7017,7 +7036,7 @@
       <c r="P22" s="56"/>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
         <v>222</v>
       </c>
@@ -7048,7 +7067,7 @@
       </c>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
         <v>222</v>
       </c>
@@ -7081,7 +7100,7 @@
       </c>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
         <v>222</v>
       </c>
@@ -7112,7 +7131,7 @@
       </c>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
         <v>222</v>
       </c>
@@ -7145,7 +7164,7 @@
       </c>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
         <v>222</v>
       </c>
@@ -7180,7 +7199,7 @@
       </c>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
         <v>222</v>
       </c>
@@ -7211,7 +7230,7 @@
       <c r="P28" s="56"/>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51" t="s">
         <v>222</v>
       </c>
@@ -7242,7 +7261,7 @@
       <c r="P29" s="56"/>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
         <v>222</v>
       </c>
@@ -7273,7 +7292,7 @@
       <c r="P30" s="56"/>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="100" t="s">
         <v>565</v>
       </c>
@@ -7302,7 +7321,7 @@
       <c r="P31" s="56"/>
       <c r="Q31" s="57"/>
     </row>
-    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
         <v>565</v>
       </c>
@@ -7331,7 +7350,7 @@
       <c r="P32" s="56"/>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
         <v>565</v>
       </c>
@@ -7362,7 +7381,7 @@
       <c r="P33" s="56"/>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
         <v>565</v>
       </c>
@@ -7393,7 +7412,7 @@
       <c r="P34" s="56"/>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
         <v>565</v>
       </c>
@@ -7424,7 +7443,7 @@
       <c r="P35" s="56"/>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
         <v>565</v>
       </c>
@@ -7453,7 +7472,7 @@
       <c r="P36" s="56"/>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
         <v>565</v>
       </c>
@@ -7482,7 +7501,7 @@
       <c r="P37" s="56"/>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
         <v>565</v>
       </c>
@@ -7511,7 +7530,7 @@
       <c r="P38" s="56"/>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
         <v>565</v>
       </c>
@@ -7542,7 +7561,7 @@
       <c r="P39" s="56"/>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
         <v>565</v>
       </c>
@@ -7571,7 +7590,7 @@
       <c r="P40" s="56"/>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
         <v>565</v>
       </c>
@@ -7600,7 +7619,7 @@
       <c r="P41" s="56"/>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
         <v>281</v>
       </c>
@@ -7631,7 +7650,7 @@
       </c>
       <c r="Q42" s="59"/>
     </row>
-    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
         <v>281</v>
       </c>
@@ -7662,7 +7681,7 @@
       </c>
       <c r="Q43" s="59"/>
     </row>
-    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
         <v>281</v>
       </c>
@@ -7697,7 +7716,7 @@
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
         <v>281</v>
       </c>
@@ -7726,7 +7745,7 @@
       </c>
       <c r="Q45" s="59"/>
     </row>
-    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
         <v>281</v>
       </c>
@@ -7759,7 +7778,7 @@
       </c>
       <c r="Q46" s="59"/>
     </row>
-    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
         <v>281</v>
       </c>
@@ -7792,7 +7811,7 @@
       </c>
       <c r="Q47" s="59"/>
     </row>
-    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
         <v>281</v>
       </c>
@@ -7823,7 +7842,7 @@
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
         <v>281</v>
       </c>
@@ -7856,7 +7875,7 @@
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
         <v>281</v>
       </c>
@@ -7887,7 +7906,7 @@
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
         <v>281</v>
       </c>
@@ -7920,7 +7939,7 @@
       </c>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
         <v>280</v>
       </c>
@@ -7959,7 +7978,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
         <v>280</v>
       </c>
@@ -7994,7 +8013,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
         <v>280</v>
       </c>
@@ -8027,7 +8046,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
         <v>280</v>
       </c>
@@ -8060,7 +8079,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
         <v>280</v>
       </c>
@@ -8093,7 +8112,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
         <v>280</v>
       </c>
@@ -8128,7 +8147,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
         <v>280</v>
       </c>
@@ -8161,7 +8180,7 @@
       </c>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="52" t="s">
         <v>280</v>
       </c>
@@ -8192,7 +8211,7 @@
       </c>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
         <v>280</v>
       </c>
@@ -8223,7 +8242,7 @@
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>280</v>
       </c>
@@ -8256,7 +8275,7 @@
       </c>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>280</v>
       </c>
@@ -8287,7 +8306,7 @@
       </c>
       <c r="Q62" s="57"/>
     </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="65" t="s">
         <v>280</v>
       </c>
@@ -8320,7 +8339,7 @@
       </c>
       <c r="Q63" s="57"/>
     </row>
-    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
         <v>218</v>
       </c>
@@ -8359,7 +8378,7 @@
       </c>
       <c r="Q64" s="59"/>
     </row>
-    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
         <v>218</v>
       </c>
@@ -8392,7 +8411,7 @@
       </c>
       <c r="Q65" s="59"/>
     </row>
-    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="53" t="s">
         <v>218</v>
       </c>
@@ -8427,7 +8446,7 @@
       </c>
       <c r="Q66" s="59"/>
     </row>
-    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
         <v>218</v>
       </c>
@@ -8460,7 +8479,7 @@
       </c>
       <c r="Q67" s="59"/>
     </row>
-    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
         <v>218</v>
       </c>
@@ -8493,7 +8512,7 @@
       </c>
       <c r="Q68" s="59"/>
     </row>
-    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
         <v>218</v>
       </c>
@@ -8526,7 +8545,7 @@
       </c>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="53" t="s">
         <v>218</v>
       </c>
@@ -8559,7 +8578,7 @@
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
         <v>218</v>
       </c>
@@ -8590,7 +8609,7 @@
       </c>
       <c r="Q71" s="59"/>
     </row>
-    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="53" t="s">
         <v>218</v>
       </c>
@@ -8623,7 +8642,7 @@
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
         <v>218</v>
       </c>
@@ -8654,7 +8673,7 @@
       </c>
       <c r="Q73" s="59"/>
     </row>
-    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
         <v>218</v>
       </c>
@@ -8687,7 +8706,7 @@
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="53" t="s">
         <v>218</v>
       </c>
@@ -8720,7 +8739,7 @@
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44" t="s">
         <v>170</v>
       </c>
@@ -8759,7 +8778,7 @@
       </c>
       <c r="Q76" s="57"/>
     </row>
-    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44" t="s">
         <v>170</v>
       </c>
@@ -8792,7 +8811,7 @@
       </c>
       <c r="Q77" s="57"/>
     </row>
-    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44" t="s">
         <v>170</v>
       </c>
@@ -8827,7 +8846,7 @@
       </c>
       <c r="Q78" s="57"/>
     </row>
-    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44" t="s">
         <v>170</v>
       </c>
@@ -8860,7 +8879,7 @@
       </c>
       <c r="Q79" s="57"/>
     </row>
-    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44" t="s">
         <v>170</v>
       </c>
@@ -8893,7 +8912,7 @@
       </c>
       <c r="Q80" s="57"/>
     </row>
-    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44" t="s">
         <v>170</v>
       </c>
@@ -8924,7 +8943,7 @@
       </c>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44" t="s">
         <v>170</v>
       </c>
@@ -8957,7 +8976,7 @@
       </c>
       <c r="Q82" s="57"/>
     </row>
-    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
         <v>170</v>
       </c>
@@ -8988,7 +9007,7 @@
       </c>
       <c r="Q83" s="57"/>
     </row>
-    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="44" t="s">
         <v>170</v>
       </c>
@@ -9021,7 +9040,7 @@
       </c>
       <c r="Q84" s="57"/>
     </row>
-    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="44" t="s">
         <v>170</v>
       </c>
@@ -9061,7 +9080,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -9071,19 +9090,19 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9112,7 +9131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="92">
         <v>1</v>
       </c>
@@ -9135,7 +9154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9158,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9181,7 +9200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9204,7 +9223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9227,7 +9246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9250,7 +9269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9273,7 +9292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="92">
         <v>2</v>
       </c>
@@ -9296,7 +9315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9319,7 +9338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9342,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>3</v>
       </c>
@@ -9365,7 +9384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9388,7 +9407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9411,7 +9430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9434,7 +9453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9457,7 +9476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9480,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9503,7 +9522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
         <v>4</v>
       </c>
@@ -9526,7 +9545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9549,7 +9568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9572,7 +9591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9595,7 +9614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9618,7 +9637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
         <v>5</v>
       </c>
@@ -9641,7 +9660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9664,7 +9683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9687,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9710,7 +9729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9733,7 +9752,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9756,7 +9775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9779,7 +9798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9802,7 +9821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9825,7 +9844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9848,7 +9867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>510</v>
       </c>
@@ -9871,7 +9890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>511</v>
       </c>
@@ -9894,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>512</v>
       </c>
@@ -9917,7 +9936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>513</v>
       </c>
@@ -9940,7 +9959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>514</v>
       </c>
@@ -9970,7 +9989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -9980,16 +9999,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="12" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" customWidth="1"/>
+    <col min="5" max="12" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -10027,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10056,7 +10075,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10066,22 +10085,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10119,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41">
         <v>1</v>
       </c>
@@ -10147,7 +10166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="41">
         <v>2</v>
       </c>
@@ -10175,7 +10194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
         <v>3</v>
       </c>
@@ -10203,7 +10222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10217,7 +10236,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10237,7 +10256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10247,18 +10266,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.42578125" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10293,7 +10312,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10307,7 +10326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10321,7 +10340,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10335,7 +10354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10349,7 +10368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10363,7 +10382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10384,7 +10403,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10394,22 +10413,22 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.5" customWidth="1"/>
+    <col min="10" max="10" width="22.83203125" customWidth="1"/>
+    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
@@ -10447,7 +10466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10471,37 +10490,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:Q62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="85.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.83203125" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -10551,7 +10570,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -10587,7 +10606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -10615,7 +10634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -10645,7 +10664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -10675,7 +10694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -10709,7 +10728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -10737,7 +10756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10765,7 +10784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10793,7 +10812,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -10821,7 +10840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -10851,7 +10870,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -10879,7 +10898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -10909,7 +10928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -10937,7 +10956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -10965,7 +10984,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>38</v>
       </c>
@@ -10999,7 +11018,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="79" t="s">
         <v>38</v>
       </c>
@@ -11029,7 +11048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="79" t="s">
         <v>38</v>
       </c>
@@ -11057,7 +11076,7 @@
       <c r="O18" s="80"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="79" t="s">
         <v>38</v>
       </c>
@@ -11087,7 +11106,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="79" t="s">
         <v>38</v>
       </c>
@@ -11115,7 +11134,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="79" t="s">
         <v>38</v>
       </c>
@@ -11143,7 +11162,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="79" t="s">
         <v>38</v>
       </c>
@@ -11173,7 +11192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="79" t="s">
         <v>38</v>
       </c>
@@ -11203,7 +11222,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -11239,7 +11258,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
@@ -11251,11 +11270,9 @@
         <v>366</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="16">
-        <v>200</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F25" s="16"/>
       <c r="G25" s="16"/>
       <c r="H25" s="16"/>
       <c r="I25" s="16"/>
@@ -11269,7 +11286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11299,7 +11316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -11329,7 +11346,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
@@ -11359,7 +11376,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -11389,7 +11406,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -11419,7 +11436,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -11449,7 +11466,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -11477,7 +11494,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -11507,7 +11524,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -11537,7 +11554,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="79" t="s">
         <v>145</v>
       </c>
@@ -11573,7 +11590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="79" t="s">
         <v>145</v>
       </c>
@@ -11601,7 +11618,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="79" t="s">
         <v>145</v>
       </c>
@@ -11631,7 +11648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="79" t="s">
         <v>145</v>
       </c>
@@ -11661,7 +11678,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="79" t="s">
         <v>145</v>
       </c>
@@ -11691,7 +11708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="79" t="s">
         <v>145</v>
       </c>
@@ -11721,7 +11738,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="79" t="s">
         <v>145</v>
       </c>
@@ -11751,7 +11768,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="79" t="s">
         <v>145</v>
       </c>
@@ -11781,7 +11798,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
         <v>145</v>
       </c>
@@ -11811,7 +11828,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="79" t="s">
         <v>145</v>
       </c>
@@ -11841,7 +11858,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="79" t="s">
         <v>145</v>
       </c>
@@ -11869,7 +11886,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="79" t="s">
         <v>145</v>
       </c>
@@ -11897,7 +11914,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="79" t="s">
         <v>145</v>
       </c>
@@ -11927,7 +11944,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="79" t="s">
         <v>145</v>
       </c>
@@ -11957,7 +11974,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
         <v>182</v>
       </c>
@@ -11994,7 +12011,7 @@
       </c>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
         <v>182</v>
       </c>
@@ -12025,7 +12042,7 @@
       </c>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
         <v>182</v>
       </c>
@@ -12056,7 +12073,7 @@
       </c>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
         <v>182</v>
       </c>
@@ -12087,7 +12104,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
         <v>182</v>
       </c>
@@ -12116,7 +12133,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
         <v>182</v>
       </c>
@@ -12145,7 +12162,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
         <v>182</v>
       </c>
@@ -12174,7 +12191,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
         <v>182</v>
       </c>
@@ -12205,7 +12222,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
         <v>182</v>
       </c>
@@ -12236,7 +12253,7 @@
       </c>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
         <v>358</v>
       </c>
@@ -12272,7 +12289,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
         <v>358</v>
       </c>
@@ -12302,7 +12319,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
         <v>358</v>
       </c>
@@ -12330,7 +12347,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
         <v>358</v>
       </c>
@@ -12360,7 +12377,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="68"/>
       <c r="B62" s="68"/>
       <c r="C62" s="68"/>
@@ -12390,38 +12407,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.85546875" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.7109375" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.6640625" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.1640625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -12465,7 +12482,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -12503,7 +12520,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -12541,7 +12558,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -12579,7 +12596,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -12617,7 +12634,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -12655,7 +12672,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -12693,7 +12710,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -12731,7 +12748,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -12769,7 +12786,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -12807,7 +12824,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -12845,7 +12862,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -12883,7 +12900,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -12921,7 +12938,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -12959,7 +12976,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -12997,7 +13014,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -13035,7 +13052,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -13073,7 +13090,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="25">
         <v>50</v>
       </c>
@@ -13111,7 +13128,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="68">
         <v>51</v>
       </c>
@@ -13145,7 +13162,7 @@
       <c r="M19" s="71"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="25">
         <v>52</v>
       </c>
@@ -13179,7 +13196,7 @@
       <c r="M20" s="71"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="68">
         <v>53</v>
       </c>
@@ -13213,7 +13230,7 @@
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="25">
         <v>54</v>
       </c>
@@ -13247,7 +13264,7 @@
       <c r="M22" s="71"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="68">
         <v>55</v>
       </c>
@@ -13281,7 +13298,7 @@
       <c r="M23" s="71"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25">
         <v>56</v>
       </c>
@@ -13315,7 +13332,7 @@
       <c r="M24" s="71"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="68">
         <v>57</v>
       </c>
@@ -13349,7 +13366,7 @@
       <c r="M25" s="71"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="25">
         <v>58</v>
       </c>
@@ -13383,7 +13400,7 @@
       <c r="M26" s="71"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="68">
         <v>59</v>
       </c>
@@ -13417,7 +13434,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="25">
         <v>60</v>
       </c>
@@ -13451,7 +13468,7 @@
       <c r="M28" s="71"/>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="68">
         <v>61</v>
       </c>
@@ -13485,7 +13502,7 @@
       <c r="M29" s="71"/>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="25">
         <v>62</v>
       </c>
@@ -13519,7 +13536,7 @@
       <c r="M30" s="71"/>
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="68">
         <v>63</v>
       </c>
@@ -13553,7 +13570,7 @@
       <c r="M31" s="71"/>
       <c r="N31" s="73"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>101</v>
       </c>
@@ -13586,7 +13603,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="34">
         <v>102</v>
       </c>
@@ -13619,7 +13636,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="34">
         <v>103</v>
       </c>
@@ -13652,7 +13669,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="34">
         <v>104</v>
       </c>
@@ -13685,7 +13702,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="34">
         <v>105</v>
       </c>
@@ -13720,7 +13737,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="34">
         <v>106</v>
       </c>
@@ -13753,7 +13770,7 @@
       </c>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="34">
         <v>107</v>
       </c>
@@ -13786,7 +13803,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="34">
         <v>108</v>
       </c>
@@ -13819,7 +13836,7 @@
       </c>
       <c r="M39" s="36"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="34">
         <v>109</v>
       </c>
@@ -13854,7 +13871,7 @@
       </c>
       <c r="M40" s="36"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="34">
         <v>110</v>
       </c>
@@ -13887,7 +13904,7 @@
       </c>
       <c r="M41" s="36"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="34">
         <v>111</v>
       </c>
@@ -13920,7 +13937,7 @@
       </c>
       <c r="M42" s="36"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="34">
         <v>112</v>
       </c>
@@ -13953,7 +13970,7 @@
       </c>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="34">
         <v>113</v>
       </c>
@@ -13986,7 +14003,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="34">
         <v>114</v>
       </c>
@@ -14019,7 +14036,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="34">
         <v>115</v>
       </c>
@@ -14052,7 +14069,7 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="34">
         <v>116</v>
       </c>
@@ -14085,7 +14102,7 @@
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="34">
         <v>117</v>
       </c>
@@ -14118,7 +14135,7 @@
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="34">
         <v>118</v>
       </c>
@@ -14151,7 +14168,7 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="102">
         <v>119</v>
       </c>
@@ -14184,7 +14201,7 @@
       </c>
       <c r="M50" s="104"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="102">
         <v>120</v>
       </c>
@@ -14217,7 +14234,7 @@
       </c>
       <c r="M51" s="104"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="102">
         <v>121</v>
       </c>
@@ -14251,7 +14268,7 @@
       <c r="M52" s="104"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M16"/>
+  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFBDE97-7AC6-954A-AAD9-033DA598BB22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903592B1-D7B0-4941-896B-1DC370194514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="591">
   <si>
     <t>status</t>
   </si>
@@ -566,9 +566,6 @@
   </si>
   <si>
     <t>Trả về danh sách các nhóm chức năng API</t>
-  </si>
-  <si>
-    <t>Nhóm quản DEV toàn quyền</t>
   </si>
   <si>
     <t>string</t>
@@ -1777,9 +1774,6 @@
     <t>[2,21,22,23,24,3,31,4]</t>
   </si>
   <si>
-    <t>Chứa mảng id của các menu được phân quyền. Menus được phân cho group nên nếu muốn phân thêm menu riêng thì add vào đây</t>
-  </si>
-  <si>
     <t>Nhóm user người dùng toàn quyền</t>
   </si>
   <si>
@@ -2114,6 +2108,18 @@
   </si>
   <si>
     <t>/update-user</t>
+  </si>
+  <si>
+    <t>Id của field này (có thể trùng field nhưng id khác thì hiển thị khác)</t>
+  </si>
+  <si>
+    <t>Chứa mảng id của các menu được phân quyền. Menus được phân cho group nên nếu muốn phân thêm menu riêng thì add vào đây (sau này sửa thì nó tự đè lên)</t>
+  </si>
+  <si>
+    <t>Nhóm quản trị DEV toàn quyền</t>
+  </si>
+  <si>
+    <t>[1,11,12,13,14,15,16]</t>
   </si>
 </sst>
 </file>
@@ -4771,19 +4777,19 @@
         <v>15</v>
       </c>
       <c r="B2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="11" t="s">
         <v>94</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4791,39 +4797,39 @@
         <v>16</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>96</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="D4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>99</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
@@ -4831,39 +4837,39 @@
         <v>17</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="15" t="s">
         <v>104</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -4871,39 +4877,39 @@
         <v>50</v>
       </c>
       <c r="B7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>93</v>
-      </c>
       <c r="D7" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4925,7 +4931,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4946,7 +4952,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4963,16 +4969,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>91</v>
+        <v>589</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -4983,16 +4989,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>474</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>475</v>
       </c>
-      <c r="D3" s="94" t="s">
-        <v>477</v>
-      </c>
       <c r="E3" s="94" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5014,7 +5020,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5039,19 +5045,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="84" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="84" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="84" t="s">
-        <v>157</v>
-      </c>
       <c r="E1" s="84" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F1" s="84" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G1" s="84" t="s">
         <v>25</v>
@@ -5060,13 +5066,13 @@
         <v>4</v>
       </c>
       <c r="I1" s="84" t="s">
+        <v>152</v>
+      </c>
+      <c r="J1" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="K1" s="84" t="s">
         <v>153</v>
-      </c>
-      <c r="J1" s="84" t="s">
-        <v>160</v>
-      </c>
-      <c r="K1" s="84" t="s">
-        <v>154</v>
       </c>
       <c r="L1" s="84" t="s">
         <v>19</v>
@@ -5084,20 +5090,20 @@
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E2" s="91"/>
       <c r="F2" s="91" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -5116,18 +5122,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
@@ -5146,18 +5152,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5176,18 +5182,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5206,18 +5212,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5236,18 +5242,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -5266,18 +5272,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -5294,20 +5300,20 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E9" s="91"/>
       <c r="F9" s="91" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5326,18 +5332,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
@@ -5356,18 +5362,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -5386,18 +5392,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -5416,18 +5422,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -5444,20 +5450,20 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E14" s="91"/>
       <c r="F14" s="91" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5476,18 +5482,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
@@ -5504,20 +5510,20 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
+        <v>453</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>481</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>454</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>483</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>455</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -5543,7 +5549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -5553,8 +5559,7 @@
     <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="29.83203125" customWidth="1"/>
     <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -5567,7 +5572,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5576,13 +5581,13 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F1" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G1" s="22" t="s">
         <v>141</v>
-      </c>
-      <c r="G1" s="22" t="s">
-        <v>142</v>
       </c>
       <c r="H1" s="22" t="s">
         <v>4</v>
@@ -5599,22 +5604,24 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B2" s="31">
         <v>1</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>590</v>
+      </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
       <c r="H2" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
@@ -5624,22 +5631,24 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B3" s="31">
         <v>1</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D3" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>590</v>
+      </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
       <c r="H3" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I3" s="28"/>
       <c r="J3" s="28"/>
@@ -5649,22 +5658,24 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="28">
         <v>6</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>590</v>
+      </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
       <c r="H4" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="28"/>
       <c r="J4" s="28"/>
@@ -5674,22 +5685,24 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="28">
         <v>1</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>590</v>
+      </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
       <c r="H5" s="33" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I5" s="28"/>
       <c r="J5" s="28"/>
@@ -5739,16 +5752,16 @@
         <v>25</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E1" s="40" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F1" s="40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="40" t="s">
         <v>19</v>
@@ -5765,13 +5778,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
         <v>352</v>
       </c>
-      <c r="C2" t="s">
-        <v>353</v>
-      </c>
       <c r="H2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -5782,16 +5795,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -5802,16 +5815,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -5822,16 +5835,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -5842,16 +5855,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -5862,16 +5875,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -5882,16 +5895,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -5902,16 +5915,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -5922,16 +5935,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -5942,16 +5955,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5962,16 +5975,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5982,16 +5995,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -6002,16 +6015,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -6022,16 +6035,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -6042,16 +6055,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -6062,16 +6075,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -6082,16 +6095,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -6104,153 +6117,208 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="4" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="5" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>358</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>359</v>
       </c>
-      <c r="B1" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="67" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>206</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>238</v>
       </c>
-      <c r="D2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
-        <v>239</v>
-      </c>
-      <c r="D3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>232</v>
+      <c r="E3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>557</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
         <v>558</v>
       </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
         <v>559</v>
       </c>
-      <c r="D5" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>560</v>
-      </c>
-      <c r="D7" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>299</v>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>247</v>
-      </c>
-      <c r="D9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D13" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>189</v>
+        <v>298</v>
+      </c>
+      <c r="C9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>
@@ -6329,10 +6397,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
@@ -6341,16 +6409,16 @@
     </row>
     <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E2" s="50" t="s">
         <v>16</v>
@@ -6380,16 +6448,16 @@
     </row>
     <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>259</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>260</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>15</v>
@@ -6413,16 +6481,16 @@
     </row>
     <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>261</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>262</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>15</v>
@@ -6446,16 +6514,16 @@
     </row>
     <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C5" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="D5" s="50" t="s">
         <v>263</v>
-      </c>
-      <c r="D5" s="50" t="s">
-        <v>264</v>
       </c>
       <c r="E5" s="50" t="s">
         <v>15</v>
@@ -6479,16 +6547,16 @@
     </row>
     <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>15</v>
@@ -6512,16 +6580,16 @@
     </row>
     <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B7" s="50" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E7" s="50" t="s">
         <v>15</v>
@@ -6545,16 +6613,16 @@
     </row>
     <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>266</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>267</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>15</v>
@@ -6578,16 +6646,16 @@
     </row>
     <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B9" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E9" s="50" t="s">
         <v>50</v>
@@ -6609,16 +6677,16 @@
     </row>
     <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B10" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>15</v>
@@ -6639,21 +6707,21 @@
         <v>10</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D11" s="50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="50" t="s">
         <v>50</v>
@@ -6675,16 +6743,16 @@
     </row>
     <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C12" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D12" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E12" s="50" t="s">
         <v>15</v>
@@ -6708,16 +6776,16 @@
     </row>
     <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="50" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C13" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D13" s="50" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E13" s="50" t="s">
         <v>17</v>
@@ -6741,16 +6809,16 @@
     </row>
     <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B14" s="51" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D14" s="51" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E14" s="51" t="s">
         <v>16</v>
@@ -6780,16 +6848,16 @@
     </row>
     <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B15" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>15</v>
@@ -6813,16 +6881,16 @@
     </row>
     <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C16" s="51" t="s">
+        <v>252</v>
+      </c>
+      <c r="D16" s="51" t="s">
         <v>253</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>254</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>15</v>
@@ -6846,16 +6914,16 @@
     </row>
     <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C17" s="51" t="s">
+        <v>484</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>486</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>488</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -6877,16 +6945,16 @@
     </row>
     <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
@@ -6910,16 +6978,16 @@
     </row>
     <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>15</v>
@@ -6943,16 +7011,16 @@
     </row>
     <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>15</v>
@@ -6976,16 +7044,16 @@
     </row>
     <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>15</v>
@@ -7009,16 +7077,16 @@
     </row>
     <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B22" s="51" t="s">
+        <v>487</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>489</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>490</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>491</v>
       </c>
       <c r="E22" s="51" t="s">
         <v>50</v>
@@ -7038,16 +7106,16 @@
     </row>
     <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -7069,16 +7137,16 @@
     </row>
     <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E24" s="51" t="s">
         <v>15</v>
@@ -7102,16 +7170,16 @@
     </row>
     <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E25" s="51" t="s">
         <v>50</v>
@@ -7133,16 +7201,16 @@
     </row>
     <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B26" s="51" t="s">
         <v>45</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E26" s="51" t="s">
         <v>15</v>
@@ -7166,16 +7234,16 @@
     </row>
     <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B27" s="51" t="s">
         <v>0</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7201,16 +7269,16 @@
     </row>
     <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B28" s="51" t="s">
+        <v>490</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>491</v>
+      </c>
+      <c r="D28" s="51" t="s">
         <v>492</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>493</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>494</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7232,16 +7300,16 @@
     </row>
     <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>531</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>532</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>533</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7263,16 +7331,16 @@
     </row>
     <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="51" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>533</v>
+      </c>
+      <c r="D30" s="51" t="s">
         <v>534</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>535</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>536</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7294,19 +7362,19 @@
     </row>
     <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="100" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E31" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" s="101"/>
       <c r="G31" s="101"/>
@@ -7323,19 +7391,19 @@
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E32" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" s="101"/>
       <c r="G32" s="101"/>
@@ -7352,16 +7420,16 @@
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="100" t="s">
         <v>15</v>
@@ -7383,16 +7451,16 @@
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>15</v>
@@ -7414,16 +7482,16 @@
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
+        <v>563</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>564</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>565</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="D35" s="100" t="s">
         <v>566</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>567</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>568</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
@@ -7445,19 +7513,19 @@
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" s="101"/>
       <c r="G36" s="101"/>
@@ -7474,16 +7542,16 @@
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E37" s="100" t="s">
         <v>50</v>
@@ -7503,16 +7571,16 @@
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C38" s="100" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E38" s="100" t="s">
         <v>50</v>
@@ -7532,16 +7600,16 @@
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>19</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E39" s="100" t="s">
         <v>15</v>
@@ -7563,16 +7631,16 @@
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>45</v>
       </c>
       <c r="C40" s="100" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E40" s="100" t="s">
         <v>50</v>
@@ -7592,19 +7660,19 @@
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>0</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" s="101"/>
       <c r="G41" s="101"/>
@@ -7621,16 +7689,16 @@
     </row>
     <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B42" s="50" t="s">
         <v>18</v>
       </c>
       <c r="C42" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D42" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E42" s="50" t="s">
         <v>16</v>
@@ -7652,16 +7720,16 @@
     </row>
     <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B43" s="50" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C43" s="50" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E43" s="50" t="s">
         <v>16</v>
@@ -7683,16 +7751,16 @@
     </row>
     <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D44" s="50" t="s">
         <v>284</v>
-      </c>
-      <c r="D44" s="50" t="s">
-        <v>285</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>15</v>
@@ -7706,7 +7774,7 @@
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
       <c r="L44" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
@@ -7718,16 +7786,16 @@
     </row>
     <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B45" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="D45" s="50" t="s">
         <v>287</v>
-      </c>
-      <c r="D45" s="50" t="s">
-        <v>288</v>
       </c>
       <c r="E45" s="50"/>
       <c r="F45" s="55"/>
@@ -7747,16 +7815,16 @@
     </row>
     <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
@@ -7780,16 +7848,16 @@
     </row>
     <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>0</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>15</v>
@@ -7813,16 +7881,16 @@
     </row>
     <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>50</v>
@@ -7844,16 +7912,16 @@
     </row>
     <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>15</v>
@@ -7877,16 +7945,16 @@
     </row>
     <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B50" s="50" t="s">
         <v>19</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E50" s="50" t="s">
         <v>50</v>
@@ -7908,16 +7976,16 @@
     </row>
     <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" s="50" t="s">
         <v>45</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>15</v>
@@ -7941,16 +8009,16 @@
     </row>
     <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" s="52" t="s">
         <v>18</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E52" s="52" t="s">
         <v>16</v>
@@ -7980,16 +8048,16 @@
     </row>
     <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="52" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E53" s="52" t="s">
         <v>16</v>
@@ -8003,7 +8071,7 @@
       <c r="J53" s="46"/>
       <c r="K53" s="46"/>
       <c r="L53" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M53" s="46"/>
       <c r="N53" s="46"/>
@@ -8015,16 +8083,16 @@
     </row>
     <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="52" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E54" s="52" t="s">
         <v>16</v>
@@ -8048,16 +8116,16 @@
     </row>
     <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="C55" s="52" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="52" t="s">
-        <v>287</v>
-      </c>
       <c r="D55" s="52" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>15</v>
@@ -8081,16 +8149,16 @@
     </row>
     <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>15</v>
@@ -8114,16 +8182,16 @@
     </row>
     <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B57" s="52" t="s">
+        <v>298</v>
+      </c>
+      <c r="C57" s="52" t="s">
         <v>299</v>
       </c>
-      <c r="C57" s="52" t="s">
-        <v>300</v>
-      </c>
       <c r="D57" s="98" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
@@ -8144,21 +8212,21 @@
         <v>42</v>
       </c>
       <c r="Q57" s="57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>15</v>
@@ -8182,19 +8250,19 @@
     </row>
     <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" s="46"/>
       <c r="G59" s="46"/>
@@ -8213,16 +8281,16 @@
     </row>
     <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>50</v>
@@ -8244,16 +8312,16 @@
     </row>
     <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B61" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="52" t="s">
+        <v>291</v>
+      </c>
+      <c r="D61" s="52" t="s">
         <v>232</v>
-      </c>
-      <c r="C61" s="52" t="s">
-        <v>292</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>233</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>15</v>
@@ -8277,16 +8345,16 @@
     </row>
     <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B62" s="52" t="s">
         <v>19</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>50</v>
@@ -8308,16 +8376,16 @@
     </row>
     <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B63" s="65" t="s">
         <v>45</v>
       </c>
       <c r="C63" s="65" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D63" s="65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E63" s="65" t="s">
         <v>15</v>
@@ -8341,16 +8409,16 @@
     </row>
     <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B64" s="53" t="s">
         <v>18</v>
       </c>
       <c r="C64" s="53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D64" s="53" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E64" s="53" t="s">
         <v>16</v>
@@ -8380,16 +8448,16 @@
     </row>
     <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B65" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>15</v>
@@ -8413,16 +8481,16 @@
     </row>
     <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B66" s="53" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C66" s="53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D66" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E66" s="53" t="s">
         <v>15</v>
@@ -8436,7 +8504,7 @@
       <c r="J66" s="62"/>
       <c r="K66" s="62"/>
       <c r="L66" s="60" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="M66" s="62"/>
       <c r="N66" s="62"/>
@@ -8448,16 +8516,16 @@
     </row>
     <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C67" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D67" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E67" s="53" t="s">
         <v>15</v>
@@ -8481,16 +8549,16 @@
     </row>
     <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E68" s="53" t="s">
         <v>15</v>
@@ -8514,16 +8582,16 @@
     </row>
     <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E69" s="53" t="s">
         <v>15</v>
@@ -8547,16 +8615,16 @@
     </row>
     <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C70" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="D70" s="53" t="s">
         <v>271</v>
-      </c>
-      <c r="D70" s="53" t="s">
-        <v>272</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
@@ -8580,16 +8648,16 @@
     </row>
     <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E71" s="53" t="s">
         <v>50</v>
@@ -8611,16 +8679,16 @@
     </row>
     <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>15</v>
@@ -8644,16 +8712,16 @@
     </row>
     <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B73" s="53" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E73" s="53" t="s">
         <v>50</v>
@@ -8675,16 +8743,16 @@
     </row>
     <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" s="53" t="s">
         <v>45</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E74" s="53" t="s">
         <v>50</v>
@@ -8708,16 +8776,16 @@
     </row>
     <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="53" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B75" s="53" t="s">
         <v>0</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E75" s="53" t="s">
         <v>17</v>
@@ -8741,16 +8809,16 @@
     </row>
     <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B76" s="44" t="s">
         <v>18</v>
       </c>
       <c r="C76" s="44" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D76" s="63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E76" s="63" t="s">
         <v>16</v>
@@ -8780,16 +8848,16 @@
     </row>
     <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C77" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="D77" s="63" t="s">
         <v>414</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>415</v>
       </c>
       <c r="E77" s="63" t="s">
         <v>16</v>
@@ -8813,16 +8881,16 @@
     </row>
     <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>15</v>
@@ -8848,16 +8916,16 @@
     </row>
     <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B79" s="44" t="s">
         <v>25</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E79" s="63" t="s">
         <v>15</v>
@@ -8881,16 +8949,16 @@
     </row>
     <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B80" s="44" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E80" s="63" t="s">
         <v>15</v>
@@ -8914,16 +8982,16 @@
     </row>
     <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E81" s="64" t="s">
         <v>50</v>
@@ -8945,16 +9013,16 @@
     </row>
     <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E82" s="64" t="s">
         <v>15</v>
@@ -8978,16 +9046,16 @@
     </row>
     <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
         <v>19</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83" s="64" t="s">
         <v>50</v>
@@ -9009,16 +9077,16 @@
     </row>
     <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
         <v>45</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E84" s="64" t="s">
         <v>15</v>
@@ -9042,16 +9110,16 @@
     </row>
     <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
         <v>0</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E85" s="63" t="s">
         <v>17</v>
@@ -9107,10 +9175,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="39" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="39" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D1" s="39" t="s">
         <v>25</v>
@@ -9119,7 +9187,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>19</v>
@@ -9137,18 +9205,18 @@
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
+        <v>388</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>389</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>390</v>
-      </c>
       <c r="E2" s="92" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="F2" s="92"/>
       <c r="G2" s="92"/>
       <c r="H2" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I2" s="92">
         <v>1</v>
@@ -9162,16 +9230,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -9185,16 +9253,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>392</v>
+      </c>
+      <c r="D4" t="s">
         <v>393</v>
       </c>
-      <c r="D4" t="s">
-        <v>394</v>
-      </c>
       <c r="E4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -9208,16 +9276,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D5" t="s">
         <v>402</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>403</v>
       </c>
-      <c r="E5" t="s">
-        <v>404</v>
-      </c>
       <c r="H5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -9231,16 +9299,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E6" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -9254,16 +9322,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D7" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -9277,16 +9345,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -9298,18 +9366,18 @@
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
+        <v>404</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>405</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>406</v>
-      </c>
       <c r="E9" s="92" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F9" s="92"/>
       <c r="G9" s="92"/>
       <c r="H9" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I9" s="92">
         <v>1</v>
@@ -9323,16 +9391,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D10" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" t="s">
         <v>410</v>
       </c>
-      <c r="E10" t="s">
-        <v>411</v>
-      </c>
       <c r="H10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -9346,16 +9414,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>407</v>
+      </c>
+      <c r="D11" t="s">
         <v>408</v>
       </c>
-      <c r="D11" t="s">
-        <v>409</v>
-      </c>
       <c r="E11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -9367,18 +9435,18 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D12" s="92" t="s">
+        <v>415</v>
+      </c>
+      <c r="E12" s="92" t="s">
         <v>416</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>417</v>
       </c>
       <c r="F12" s="92"/>
       <c r="G12" s="92"/>
       <c r="H12" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I12" s="92">
         <v>1</v>
@@ -9392,16 +9460,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -9415,16 +9483,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -9438,16 +9506,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -9461,16 +9529,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -9484,16 +9552,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E17" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H17" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -9507,16 +9575,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -9528,18 +9596,18 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D19" s="92" t="s">
+        <v>426</v>
+      </c>
+      <c r="E19" s="92" t="s">
         <v>427</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>428</v>
       </c>
       <c r="F19" s="92"/>
       <c r="G19" s="92"/>
       <c r="H19" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I19" s="92">
         <v>1</v>
@@ -9553,16 +9621,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E20" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -9576,16 +9644,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E21" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -9599,16 +9667,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E22" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -9622,16 +9690,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E23" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -9643,18 +9711,18 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F24" s="92"/>
       <c r="G24" s="92"/>
       <c r="H24" s="92" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I24" s="92">
         <v>1</v>
@@ -9668,16 +9736,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>560</v>
+      </c>
+      <c r="D25" t="s">
+        <v>561</v>
+      </c>
+      <c r="E25" t="s">
         <v>562</v>
       </c>
-      <c r="D25" t="s">
-        <v>563</v>
-      </c>
-      <c r="E25" t="s">
-        <v>564</v>
-      </c>
       <c r="H25" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -9691,16 +9759,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D26" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E26" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H26" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -9714,16 +9782,16 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D27" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -9737,16 +9805,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E28" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -9760,16 +9828,16 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>508</v>
+      </c>
+      <c r="D29" t="s">
+        <v>509</v>
+      </c>
+      <c r="E29" t="s">
         <v>510</v>
       </c>
-      <c r="D29" t="s">
-        <v>511</v>
-      </c>
-      <c r="E29" t="s">
-        <v>512</v>
-      </c>
       <c r="H29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -9783,16 +9851,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>511</v>
+      </c>
+      <c r="D30" t="s">
+        <v>512</v>
+      </c>
+      <c r="E30" t="s">
         <v>513</v>
       </c>
-      <c r="D30" t="s">
-        <v>514</v>
-      </c>
-      <c r="E30" t="s">
-        <v>515</v>
-      </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -9806,16 +9874,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>514</v>
+      </c>
+      <c r="D31" t="s">
+        <v>515</v>
+      </c>
+      <c r="E31" t="s">
         <v>516</v>
       </c>
-      <c r="D31" t="s">
-        <v>517</v>
-      </c>
-      <c r="E31" t="s">
-        <v>518</v>
-      </c>
       <c r="H31" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -9829,16 +9897,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D32" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="H32" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I32" s="99">
         <v>1</v>
@@ -9852,16 +9920,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D33" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E33" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H33" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I33" s="99">
         <v>1</v>
@@ -9875,16 +9943,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>549</v>
+      </c>
+      <c r="D34" t="s">
+        <v>550</v>
+      </c>
+      <c r="E34" t="s">
         <v>551</v>
       </c>
-      <c r="D34" t="s">
-        <v>552</v>
-      </c>
-      <c r="E34" t="s">
-        <v>553</v>
-      </c>
       <c r="H34" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I34" s="99">
         <v>1</v>
@@ -9898,16 +9966,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D35" t="s">
+        <v>536</v>
+      </c>
+      <c r="E35" t="s">
         <v>537</v>
       </c>
-      <c r="D35" t="s">
-        <v>538</v>
-      </c>
-      <c r="E35" t="s">
-        <v>539</v>
-      </c>
       <c r="H35" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I35" s="99">
         <v>1</v>
@@ -9921,16 +9989,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>522</v>
+      </c>
+      <c r="D36" t="s">
         <v>524</v>
       </c>
-      <c r="D36" t="s">
-        <v>526</v>
-      </c>
       <c r="E36" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="H36" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I36" s="99">
         <v>1</v>
@@ -9944,16 +10012,16 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D37" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E37" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H37" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I37" s="99">
         <v>1</v>
@@ -9967,16 +10035,16 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>538</v>
+      </c>
+      <c r="D38" t="s">
+        <v>539</v>
+      </c>
+      <c r="E38" t="s">
         <v>540</v>
       </c>
-      <c r="D38" t="s">
-        <v>541</v>
-      </c>
-      <c r="E38" t="s">
-        <v>542</v>
-      </c>
       <c r="H38" s="99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="I38" s="99">
         <v>1</v>
@@ -10019,22 +10087,22 @@
         <v>4</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E1" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F1" s="38" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G1" s="38" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H1" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J1" s="38" t="s">
         <v>19</v>
@@ -10051,19 +10119,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" t="s">
         <v>306</v>
-      </c>
-      <c r="C2" t="s">
-        <v>307</v>
       </c>
       <c r="D2">
         <v>42</v>
       </c>
       <c r="G2" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" t="s">
         <v>188</v>
-      </c>
-      <c r="I2" t="s">
-        <v>189</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -10108,25 +10176,25 @@
         <v>4</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="E1" s="66" t="s">
-        <v>229</v>
-      </c>
       <c r="F1" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G1" s="66" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>19</v>
@@ -10143,22 +10211,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
       <c r="I2" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J2" s="41"/>
       <c r="K2" s="41"/>
@@ -10171,22 +10239,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
       <c r="I3" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J3" s="41"/>
       <c r="K3" s="41"/>
@@ -10199,22 +10267,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
       <c r="I4" s="41" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J4" s="41"/>
       <c r="K4" s="41"/>
@@ -10282,28 +10350,28 @@
         <v>18</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" s="66" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I1" s="66" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J1" s="66" t="s">
         <v>19</v>
@@ -10433,31 +10501,31 @@
         <v>18</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G1" s="67" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" s="67" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="67" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J1" s="67" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="K1" s="67" t="s">
         <v>19</v>
@@ -10480,7 +10548,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -10491,13 +10559,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D12" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10561,10 +10629,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
@@ -10703,7 +10771,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>15</v>
@@ -10718,7 +10786,7 @@
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
       <c r="K6" s="76" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L6" s="76"/>
       <c r="M6" s="76"/>
@@ -10961,11 +11029,11 @@
         <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>15</v>
@@ -11005,7 +11073,9 @@
       <c r="H16" s="80">
         <v>1</v>
       </c>
-      <c r="I16" s="80"/>
+      <c r="I16" s="80">
+        <v>1</v>
+      </c>
       <c r="J16" s="80">
         <v>1</v>
       </c>
@@ -11053,11 +11123,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11171,7 +11241,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -11263,11 +11333,11 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -11351,11 +11421,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -11381,11 +11451,11 @@
         <v>46</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>15</v>
@@ -11411,11 +11481,11 @@
         <v>46</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>15</v>
@@ -11503,7 +11573,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -11533,7 +11603,7 @@
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>17</v>
@@ -11556,14 +11626,14 @@
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B35" s="79" t="s">
         <v>18</v>
       </c>
       <c r="C35" s="79"/>
       <c r="D35" s="79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="79" t="s">
         <v>16</v>
@@ -11575,9 +11645,7 @@
       <c r="H35" s="80">
         <v>1</v>
       </c>
-      <c r="I35" s="80">
-        <v>1</v>
-      </c>
+      <c r="I35" s="80"/>
       <c r="J35" s="80">
         <v>1</v>
       </c>
@@ -11592,14 +11660,14 @@
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C36" s="79"/>
       <c r="D36" s="79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E36" s="79" t="s">
         <v>16</v>
@@ -11620,14 +11688,14 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B37" s="79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C37" s="79"/>
       <c r="D37" s="79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E37" s="79" t="s">
         <v>15</v>
@@ -11650,14 +11718,14 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B38" s="79" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C38" s="79"/>
       <c r="D38" s="79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" s="79" t="s">
         <v>15</v>
@@ -11680,14 +11748,14 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B39" s="79" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="79" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E39" s="79" t="s">
         <v>15</v>
@@ -11710,14 +11778,14 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="79" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -11740,14 +11808,14 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B41" s="79" t="s">
         <v>25</v>
       </c>
       <c r="C41" s="79"/>
       <c r="D41" s="79" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E41" s="79" t="s">
         <v>15</v>
@@ -11770,14 +11838,14 @@
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B42" s="79" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="79"/>
       <c r="D42" s="79" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E42" s="79" t="s">
         <v>15</v>
@@ -11800,14 +11868,14 @@
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B43" s="79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C43" s="79"/>
       <c r="D43" s="79" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E43" s="79" t="s">
         <v>15</v>
@@ -11830,14 +11898,14 @@
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B44" s="79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C44" s="79"/>
       <c r="D44" s="79" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E44" s="79" t="s">
         <v>15</v>
@@ -11860,14 +11928,14 @@
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B45" s="79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="79"/>
       <c r="D45" s="79" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E45" s="79" t="s">
         <v>16</v>
@@ -11888,14 +11956,14 @@
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B46" s="79" t="s">
         <v>19</v>
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -11916,14 +11984,14 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47" s="79" t="s">
         <v>45</v>
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -11946,14 +12014,14 @@
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B48" s="79" t="s">
         <v>0</v>
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -11976,14 +12044,14 @@
     </row>
     <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B49" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C49" s="42"/>
       <c r="D49" s="43" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E49" s="42" t="s">
         <v>16</v>
@@ -12013,14 +12081,14 @@
     </row>
     <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B50" s="42" t="s">
         <v>25</v>
       </c>
       <c r="C50" s="42"/>
       <c r="D50" s="43" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E50" s="42" t="s">
         <v>15</v>
@@ -12044,14 +12112,14 @@
     </row>
     <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -12075,14 +12143,14 @@
     </row>
     <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B52" s="42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -12106,14 +12174,14 @@
     </row>
     <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B53" s="42" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C53" s="42"/>
       <c r="D53" s="43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E53" s="42" t="s">
         <v>16</v>
@@ -12135,14 +12203,14 @@
     </row>
     <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C54" s="42"/>
       <c r="D54" s="43" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E54" s="42" t="s">
         <v>50</v>
@@ -12164,14 +12232,14 @@
     </row>
     <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B55" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C55" s="42"/>
       <c r="D55" s="43" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" s="42" t="s">
         <v>50</v>
@@ -12193,14 +12261,14 @@
     </row>
     <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B56" s="42" t="s">
         <v>45</v>
       </c>
       <c r="C56" s="42"/>
       <c r="D56" s="43" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E56" s="42" t="s">
         <v>15</v>
@@ -12224,14 +12292,14 @@
     </row>
     <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B57" s="42" t="s">
         <v>0</v>
       </c>
       <c r="C57" s="42"/>
       <c r="D57" s="43" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E57" s="42" t="s">
         <v>17</v>
@@ -12255,28 +12323,28 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B58" s="68" t="s">
-        <v>359</v>
+        <v>18</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>361</v>
+        <v>587</v>
       </c>
       <c r="E58" s="68" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="77">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F58" s="77"/>
       <c r="G58" s="77">
         <v>1</v>
       </c>
       <c r="H58" s="77">
         <v>1</v>
       </c>
-      <c r="I58" s="77"/>
+      <c r="I58" s="77">
+        <v>1</v>
+      </c>
       <c r="J58" s="77">
         <v>1</v>
       </c>
@@ -12291,49 +12359,57 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="68" t="s">
         <v>358</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>360</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
       </c>
       <c r="F59" s="77">
-        <v>200</v>
-      </c>
-      <c r="G59" s="77"/>
-      <c r="H59" s="77"/>
+        <v>50</v>
+      </c>
+      <c r="G59" s="77">
+        <v>1</v>
+      </c>
+      <c r="H59" s="77">
+        <v>1</v>
+      </c>
       <c r="I59" s="77"/>
-      <c r="J59" s="77"/>
+      <c r="J59" s="77">
+        <v>1</v>
+      </c>
       <c r="K59" s="77"/>
       <c r="L59" s="77"/>
       <c r="M59" s="77"/>
       <c r="N59" s="77"/>
       <c r="O59" s="77"/>
       <c r="P59" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>19</v>
+        <v>359</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>363</v>
-      </c>
-      <c r="E60" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="77"/>
+        <v>361</v>
+      </c>
+      <c r="E60" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="77">
+        <v>200</v>
+      </c>
       <c r="G60" s="77"/>
       <c r="H60" s="77"/>
       <c r="I60" s="77"/>
@@ -12344,26 +12420,24 @@
       <c r="N60" s="77"/>
       <c r="O60" s="77"/>
       <c r="P60" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B61" s="68" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E61" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="F61" s="77">
         <v>50</v>
       </c>
+      <c r="F61" s="77"/>
       <c r="G61" s="77"/>
       <c r="H61" s="77"/>
       <c r="I61" s="77"/>
@@ -12374,16 +12448,26 @@
       <c r="N61" s="77"/>
       <c r="O61" s="77"/>
       <c r="P61" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A62" s="68"/>
-      <c r="B62" s="68"/>
+      <c r="A62" s="68" t="s">
+        <v>357</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>45</v>
+      </c>
       <c r="C62" s="68"/>
-      <c r="D62" s="72"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="77"/>
+      <c r="D62" s="72" t="s">
+        <v>363</v>
+      </c>
+      <c r="E62" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="77">
+        <v>50</v>
+      </c>
       <c r="G62" s="77"/>
       <c r="H62" s="77"/>
       <c r="I62" s="77"/>
@@ -12393,7 +12477,27 @@
       <c r="M62" s="77"/>
       <c r="N62" s="77"/>
       <c r="O62" s="77"/>
-      <c r="P62" s="78"/>
+      <c r="P62" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A63" s="68"/>
+      <c r="B63" s="68"/>
+      <c r="C63" s="68"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="68"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12479,7 +12583,7 @@
         <v>79</v>
       </c>
       <c r="N1" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
@@ -12490,7 +12594,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>53</v>
@@ -12509,7 +12613,7 @@
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>54</v>
@@ -12528,7 +12632,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>53</v>
@@ -12566,7 +12670,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>53</v>
@@ -12604,7 +12708,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -12642,7 +12746,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -12680,7 +12784,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -12718,7 +12822,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -12756,7 +12860,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -12794,7 +12898,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>53</v>
@@ -12832,13 +12936,13 @@
         <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F11" s="25">
         <v>1</v>
@@ -12851,10 +12955,10 @@
       </c>
       <c r="I11" s="25"/>
       <c r="J11" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K11" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L11" s="25">
         <v>1</v>
@@ -12870,13 +12974,13 @@
         <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E12" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F12" s="25">
         <v>1</v>
@@ -12889,10 +12993,10 @@
       </c>
       <c r="I12" s="25"/>
       <c r="J12" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K12" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L12" s="25">
         <v>1</v>
@@ -12908,13 +13012,13 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13" s="25">
         <v>1</v>
@@ -12927,10 +13031,10 @@
       </c>
       <c r="I13" s="25"/>
       <c r="J13" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K13" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L13" s="25">
         <v>1</v>
@@ -12946,13 +13050,13 @@
         <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F14" s="25">
         <v>1</v>
@@ -12965,10 +13069,10 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K14" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L14" s="25">
         <v>1</v>
@@ -12984,13 +13088,13 @@
         <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="25" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F15" s="25">
         <v>1</v>
@@ -13003,10 +13107,10 @@
       </c>
       <c r="I15" s="25"/>
       <c r="J15" s="25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K15" s="25" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L15" s="25">
         <v>1</v>
@@ -13022,13 +13126,13 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="25">
         <v>1</v>
@@ -13041,10 +13145,10 @@
       </c>
       <c r="I16" s="25"/>
       <c r="J16" s="25" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K16" s="25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L16" s="25">
         <v>1</v>
@@ -13060,13 +13164,13 @@
         <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>53</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F17" s="25">
         <v>1</v>
@@ -13079,10 +13183,10 @@
       </c>
       <c r="I17" s="25"/>
       <c r="J17" s="25" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" s="25" t="s">
         <v>136</v>
-      </c>
-      <c r="K17" s="25" t="s">
-        <v>137</v>
       </c>
       <c r="L17" s="25">
         <v>1</v>
@@ -13098,13 +13202,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F18" s="25">
         <v>1</v>
@@ -13117,10 +13221,10 @@
       </c>
       <c r="I18" s="25"/>
       <c r="J18" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="K18" s="25" t="s">
         <v>163</v>
-      </c>
-      <c r="K18" s="25" t="s">
-        <v>164</v>
       </c>
       <c r="L18" s="25">
         <v>1</v>
@@ -13136,13 +13240,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F19" s="68">
         <v>1</v>
@@ -13170,13 +13274,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F20" s="68">
         <v>1</v>
@@ -13204,13 +13308,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F21" s="68">
         <v>1</v>
@@ -13238,13 +13342,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F22" s="68">
         <v>1</v>
@@ -13272,13 +13376,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F23" s="68">
         <v>1</v>
@@ -13306,13 +13410,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F24" s="68">
         <v>1</v>
@@ -13340,13 +13444,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="F25" s="68">
         <v>1</v>
@@ -13374,13 +13478,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13408,13 +13512,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -13442,13 +13546,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -13476,13 +13580,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -13510,13 +13614,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -13544,13 +13648,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -13578,13 +13682,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -13611,13 +13715,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -13644,13 +13748,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -13677,13 +13781,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -13710,13 +13814,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -13729,7 +13833,7 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="34" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36">
@@ -13745,13 +13849,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -13778,13 +13882,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -13811,13 +13915,13 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D39" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -13844,13 +13948,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D40" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -13863,7 +13967,7 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="34" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
@@ -13879,13 +13983,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -13912,13 +14016,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D42" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -13945,13 +14049,13 @@
         <v>22</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D43" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -13978,13 +14082,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F44" s="34">
         <v>1</v>
@@ -14011,13 +14115,13 @@
         <v>22</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F45" s="34">
         <v>1</v>
@@ -14044,13 +14148,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D46" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F46" s="34">
         <v>1</v>
@@ -14077,13 +14181,13 @@
         <v>22</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D47" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F47" s="34">
         <v>1</v>
@@ -14110,13 +14214,13 @@
         <v>22</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F48" s="34">
         <v>1</v>
@@ -14143,13 +14247,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F49" s="34">
         <v>1</v>
@@ -14176,13 +14280,13 @@
         <v>22</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D50" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E50" s="103" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F50" s="102">
         <v>1</v>
@@ -14209,13 +14313,13 @@
         <v>22</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D51" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14242,13 +14346,13 @@
         <v>22</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D52" s="102" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903592B1-D7B0-4941-896B-1DC370194514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C668C528-9F07-4745-B02F-8AC0B608E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
   <si>
     <t>status</t>
   </si>
@@ -1693,9 +1693,6 @@
     <t>Trang quản lý chỉ đạo theo từng đơn vị (lọc ra từng chỉ đạo theo từng đơn vị)</t>
   </si>
   <si>
-    <t>[21,22,23,24,25]</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
@@ -1792,9 +1789,6 @@
     <t>ion-document-text</t>
   </si>
   <si>
-    <t>ion-timer-outline</t>
-  </si>
-  <si>
     <t>Nhóm quản lý chỉ đạo lãnh đạo (chính)</t>
   </si>
   <si>
@@ -2120,6 +2114,36 @@
   </si>
   <si>
     <t>[1,11,12,13,14,15,16]</t>
+  </si>
+  <si>
+    <t>leader-direct-history</t>
+  </si>
+  <si>
+    <t>leader-direct-organization</t>
+  </si>
+  <si>
+    <t>ion-clock</t>
+  </si>
+  <si>
+    <t>[21,22,23,24]</t>
+  </si>
+  <si>
+    <t>leader-direct-mng</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Menu Con</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>Cat con</t>
+  </si>
+  <si>
+    <t>Mảng chứa các Id con của thư mục này</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3327,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3561,6 +3585,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -4931,7 +4961,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4952,7 +4982,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4969,16 +4999,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -4989,16 +5019,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="94" t="s">
         <v>475</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>476</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5020,7 +5050,7 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5037,7 +5067,9 @@
     <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="85"/>
     <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="85"/>
+    <col min="13" max="13" width="14.33203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -5093,9 +5125,11 @@
         <v>370</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="91"/>
+        <v>460</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>370</v>
+      </c>
       <c r="F2" s="91" t="s">
         <v>375</v>
       </c>
@@ -5103,13 +5137,15 @@
         <v>371</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="M2" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N2" s="90">
         <v>1</v>
       </c>
@@ -5130,7 +5166,7 @@
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H3" s="86" t="s">
         <v>376</v>
@@ -5139,7 +5175,9 @@
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="M3" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N3" s="86">
         <v>1</v>
       </c>
@@ -5160,7 +5198,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>377</v>
@@ -5169,7 +5207,9 @@
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="M4" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N4" s="86">
         <v>1</v>
       </c>
@@ -5190,7 +5230,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H5" s="86" t="s">
         <v>378</v>
@@ -5199,7 +5239,9 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="M5" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N5" s="86">
         <v>1</v>
       </c>
@@ -5220,7 +5262,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H6" s="86" t="s">
         <v>380</v>
@@ -5229,7 +5271,9 @@
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="M6" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N6" s="86">
         <v>1</v>
       </c>
@@ -5250,7 +5294,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>382</v>
@@ -5259,7 +5303,9 @@
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="M7" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N7" s="86">
         <v>1</v>
       </c>
@@ -5280,7 +5326,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>387</v>
@@ -5289,7 +5335,9 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="M8" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N8" s="86">
         <v>1</v>
       </c>
@@ -5303,23 +5351,27 @@
         <v>383</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="91"/>
+        <v>592</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>383</v>
+      </c>
       <c r="F9" s="91" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="M9" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N9" s="90">
         <v>1</v>
       </c>
@@ -5340,7 +5392,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>444</v>
@@ -5349,7 +5401,9 @@
       <c r="J10" s="88"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="M10" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N10" s="86">
         <v>1</v>
       </c>
@@ -5366,11 +5420,11 @@
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>383</v>
+        <v>593</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>445</v>
@@ -5379,7 +5433,9 @@
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="M11" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N11" s="86">
         <v>1</v>
       </c>
@@ -5396,11 +5452,11 @@
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>385</v>
+        <v>589</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H12" s="86" t="s">
         <v>446</v>
@@ -5409,7 +5465,9 @@
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
+      <c r="M12" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N12" s="86">
         <v>1</v>
       </c>
@@ -5426,11 +5484,11 @@
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>443</v>
+        <v>590</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H13" s="86" t="s">
         <v>447</v>
@@ -5439,7 +5497,9 @@
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="M13" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N13" s="86">
         <v>1</v>
       </c>
@@ -5450,26 +5510,30 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" s="91"/>
+        <v>450</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>448</v>
+      </c>
       <c r="F14" s="91" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="M14" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N14" s="90">
         <v>1</v>
       </c>
@@ -5482,24 +5546,26 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="M15" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N15" s="86">
         <v>1</v>
       </c>
@@ -5510,26 +5576,28 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>591</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>453</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>454</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="M16" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N16" s="90">
         <v>1</v>
       </c>
@@ -5549,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5607,7 +5675,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>109</v>
@@ -5616,7 +5684,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5634,7 +5702,7 @@
         <v>220</v>
       </c>
       <c r="B3" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>109</v>
@@ -5643,7 +5711,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5670,7 +5738,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5688,7 +5756,7 @@
         <v>167</v>
       </c>
       <c r="B5" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>109</v>
@@ -5697,7 +5765,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5729,7 +5797,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5795,10 +5863,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5815,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6117,10 +6185,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6183,7 +6251,7 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -6197,7 +6265,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -6225,7 +6293,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -6239,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
@@ -6266,6 +6334,9 @@
       <c r="B10" t="s">
         <v>155</v>
       </c>
+      <c r="C10" t="s">
+        <v>594</v>
+      </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
@@ -6277,47 +6348,10 @@
       <c r="B11" t="s">
         <v>156</v>
       </c>
+      <c r="C11" t="s">
+        <v>595</v>
+      </c>
       <c r="E11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6328,13 +6362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6917,13 +6951,13 @@
         <v>221</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C17" s="51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D17" s="51" t="s">
         <v>484</v>
-      </c>
-      <c r="D17" s="51" t="s">
-        <v>486</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -7080,13 +7114,13 @@
         <v>221</v>
       </c>
       <c r="B22" s="51" t="s">
+        <v>485</v>
+      </c>
+      <c r="C22" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="D22" s="51" t="s">
         <v>487</v>
-      </c>
-      <c r="C22" s="51" t="s">
-        <v>488</v>
-      </c>
-      <c r="D22" s="51" t="s">
-        <v>489</v>
       </c>
       <c r="E22" s="51" t="s">
         <v>50</v>
@@ -7243,7 +7277,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7272,13 +7306,13 @@
         <v>221</v>
       </c>
       <c r="B28" s="51" t="s">
+        <v>488</v>
+      </c>
+      <c r="C28" s="51" t="s">
+        <v>489</v>
+      </c>
+      <c r="D28" s="51" t="s">
         <v>490</v>
-      </c>
-      <c r="C28" s="51" t="s">
-        <v>491</v>
-      </c>
-      <c r="D28" s="51" t="s">
-        <v>492</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7303,13 +7337,13 @@
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
+        <v>527</v>
+      </c>
+      <c r="C29" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="D29" s="51" t="s">
         <v>529</v>
-      </c>
-      <c r="C29" s="51" t="s">
-        <v>530</v>
-      </c>
-      <c r="D29" s="51" t="s">
-        <v>531</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7334,13 +7368,13 @@
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="C30" s="51" t="s">
+        <v>531</v>
+      </c>
+      <c r="D30" s="51" t="s">
         <v>532</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>533</v>
-      </c>
-      <c r="D30" s="51" t="s">
-        <v>534</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7362,7 +7396,7 @@
     </row>
     <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>18</v>
@@ -7371,7 +7405,7 @@
         <v>243</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E31" s="100" t="s">
         <v>97</v>
@@ -7391,16 +7425,16 @@
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>222</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>97</v>
@@ -7420,7 +7454,7 @@
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>227</v>
@@ -7451,7 +7485,7 @@
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B34" s="100" t="s">
         <v>228</v>
@@ -7482,16 +7516,16 @@
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
+        <v>561</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="C35" s="100" t="s">
         <v>563</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="D35" s="100" t="s">
         <v>564</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>565</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>566</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
@@ -7513,16 +7547,16 @@
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E36" s="100" t="s">
         <v>97</v>
@@ -7542,7 +7576,7 @@
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B37" s="100" t="s">
         <v>205</v>
@@ -7571,7 +7605,7 @@
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B38" s="100" t="s">
         <v>231</v>
@@ -7600,7 +7634,7 @@
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>19</v>
@@ -7631,7 +7665,7 @@
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>45</v>
@@ -7660,7 +7694,7 @@
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>0</v>
@@ -7669,7 +7703,7 @@
         <v>236</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E41" s="100" t="s">
         <v>97</v>
@@ -8191,7 +8225,7 @@
         <v>299</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
@@ -8256,10 +8290,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>97</v>
@@ -8354,7 +8388,7 @@
         <v>238</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>50</v>
@@ -8454,10 +8488,10 @@
         <v>327</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>15</v>
@@ -8830,9 +8864,7 @@
       <c r="H76" s="45">
         <v>1</v>
       </c>
-      <c r="I76" s="45">
-        <v>1</v>
-      </c>
+      <c r="I76" s="45"/>
       <c r="J76" s="45">
         <v>1</v>
       </c>
@@ -8884,23 +8916,21 @@
         <v>169</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>242</v>
+        <v>596</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>244</v>
+        <v>597</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>303</v>
+        <v>598</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="45">
-        <v>50</v>
-      </c>
-      <c r="G78" s="45">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G78" s="45"/>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
       <c r="J78" s="45"/>
@@ -8909,9 +8939,7 @@
       <c r="M78" s="45"/>
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
-      <c r="P78" s="56">
-        <v>73</v>
-      </c>
+      <c r="P78" s="56"/>
       <c r="Q78" s="57"/>
     </row>
     <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -8919,13 +8947,13 @@
         <v>169</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E79" s="63" t="s">
         <v>15</v>
@@ -8933,7 +8961,9 @@
       <c r="F79" s="45">
         <v>50</v>
       </c>
-      <c r="G79" s="45"/>
+      <c r="G79" s="45">
+        <v>1</v>
+      </c>
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
       <c r="J79" s="45"/>
@@ -8943,7 +8973,7 @@
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
       <c r="P79" s="56">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q79" s="57"/>
     </row>
@@ -8952,19 +8982,19 @@
         <v>169</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="E80" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="45">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
@@ -8976,7 +9006,7 @@
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
       <c r="P80" s="56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q80" s="57"/>
     </row>
@@ -8985,18 +9015,20 @@
         <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F81" s="45"/>
+        <v>234</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="45">
+        <v>255</v>
+      </c>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
@@ -9007,7 +9039,7 @@
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q81" s="57"/>
     </row>
@@ -9016,20 +9048,18 @@
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="45">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F82" s="45"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
@@ -9040,7 +9070,7 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="56">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q82" s="57"/>
     </row>
@@ -9049,18 +9079,20 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E83" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="F83" s="45">
+        <v>255</v>
+      </c>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
@@ -9071,7 +9103,7 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="56">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q83" s="57"/>
     </row>
@@ -9080,20 +9112,18 @@
         <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="E84" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="45">
         <v>50</v>
       </c>
+      <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
@@ -9104,7 +9134,7 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="56">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q84" s="57"/>
     </row>
@@ -9113,33 +9143,66 @@
         <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="45"/>
+        <v>171</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="45">
+        <v>50</v>
+      </c>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
       <c r="I85" s="45"/>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
-      <c r="M85" s="45">
-        <v>1</v>
-      </c>
+      <c r="M85" s="45"/>
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="56">
+        <v>79</v>
+      </c>
+      <c r="Q85" s="57"/>
+    </row>
+    <row r="86" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45">
+        <v>1</v>
+      </c>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="56">
         <v>80</v>
       </c>
-      <c r="Q85" s="57"/>
+      <c r="Q86" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9299,13 +9362,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="E6" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="H6" t="s">
         <v>188</v>
@@ -9322,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="D7" t="s">
         <v>395</v>
@@ -9345,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D8" t="s">
         <v>396</v>
@@ -9435,7 +9498,7 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>415</v>
@@ -9460,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D13" t="s">
         <v>417</v>
@@ -9483,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D14" t="s">
         <v>418</v>
@@ -9506,7 +9569,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D15" t="s">
         <v>419</v>
@@ -9529,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D16" t="s">
         <v>423</v>
@@ -9552,7 +9615,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D17" t="s">
         <v>424</v>
@@ -9575,7 +9638,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D18" t="s">
         <v>425</v>
@@ -9596,7 +9659,7 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>426</v>
@@ -9711,10 +9774,10 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>427</v>
@@ -9736,13 +9799,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>558</v>
+      </c>
+      <c r="D25" t="s">
+        <v>559</v>
+      </c>
+      <c r="E25" t="s">
         <v>560</v>
-      </c>
-      <c r="D25" t="s">
-        <v>561</v>
-      </c>
-      <c r="E25" t="s">
-        <v>562</v>
       </c>
       <c r="H25" t="s">
         <v>188</v>
@@ -9759,13 +9822,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D26" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H26" t="s">
         <v>188</v>
@@ -9782,13 +9845,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E27" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H27" t="s">
         <v>188</v>
@@ -9805,13 +9868,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D28" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E28" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H28" t="s">
         <v>188</v>
@@ -9828,13 +9891,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>506</v>
+      </c>
+      <c r="D29" t="s">
+        <v>507</v>
+      </c>
+      <c r="E29" t="s">
         <v>508</v>
-      </c>
-      <c r="D29" t="s">
-        <v>509</v>
-      </c>
-      <c r="E29" t="s">
-        <v>510</v>
       </c>
       <c r="H29" t="s">
         <v>188</v>
@@ -9851,13 +9914,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>509</v>
+      </c>
+      <c r="D30" t="s">
+        <v>510</v>
+      </c>
+      <c r="E30" t="s">
         <v>511</v>
-      </c>
-      <c r="D30" t="s">
-        <v>512</v>
-      </c>
-      <c r="E30" t="s">
-        <v>513</v>
       </c>
       <c r="H30" t="s">
         <v>188</v>
@@ -9874,13 +9937,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>512</v>
+      </c>
+      <c r="D31" t="s">
+        <v>513</v>
+      </c>
+      <c r="E31" t="s">
         <v>514</v>
-      </c>
-      <c r="D31" t="s">
-        <v>515</v>
-      </c>
-      <c r="E31" t="s">
-        <v>516</v>
       </c>
       <c r="H31" t="s">
         <v>188</v>
@@ -9897,13 +9960,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="E32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H32" s="99" t="s">
         <v>188</v>
@@ -9920,13 +9983,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E33" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="H33" s="99" t="s">
         <v>188</v>
@@ -9943,13 +10006,13 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>547</v>
+      </c>
+      <c r="D34" t="s">
+        <v>548</v>
+      </c>
+      <c r="E34" t="s">
         <v>549</v>
-      </c>
-      <c r="D34" t="s">
-        <v>550</v>
-      </c>
-      <c r="E34" t="s">
-        <v>551</v>
       </c>
       <c r="H34" s="99" t="s">
         <v>188</v>
@@ -9966,13 +10029,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>533</v>
+      </c>
+      <c r="D35" t="s">
+        <v>534</v>
+      </c>
+      <c r="E35" t="s">
         <v>535</v>
-      </c>
-      <c r="D35" t="s">
-        <v>536</v>
-      </c>
-      <c r="E35" t="s">
-        <v>537</v>
       </c>
       <c r="H35" s="99" t="s">
         <v>188</v>
@@ -9989,13 +10052,13 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>520</v>
+      </c>
+      <c r="D36" t="s">
         <v>522</v>
       </c>
-      <c r="D36" t="s">
-        <v>524</v>
-      </c>
       <c r="E36" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H36" s="99" t="s">
         <v>188</v>
@@ -10012,13 +10075,13 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="D37" t="s">
         <v>402</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="H37" s="99" t="s">
         <v>188</v>
@@ -10035,13 +10098,13 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>536</v>
+      </c>
+      <c r="D38" t="s">
+        <v>537</v>
+      </c>
+      <c r="E38" t="s">
         <v>538</v>
-      </c>
-      <c r="D38" t="s">
-        <v>539</v>
-      </c>
-      <c r="E38" t="s">
-        <v>540</v>
       </c>
       <c r="H38" s="99" t="s">
         <v>188</v>
@@ -10562,7 +10625,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
@@ -11123,11 +11186,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11421,11 +11484,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -12021,7 +12084,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12330,7 +12393,7 @@
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12518,10 +12581,10 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13484,7 +13547,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13518,7 +13581,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -13552,7 +13615,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -13586,7 +13649,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -13620,7 +13683,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -13654,7 +13717,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -14286,7 +14349,7 @@
         <v>168</v>
       </c>
       <c r="E50" s="103" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="F50" s="102">
         <v>1</v>
@@ -14319,7 +14382,7 @@
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14352,7 +14415,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903592B1-D7B0-4941-896B-1DC370194514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E216DD-384A-804F-811E-555B7A06A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="591">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
   <si>
     <t>status</t>
   </si>
@@ -1693,9 +1693,6 @@
     <t>Trang quản lý chỉ đạo theo từng đơn vị (lọc ra từng chỉ đạo theo từng đơn vị)</t>
   </si>
   <si>
-    <t>[21,22,23,24,25]</t>
-  </si>
-  <si>
     <t>report</t>
   </si>
   <si>
@@ -1786,15 +1783,9 @@
     <t>Trạng thái hiệu lực của menu này</t>
   </si>
   <si>
-    <t>ion-android-checkbox-outline</t>
-  </si>
-  <si>
     <t>ion-document-text</t>
   </si>
   <si>
-    <t>ion-timer-outline</t>
-  </si>
-  <si>
     <t>Nhóm quản lý chỉ đạo lãnh đạo (chính)</t>
   </si>
   <si>
@@ -2120,6 +2111,39 @@
   </si>
   <si>
     <t>[1,11,12,13,14,15,16]</t>
+  </si>
+  <si>
+    <t>leader-direct-history</t>
+  </si>
+  <si>
+    <t>leader-direct-organization</t>
+  </si>
+  <si>
+    <t>ion-clock</t>
+  </si>
+  <si>
+    <t>[21,22,23,24]</t>
+  </si>
+  <si>
+    <t>leader-direct-mng</t>
+  </si>
+  <si>
+    <t>Tag</t>
+  </si>
+  <si>
+    <t>Menu Con</t>
+  </si>
+  <si>
+    <t>children</t>
+  </si>
+  <si>
+    <t>Cat con</t>
+  </si>
+  <si>
+    <t>Mảng chứa các Id con của thư mục này</t>
+  </si>
+  <si>
+    <t>ion-calendar</t>
   </si>
 </sst>
 </file>
@@ -3303,7 +3327,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3561,6 +3585,12 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -4931,7 +4961,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4952,7 +4982,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4969,16 +4999,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -4989,16 +5019,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>473</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>474</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="94" t="s">
         <v>475</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>476</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5019,8 +5049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5037,7 +5067,9 @@
     <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="85"/>
     <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.5" style="85"/>
+    <col min="13" max="13" width="14.33203125" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.1640625" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.5" style="85"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -5093,9 +5125,11 @@
         <v>370</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>461</v>
-      </c>
-      <c r="E2" s="91"/>
+        <v>460</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>370</v>
+      </c>
       <c r="F2" s="91" t="s">
         <v>375</v>
       </c>
@@ -5103,13 +5137,15 @@
         <v>371</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
+      <c r="M2" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N2" s="90">
         <v>1</v>
       </c>
@@ -5130,7 +5166,7 @@
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H3" s="86" t="s">
         <v>376</v>
@@ -5139,7 +5175,9 @@
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="86"/>
+      <c r="M3" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N3" s="86">
         <v>1</v>
       </c>
@@ -5160,7 +5198,7 @@
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H4" s="86" t="s">
         <v>377</v>
@@ -5169,7 +5207,9 @@
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-      <c r="M4" s="86"/>
+      <c r="M4" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N4" s="86">
         <v>1</v>
       </c>
@@ -5190,7 +5230,7 @@
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H5" s="86" t="s">
         <v>378</v>
@@ -5199,7 +5239,9 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
+      <c r="M5" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N5" s="86">
         <v>1</v>
       </c>
@@ -5220,7 +5262,7 @@
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H6" s="86" t="s">
         <v>380</v>
@@ -5229,7 +5271,9 @@
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
+      <c r="M6" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N6" s="86">
         <v>1</v>
       </c>
@@ -5250,7 +5294,7 @@
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H7" s="86" t="s">
         <v>382</v>
@@ -5259,7 +5303,9 @@
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
+      <c r="M7" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N7" s="86">
         <v>1</v>
       </c>
@@ -5280,7 +5326,7 @@
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H8" s="86" t="s">
         <v>387</v>
@@ -5289,7 +5335,9 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-      <c r="M8" s="86"/>
+      <c r="M8" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N8" s="86">
         <v>1</v>
       </c>
@@ -5303,23 +5351,27 @@
         <v>383</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>448</v>
-      </c>
-      <c r="E9" s="91"/>
+        <v>591</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>383</v>
+      </c>
       <c r="F9" s="91" t="s">
+        <v>598</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>461</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>479</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>462</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>482</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="90"/>
+      <c r="M9" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N9" s="90">
         <v>1</v>
       </c>
@@ -5340,7 +5392,7 @@
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H10" s="86" t="s">
         <v>444</v>
@@ -5349,7 +5401,9 @@
       <c r="J10" s="88"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
+      <c r="M10" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N10" s="86">
         <v>1</v>
       </c>
@@ -5366,11 +5420,11 @@
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>383</v>
+        <v>592</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H11" s="86" t="s">
         <v>445</v>
@@ -5379,7 +5433,9 @@
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-      <c r="M11" s="86"/>
+      <c r="M11" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N11" s="86">
         <v>1</v>
       </c>
@@ -5396,11 +5452,11 @@
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>385</v>
+        <v>588</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H12" s="86" t="s">
         <v>446</v>
@@ -5409,7 +5465,9 @@
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="86"/>
+      <c r="M12" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N12" s="86">
         <v>1</v>
       </c>
@@ -5426,11 +5484,11 @@
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>443</v>
+        <v>589</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H13" s="86" t="s">
         <v>447</v>
@@ -5439,7 +5497,9 @@
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
+      <c r="M13" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N13" s="86">
         <v>1</v>
       </c>
@@ -5450,26 +5510,30 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>451</v>
-      </c>
-      <c r="E14" s="91"/>
+        <v>450</v>
+      </c>
+      <c r="E14" s="91" t="s">
+        <v>448</v>
+      </c>
       <c r="F14" s="91" t="s">
+        <v>478</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>468</v>
+      </c>
+      <c r="H14" s="90" t="s">
         <v>480</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>469</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>483</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-      <c r="M14" s="90"/>
+      <c r="M14" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N14" s="90">
         <v>1</v>
       </c>
@@ -5482,24 +5546,26 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
+      <c r="M15" s="107" t="s">
+        <v>188</v>
+      </c>
       <c r="N15" s="86">
         <v>1</v>
       </c>
@@ -5510,26 +5576,28 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
+        <v>452</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>590</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>453</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>481</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>454</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
+      <c r="M16" s="106" t="s">
+        <v>188</v>
+      </c>
       <c r="N16" s="90">
         <v>1</v>
       </c>
@@ -5549,8 +5617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5581,7 +5649,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5607,7 +5675,7 @@
         <v>165</v>
       </c>
       <c r="B2" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" s="28" t="s">
         <v>109</v>
@@ -5616,7 +5684,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5634,7 +5702,7 @@
         <v>220</v>
       </c>
       <c r="B3" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>109</v>
@@ -5643,7 +5711,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5670,7 +5738,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5688,7 +5756,7 @@
         <v>167</v>
       </c>
       <c r="B5" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" s="32" t="s">
         <v>109</v>
@@ -5697,7 +5765,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5729,7 +5797,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5795,10 +5863,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -5815,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -6117,10 +6185,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6183,7 +6251,7 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -6197,7 +6265,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -6225,7 +6293,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -6239,7 +6307,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
@@ -6266,6 +6334,9 @@
       <c r="B10" t="s">
         <v>155</v>
       </c>
+      <c r="C10" t="s">
+        <v>593</v>
+      </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
@@ -6277,47 +6348,10 @@
       <c r="B11" t="s">
         <v>156</v>
       </c>
+      <c r="C11" t="s">
+        <v>594</v>
+      </c>
       <c r="E11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="E14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="E16" t="s">
         <v>188</v>
       </c>
     </row>
@@ -6328,13 +6362,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q86"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6917,13 +6951,13 @@
         <v>221</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -7080,13 +7114,13 @@
         <v>221</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E22" s="51" t="s">
         <v>50</v>
@@ -7243,7 +7277,7 @@
         <v>278</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7272,13 +7306,13 @@
         <v>221</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7303,13 +7337,13 @@
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7334,13 +7368,13 @@
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7362,7 +7396,7 @@
     </row>
     <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B31" s="100" t="s">
         <v>18</v>
@@ -7371,7 +7405,7 @@
         <v>243</v>
       </c>
       <c r="D31" s="100" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E31" s="100" t="s">
         <v>97</v>
@@ -7391,16 +7425,16 @@
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>222</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>97</v>
@@ -7420,7 +7454,7 @@
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>227</v>
@@ -7451,7 +7485,7 @@
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B34" s="100" t="s">
         <v>228</v>
@@ -7482,16 +7516,16 @@
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
+        <v>560</v>
+      </c>
+      <c r="B35" s="100" t="s">
+        <v>561</v>
+      </c>
+      <c r="C35" s="100" t="s">
+        <v>562</v>
+      </c>
+      <c r="D35" s="100" t="s">
         <v>563</v>
-      </c>
-      <c r="B35" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="C35" s="100" t="s">
-        <v>565</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>566</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
@@ -7513,16 +7547,16 @@
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="E36" s="100" t="s">
         <v>97</v>
@@ -7542,7 +7576,7 @@
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B37" s="100" t="s">
         <v>205</v>
@@ -7571,7 +7605,7 @@
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B38" s="100" t="s">
         <v>231</v>
@@ -7600,7 +7634,7 @@
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>19</v>
@@ -7631,7 +7665,7 @@
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>45</v>
@@ -7660,7 +7694,7 @@
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>0</v>
@@ -7669,7 +7703,7 @@
         <v>236</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="E41" s="100" t="s">
         <v>97</v>
@@ -8191,7 +8225,7 @@
         <v>299</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
@@ -8256,10 +8290,10 @@
         <v>0</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>97</v>
@@ -8354,7 +8388,7 @@
         <v>238</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>50</v>
@@ -8454,10 +8488,10 @@
         <v>327</v>
       </c>
       <c r="C65" s="53" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="D65" s="53" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E65" s="53" t="s">
         <v>15</v>
@@ -8830,9 +8864,7 @@
       <c r="H76" s="45">
         <v>1</v>
       </c>
-      <c r="I76" s="45">
-        <v>1</v>
-      </c>
+      <c r="I76" s="45"/>
       <c r="J76" s="45">
         <v>1</v>
       </c>
@@ -8884,23 +8916,21 @@
         <v>169</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>242</v>
+        <v>595</v>
       </c>
       <c r="C78" s="44" t="s">
-        <v>244</v>
+        <v>596</v>
       </c>
       <c r="D78" s="63" t="s">
-        <v>303</v>
+        <v>597</v>
       </c>
       <c r="E78" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F78" s="45">
-        <v>50</v>
-      </c>
-      <c r="G78" s="45">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G78" s="45"/>
       <c r="H78" s="45"/>
       <c r="I78" s="45"/>
       <c r="J78" s="45"/>
@@ -8909,9 +8939,7 @@
       <c r="M78" s="45"/>
       <c r="N78" s="45"/>
       <c r="O78" s="45"/>
-      <c r="P78" s="56">
-        <v>73</v>
-      </c>
+      <c r="P78" s="56"/>
       <c r="Q78" s="57"/>
     </row>
     <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -8919,13 +8947,13 @@
         <v>169</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="C79" s="44" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D79" s="63" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="E79" s="63" t="s">
         <v>15</v>
@@ -8933,7 +8961,9 @@
       <c r="F79" s="45">
         <v>50</v>
       </c>
-      <c r="G79" s="45"/>
+      <c r="G79" s="45">
+        <v>1</v>
+      </c>
       <c r="H79" s="45"/>
       <c r="I79" s="45"/>
       <c r="J79" s="45"/>
@@ -8943,7 +8973,7 @@
       <c r="N79" s="45"/>
       <c r="O79" s="45"/>
       <c r="P79" s="56">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q79" s="57"/>
     </row>
@@ -8952,19 +8982,19 @@
         <v>169</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="E80" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F80" s="45">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G80" s="45"/>
       <c r="H80" s="45"/>
@@ -8976,7 +9006,7 @@
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
       <c r="P80" s="56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q80" s="57"/>
     </row>
@@ -8985,18 +9015,20 @@
         <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E81" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F81" s="45"/>
+        <v>234</v>
+      </c>
+      <c r="E81" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="45">
+        <v>255</v>
+      </c>
       <c r="G81" s="45"/>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
@@ -9007,7 +9039,7 @@
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q81" s="57"/>
     </row>
@@ -9016,20 +9048,18 @@
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="E82" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="45">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F82" s="45"/>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
@@ -9040,7 +9070,7 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="56">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q82" s="57"/>
     </row>
@@ -9049,18 +9079,20 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E83" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F83" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="F83" s="45">
+        <v>255</v>
+      </c>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
@@ -9071,7 +9103,7 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="56">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q83" s="57"/>
     </row>
@@ -9080,20 +9112,18 @@
         <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="E84" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="45">
         <v>50</v>
       </c>
+      <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
@@ -9104,7 +9134,7 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="56">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q84" s="57"/>
     </row>
@@ -9113,33 +9143,66 @@
         <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="45"/>
+        <v>171</v>
+      </c>
+      <c r="E85" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="45">
+        <v>50</v>
+      </c>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
       <c r="I85" s="45"/>
       <c r="J85" s="45"/>
       <c r="K85" s="45"/>
       <c r="L85" s="45"/>
-      <c r="M85" s="45">
-        <v>1</v>
-      </c>
+      <c r="M85" s="45"/>
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="56">
+        <v>79</v>
+      </c>
+      <c r="Q85" s="57"/>
+    </row>
+    <row r="86" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F86" s="45"/>
+      <c r="G86" s="45"/>
+      <c r="H86" s="45"/>
+      <c r="I86" s="45"/>
+      <c r="J86" s="45"/>
+      <c r="K86" s="45"/>
+      <c r="L86" s="45"/>
+      <c r="M86" s="45">
+        <v>1</v>
+      </c>
+      <c r="N86" s="45"/>
+      <c r="O86" s="45"/>
+      <c r="P86" s="56">
         <v>80</v>
       </c>
-      <c r="Q85" s="57"/>
+      <c r="Q86" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9299,13 +9362,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="H6" t="s">
         <v>188</v>
@@ -9322,7 +9385,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D7" t="s">
         <v>395</v>
@@ -9345,7 +9408,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="D8" t="s">
         <v>396</v>
@@ -9435,7 +9498,7 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D12" s="92" t="s">
         <v>415</v>
@@ -9460,7 +9523,7 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D13" t="s">
         <v>417</v>
@@ -9483,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="D14" t="s">
         <v>418</v>
@@ -9506,7 +9569,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D15" t="s">
         <v>419</v>
@@ -9529,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D16" t="s">
         <v>423</v>
@@ -9552,7 +9615,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D17" t="s">
         <v>424</v>
@@ -9575,7 +9638,7 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="D18" t="s">
         <v>425</v>
@@ -9596,7 +9659,7 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D19" s="92" t="s">
         <v>426</v>
@@ -9711,10 +9774,10 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E24" s="92" t="s">
         <v>427</v>
@@ -9736,13 +9799,13 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="D25" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="E25" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="H25" t="s">
         <v>188</v>
@@ -9759,13 +9822,13 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E26" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="H26" t="s">
         <v>188</v>
@@ -9782,13 +9845,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="D27" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E27" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="H27" t="s">
         <v>188</v>
@@ -9805,13 +9868,13 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E28" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="H28" t="s">
         <v>188</v>
@@ -9828,13 +9891,13 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D29" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E29" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H29" t="s">
         <v>188</v>
@@ -9851,13 +9914,13 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D30" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H30" t="s">
         <v>188</v>
@@ -9874,13 +9937,13 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D31" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E31" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="H31" t="s">
         <v>188</v>
@@ -9897,13 +9960,13 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D32" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E32" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H32" s="99" t="s">
         <v>188</v>
@@ -9920,13 +9983,13 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D33" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="E33" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H33" s="99" t="s">
         <v>188</v>
@@ -9943,13 +10006,13 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="D34" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E34" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H34" s="99" t="s">
         <v>188</v>
@@ -9966,13 +10029,13 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D35" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E35" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="H35" s="99" t="s">
         <v>188</v>
@@ -9989,13 +10052,13 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>519</v>
+      </c>
+      <c r="D36" t="s">
+        <v>521</v>
+      </c>
+      <c r="E36" t="s">
         <v>522</v>
-      </c>
-      <c r="D36" t="s">
-        <v>524</v>
-      </c>
-      <c r="E36" t="s">
-        <v>525</v>
       </c>
       <c r="H36" s="99" t="s">
         <v>188</v>
@@ -10012,13 +10075,13 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D37" t="s">
         <v>402</v>
       </c>
       <c r="E37" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H37" s="99" t="s">
         <v>188</v>
@@ -10035,13 +10098,13 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D38" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E38" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="H38" s="99" t="s">
         <v>188</v>
@@ -10562,7 +10625,7 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
@@ -11123,11 +11186,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11421,11 +11484,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -12021,7 +12084,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12330,7 +12393,7 @@
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12518,10 +12581,10 @@
   <dimension ref="A1:N52"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E30" sqref="E30"/>
+      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13484,7 +13547,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13518,7 +13581,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -13552,7 +13615,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -13586,7 +13649,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -13620,7 +13683,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -13654,7 +13717,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -14286,7 +14349,7 @@
         <v>168</v>
       </c>
       <c r="E50" s="103" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F50" s="102">
         <v>1</v>
@@ -14319,7 +14382,7 @@
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14352,7 +14415,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E216DD-384A-804F-811E-555B7A06A756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED7C3A-4773-5B46-A31D-12DC31625B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="622">
   <si>
     <t>status</t>
   </si>
@@ -1154,9 +1154,6 @@
   </si>
   <si>
     <t>Vai Trò Đơn Vị</t>
-  </si>
-  <si>
-    <t>Vai Trò của đơn vị đối với chỉ đạo này (lấy từ categories) -&gt; Nó là người đánh giá hay là người thực hiện</t>
   </si>
   <si>
     <r>
@@ -2144,6 +2141,78 @@
   </si>
   <si>
     <t>ion-calendar</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>geekblue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>#f50</t>
+  </si>
+  <si>
+    <t>#2db7f5</t>
+  </si>
+  <si>
+    <t>#87d068</t>
+  </si>
+  <si>
+    <t>#108ee9</t>
+  </si>
+  <si>
+    <t>#592929</t>
+  </si>
+  <si>
+    <t>direct_uuid</t>
+  </si>
+  <si>
+    <t>Mã UUID Chỉ Đạo Gốc</t>
+  </si>
+  <si>
+    <t>Mã UUID của chỉ đạo gốc cho vòng lặp này</t>
+  </si>
+  <si>
+    <t>Mã UUID Chỉ Đạo</t>
+  </si>
+  <si>
+    <t>Mã UUID của chỉ đạo giao cho đơn vị</t>
+  </si>
+  <si>
+    <t>Mã Vai Trò của đơn vị đối với chỉ đạo này (lấy từ categories) -&gt; Nó là người đánh giá hay là người thực hiện</t>
+  </si>
+  <si>
+    <t>Mã UUID của Chỉ Đạo</t>
   </si>
 </sst>
 </file>
@@ -4982,7 +5051,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4999,16 +5068,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -5019,16 +5088,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="94" t="s">
         <v>474</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>475</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5049,8 +5118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5122,22 +5191,22 @@
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="91" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>371</v>
-      </c>
       <c r="H2" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -5158,18 +5227,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
@@ -5190,18 +5259,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5222,18 +5291,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5254,18 +5323,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5286,18 +5355,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -5318,18 +5387,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -5348,22 +5417,22 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5384,18 +5453,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
@@ -5416,18 +5485,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -5448,18 +5517,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -5480,18 +5549,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -5510,22 +5579,22 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5546,18 +5615,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
@@ -5576,20 +5645,20 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>589</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>452</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>590</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>453</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -5640,7 +5709,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5649,7 +5718,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5684,7 +5753,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5711,7 +5780,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5738,7 +5807,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5765,7 +5834,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5794,25 +5863,25 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5823,42 +5892,48 @@
         <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>598</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" t="s">
+        <v>599</v>
+      </c>
+      <c r="I2" t="s">
         <v>188</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5866,19 +5941,22 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>600</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5886,19 +5964,22 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>601</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>188</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5906,19 +5987,22 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5">
+        <v>335</v>
+      </c>
+      <c r="D5" t="s">
+        <v>602</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>188</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5926,19 +6010,22 @@
         <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>603</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5946,19 +6033,22 @@
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>604</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>188</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5966,19 +6056,22 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
+        <v>605</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>188</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5986,19 +6079,22 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>188</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6006,19 +6102,22 @@
         <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10">
+        <v>341</v>
+      </c>
+      <c r="D10" t="s">
+        <v>607</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>188</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6026,19 +6125,22 @@
         <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>608</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6046,19 +6148,22 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>608</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>188</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6066,19 +6171,22 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>608</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6086,19 +6194,22 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>608</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>188</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6106,19 +6217,22 @@
         <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15">
+        <v>346</v>
+      </c>
+      <c r="D15" t="s">
+        <v>608</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>188</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6126,19 +6240,22 @@
         <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16">
+        <v>347</v>
+      </c>
+      <c r="D16" t="s">
+        <v>608</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>188</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6146,19 +6263,22 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E17">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>608</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>188</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6166,15 +6286,18 @@
         <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
+        <v>608</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>188</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1</v>
       </c>
     </row>
@@ -6203,10 +6326,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>358</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>359</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>19</v>
@@ -6251,7 +6374,7 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -6265,7 +6388,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -6293,7 +6416,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -6307,7 +6430,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
@@ -6318,7 +6441,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>246</v>
@@ -6335,7 +6458,7 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -6349,7 +6472,7 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -6362,13 +6485,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q86"/>
+  <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6431,10 +6554,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
@@ -6551,7 +6674,7 @@
         <v>257</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>262</v>
@@ -6674,7 +6797,7 @@
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
       <c r="P8" s="56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="57"/>
     </row>
@@ -6705,7 +6828,7 @@
       <c r="N9" s="55"/>
       <c r="O9" s="55"/>
       <c r="P9" s="56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="57"/>
     </row>
@@ -6720,7 +6843,7 @@
         <v>249</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>15</v>
@@ -6738,10 +6861,10 @@
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -6771,7 +6894,7 @@
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
       <c r="P11" s="56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="57"/>
     </row>
@@ -6804,7 +6927,7 @@
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
       <c r="P12" s="56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="57"/>
     </row>
@@ -6837,7 +6960,7 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
       <c r="P13" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="57"/>
     </row>
@@ -6876,7 +6999,7 @@
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
       <c r="P14" s="56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="57"/>
     </row>
@@ -6885,31 +7008,35 @@
         <v>221</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>251</v>
+        <v>550</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>224</v>
+        <v>551</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="58">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1</v>
+      </c>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="58">
+        <v>1</v>
+      </c>
       <c r="K15" s="58"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
       <c r="P15" s="56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="57"/>
     </row>
@@ -6918,19 +7045,19 @@
         <v>221</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="58">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
@@ -6942,7 +7069,7 @@
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
       <c r="P16" s="56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="57"/>
     </row>
@@ -6951,13 +7078,13 @@
         <v>221</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>482</v>
+        <v>297</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>481</v>
+        <v>252</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>483</v>
+        <v>253</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -6974,7 +7101,9 @@
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="56">
+        <v>16</v>
+      </c>
       <c r="Q17" s="57"/>
     </row>
     <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -6982,19 +7111,19 @@
         <v>221</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="58">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -7015,19 +7144,19 @@
         <v>221</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="58">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -7048,19 +7177,19 @@
         <v>221</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="58">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -7081,19 +7210,19 @@
         <v>221</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="58">
-        <v>1000</v>
+        <v>255</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
@@ -7114,18 +7243,20 @@
         <v>221</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>484</v>
+        <v>217</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>485</v>
+        <v>256</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>486</v>
+        <v>226</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="58">
+        <v>1000</v>
+      </c>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
@@ -7135,7 +7266,9 @@
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="56">
+        <v>21</v>
+      </c>
       <c r="Q22" s="57"/>
     </row>
     <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -7143,13 +7276,13 @@
         <v>221</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>237</v>
+        <v>484</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -7165,7 +7298,7 @@
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
       <c r="P23" s="56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="57"/>
     </row>
@@ -7174,20 +7307,18 @@
         <v>221</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
@@ -7198,7 +7329,7 @@
       <c r="N24" s="58"/>
       <c r="O24" s="58"/>
       <c r="P24" s="56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="57"/>
     </row>
@@ -7207,18 +7338,20 @@
         <v>221</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="58">
+        <v>255</v>
+      </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
@@ -7229,7 +7362,7 @@
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="57"/>
     </row>
@@ -7238,20 +7371,18 @@
         <v>221</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F26" s="58"/>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
@@ -7262,7 +7393,7 @@
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
       <c r="P26" s="56">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="57"/>
     </row>
@@ -7271,13 +7402,13 @@
         <v>221</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>493</v>
+        <v>177</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7291,13 +7422,11 @@
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
-      <c r="M27" s="58">
-        <v>1</v>
-      </c>
+      <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
       <c r="P27" s="56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="57"/>
     </row>
@@ -7306,13 +7435,13 @@
         <v>221</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>487</v>
+        <v>0</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>488</v>
+        <v>278</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7326,10 +7455,14 @@
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
       <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
+      <c r="M28" s="58">
+        <v>1</v>
+      </c>
       <c r="N28" s="58"/>
       <c r="O28" s="58"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="56">
+        <v>27</v>
+      </c>
       <c r="Q28" s="57"/>
     </row>
     <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -7337,19 +7470,19 @@
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="58">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -7360,7 +7493,9 @@
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="56">
+        <v>28</v>
+      </c>
       <c r="Q29" s="57"/>
     </row>
     <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
@@ -7368,13 +7503,13 @@
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7391,50 +7526,56 @@
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
       <c r="O30" s="58"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="56">
+        <v>29</v>
+      </c>
       <c r="Q30" s="57"/>
     </row>
     <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="B31" s="100" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="100" t="s">
-        <v>243</v>
-      </c>
-      <c r="D31" s="100" t="s">
-        <v>570</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="56"/>
+      <c r="A31" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="58">
+        <v>500</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="56">
+        <v>30</v>
+      </c>
       <c r="Q31" s="57"/>
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B32" s="100" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="C32" s="100" t="s">
-        <v>571</v>
+        <v>243</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>97</v>
@@ -7449,28 +7590,28 @@
       <c r="M32" s="101"/>
       <c r="N32" s="101"/>
       <c r="O32" s="101"/>
-      <c r="P32" s="56"/>
+      <c r="P32" s="56">
+        <v>31</v>
+      </c>
       <c r="Q32" s="57"/>
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>274</v>
+        <v>570</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>276</v>
+        <v>571</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="101">
-        <v>500</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F33" s="101"/>
       <c r="G33" s="101"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
@@ -7480,27 +7621,29 @@
       <c r="M33" s="101"/>
       <c r="N33" s="101"/>
       <c r="O33" s="101"/>
-      <c r="P33" s="56"/>
+      <c r="P33" s="56">
+        <v>32</v>
+      </c>
       <c r="Q33" s="57"/>
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>228</v>
+        <v>615</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>275</v>
+        <v>616</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>277</v>
+        <v>617</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="101">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G34" s="101"/>
       <c r="H34" s="101"/>
@@ -7511,27 +7654,29 @@
       <c r="M34" s="101"/>
       <c r="N34" s="101"/>
       <c r="O34" s="101"/>
-      <c r="P34" s="56"/>
+      <c r="P34" s="56">
+        <v>33</v>
+      </c>
       <c r="Q34" s="57"/>
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>561</v>
+        <v>227</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>562</v>
+        <v>274</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>563</v>
+        <v>276</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="101">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
@@ -7542,26 +7687,30 @@
       <c r="M35" s="101"/>
       <c r="N35" s="101"/>
       <c r="O35" s="101"/>
-      <c r="P35" s="56"/>
+      <c r="P35" s="56">
+        <v>34</v>
+      </c>
       <c r="Q35" s="57"/>
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>566</v>
+        <v>228</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>564</v>
+        <v>275</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>565</v>
+        <v>277</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="101">
+        <v>500</v>
+      </c>
       <c r="G36" s="101"/>
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
@@ -7571,26 +7720,30 @@
       <c r="M36" s="101"/>
       <c r="N36" s="101"/>
       <c r="O36" s="101"/>
-      <c r="P36" s="56"/>
+      <c r="P36" s="56">
+        <v>35</v>
+      </c>
       <c r="Q36" s="57"/>
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37" s="100" t="s">
         <v>560</v>
       </c>
-      <c r="B37" s="100" t="s">
-        <v>205</v>
-      </c>
       <c r="C37" s="100" t="s">
-        <v>237</v>
+        <v>561</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>132</v>
+        <v>562</v>
       </c>
       <c r="E37" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F37" s="101">
+        <v>255</v>
+      </c>
       <c r="G37" s="101"/>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
@@ -7600,24 +7753,26 @@
       <c r="M37" s="101"/>
       <c r="N37" s="101"/>
       <c r="O37" s="101"/>
-      <c r="P37" s="56"/>
+      <c r="P37" s="56">
+        <v>36</v>
+      </c>
       <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>231</v>
+        <v>565</v>
       </c>
       <c r="C38" s="100" t="s">
-        <v>249</v>
+        <v>563</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>297</v>
+        <v>564</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="101"/>
@@ -7629,28 +7784,28 @@
       <c r="M38" s="101"/>
       <c r="N38" s="101"/>
       <c r="O38" s="101"/>
-      <c r="P38" s="56"/>
+      <c r="P38" s="56">
+        <v>37</v>
+      </c>
       <c r="Q38" s="57"/>
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="101">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F39" s="101"/>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
@@ -7660,21 +7815,23 @@
       <c r="M39" s="101"/>
       <c r="N39" s="101"/>
       <c r="O39" s="101"/>
-      <c r="P39" s="56"/>
+      <c r="P39" s="56">
+        <v>38</v>
+      </c>
       <c r="Q39" s="57"/>
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="C40" s="100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="E40" s="100" t="s">
         <v>50</v>
@@ -7689,26 +7846,30 @@
       <c r="M40" s="101"/>
       <c r="N40" s="101"/>
       <c r="O40" s="101"/>
-      <c r="P40" s="56"/>
+      <c r="P40" s="56">
+        <v>39</v>
+      </c>
       <c r="Q40" s="57"/>
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>567</v>
+        <v>176</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F41" s="101">
+        <v>255</v>
+      </c>
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
@@ -7718,103 +7879,101 @@
       <c r="M41" s="101"/>
       <c r="N41" s="101"/>
       <c r="O41" s="101"/>
-      <c r="P41" s="56"/>
+      <c r="P41" s="56">
+        <v>40</v>
+      </c>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
+    <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
       <c r="P42" s="56">
-        <v>26</v>
-      </c>
-      <c r="Q42" s="59"/>
-    </row>
-    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="Q42" s="57"/>
+    </row>
+    <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>566</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
       <c r="P43" s="56">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="59"/>
+        <v>42</v>
+      </c>
+      <c r="Q43" s="57"/>
     </row>
     <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="55">
-        <v>50</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F44" s="55"/>
       <c r="G44" s="55"/>
       <c r="H44" s="55"/>
       <c r="I44" s="55"/>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
-      <c r="L44" s="60" t="s">
-        <v>218</v>
-      </c>
+      <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
       <c r="O44" s="55"/>
       <c r="P44" s="56">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="59"/>
     </row>
@@ -7823,27 +7982,29 @@
         <v>280</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="50"/>
+        <v>366</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
-      <c r="L45" s="61"/>
+      <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
       <c r="O45" s="55"/>
       <c r="P45" s="56">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="59"/>
     </row>
@@ -7852,19 +8013,19 @@
         <v>280</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>229</v>
+        <v>615</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>254</v>
+        <v>618</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>288</v>
+        <v>619</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="55">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
@@ -7876,7 +8037,7 @@
       <c r="N46" s="55"/>
       <c r="O46" s="55"/>
       <c r="P46" s="56">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="59"/>
     </row>
@@ -7885,31 +8046,31 @@
         <v>280</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="55">
-        <v>255</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F47" s="55"/>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="L47" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
       <c r="O47" s="55"/>
       <c r="P47" s="56">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="59"/>
     </row>
@@ -7918,16 +8079,16 @@
         <v>280</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>240</v>
+        <v>620</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F48" s="55"/>
       <c r="G48" s="55"/>
@@ -7935,12 +8096,12 @@
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
       <c r="O48" s="55"/>
       <c r="P48" s="56">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="59"/>
     </row>
@@ -7949,19 +8110,19 @@
         <v>280</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="55">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
@@ -7973,7 +8134,7 @@
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
       <c r="P49" s="56">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="59"/>
     </row>
@@ -7982,18 +8143,20 @@
         <v>280</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="F50" s="55">
+        <v>255</v>
+      </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
@@ -8004,7 +8167,7 @@
       <c r="N50" s="55"/>
       <c r="O50" s="55"/>
       <c r="P50" s="56">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q50" s="59"/>
     </row>
@@ -8013,20 +8176,18 @@
         <v>280</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>177</v>
+        <v>240</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F51" s="55">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F51" s="55"/>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -8037,147 +8198,143 @@
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
       <c r="P51" s="56">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46">
-        <v>1</v>
-      </c>
-      <c r="H52" s="46">
-        <v>1</v>
-      </c>
-      <c r="I52" s="46">
-        <v>1</v>
-      </c>
-      <c r="J52" s="46">
-        <v>1</v>
-      </c>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
+    <row r="52" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="55">
+        <v>255</v>
+      </c>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
       <c r="P52" s="56">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="57"/>
-    </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46">
-        <v>1</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="Q52" s="59"/>
+    </row>
+    <row r="53" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F53" s="55"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
       <c r="P53" s="56">
-        <v>38</v>
-      </c>
-      <c r="Q53" s="57"/>
-    </row>
-    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46">
-        <v>1</v>
-      </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
+        <v>52</v>
+      </c>
+      <c r="Q53" s="59"/>
+    </row>
+    <row r="54" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="55">
+        <v>255</v>
+      </c>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
       <c r="P54" s="56">
-        <v>39</v>
-      </c>
-      <c r="Q54" s="57"/>
+        <v>53</v>
+      </c>
+      <c r="Q54" s="59"/>
     </row>
     <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B55" s="52" t="s">
-        <v>285</v>
+        <v>18</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>286</v>
+        <v>243</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>302</v>
+        <v>179</v>
       </c>
       <c r="E55" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F55" s="46">
-        <v>255</v>
-      </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46">
+        <v>1</v>
+      </c>
+      <c r="H55" s="46">
+        <v>1</v>
+      </c>
+      <c r="I55" s="46">
+        <v>1</v>
+      </c>
+      <c r="J55" s="46">
+        <v>1</v>
+      </c>
       <c r="K55" s="46"/>
-      <c r="L55" s="60"/>
+      <c r="L55" s="46"/>
       <c r="M55" s="46"/>
       <c r="N55" s="46"/>
       <c r="O55" s="46"/>
       <c r="P55" s="56">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="Q55" s="57"/>
     </row>
@@ -8186,52 +8343,54 @@
         <v>279</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>4</v>
+        <v>222</v>
       </c>
       <c r="C56" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="D56" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D56" s="52" t="s">
-        <v>233</v>
-      </c>
       <c r="E56" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G56" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46">
+        <v>1</v>
+      </c>
       <c r="H56" s="46"/>
       <c r="I56" s="46"/>
       <c r="J56" s="46"/>
       <c r="K56" s="46"/>
-      <c r="L56" s="60"/>
+      <c r="L56" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
       <c r="O56" s="46"/>
       <c r="P56" s="56">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>298</v>
+        <v>615</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="98" t="s">
-        <v>490</v>
+        <v>618</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>621</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F57" s="46">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G57" s="46"/>
       <c r="H57" s="46"/>
@@ -8243,32 +8402,30 @@
       <c r="N57" s="46"/>
       <c r="O57" s="46"/>
       <c r="P57" s="56">
-        <v>42</v>
-      </c>
-      <c r="Q57" s="57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+      <c r="Q57" s="57"/>
+    </row>
+    <row r="58" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F58" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G58" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F58" s="46"/>
+      <c r="G58" s="46">
+        <v>1</v>
+      </c>
       <c r="H58" s="46"/>
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
@@ -8278,7 +8435,7 @@
       <c r="N58" s="46"/>
       <c r="O58" s="46"/>
       <c r="P58" s="56">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q58" s="57"/>
     </row>
@@ -8287,18 +8444,20 @@
         <v>279</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>491</v>
+        <v>286</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>524</v>
+        <v>301</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F59" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F59" s="46">
+        <v>255</v>
+      </c>
       <c r="G59" s="46"/>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
@@ -8309,7 +8468,7 @@
       <c r="N59" s="46"/>
       <c r="O59" s="46"/>
       <c r="P59" s="56">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="Q59" s="57"/>
     </row>
@@ -8318,50 +8477,52 @@
         <v>279</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>132</v>
+        <v>233</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F60" s="46">
+        <v>2000</v>
+      </c>
       <c r="G60" s="46"/>
       <c r="H60" s="46"/>
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
+      <c r="L60" s="60"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
       <c r="O60" s="46"/>
       <c r="P60" s="56">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>231</v>
+        <v>297</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>291</v>
-      </c>
-      <c r="D61" s="52" t="s">
-        <v>232</v>
+        <v>298</v>
+      </c>
+      <c r="D61" s="98" t="s">
+        <v>489</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="46">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G61" s="46"/>
       <c r="H61" s="46"/>
@@ -8373,244 +8534,240 @@
       <c r="N61" s="46"/>
       <c r="O61" s="46"/>
       <c r="P61" s="56">
-        <v>46</v>
-      </c>
-      <c r="Q61" s="57"/>
-    </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="Q61" s="57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>19</v>
+        <v>217</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>492</v>
+        <v>303</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F62" s="46">
+        <v>2000</v>
+      </c>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
+      <c r="L62" s="60"/>
       <c r="M62" s="46"/>
       <c r="N62" s="46"/>
       <c r="O62" s="46"/>
       <c r="P62" s="56">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="Q62" s="57"/>
     </row>
     <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65" t="s">
+      <c r="A63" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F63" s="46"/>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="56">
+        <v>62</v>
+      </c>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="46"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="56">
+        <v>63</v>
+      </c>
+      <c r="Q64" s="57"/>
+    </row>
+    <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="46">
+        <v>50</v>
+      </c>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="60"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="56">
+        <v>64</v>
+      </c>
+      <c r="Q65" s="57"/>
+    </row>
+    <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F66" s="46"/>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="46"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="56">
+        <v>65</v>
+      </c>
+      <c r="Q66" s="57"/>
+    </row>
+    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C67" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D67" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E67" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F67" s="48">
         <v>255</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="56">
-        <v>48</v>
-      </c>
-      <c r="Q63" s="57"/>
-    </row>
-    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62">
-        <v>1</v>
-      </c>
-      <c r="H64" s="62">
-        <v>1</v>
-      </c>
-      <c r="I64" s="62">
-        <v>1</v>
-      </c>
-      <c r="J64" s="62">
-        <v>1</v>
-      </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="56">
-        <v>59</v>
-      </c>
-      <c r="Q64" s="59"/>
-    </row>
-    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>551</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>552</v>
-      </c>
-      <c r="E65" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="62">
-        <v>50</v>
-      </c>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="56">
-        <v>60</v>
-      </c>
-      <c r="Q65" s="59"/>
-    </row>
-    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="62">
-        <v>255</v>
-      </c>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="56">
-        <v>61</v>
-      </c>
-      <c r="Q66" s="59"/>
-    </row>
-    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="62">
-        <v>255</v>
-      </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
+      <c r="G67" s="48"/>
+      <c r="H67" s="48"/>
+      <c r="I67" s="48"/>
+      <c r="J67" s="48"/>
+      <c r="K67" s="48"/>
+      <c r="L67" s="48"/>
+      <c r="M67" s="48"/>
+      <c r="N67" s="48"/>
+      <c r="O67" s="48"/>
       <c r="P67" s="56">
-        <v>62</v>
-      </c>
-      <c r="Q67" s="59"/>
+        <v>66</v>
+      </c>
+      <c r="Q67" s="57"/>
     </row>
     <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B68" s="53" t="s">
-        <v>209</v>
+        <v>18</v>
       </c>
       <c r="C68" s="53" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D68" s="53" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E68" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="62">
-        <v>255</v>
-      </c>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="F68" s="62"/>
+      <c r="G68" s="62">
+        <v>1</v>
+      </c>
+      <c r="H68" s="62">
+        <v>1</v>
+      </c>
+      <c r="I68" s="62">
+        <v>1</v>
+      </c>
+      <c r="J68" s="62">
+        <v>1</v>
+      </c>
       <c r="K68" s="62"/>
       <c r="L68" s="62"/>
       <c r="M68" s="62"/>
       <c r="N68" s="62"/>
       <c r="O68" s="62"/>
       <c r="P68" s="56">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="Q68" s="59"/>
     </row>
@@ -8619,19 +8776,19 @@
         <v>217</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>210</v>
+        <v>326</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>250</v>
+        <v>550</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>213</v>
+        <v>551</v>
       </c>
       <c r="E69" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F69" s="62">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G69" s="62"/>
       <c r="H69" s="62"/>
@@ -8643,7 +8800,7 @@
       <c r="N69" s="62"/>
       <c r="O69" s="62"/>
       <c r="P69" s="56">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q69" s="59"/>
     </row>
@@ -8652,13 +8809,13 @@
         <v>217</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>178</v>
+        <v>297</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
@@ -8671,12 +8828,14 @@
       <c r="I70" s="62"/>
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
-      <c r="L70" s="62"/>
+      <c r="L70" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M70" s="62"/>
       <c r="N70" s="62"/>
       <c r="O70" s="62"/>
       <c r="P70" s="56">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="Q70" s="59"/>
     </row>
@@ -8685,18 +8844,20 @@
         <v>217</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>132</v>
+        <v>215</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F71" s="62">
+        <v>255</v>
+      </c>
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
@@ -8707,7 +8868,7 @@
       <c r="N71" s="62"/>
       <c r="O71" s="62"/>
       <c r="P71" s="56">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="Q71" s="59"/>
     </row>
@@ -8716,13 +8877,13 @@
         <v>217</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>15</v>
@@ -8740,7 +8901,7 @@
       <c r="N72" s="62"/>
       <c r="O72" s="62"/>
       <c r="P72" s="56">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="Q72" s="59"/>
     </row>
@@ -8749,18 +8910,20 @@
         <v>217</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>19</v>
+        <v>210</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F73" s="62">
+        <v>255</v>
+      </c>
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
@@ -8771,7 +8934,7 @@
       <c r="N73" s="62"/>
       <c r="O73" s="62"/>
       <c r="P73" s="56">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Q73" s="59"/>
     </row>
@@ -8780,19 +8943,19 @@
         <v>217</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>45</v>
+        <v>178</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="E74" s="53" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F74" s="62">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
@@ -8804,7 +8967,7 @@
       <c r="N74" s="62"/>
       <c r="O74" s="62"/>
       <c r="P74" s="56">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Q74" s="59"/>
     </row>
@@ -8813,16 +8976,16 @@
         <v>217</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>211</v>
+        <v>132</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F75" s="62"/>
       <c r="G75" s="62"/>
@@ -8831,182 +8994,178 @@
       <c r="J75" s="62"/>
       <c r="K75" s="62"/>
       <c r="L75" s="62"/>
-      <c r="M75" s="62">
-        <v>1</v>
-      </c>
+      <c r="M75" s="62"/>
       <c r="N75" s="62"/>
       <c r="O75" s="62"/>
       <c r="P75" s="56">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45">
-        <v>1</v>
-      </c>
-      <c r="H76" s="45">
-        <v>1</v>
-      </c>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45">
-        <v>1</v>
-      </c>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+    <row r="76" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="62">
+        <v>255</v>
+      </c>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+      <c r="O76" s="62"/>
       <c r="P76" s="56">
-        <v>71</v>
-      </c>
-      <c r="Q76" s="57"/>
-    </row>
-    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45">
-        <v>1</v>
-      </c>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+        <v>75</v>
+      </c>
+      <c r="Q76" s="59"/>
+    </row>
+    <row r="77" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="62"/>
       <c r="P77" s="56">
-        <v>72</v>
-      </c>
-      <c r="Q77" s="57"/>
-    </row>
-    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="D78" s="63" t="s">
-        <v>597</v>
-      </c>
-      <c r="E78" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="57"/>
-    </row>
-    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E79" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="45">
+        <v>76</v>
+      </c>
+      <c r="Q77" s="59"/>
+    </row>
+    <row r="78" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G79" s="45">
-        <v>1</v>
-      </c>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
+      <c r="F78" s="62">
+        <v>50</v>
+      </c>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="56">
+        <v>77</v>
+      </c>
+      <c r="Q78" s="59"/>
+    </row>
+    <row r="79" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" s="62"/>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62">
+        <v>1</v>
+      </c>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
       <c r="P79" s="56">
-        <v>73</v>
-      </c>
-      <c r="Q79" s="57"/>
+        <v>78</v>
+      </c>
+      <c r="Q79" s="59"/>
     </row>
     <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C80" s="44" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="D80" s="63" t="s">
-        <v>273</v>
+        <v>170</v>
       </c>
       <c r="E80" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="45">
-        <v>50</v>
-      </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="F80" s="45"/>
+      <c r="G80" s="45">
+        <v>1</v>
+      </c>
+      <c r="H80" s="45">
+        <v>1</v>
+      </c>
       <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
+      <c r="J80" s="45">
+        <v>1</v>
+      </c>
       <c r="K80" s="45"/>
       <c r="L80" s="45"/>
       <c r="M80" s="45"/>
       <c r="N80" s="45"/>
       <c r="O80" s="45"/>
       <c r="P80" s="56">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="Q80" s="57"/>
     </row>
@@ -9015,21 +9174,21 @@
         <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>245</v>
+        <v>412</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c r="E81" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="45">
-        <v>255</v>
-      </c>
-      <c r="G81" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45">
+        <v>1</v>
+      </c>
       <c r="H81" s="45"/>
       <c r="I81" s="45"/>
       <c r="J81" s="45"/>
@@ -9039,7 +9198,7 @@
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="56">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="Q81" s="57"/>
     </row>
@@ -9048,18 +9207,20 @@
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>205</v>
+        <v>594</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>237</v>
+        <v>595</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F82" s="45"/>
+        <v>596</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="45">
+        <v>2000</v>
+      </c>
       <c r="G82" s="45"/>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
@@ -9070,7 +9231,7 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="56">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="Q82" s="57"/>
     </row>
@@ -9079,21 +9240,23 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="E83" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="45">
-        <v>255</v>
-      </c>
-      <c r="G83" s="45"/>
+        <v>50</v>
+      </c>
+      <c r="G83" s="45">
+        <v>1</v>
+      </c>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
       <c r="J83" s="45"/>
@@ -9103,7 +9266,7 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="56">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="Q83" s="57"/>
     </row>
@@ -9112,18 +9275,20 @@
         <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="E84" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="45">
         <v>50</v>
       </c>
-      <c r="F84" s="45"/>
       <c r="G84" s="45"/>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
@@ -9134,7 +9299,7 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="56">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="Q84" s="57"/>
     </row>
@@ -9143,19 +9308,19 @@
         <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" s="64" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F85" s="45">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
@@ -9167,7 +9332,7 @@
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="56">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="Q85" s="57"/>
     </row>
@@ -9176,16 +9341,16 @@
         <v>169</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D86" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E86" s="63" t="s">
-        <v>17</v>
+        <v>132</v>
+      </c>
+      <c r="E86" s="64" t="s">
+        <v>50</v>
       </c>
       <c r="F86" s="45"/>
       <c r="G86" s="45"/>
@@ -9194,15 +9359,143 @@
       <c r="J86" s="45"/>
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
-      <c r="M86" s="45">
-        <v>1</v>
-      </c>
+      <c r="M86" s="45"/>
       <c r="N86" s="45"/>
       <c r="O86" s="45"/>
       <c r="P86" s="56">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q86" s="57"/>
+    </row>
+    <row r="87" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="45">
+        <v>255</v>
+      </c>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="56">
+        <v>86</v>
+      </c>
+      <c r="Q87" s="57"/>
+    </row>
+    <row r="88" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F88" s="45"/>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="56">
+        <v>87</v>
+      </c>
+      <c r="Q88" s="57"/>
+    </row>
+    <row r="89" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="45">
+        <v>50</v>
+      </c>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="56">
+        <v>88</v>
+      </c>
+      <c r="Q89" s="57"/>
+    </row>
+    <row r="90" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E90" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" s="45"/>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45">
+        <v>1</v>
+      </c>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="56">
+        <v>89</v>
+      </c>
+      <c r="Q90" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9215,10 +9508,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9229,11 +9522,12 @@
     <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9250,42 +9544,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="92">
         <v>1</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>389</v>
-      </c>
       <c r="E2" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="92"/>
+        <v>393</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>600</v>
+      </c>
       <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9293,22 +9593,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" t="s">
+        <v>601</v>
+      </c>
+      <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9316,22 +9619,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
         <v>392</v>
       </c>
-      <c r="D4" t="s">
-        <v>393</v>
-      </c>
       <c r="E4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" t="s">
+        <v>602</v>
+      </c>
+      <c r="I4" t="s">
         <v>188</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9339,22 +9645,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
         <v>401</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>402</v>
       </c>
-      <c r="E5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
+        <v>603</v>
+      </c>
+      <c r="I5" t="s">
         <v>188</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9362,22 +9671,25 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>543</v>
+      </c>
+      <c r="D6" t="s">
+        <v>520</v>
+      </c>
+      <c r="E6" t="s">
         <v>544</v>
       </c>
-      <c r="D6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" t="s">
-        <v>545</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="F6" t="s">
+        <v>604</v>
+      </c>
+      <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9385,22 +9697,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" t="s">
+        <v>605</v>
+      </c>
+      <c r="I7" t="s">
         <v>188</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9408,45 +9723,51 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="s">
+        <v>606</v>
+      </c>
+      <c r="I8" t="s">
         <v>188</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="92">
         <v>2</v>
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>405</v>
-      </c>
       <c r="E9" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="92"/>
+        <v>411</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>607</v>
+      </c>
       <c r="G9" s="92"/>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9454,22 +9775,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" t="s">
         <v>409</v>
       </c>
-      <c r="E10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
+        <v>605</v>
+      </c>
+      <c r="I10" t="s">
         <v>188</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9477,45 +9801,51 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
         <v>407</v>
       </c>
-      <c r="D11" t="s">
-        <v>408</v>
-      </c>
       <c r="E11" t="s">
-        <v>411</v>
-      </c>
-      <c r="H11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" t="s">
+        <v>601</v>
+      </c>
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="92">
         <v>3</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D12" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="92" t="s">
+        <v>600</v>
+      </c>
       <c r="G12" s="92"/>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="92"/>
+      <c r="I12" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9523,22 +9853,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
-      </c>
-      <c r="H13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>601</v>
+      </c>
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9546,22 +9879,25 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>602</v>
+      </c>
+      <c r="I14" t="s">
         <v>188</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9569,22 +9905,25 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
-      </c>
-      <c r="H15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" t="s">
+        <v>603</v>
+      </c>
+      <c r="I15" t="s">
         <v>188</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9592,22 +9931,25 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
-      </c>
-      <c r="H16" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" t="s">
+        <v>604</v>
+      </c>
+      <c r="I16" t="s">
         <v>188</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9615,22 +9957,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
-      </c>
-      <c r="H17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" t="s">
+        <v>605</v>
+      </c>
+      <c r="I17" t="s">
         <v>188</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9638,45 +9983,51 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
-      </c>
-      <c r="H18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s">
+        <v>606</v>
+      </c>
+      <c r="I18" t="s">
         <v>188</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="92">
         <v>4</v>
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D19" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="E19" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="F19" s="92"/>
+      <c r="F19" s="92" t="s">
+        <v>607</v>
+      </c>
       <c r="G19" s="92"/>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="92"/>
+      <c r="I19" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9684,22 +10035,25 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" t="s">
+        <v>605</v>
+      </c>
+      <c r="I20" t="s">
         <v>188</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9707,22 +10061,25 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
-      </c>
-      <c r="H21" t="s">
+        <v>428</v>
+      </c>
+      <c r="F21" t="s">
+        <v>601</v>
+      </c>
+      <c r="I21" t="s">
         <v>188</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9730,22 +10087,25 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
-      </c>
-      <c r="H22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" t="s">
+        <v>600</v>
+      </c>
+      <c r="I22" t="s">
         <v>188</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9753,45 +10113,51 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E23" t="s">
-        <v>431</v>
-      </c>
-      <c r="H23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" t="s">
+        <v>601</v>
+      </c>
+      <c r="I23" t="s">
         <v>188</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="92">
         <v>5</v>
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
+        <v>493</v>
+      </c>
+      <c r="D24" s="92" t="s">
         <v>494</v>
       </c>
-      <c r="D24" s="92" t="s">
-        <v>495</v>
-      </c>
       <c r="E24" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="92"/>
+        <v>426</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>602</v>
+      </c>
       <c r="G24" s="92"/>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="92"/>
+      <c r="I24" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9799,22 +10165,25 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D25" t="s">
         <v>557</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>558</v>
       </c>
-      <c r="E25" t="s">
-        <v>559</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s">
+        <v>603</v>
+      </c>
+      <c r="I25" t="s">
         <v>188</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9822,22 +10191,25 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" t="s">
+        <v>501</v>
+      </c>
+      <c r="E26" t="s">
         <v>496</v>
       </c>
-      <c r="D26" t="s">
-        <v>502</v>
-      </c>
-      <c r="E26" t="s">
-        <v>497</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="F26" t="s">
+        <v>604</v>
+      </c>
+      <c r="I26" t="s">
         <v>188</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9845,22 +10217,25 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
+        <v>497</v>
+      </c>
+      <c r="D27" t="s">
+        <v>502</v>
+      </c>
+      <c r="E27" t="s">
         <v>498</v>
       </c>
-      <c r="D27" t="s">
-        <v>503</v>
-      </c>
-      <c r="E27" t="s">
-        <v>499</v>
-      </c>
-      <c r="H27" t="s">
+      <c r="F27" t="s">
+        <v>605</v>
+      </c>
+      <c r="I27" t="s">
         <v>188</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9868,22 +10243,25 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
+        <v>499</v>
+      </c>
+      <c r="D28" t="s">
+        <v>503</v>
+      </c>
+      <c r="E28" t="s">
         <v>500</v>
       </c>
-      <c r="D28" t="s">
-        <v>504</v>
-      </c>
-      <c r="E28" t="s">
-        <v>501</v>
-      </c>
-      <c r="H28" t="s">
+      <c r="F28" t="s">
+        <v>606</v>
+      </c>
+      <c r="I28" t="s">
         <v>188</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9891,22 +10269,25 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" t="s">
         <v>505</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>506</v>
       </c>
-      <c r="E29" t="s">
-        <v>507</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" t="s">
+        <v>607</v>
+      </c>
+      <c r="I29" t="s">
         <v>188</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9914,22 +10295,25 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" t="s">
         <v>508</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>509</v>
       </c>
-      <c r="E30" t="s">
-        <v>510</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F30" t="s">
+        <v>605</v>
+      </c>
+      <c r="I30" t="s">
         <v>188</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9937,22 +10321,25 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" t="s">
         <v>511</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>512</v>
       </c>
-      <c r="E31" t="s">
-        <v>513</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F31" t="s">
+        <v>601</v>
+      </c>
+      <c r="I31" t="s">
         <v>188</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9960,22 +10347,25 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E32" t="s">
-        <v>514</v>
-      </c>
-      <c r="H32" s="99" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" t="s">
+        <v>608</v>
+      </c>
+      <c r="I32" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I32" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9983,22 +10373,25 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D33" t="s">
+        <v>548</v>
+      </c>
+      <c r="E33" t="s">
         <v>549</v>
       </c>
-      <c r="E33" t="s">
-        <v>550</v>
-      </c>
-      <c r="H33" s="99" t="s">
+      <c r="F33" t="s">
+        <v>609</v>
+      </c>
+      <c r="I33" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>510</v>
       </c>
@@ -10006,22 +10399,25 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>545</v>
+      </c>
+      <c r="D34" t="s">
         <v>546</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>547</v>
       </c>
-      <c r="E34" t="s">
-        <v>548</v>
-      </c>
-      <c r="H34" s="99" t="s">
+      <c r="F34" t="s">
+        <v>610</v>
+      </c>
+      <c r="I34" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I34" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>511</v>
       </c>
@@ -10029,22 +10425,25 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35" t="s">
         <v>532</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>533</v>
       </c>
-      <c r="E35" t="s">
-        <v>534</v>
-      </c>
-      <c r="H35" s="99" t="s">
+      <c r="F35" t="s">
+        <v>611</v>
+      </c>
+      <c r="I35" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>512</v>
       </c>
@@ -10052,22 +10451,25 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D36" t="s">
+        <v>520</v>
+      </c>
+      <c r="E36" t="s">
         <v>521</v>
       </c>
-      <c r="E36" t="s">
-        <v>522</v>
-      </c>
-      <c r="H36" s="99" t="s">
+      <c r="F36" t="s">
+        <v>612</v>
+      </c>
+      <c r="I36" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>513</v>
       </c>
@@ -10075,22 +10477,25 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>523</v>
-      </c>
-      <c r="H37" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="F37" t="s">
+        <v>613</v>
+      </c>
+      <c r="I37" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>514</v>
       </c>
@@ -10098,18 +10503,21 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" t="s">
         <v>535</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>536</v>
       </c>
-      <c r="E38" t="s">
-        <v>537</v>
-      </c>
-      <c r="H38" s="99" t="s">
+      <c r="F38" t="s">
+        <v>614</v>
+      </c>
+      <c r="I38" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="99">
+      <c r="J38" s="99">
         <v>1</v>
       </c>
     </row>
@@ -10150,7 +10558,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>186</v>
@@ -10182,10 +10590,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -10274,16 +10682,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -10302,16 +10710,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
@@ -10330,16 +10738,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -10576,7 +10984,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>217</v>
@@ -10611,7 +11019,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -10625,10 +11033,10 @@
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10692,10 +11100,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
@@ -11186,11 +11594,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11304,7 +11712,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -11396,11 +11804,11 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -11484,11 +11892,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -11636,7 +12044,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -11848,7 +12256,7 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -12026,7 +12434,7 @@
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -12054,7 +12462,7 @@
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -12084,7 +12492,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12182,7 +12590,7 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -12213,7 +12621,7 @@
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -12386,14 +12794,14 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12422,14 +12830,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="68" t="s">
         <v>357</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>358</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
@@ -12458,14 +12866,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>15</v>
@@ -12488,14 +12896,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B61" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>50</v>
@@ -12516,14 +12924,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>15</v>
@@ -12657,7 +13065,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>53</v>
@@ -12695,7 +13103,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>53</v>
@@ -12733,7 +13141,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>53</v>
@@ -12771,7 +13179,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -12809,7 +13217,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -12847,7 +13255,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -12885,7 +13293,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -12923,7 +13331,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -12961,7 +13369,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>53</v>
@@ -12999,7 +13407,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>53</v>
@@ -13037,7 +13445,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>53</v>
@@ -13075,7 +13483,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>53</v>
@@ -13113,7 +13521,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>53</v>
@@ -13151,7 +13559,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>53</v>
@@ -13189,7 +13597,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>53</v>
@@ -13227,7 +13635,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>53</v>
@@ -13265,7 +13673,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>53</v>
@@ -13303,13 +13711,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F19" s="68">
         <v>1</v>
@@ -13337,13 +13745,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="68">
         <v>1</v>
@@ -13371,13 +13779,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="68">
         <v>1</v>
@@ -13405,13 +13813,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="68">
         <v>1</v>
@@ -13439,13 +13847,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" s="68">
         <v>1</v>
@@ -13473,13 +13881,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F24" s="68">
         <v>1</v>
@@ -13507,13 +13915,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" s="68">
         <v>1</v>
@@ -13541,13 +13949,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13575,13 +13983,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -13609,13 +14017,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -13643,13 +14051,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -13677,13 +14085,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -13711,13 +14119,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -13745,13 +14153,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -13778,13 +14186,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -13811,13 +14219,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -13844,13 +14252,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -13877,13 +14285,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -13896,7 +14304,7 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36">
@@ -13912,13 +14320,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -13945,13 +14353,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -13978,13 +14386,13 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -14011,13 +14419,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -14030,7 +14438,7 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
@@ -14046,13 +14454,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -14079,13 +14487,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -14112,13 +14520,13 @@
         <v>22</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -14145,13 +14553,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="34">
         <v>1</v>
@@ -14178,13 +14586,13 @@
         <v>22</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="34">
         <v>1</v>
@@ -14211,13 +14619,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F46" s="34">
         <v>1</v>
@@ -14244,13 +14652,13 @@
         <v>22</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F47" s="34">
         <v>1</v>
@@ -14277,13 +14685,13 @@
         <v>22</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F48" s="34">
         <v>1</v>
@@ -14310,13 +14718,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="34">
         <v>1</v>
@@ -14343,13 +14751,13 @@
         <v>22</v>
       </c>
       <c r="C50" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D50" s="102" t="s">
         <v>168</v>
       </c>
       <c r="E50" s="103" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F50" s="102">
         <v>1</v>
@@ -14376,13 +14784,13 @@
         <v>22</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="102" t="s">
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14409,13 +14817,13 @@
         <v>22</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="102" t="s">
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ED7C3A-4773-5B46-A31D-12DC31625B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA593C4-55B2-AB4C-9E28-72B99F73F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="627">
   <si>
     <t>status</t>
   </si>
@@ -2068,12 +2068,6 @@
     <t>/get-direct-loop</t>
   </si>
   <si>
-    <t>/create-direct-loop</t>
-  </si>
-  <si>
-    <t>/update-direct-loop</t>
-  </si>
-  <si>
     <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131, 132,133,134,135,136,137,138,139,140]</t>
   </si>
   <si>
@@ -2213,6 +2207,27 @@
   </si>
   <si>
     <t>Mã UUID của Chỉ Đạo</t>
+  </si>
+  <si>
+    <t>/get-file</t>
+  </si>
+  <si>
+    <t>/get-attachments</t>
+  </si>
+  <si>
+    <t>/get-attachment-by-id</t>
+  </si>
+  <si>
+    <t>/get-attachment-by-ids</t>
+  </si>
+  <si>
+    <t>/create-menu</t>
+  </si>
+  <si>
+    <t>/update-menu</t>
+  </si>
+  <si>
+    <t>/get-direct-by-ids</t>
   </si>
 </sst>
 </file>
@@ -2372,7 +2387,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2481,6 +2496,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -3396,7 +3417,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3660,6 +3681,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -5068,13 +5101,13 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C2" s="97" t="s">
         <v>471</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E2" s="96" t="s">
         <v>470</v>
@@ -5088,7 +5121,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="C3" s="95" t="s">
         <v>472</v>
@@ -5420,13 +5453,13 @@
         <v>382</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E9" s="91" t="s">
         <v>382</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="G9" s="91" t="s">
         <v>460</v>
@@ -5489,7 +5522,7 @@
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
@@ -5521,7 +5554,7 @@
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
@@ -5553,7 +5586,7 @@
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
@@ -5652,7 +5685,7 @@
         <v>451</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="G16" s="91" t="s">
         <v>466</v>
@@ -5753,7 +5786,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5780,7 +5813,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5807,7 +5840,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5834,7 +5867,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5892,7 +5925,7 @@
         <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>180</v>
@@ -5924,7 +5957,7 @@
         <v>351</v>
       </c>
       <c r="D2" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="I2" t="s">
         <v>188</v>
@@ -5944,7 +5977,7 @@
         <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5967,7 +6000,7 @@
         <v>336</v>
       </c>
       <c r="D4" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5990,7 +6023,7 @@
         <v>335</v>
       </c>
       <c r="D5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6013,7 +6046,7 @@
         <v>335</v>
       </c>
       <c r="D6" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6036,7 +6069,7 @@
         <v>338</v>
       </c>
       <c r="D7" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6059,7 +6092,7 @@
         <v>339</v>
       </c>
       <c r="D8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6082,7 +6115,7 @@
         <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6105,7 +6138,7 @@
         <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6128,7 +6161,7 @@
         <v>343</v>
       </c>
       <c r="D11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6151,7 +6184,7 @@
         <v>342</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6174,7 +6207,7 @@
         <v>344</v>
       </c>
       <c r="D13" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6197,7 +6230,7 @@
         <v>345</v>
       </c>
       <c r="D14" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6220,7 +6253,7 @@
         <v>346</v>
       </c>
       <c r="D15" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6243,7 +6276,7 @@
         <v>347</v>
       </c>
       <c r="D16" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6266,7 +6299,7 @@
         <v>348</v>
       </c>
       <c r="D17" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6289,7 +6322,7 @@
         <v>349</v>
       </c>
       <c r="D18" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6458,7 +6491,7 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -6472,7 +6505,7 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -6487,8 +6520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q90"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C63" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
@@ -7631,13 +7664,13 @@
         <v>559</v>
       </c>
       <c r="B34" s="100" t="s">
+        <v>613</v>
+      </c>
+      <c r="C34" s="100" t="s">
+        <v>614</v>
+      </c>
+      <c r="D34" s="100" t="s">
         <v>615</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>616</v>
-      </c>
-      <c r="D34" s="100" t="s">
-        <v>617</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>15</v>
@@ -8013,13 +8046,13 @@
         <v>280</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
@@ -8085,7 +8118,7 @@
         <v>286</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>16</v>
@@ -8378,13 +8411,13 @@
         <v>279</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>15</v>
@@ -9207,13 +9240,13 @@
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
+        <v>592</v>
+      </c>
+      <c r="C82" s="44" t="s">
+        <v>593</v>
+      </c>
+      <c r="D82" s="63" t="s">
         <v>594</v>
-      </c>
-      <c r="C82" s="44" t="s">
-        <v>595</v>
-      </c>
-      <c r="D82" s="63" t="s">
-        <v>596</v>
       </c>
       <c r="E82" s="63" t="s">
         <v>15</v>
@@ -9544,7 +9577,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>205</v>
@@ -9574,7 +9607,7 @@
         <v>393</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -9602,7 +9635,7 @@
         <v>396</v>
       </c>
       <c r="F3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I3" t="s">
         <v>188</v>
@@ -9628,7 +9661,7 @@
         <v>397</v>
       </c>
       <c r="F4" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I4" t="s">
         <v>188</v>
@@ -9654,7 +9687,7 @@
         <v>402</v>
       </c>
       <c r="F5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I5" t="s">
         <v>188</v>
@@ -9680,7 +9713,7 @@
         <v>544</v>
       </c>
       <c r="F6" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I6" t="s">
         <v>188</v>
@@ -9706,7 +9739,7 @@
         <v>398</v>
       </c>
       <c r="F7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I7" t="s">
         <v>188</v>
@@ -9732,7 +9765,7 @@
         <v>399</v>
       </c>
       <c r="F8" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I8" t="s">
         <v>188</v>
@@ -9756,7 +9789,7 @@
         <v>411</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
@@ -9784,7 +9817,7 @@
         <v>409</v>
       </c>
       <c r="F10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I10" t="s">
         <v>188</v>
@@ -9810,7 +9843,7 @@
         <v>410</v>
       </c>
       <c r="F11" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I11" t="s">
         <v>188</v>
@@ -9834,7 +9867,7 @@
         <v>415</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -9862,7 +9895,7 @@
         <v>419</v>
       </c>
       <c r="F13" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I13" t="s">
         <v>188</v>
@@ -9888,7 +9921,7 @@
         <v>420</v>
       </c>
       <c r="F14" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="I14" t="s">
         <v>188</v>
@@ -9914,7 +9947,7 @@
         <v>421</v>
       </c>
       <c r="F15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I15" t="s">
         <v>188</v>
@@ -9940,7 +9973,7 @@
         <v>422</v>
       </c>
       <c r="F16" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I16" t="s">
         <v>188</v>
@@ -9966,7 +9999,7 @@
         <v>423</v>
       </c>
       <c r="F17" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I17" t="s">
         <v>188</v>
@@ -9992,7 +10025,7 @@
         <v>424</v>
       </c>
       <c r="F18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I18" t="s">
         <v>188</v>
@@ -10016,7 +10049,7 @@
         <v>426</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G19" s="92"/>
       <c r="H19" s="92"/>
@@ -10044,7 +10077,7 @@
         <v>427</v>
       </c>
       <c r="F20" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I20" t="s">
         <v>188</v>
@@ -10070,7 +10103,7 @@
         <v>428</v>
       </c>
       <c r="F21" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I21" t="s">
         <v>188</v>
@@ -10096,7 +10129,7 @@
         <v>429</v>
       </c>
       <c r="F22" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="I22" t="s">
         <v>188</v>
@@ -10122,7 +10155,7 @@
         <v>430</v>
       </c>
       <c r="F23" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I23" t="s">
         <v>188</v>
@@ -10146,7 +10179,7 @@
         <v>426</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
@@ -10174,7 +10207,7 @@
         <v>558</v>
       </c>
       <c r="F25" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="I25" t="s">
         <v>188</v>
@@ -10200,7 +10233,7 @@
         <v>496</v>
       </c>
       <c r="F26" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="I26" t="s">
         <v>188</v>
@@ -10226,7 +10259,7 @@
         <v>498</v>
       </c>
       <c r="F27" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I27" t="s">
         <v>188</v>
@@ -10252,7 +10285,7 @@
         <v>500</v>
       </c>
       <c r="F28" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="I28" t="s">
         <v>188</v>
@@ -10278,7 +10311,7 @@
         <v>506</v>
       </c>
       <c r="F29" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="I29" t="s">
         <v>188</v>
@@ -10304,7 +10337,7 @@
         <v>509</v>
       </c>
       <c r="F30" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="I30" t="s">
         <v>188</v>
@@ -10330,7 +10363,7 @@
         <v>512</v>
       </c>
       <c r="F31" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I31" t="s">
         <v>188</v>
@@ -10356,7 +10389,7 @@
         <v>513</v>
       </c>
       <c r="F32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="I32" s="99" t="s">
         <v>188</v>
@@ -10382,7 +10415,7 @@
         <v>549</v>
       </c>
       <c r="F33" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I33" s="99" t="s">
         <v>188</v>
@@ -10408,7 +10441,7 @@
         <v>547</v>
       </c>
       <c r="F34" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="I34" s="99" t="s">
         <v>188</v>
@@ -10434,7 +10467,7 @@
         <v>533</v>
       </c>
       <c r="F35" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="I35" s="99" t="s">
         <v>188</v>
@@ -10460,7 +10493,7 @@
         <v>521</v>
       </c>
       <c r="F36" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="I36" s="99" t="s">
         <v>188</v>
@@ -10486,7 +10519,7 @@
         <v>522</v>
       </c>
       <c r="F37" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="I37" s="99" t="s">
         <v>188</v>
@@ -10512,7 +10545,7 @@
         <v>536</v>
       </c>
       <c r="F38" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I38" s="99" t="s">
         <v>188</v>
@@ -11896,7 +11929,7 @@
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -12801,7 +12834,7 @@
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12986,13 +13019,13 @@
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13955,7 +13988,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13989,7 +14022,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -14023,7 +14056,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -14057,7 +14090,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -14091,7 +14124,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -14125,7 +14158,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -14744,44 +14777,44 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="102">
+      <c r="A50" s="108">
         <v>119</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="102" t="s">
+      <c r="C50" s="108" t="s">
         <v>293</v>
       </c>
-      <c r="D50" s="102" t="s">
+      <c r="D50" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="103" t="s">
+      <c r="E50" s="109" t="s">
         <v>572</v>
       </c>
-      <c r="F50" s="102">
-        <v>1</v>
-      </c>
-      <c r="G50" s="102">
-        <v>1</v>
-      </c>
-      <c r="H50" s="102">
-        <v>1</v>
-      </c>
-      <c r="I50" s="104"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="105">
-        <v>1</v>
-      </c>
-      <c r="M50" s="104"/>
+      <c r="F50" s="108">
+        <v>1</v>
+      </c>
+      <c r="G50" s="108">
+        <v>1</v>
+      </c>
+      <c r="H50" s="108">
+        <v>1</v>
+      </c>
+      <c r="I50" s="110"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="111">
+        <v>1</v>
+      </c>
+      <c r="M50" s="110"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="102">
         <v>120</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="102" t="s">
         <v>293</v>
@@ -14790,7 +14823,7 @@
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>573</v>
+        <v>622</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14823,7 +14856,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>574</v>
+        <v>623</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>
@@ -14841,6 +14874,171 @@
         <v>1</v>
       </c>
       <c r="M52" s="104"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" s="102">
+        <v>122</v>
+      </c>
+      <c r="B53" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="102">
+        <v>1</v>
+      </c>
+      <c r="G53" s="102">
+        <v>1</v>
+      </c>
+      <c r="H53" s="102">
+        <v>1</v>
+      </c>
+      <c r="I53" s="104"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="105">
+        <v>1</v>
+      </c>
+      <c r="M53" s="104"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="102">
+        <v>123</v>
+      </c>
+      <c r="B54" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>624</v>
+      </c>
+      <c r="F54" s="102">
+        <v>1</v>
+      </c>
+      <c r="G54" s="102">
+        <v>1</v>
+      </c>
+      <c r="H54" s="102">
+        <v>1</v>
+      </c>
+      <c r="I54" s="104"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="105">
+        <v>1</v>
+      </c>
+      <c r="M54" s="104"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="102">
+        <v>124</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>625</v>
+      </c>
+      <c r="F55" s="102">
+        <v>1</v>
+      </c>
+      <c r="G55" s="102">
+        <v>1</v>
+      </c>
+      <c r="H55" s="102">
+        <v>1</v>
+      </c>
+      <c r="I55" s="104"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="105">
+        <v>1</v>
+      </c>
+      <c r="M55" s="104"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="102">
+        <v>125</v>
+      </c>
+      <c r="B56" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>620</v>
+      </c>
+      <c r="F56" s="102">
+        <v>1</v>
+      </c>
+      <c r="G56" s="102">
+        <v>1</v>
+      </c>
+      <c r="H56" s="102">
+        <v>1</v>
+      </c>
+      <c r="I56" s="104"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="105">
+        <v>1</v>
+      </c>
+      <c r="M56" s="104"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="102">
+        <v>126</v>
+      </c>
+      <c r="B57" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="F57" s="102">
+        <v>1</v>
+      </c>
+      <c r="G57" s="102">
+        <v>1</v>
+      </c>
+      <c r="H57" s="102">
+        <v>1</v>
+      </c>
+      <c r="I57" s="104"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="105">
+        <v>1</v>
+      </c>
+      <c r="M57" s="104"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA593C4-55B2-AB4C-9E28-72B99F73F78B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802BE7D-565C-9D4E-9D33-77140543047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="20080" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="627">
   <si>
     <t>status</t>
   </si>
@@ -6518,13 +6518,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q90"/>
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C66" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D84" sqref="D84"/>
+      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8209,18 +8209,20 @@
         <v>280</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>205</v>
+        <v>486</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>237</v>
+        <v>487</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>240</v>
+        <v>488</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="F51" s="55">
+        <v>255</v>
+      </c>
       <c r="G51" s="55"/>
       <c r="H51" s="55"/>
       <c r="I51" s="55"/>
@@ -8230,9 +8232,7 @@
       <c r="M51" s="55"/>
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
-      <c r="P51" s="56">
-        <v>50</v>
-      </c>
+      <c r="P51" s="56"/>
       <c r="Q51" s="59"/>
     </row>
     <row r="52" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
@@ -8240,20 +8240,18 @@
         <v>280</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C52" s="50" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D52" s="50" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F52" s="55">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F52" s="55"/>
       <c r="G52" s="55"/>
       <c r="H52" s="55"/>
       <c r="I52" s="55"/>
@@ -8264,7 +8262,7 @@
       <c r="N52" s="55"/>
       <c r="O52" s="55"/>
       <c r="P52" s="56">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q52" s="59"/>
     </row>
@@ -8273,18 +8271,20 @@
         <v>280</v>
       </c>
       <c r="B53" s="50" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C53" s="50" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>206</v>
+        <v>289</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F53" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="F53" s="55">
+        <v>255</v>
+      </c>
       <c r="G53" s="55"/>
       <c r="H53" s="55"/>
       <c r="I53" s="55"/>
@@ -8295,7 +8295,7 @@
       <c r="N53" s="55"/>
       <c r="O53" s="55"/>
       <c r="P53" s="56">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q53" s="59"/>
     </row>
@@ -8304,20 +8304,18 @@
         <v>280</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C54" s="50" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D54" s="50" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="55">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F54" s="55"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
@@ -8328,61 +8326,55 @@
       <c r="N54" s="55"/>
       <c r="O54" s="55"/>
       <c r="P54" s="56">
+        <v>52</v>
+      </c>
+      <c r="Q54" s="59"/>
+    </row>
+    <row r="55" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="55">
+        <v>255</v>
+      </c>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
+      <c r="P55" s="56">
         <v>53</v>
       </c>
-      <c r="Q54" s="59"/>
-    </row>
-    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46">
-        <v>1</v>
-      </c>
-      <c r="H55" s="46">
-        <v>1</v>
-      </c>
-      <c r="I55" s="46">
-        <v>1</v>
-      </c>
-      <c r="J55" s="46">
-        <v>1</v>
-      </c>
-      <c r="K55" s="46"/>
-      <c r="L55" s="46"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
-      <c r="P55" s="56">
-        <v>54</v>
-      </c>
-      <c r="Q55" s="57"/>
+      <c r="Q55" s="59"/>
     </row>
     <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>222</v>
+        <v>18</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>282</v>
+        <v>243</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>16</v>
@@ -8391,18 +8383,22 @@
       <c r="G56" s="46">
         <v>1</v>
       </c>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
+      <c r="H56" s="46">
+        <v>1</v>
+      </c>
+      <c r="I56" s="46">
+        <v>1</v>
+      </c>
+      <c r="J56" s="46">
+        <v>1</v>
+      </c>
       <c r="K56" s="46"/>
-      <c r="L56" s="60" t="s">
-        <v>218</v>
-      </c>
+      <c r="L56" s="46"/>
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
       <c r="O56" s="46"/>
       <c r="P56" s="56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="57"/>
     </row>
@@ -8411,31 +8407,33 @@
         <v>279</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>613</v>
+        <v>222</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>616</v>
+        <v>282</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>619</v>
+        <v>292</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="46">
-        <v>50</v>
-      </c>
-      <c r="G57" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46">
+        <v>1</v>
+      </c>
       <c r="H57" s="46"/>
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
-      <c r="L57" s="60"/>
+      <c r="L57" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M57" s="46"/>
       <c r="N57" s="46"/>
       <c r="O57" s="46"/>
       <c r="P57" s="56">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q57" s="57"/>
     </row>
@@ -8444,21 +8442,21 @@
         <v>279</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>184</v>
+        <v>613</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>283</v>
+        <v>616</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>300</v>
+        <v>619</v>
       </c>
       <c r="E58" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" s="46"/>
-      <c r="G58" s="46">
-        <v>1</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="F58" s="46">
+        <v>50</v>
+      </c>
+      <c r="G58" s="46"/>
       <c r="H58" s="46"/>
       <c r="I58" s="46"/>
       <c r="J58" s="46"/>
@@ -8468,7 +8466,7 @@
       <c r="N58" s="46"/>
       <c r="O58" s="46"/>
       <c r="P58" s="56">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="57"/>
     </row>
@@ -8477,21 +8475,21 @@
         <v>279</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>285</v>
+        <v>184</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="46">
-        <v>255</v>
-      </c>
-      <c r="G59" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F59" s="46"/>
+      <c r="G59" s="46">
+        <v>1</v>
+      </c>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
@@ -8501,7 +8499,7 @@
       <c r="N59" s="46"/>
       <c r="O59" s="46"/>
       <c r="P59" s="56">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q59" s="57"/>
     </row>
@@ -8510,19 +8508,19 @@
         <v>279</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>4</v>
+        <v>285</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>233</v>
+        <v>301</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="46">
-        <v>2000</v>
+        <v>255</v>
       </c>
       <c r="G60" s="46"/>
       <c r="H60" s="46"/>
@@ -8534,28 +8532,28 @@
       <c r="N60" s="46"/>
       <c r="O60" s="46"/>
       <c r="P60" s="56">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>297</v>
+        <v>4</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="D61" s="98" t="s">
-        <v>489</v>
+        <v>291</v>
+      </c>
+      <c r="D61" s="52" t="s">
+        <v>233</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="46">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="46"/>
       <c r="H61" s="46"/>
@@ -8567,30 +8565,28 @@
       <c r="N61" s="46"/>
       <c r="O61" s="46"/>
       <c r="P61" s="56">
-        <v>60</v>
-      </c>
-      <c r="Q61" s="57" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="57"/>
+    </row>
+    <row r="62" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>217</v>
+        <v>297</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>303</v>
+        <v>298</v>
+      </c>
+      <c r="D62" s="98" t="s">
+        <v>489</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="46">
-        <v>2000</v>
+        <v>255</v>
       </c>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
@@ -8602,27 +8598,31 @@
       <c r="N62" s="46"/>
       <c r="O62" s="46"/>
       <c r="P62" s="56">
-        <v>61</v>
-      </c>
-      <c r="Q62" s="57"/>
-    </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B63" s="52" t="s">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>490</v>
+        <v>256</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="E63" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F63" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F63" s="46">
+        <v>2000</v>
+      </c>
       <c r="G63" s="46"/>
       <c r="H63" s="46"/>
       <c r="I63" s="46"/>
@@ -8633,7 +8633,7 @@
       <c r="N63" s="46"/>
       <c r="O63" s="46"/>
       <c r="P63" s="56">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="Q63" s="57"/>
     </row>
@@ -8642,16 +8642,16 @@
         <v>279</v>
       </c>
       <c r="B64" s="52" t="s">
-        <v>205</v>
+        <v>0</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>237</v>
+        <v>490</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>132</v>
+        <v>523</v>
       </c>
       <c r="E64" s="52" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F64" s="46"/>
       <c r="G64" s="46"/>
@@ -8659,12 +8659,12 @@
       <c r="I64" s="46"/>
       <c r="J64" s="46"/>
       <c r="K64" s="46"/>
-      <c r="L64" s="46"/>
+      <c r="L64" s="60"/>
       <c r="M64" s="46"/>
       <c r="N64" s="46"/>
       <c r="O64" s="46"/>
       <c r="P64" s="56">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Q64" s="57"/>
     </row>
@@ -8673,31 +8673,29 @@
         <v>279</v>
       </c>
       <c r="B65" s="52" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>232</v>
+        <v>132</v>
       </c>
       <c r="E65" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="46">
         <v>50</v>
       </c>
+      <c r="F65" s="46"/>
       <c r="G65" s="46"/>
       <c r="H65" s="46"/>
       <c r="I65" s="46"/>
       <c r="J65" s="46"/>
       <c r="K65" s="46"/>
-      <c r="L65" s="60"/>
+      <c r="L65" s="46"/>
       <c r="M65" s="46"/>
       <c r="N65" s="46"/>
       <c r="O65" s="46"/>
       <c r="P65" s="56">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Q65" s="57"/>
     </row>
@@ -8706,134 +8704,134 @@
         <v>279</v>
       </c>
       <c r="B66" s="52" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>491</v>
+        <v>232</v>
       </c>
       <c r="E66" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="46">
         <v>50</v>
       </c>
-      <c r="F66" s="46"/>
       <c r="G66" s="46"/>
       <c r="H66" s="46"/>
       <c r="I66" s="46"/>
       <c r="J66" s="46"/>
       <c r="K66" s="46"/>
-      <c r="L66" s="46"/>
+      <c r="L66" s="60"/>
       <c r="M66" s="46"/>
       <c r="N66" s="46"/>
       <c r="O66" s="46"/>
       <c r="P66" s="56">
+        <v>64</v>
+      </c>
+      <c r="Q66" s="57"/>
+    </row>
+    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="56">
         <v>65</v>
       </c>
-      <c r="Q66" s="57"/>
-    </row>
-    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="65" t="s">
+      <c r="Q67" s="57"/>
+    </row>
+    <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="65" t="s">
         <v>279</v>
       </c>
-      <c r="B67" s="65" t="s">
+      <c r="B68" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C67" s="65" t="s">
+      <c r="C68" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="D67" s="65" t="s">
+      <c r="D68" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E67" s="65" t="s">
+      <c r="E68" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F67" s="48">
+      <c r="F68" s="48">
         <v>255</v>
       </c>
-      <c r="G67" s="48"/>
-      <c r="H67" s="48"/>
-      <c r="I67" s="48"/>
-      <c r="J67" s="48"/>
-      <c r="K67" s="48"/>
-      <c r="L67" s="48"/>
-      <c r="M67" s="48"/>
-      <c r="N67" s="48"/>
-      <c r="O67" s="48"/>
-      <c r="P67" s="56">
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
+      <c r="P68" s="56">
         <v>66</v>
       </c>
-      <c r="Q67" s="57"/>
-    </row>
-    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62">
-        <v>1</v>
-      </c>
-      <c r="H68" s="62">
-        <v>1</v>
-      </c>
-      <c r="I68" s="62">
-        <v>1</v>
-      </c>
-      <c r="J68" s="62">
-        <v>1</v>
-      </c>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
-      <c r="P68" s="56">
-        <v>67</v>
-      </c>
-      <c r="Q68" s="59"/>
+      <c r="Q68" s="57"/>
     </row>
     <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>326</v>
+        <v>18</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>550</v>
+        <v>272</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>551</v>
+        <v>216</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="62">
-        <v>50</v>
-      </c>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62">
+        <v>1</v>
+      </c>
+      <c r="H69" s="62">
+        <v>1</v>
+      </c>
+      <c r="I69" s="62">
+        <v>1</v>
+      </c>
+      <c r="J69" s="62">
+        <v>1</v>
+      </c>
       <c r="K69" s="62"/>
       <c r="L69" s="62"/>
       <c r="M69" s="62"/>
       <c r="N69" s="62"/>
       <c r="O69" s="62"/>
       <c r="P69" s="56">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q69" s="59"/>
     </row>
@@ -8842,33 +8840,31 @@
         <v>217</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>246</v>
+        <v>550</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>267</v>
+        <v>551</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="62">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
       <c r="I70" s="62"/>
       <c r="J70" s="62"/>
       <c r="K70" s="62"/>
-      <c r="L70" s="60" t="s">
-        <v>218</v>
-      </c>
+      <c r="L70" s="62"/>
       <c r="M70" s="62"/>
       <c r="N70" s="62"/>
       <c r="O70" s="62"/>
       <c r="P70" s="56">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="Q70" s="59"/>
     </row>
@@ -8877,13 +8873,13 @@
         <v>217</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>208</v>
+        <v>297</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="E71" s="53" t="s">
         <v>15</v>
@@ -8896,12 +8892,14 @@
       <c r="I71" s="62"/>
       <c r="J71" s="62"/>
       <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
+      <c r="L71" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M71" s="62"/>
       <c r="N71" s="62"/>
       <c r="O71" s="62"/>
       <c r="P71" s="56">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q71" s="59"/>
     </row>
@@ -8910,13 +8908,13 @@
         <v>217</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>15</v>
@@ -8934,7 +8932,7 @@
       <c r="N72" s="62"/>
       <c r="O72" s="62"/>
       <c r="P72" s="56">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q72" s="59"/>
     </row>
@@ -8943,13 +8941,13 @@
         <v>217</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E73" s="53" t="s">
         <v>15</v>
@@ -8967,7 +8965,7 @@
       <c r="N73" s="62"/>
       <c r="O73" s="62"/>
       <c r="P73" s="56">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q73" s="59"/>
     </row>
@@ -8976,13 +8974,13 @@
         <v>217</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="E74" s="53" t="s">
         <v>15</v>
@@ -9000,7 +8998,7 @@
       <c r="N74" s="62"/>
       <c r="O74" s="62"/>
       <c r="P74" s="56">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q74" s="59"/>
     </row>
@@ -9009,18 +9007,20 @@
         <v>217</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>132</v>
+        <v>271</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F75" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F75" s="62">
+        <v>255</v>
+      </c>
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
@@ -9031,7 +9031,7 @@
       <c r="N75" s="62"/>
       <c r="O75" s="62"/>
       <c r="P75" s="56">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="Q75" s="59"/>
     </row>
@@ -9040,20 +9040,18 @@
         <v>217</v>
       </c>
       <c r="B76" s="53" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C76" s="53" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D76" s="53" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="E76" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F76" s="62">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F76" s="62"/>
       <c r="G76" s="62"/>
       <c r="H76" s="62"/>
       <c r="I76" s="62"/>
@@ -9064,7 +9062,7 @@
       <c r="N76" s="62"/>
       <c r="O76" s="62"/>
       <c r="P76" s="56">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q76" s="59"/>
     </row>
@@ -9073,18 +9071,20 @@
         <v>217</v>
       </c>
       <c r="B77" s="53" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C77" s="53" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D77" s="53" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="E77" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F77" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F77" s="62">
+        <v>255</v>
+      </c>
       <c r="G77" s="62"/>
       <c r="H77" s="62"/>
       <c r="I77" s="62"/>
@@ -9095,7 +9095,7 @@
       <c r="N77" s="62"/>
       <c r="O77" s="62"/>
       <c r="P77" s="56">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q77" s="59"/>
     </row>
@@ -9104,20 +9104,18 @@
         <v>217</v>
       </c>
       <c r="B78" s="53" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C78" s="53" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D78" s="53" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="F78" s="62">
-        <v>50</v>
-      </c>
+      <c r="F78" s="62"/>
       <c r="G78" s="62"/>
       <c r="H78" s="62"/>
       <c r="I78" s="62"/>
@@ -9128,7 +9126,7 @@
       <c r="N78" s="62"/>
       <c r="O78" s="62"/>
       <c r="P78" s="56">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q78" s="59"/>
     </row>
@@ -9137,83 +9135,79 @@
         <v>217</v>
       </c>
       <c r="B79" s="53" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C79" s="53" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D79" s="53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E79" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F79" s="62"/>
+        <v>50</v>
+      </c>
+      <c r="F79" s="62">
+        <v>50</v>
+      </c>
       <c r="G79" s="62"/>
       <c r="H79" s="62"/>
       <c r="I79" s="62"/>
       <c r="J79" s="62"/>
       <c r="K79" s="62"/>
       <c r="L79" s="62"/>
-      <c r="M79" s="62">
-        <v>1</v>
-      </c>
+      <c r="M79" s="62"/>
       <c r="N79" s="62"/>
       <c r="O79" s="62"/>
       <c r="P79" s="56">
+        <v>77</v>
+      </c>
+      <c r="Q79" s="59"/>
+    </row>
+    <row r="80" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62">
+        <v>1</v>
+      </c>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
+      <c r="P80" s="56">
         <v>78</v>
       </c>
-      <c r="Q79" s="59"/>
-    </row>
-    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D80" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E80" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" s="45"/>
-      <c r="G80" s="45">
-        <v>1</v>
-      </c>
-      <c r="H80" s="45">
-        <v>1</v>
-      </c>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45">
-        <v>1</v>
-      </c>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
-      <c r="P80" s="56">
-        <v>79</v>
-      </c>
-      <c r="Q80" s="57"/>
+      <c r="Q80" s="59"/>
     </row>
     <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>412</v>
+        <v>243</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>413</v>
+        <v>170</v>
       </c>
       <c r="E81" s="63" t="s">
         <v>16</v>
@@ -9222,16 +9216,20 @@
       <c r="G81" s="45">
         <v>1</v>
       </c>
-      <c r="H81" s="45"/>
+      <c r="H81" s="45">
+        <v>1</v>
+      </c>
       <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
+      <c r="J81" s="45">
+        <v>1</v>
+      </c>
       <c r="K81" s="45"/>
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="56">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q81" s="57"/>
     </row>
@@ -9240,21 +9238,21 @@
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>592</v>
+        <v>139</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>593</v>
+        <v>412</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>594</v>
+        <v>413</v>
       </c>
       <c r="E82" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F82" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G82" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="F82" s="45"/>
+      <c r="G82" s="45">
+        <v>1</v>
+      </c>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
       <c r="J82" s="45"/>
@@ -9264,7 +9262,7 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="56">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q82" s="57"/>
     </row>
@@ -9273,23 +9271,21 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>242</v>
+        <v>592</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>244</v>
+        <v>593</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>302</v>
+        <v>594</v>
       </c>
       <c r="E83" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="45">
-        <v>50</v>
-      </c>
-      <c r="G83" s="45">
-        <v>1</v>
-      </c>
+        <v>2000</v>
+      </c>
+      <c r="G83" s="45"/>
       <c r="H83" s="45"/>
       <c r="I83" s="45"/>
       <c r="J83" s="45"/>
@@ -9299,7 +9295,7 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="56">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q83" s="57"/>
     </row>
@@ -9308,13 +9304,13 @@
         <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>25</v>
+        <v>242</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="E84" s="63" t="s">
         <v>15</v>
@@ -9322,7 +9318,9 @@
       <c r="F84" s="45">
         <v>50</v>
       </c>
-      <c r="G84" s="45"/>
+      <c r="G84" s="45">
+        <v>1</v>
+      </c>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
       <c r="J84" s="45"/>
@@ -9332,7 +9330,7 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="56">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q84" s="57"/>
     </row>
@@ -9341,19 +9339,19 @@
         <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="E85" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F85" s="45">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G85" s="45"/>
       <c r="H85" s="45"/>
@@ -9365,7 +9363,7 @@
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="56">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="Q85" s="57"/>
     </row>
@@ -9374,18 +9372,20 @@
         <v>169</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>205</v>
+        <v>4</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="D86" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E86" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F86" s="45"/>
+        <v>234</v>
+      </c>
+      <c r="E86" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="45">
+        <v>255</v>
+      </c>
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
       <c r="I86" s="45"/>
@@ -9396,7 +9396,7 @@
       <c r="N86" s="45"/>
       <c r="O86" s="45"/>
       <c r="P86" s="56">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q86" s="57"/>
     </row>
@@ -9405,20 +9405,18 @@
         <v>169</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C87" s="44" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D87" s="63" t="s">
-        <v>241</v>
+        <v>132</v>
       </c>
       <c r="E87" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F87" s="45">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F87" s="45"/>
       <c r="G87" s="45"/>
       <c r="H87" s="45"/>
       <c r="I87" s="45"/>
@@ -9429,7 +9427,7 @@
       <c r="N87" s="45"/>
       <c r="O87" s="45"/>
       <c r="P87" s="56">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q87" s="57"/>
     </row>
@@ -9438,18 +9436,20 @@
         <v>169</v>
       </c>
       <c r="B88" s="44" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C88" s="44" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D88" s="63" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E88" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="F88" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="F88" s="45">
+        <v>255</v>
+      </c>
       <c r="G88" s="45"/>
       <c r="H88" s="45"/>
       <c r="I88" s="45"/>
@@ -9460,7 +9460,7 @@
       <c r="N88" s="45"/>
       <c r="O88" s="45"/>
       <c r="P88" s="56">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Q88" s="57"/>
     </row>
@@ -9469,20 +9469,18 @@
         <v>169</v>
       </c>
       <c r="B89" s="44" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C89" s="44" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D89" s="63" t="s">
-        <v>171</v>
+        <v>247</v>
       </c>
       <c r="E89" s="64" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="45">
         <v>50</v>
       </c>
+      <c r="F89" s="45"/>
       <c r="G89" s="45"/>
       <c r="H89" s="45"/>
       <c r="I89" s="45"/>
@@ -9493,7 +9491,7 @@
       <c r="N89" s="45"/>
       <c r="O89" s="45"/>
       <c r="P89" s="56">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q89" s="57"/>
     </row>
@@ -9502,33 +9500,66 @@
         <v>169</v>
       </c>
       <c r="B90" s="44" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C90" s="44" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D90" s="63" t="s">
-        <v>172</v>
-      </c>
-      <c r="E90" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="45"/>
+        <v>171</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="45">
+        <v>50</v>
+      </c>
       <c r="G90" s="45"/>
       <c r="H90" s="45"/>
       <c r="I90" s="45"/>
       <c r="J90" s="45"/>
       <c r="K90" s="45"/>
       <c r="L90" s="45"/>
-      <c r="M90" s="45">
-        <v>1</v>
-      </c>
+      <c r="M90" s="45"/>
       <c r="N90" s="45"/>
       <c r="O90" s="45"/>
       <c r="P90" s="56">
+        <v>88</v>
+      </c>
+      <c r="Q90" s="57"/>
+    </row>
+    <row r="91" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45">
+        <v>1</v>
+      </c>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="56">
         <v>89</v>
       </c>
-      <c r="Q90" s="57"/>
+      <c r="Q91" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9543,8 +9574,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -13021,11 +13052,11 @@
   </sheetPr>
   <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="K32" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E50" sqref="E50"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C668C528-9F07-4745-B02F-8AC0B608E5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25605" yWindow="495" windowWidth="38400" windowHeight="20085" tabRatio="800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -239,12 +238,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -266,12 +265,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -293,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1465" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="627">
   <si>
     <t>status</t>
   </si>
@@ -1154,9 +1153,6 @@
   </si>
   <si>
     <t>Vai Trò Đơn Vị</t>
-  </si>
-  <si>
-    <t>Vai Trò của đơn vị đối với chỉ đạo này (lấy từ categories) -&gt; Nó là người đánh giá hay là người thực hiện</t>
   </si>
   <si>
     <r>
@@ -1783,9 +1779,6 @@
     <t>Trạng thái hiệu lực của menu này</t>
   </si>
   <si>
-    <t>ion-android-checkbox-outline</t>
-  </si>
-  <si>
     <t>ion-document-text</t>
   </si>
   <si>
@@ -2074,12 +2067,6 @@
     <t>/get-direct-loop</t>
   </si>
   <si>
-    <t>/create-direct-loop</t>
-  </si>
-  <si>
-    <t>/update-direct-loop</t>
-  </si>
-  <si>
     <t>[1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,29,30,31,32,33,34,35,36,37,38,39,40,41,42,43,44,45,46,47,48,49,50,51,52,53,54,55,56,57,58,59,60,61,62,63,64,65,66,67,68,69,70,101,102,103,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121,122,123,124,125,126,127,128,129,130, 131, 132,133,134,135,136,137,138,139,140]</t>
   </si>
   <si>
@@ -2144,12 +2131,108 @@
   </si>
   <si>
     <t>Mảng chứa các Id con của thư mục này</t>
+  </si>
+  <si>
+    <t>ion-calendar</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>magenta</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>volcano</t>
+  </si>
+  <si>
+    <t>orange</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>lime</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>cyan</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>geekblue</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>#f50</t>
+  </si>
+  <si>
+    <t>#2db7f5</t>
+  </si>
+  <si>
+    <t>#87d068</t>
+  </si>
+  <si>
+    <t>#108ee9</t>
+  </si>
+  <si>
+    <t>#592929</t>
+  </si>
+  <si>
+    <t>direct_uuid</t>
+  </si>
+  <si>
+    <t>Mã UUID Chỉ Đạo Gốc</t>
+  </si>
+  <si>
+    <t>Mã UUID của chỉ đạo gốc cho vòng lặp này</t>
+  </si>
+  <si>
+    <t>Mã UUID Chỉ Đạo</t>
+  </si>
+  <si>
+    <t>Mã UUID của chỉ đạo giao cho đơn vị</t>
+  </si>
+  <si>
+    <t>Mã Vai Trò của đơn vị đối với chỉ đạo này (lấy từ categories) -&gt; Nó là người đánh giá hay là người thực hiện</t>
+  </si>
+  <si>
+    <t>Mã UUID của Chỉ Đạo</t>
+  </si>
+  <si>
+    <t>/get-file</t>
+  </si>
+  <si>
+    <t>/get-attachments</t>
+  </si>
+  <si>
+    <t>/get-attachment-by-id</t>
+  </si>
+  <si>
+    <t>/get-attachment-by-ids</t>
+  </si>
+  <si>
+    <t>/create-menu</t>
+  </si>
+  <si>
+    <t>/update-menu</t>
+  </si>
+  <si>
+    <t>/get-direct-by-ids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2303,7 +2386,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2412,6 +2495,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="7">
     <border>
@@ -3327,7 +3416,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3591,6 +3680,18 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -4420,9 +4521,9 @@
     <cellStyle name="Hyperlink" xfId="756" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="758" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
-    <cellStyle name="Normal 4" xfId="738" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
-    <cellStyle name="Normal 5" xfId="739" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="738"/>
+    <cellStyle name="Normal 5" xfId="739"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -4519,23 +4620,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -4571,23 +4655,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4763,26 +4830,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="9" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="9" customWidth="1"/>
     <col min="5" max="5" width="14" style="9" customWidth="1"/>
-    <col min="6" max="6" width="55.5" style="9" customWidth="1"/>
-    <col min="7" max="64" width="11.5" style="9" customWidth="1"/>
-    <col min="65" max="16384" width="9.1640625" style="9"/>
+    <col min="6" max="6" width="55.42578125" style="9" customWidth="1"/>
+    <col min="7" max="64" width="11.42578125" style="9" customWidth="1"/>
+    <col min="65" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>83</v>
       </c>
@@ -4802,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>15</v>
       </c>
@@ -4822,7 +4889,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>16</v>
       </c>
@@ -4842,7 +4909,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>97</v>
       </c>
@@ -4862,7 +4929,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>17</v>
       </c>
@@ -4882,7 +4949,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>103</v>
       </c>
@@ -4902,7 +4969,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>50</v>
       </c>
@@ -4922,7 +4989,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>106</v>
       </c>
@@ -4954,7 +5021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
@@ -4964,17 +5031,17 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" customWidth="1"/>
-    <col min="3" max="3" width="40.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" customWidth="1"/>
+    <col min="3" max="3" width="40.140625" customWidth="1"/>
     <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="103" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
@@ -4982,7 +5049,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -4994,41 +5061,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="96">
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="94">
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C3" s="95" t="s">
+        <v>472</v>
+      </c>
+      <c r="D3" s="94" t="s">
         <v>473</v>
       </c>
-      <c r="D3" s="94" t="s">
+      <c r="E3" s="94" t="s">
         <v>474</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>475</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5046,33 +5113,33 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="85" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="85" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.1640625" style="89" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.33203125" style="89" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.140625" style="89" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.28515625" style="89" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21" style="85" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="78.83203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="85" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="85" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.5" style="85"/>
-    <col min="12" max="12" width="14.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="85" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.1640625" style="85" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="11.5" style="85"/>
+    <col min="8" max="8" width="78.85546875" style="85" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" style="85" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="85" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="85"/>
+    <col min="12" max="12" width="14.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="85" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.140625" style="85" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="11.42578125" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="84" t="s">
         <v>18</v>
       </c>
@@ -5116,28 +5183,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>459</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>369</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" s="91" t="s">
         <v>370</v>
       </c>
-      <c r="D2" s="90" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" s="91" t="s">
-        <v>370</v>
-      </c>
-      <c r="F2" s="91" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" s="91" t="s">
-        <v>371</v>
-      </c>
       <c r="H2" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -5150,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -5158,18 +5225,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
@@ -5182,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -5190,18 +5257,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5214,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -5222,18 +5289,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5246,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -5254,18 +5321,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5278,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -5286,18 +5353,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -5310,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -5318,18 +5385,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -5342,28 +5409,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F9" s="91" t="s">
+        <v>595</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>460</v>
+      </c>
+      <c r="H9" s="90" t="s">
         <v>478</v>
-      </c>
-      <c r="G9" s="91" t="s">
-        <v>461</v>
-      </c>
-      <c r="H9" s="90" t="s">
-        <v>480</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5376,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5384,18 +5451,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
@@ -5408,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5416,18 +5483,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -5440,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5448,18 +5515,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -5472,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5480,18 +5547,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -5504,28 +5571,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F14" s="91" t="s">
+        <v>477</v>
+      </c>
+      <c r="G14" s="91" t="s">
+        <v>467</v>
+      </c>
+      <c r="H14" s="90" t="s">
         <v>479</v>
-      </c>
-      <c r="G14" s="91" t="s">
-        <v>468</v>
-      </c>
-      <c r="H14" s="90" t="s">
-        <v>481</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5538,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5546,18 +5613,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
@@ -5570,26 +5637,26 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>587</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>466</v>
+      </c>
+      <c r="H16" s="90" t="s">
         <v>452</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>591</v>
-      </c>
-      <c r="G16" s="91" t="s">
-        <v>467</v>
-      </c>
-      <c r="H16" s="90" t="s">
-        <v>453</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -5614,33 +5681,33 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5649,7 +5716,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5670,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>165</v>
       </c>
@@ -5684,7 +5751,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5697,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>220</v>
       </c>
@@ -5711,7 +5778,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5724,7 +5791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>166</v>
       </c>
@@ -5738,7 +5805,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5751,7 +5818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>167</v>
       </c>
@@ -5765,7 +5832,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5790,29 +5857,29 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="D10" sqref="D10:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="14.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>18</v>
       </c>
@@ -5823,42 +5890,48 @@
         <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
+        <v>596</v>
+      </c>
+      <c r="E1" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="F1" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="G1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="I1" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="J1" s="40" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C2" t="s">
         <v>351</v>
       </c>
-      <c r="C2" t="s">
-        <v>352</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" t="s">
+        <v>597</v>
+      </c>
+      <c r="I2" t="s">
         <v>188</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5866,19 +5939,22 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E3">
+        <v>337</v>
+      </c>
+      <c r="D3" t="s">
+        <v>598</v>
+      </c>
+      <c r="F3">
         <v>0</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5886,19 +5962,22 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4">
+        <v>336</v>
+      </c>
+      <c r="D4" t="s">
+        <v>599</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>188</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5906,19 +5985,22 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>336</v>
-      </c>
-      <c r="E5">
+        <v>335</v>
+      </c>
+      <c r="D5" t="s">
+        <v>600</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>188</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5926,19 +6008,22 @@
         <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>336</v>
-      </c>
-      <c r="E6">
+        <v>335</v>
+      </c>
+      <c r="D6" t="s">
+        <v>601</v>
+      </c>
+      <c r="F6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5946,19 +6031,22 @@
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>339</v>
-      </c>
-      <c r="E7">
+        <v>338</v>
+      </c>
+      <c r="D7" t="s">
+        <v>602</v>
+      </c>
+      <c r="F7">
         <v>0</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>188</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -5966,19 +6054,22 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>340</v>
-      </c>
-      <c r="E8">
+        <v>339</v>
+      </c>
+      <c r="D8" t="s">
+        <v>603</v>
+      </c>
+      <c r="F8">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>188</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5986,19 +6077,22 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>604</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>188</v>
       </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6006,19 +6100,22 @@
         <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>342</v>
-      </c>
-      <c r="E10">
+        <v>341</v>
+      </c>
+      <c r="D10" t="s">
+        <v>605</v>
+      </c>
+      <c r="F10">
         <v>0</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>188</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6026,19 +6123,22 @@
         <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>344</v>
-      </c>
-      <c r="E11">
+        <v>343</v>
+      </c>
+      <c r="D11" t="s">
+        <v>606</v>
+      </c>
+      <c r="F11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -6046,19 +6146,22 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>343</v>
-      </c>
-      <c r="E12">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>606</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>188</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -6066,19 +6169,22 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>345</v>
-      </c>
-      <c r="E13">
+        <v>344</v>
+      </c>
+      <c r="D13" t="s">
+        <v>606</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6086,19 +6192,22 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E14">
+        <v>345</v>
+      </c>
+      <c r="D14" t="s">
+        <v>606</v>
+      </c>
+      <c r="F14">
         <v>0</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>188</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6106,19 +6215,22 @@
         <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>347</v>
-      </c>
-      <c r="E15">
+        <v>346</v>
+      </c>
+      <c r="D15" t="s">
+        <v>606</v>
+      </c>
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>188</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6126,19 +6238,22 @@
         <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>348</v>
-      </c>
-      <c r="E16">
+        <v>347</v>
+      </c>
+      <c r="D16" t="s">
+        <v>606</v>
+      </c>
+      <c r="F16">
         <v>0</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>188</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6146,19 +6261,22 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>349</v>
-      </c>
-      <c r="E17">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>606</v>
+      </c>
+      <c r="F17">
         <v>0</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>188</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6166,15 +6284,18 @@
         <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18">
+        <v>349</v>
+      </c>
+      <c r="D18" t="s">
+        <v>606</v>
+      </c>
+      <c r="F18">
         <v>0</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>188</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>1</v>
       </c>
     </row>
@@ -6184,29 +6305,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.1640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="3" max="5" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="6.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="5" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
       <c r="B1" s="67" t="s">
+        <v>357</v>
+      </c>
+      <c r="C1" s="67" t="s">
         <v>358</v>
-      </c>
-      <c r="C1" s="67" t="s">
-        <v>359</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>19</v>
@@ -6215,7 +6336,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6229,7 +6350,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6243,7 +6364,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6251,13 +6372,13 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6265,13 +6386,13 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6285,7 +6406,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6293,13 +6414,13 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6307,18 +6428,18 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C9" t="s">
         <v>246</v>
@@ -6327,7 +6448,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6335,13 +6456,13 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6349,7 +6470,7 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -6361,36 +6482,36 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D79" sqref="D79"/>
+      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.83203125" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
     <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
-    <col min="16" max="16" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
         <v>2</v>
       </c>
@@ -6431,17 +6552,17 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="Q1" s="41"/>
     </row>
-    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
         <v>257</v>
       </c>
@@ -6480,7 +6601,7 @@
       </c>
       <c r="Q2" s="57"/>
     </row>
-    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
         <v>257</v>
       </c>
@@ -6513,7 +6634,7 @@
       </c>
       <c r="Q3" s="57"/>
     </row>
-    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
         <v>257</v>
       </c>
@@ -6546,12 +6667,12 @@
       </c>
       <c r="Q4" s="57"/>
     </row>
-    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>257</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C5" s="50" t="s">
         <v>262</v>
@@ -6579,7 +6700,7 @@
       </c>
       <c r="Q5" s="57"/>
     </row>
-    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
         <v>257</v>
       </c>
@@ -6612,7 +6733,7 @@
       </c>
       <c r="Q6" s="57"/>
     </row>
-    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
         <v>257</v>
       </c>
@@ -6645,7 +6766,7 @@
       </c>
       <c r="Q7" s="57"/>
     </row>
-    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
         <v>257</v>
       </c>
@@ -6674,11 +6795,11 @@
       <c r="N8" s="55"/>
       <c r="O8" s="55"/>
       <c r="P8" s="56">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="57"/>
     </row>
-    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
         <v>257</v>
       </c>
@@ -6705,11 +6826,11 @@
       <c r="N9" s="55"/>
       <c r="O9" s="55"/>
       <c r="P9" s="56">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q9" s="57"/>
     </row>
-    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
         <v>257</v>
       </c>
@@ -6720,7 +6841,7 @@
         <v>249</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>15</v>
@@ -6738,13 +6859,13 @@
       <c r="N10" s="55"/>
       <c r="O10" s="55"/>
       <c r="P10" s="56">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>257</v>
       </c>
@@ -6771,11 +6892,11 @@
       <c r="N11" s="55"/>
       <c r="O11" s="55"/>
       <c r="P11" s="56">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q11" s="57"/>
     </row>
-    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>257</v>
       </c>
@@ -6804,11 +6925,11 @@
       <c r="N12" s="55"/>
       <c r="O12" s="55"/>
       <c r="P12" s="56">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="57"/>
     </row>
-    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
         <v>257</v>
       </c>
@@ -6837,11 +6958,11 @@
       <c r="N13" s="55"/>
       <c r="O13" s="55"/>
       <c r="P13" s="56">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="57"/>
     </row>
-    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="51" t="s">
         <v>221</v>
       </c>
@@ -6876,61 +6997,65 @@
       <c r="N14" s="58"/>
       <c r="O14" s="58"/>
       <c r="P14" s="56">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Q14" s="57"/>
     </row>
-    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>4</v>
+        <v>326</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>251</v>
+        <v>550</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>224</v>
+        <v>551</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="58">
-        <v>2000</v>
-      </c>
-      <c r="G15" s="58"/>
+        <v>50</v>
+      </c>
+      <c r="G15" s="58">
+        <v>1</v>
+      </c>
       <c r="H15" s="58"/>
       <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
+      <c r="J15" s="58">
+        <v>1</v>
+      </c>
       <c r="K15" s="58"/>
       <c r="L15" s="58"/>
       <c r="M15" s="58"/>
       <c r="N15" s="58"/>
       <c r="O15" s="58"/>
       <c r="P15" s="56">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q15" s="57"/>
     </row>
-    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B16" s="51" t="s">
-        <v>298</v>
+        <v>4</v>
       </c>
       <c r="C16" s="51" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D16" s="51" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="E16" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="58">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
@@ -6942,22 +7067,22 @@
       <c r="N16" s="58"/>
       <c r="O16" s="58"/>
       <c r="P16" s="56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Q16" s="57"/>
     </row>
-    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B17" s="51" t="s">
-        <v>483</v>
+        <v>297</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>482</v>
+        <v>252</v>
       </c>
       <c r="D17" s="51" t="s">
-        <v>484</v>
+        <v>253</v>
       </c>
       <c r="E17" s="51" t="s">
         <v>15</v>
@@ -6974,27 +7099,29 @@
       <c r="M17" s="58"/>
       <c r="N17" s="58"/>
       <c r="O17" s="58"/>
-      <c r="P17" s="56"/>
+      <c r="P17" s="56">
+        <v>16</v>
+      </c>
       <c r="Q17" s="57"/>
     </row>
-    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>227</v>
+        <v>481</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>274</v>
+        <v>480</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>276</v>
+        <v>482</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="58">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -7010,24 +7137,24 @@
       </c>
       <c r="Q18" s="57"/>
     </row>
-    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B19" s="51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="58">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -7043,24 +7170,24 @@
       </c>
       <c r="Q19" s="57"/>
     </row>
-    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B20" s="51" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>225</v>
+        <v>277</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="58">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -7076,24 +7203,24 @@
       </c>
       <c r="Q20" s="57"/>
     </row>
-    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B21" s="51" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D21" s="51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E21" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="58">
-        <v>1000</v>
+        <v>255</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
@@ -7109,23 +7236,25 @@
       </c>
       <c r="Q21" s="57"/>
     </row>
-    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B22" s="51" t="s">
-        <v>485</v>
+        <v>217</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>486</v>
+        <v>256</v>
       </c>
       <c r="D22" s="51" t="s">
-        <v>487</v>
+        <v>226</v>
       </c>
       <c r="E22" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F22" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="F22" s="58">
+        <v>1000</v>
+      </c>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58"/>
@@ -7135,21 +7264,23 @@
       <c r="M22" s="58"/>
       <c r="N22" s="58"/>
       <c r="O22" s="58"/>
-      <c r="P22" s="56"/>
+      <c r="P22" s="56">
+        <v>21</v>
+      </c>
       <c r="Q22" s="57"/>
     </row>
-    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>205</v>
+        <v>483</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>237</v>
+        <v>484</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>132</v>
+        <v>485</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -7165,29 +7296,27 @@
       <c r="N23" s="58"/>
       <c r="O23" s="58"/>
       <c r="P23" s="56">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q23" s="57"/>
     </row>
-    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B24" s="51" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="C24" s="51" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="D24" s="51" t="s">
-        <v>297</v>
+        <v>132</v>
       </c>
       <c r="E24" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F24" s="58"/>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
       <c r="I24" s="58"/>
@@ -7198,27 +7327,29 @@
       <c r="N24" s="58"/>
       <c r="O24" s="58"/>
       <c r="P24" s="56">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q24" s="57"/>
     </row>
-    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B25" s="51" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="C25" s="51" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>176</v>
+        <v>296</v>
       </c>
       <c r="E25" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="58"/>
+        <v>15</v>
+      </c>
+      <c r="F25" s="58">
+        <v>255</v>
+      </c>
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="58"/>
@@ -7229,29 +7360,27 @@
       <c r="N25" s="58"/>
       <c r="O25" s="58"/>
       <c r="P25" s="56">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q25" s="57"/>
     </row>
-    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B26" s="51" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C26" s="51" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="D26" s="51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E26" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="58">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F26" s="58"/>
       <c r="G26" s="58"/>
       <c r="H26" s="58"/>
       <c r="I26" s="58"/>
@@ -7262,22 +7391,22 @@
       <c r="N26" s="58"/>
       <c r="O26" s="58"/>
       <c r="P26" s="56">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q26" s="57"/>
     </row>
-    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C27" s="51" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="D27" s="51" t="s">
-        <v>494</v>
+        <v>177</v>
       </c>
       <c r="E27" s="51" t="s">
         <v>15</v>
@@ -7291,28 +7420,26 @@
       <c r="J27" s="58"/>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
-      <c r="M27" s="58">
-        <v>1</v>
-      </c>
+      <c r="M27" s="58"/>
       <c r="N27" s="58"/>
       <c r="O27" s="58"/>
       <c r="P27" s="56">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q27" s="57"/>
     </row>
-    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B28" s="51" t="s">
-        <v>488</v>
+        <v>0</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>489</v>
+        <v>278</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7326,30 +7453,34 @@
       <c r="J28" s="58"/>
       <c r="K28" s="58"/>
       <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
+      <c r="M28" s="58">
+        <v>1</v>
+      </c>
       <c r="N28" s="58"/>
       <c r="O28" s="58"/>
-      <c r="P28" s="56"/>
+      <c r="P28" s="56">
+        <v>27</v>
+      </c>
       <c r="Q28" s="57"/>
     </row>
-    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="58">
-        <v>500</v>
+        <v>255</v>
       </c>
       <c r="G29" s="58"/>
       <c r="H29" s="58"/>
@@ -7360,21 +7491,23 @@
       <c r="M29" s="58"/>
       <c r="N29" s="58"/>
       <c r="O29" s="58"/>
-      <c r="P29" s="56"/>
+      <c r="P29" s="56">
+        <v>28</v>
+      </c>
       <c r="Q29" s="57"/>
     </row>
-    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="51" t="s">
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7391,86 +7524,98 @@
       <c r="M30" s="58"/>
       <c r="N30" s="58"/>
       <c r="O30" s="58"/>
-      <c r="P30" s="56"/>
+      <c r="P30" s="56">
+        <v>29</v>
+      </c>
       <c r="Q30" s="57"/>
     </row>
-    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="100" t="s">
-        <v>561</v>
-      </c>
-      <c r="B31" s="100" t="s">
+    <row r="31" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="B31" s="51" t="s">
+        <v>528</v>
+      </c>
+      <c r="C31" s="51" t="s">
+        <v>529</v>
+      </c>
+      <c r="D31" s="51" t="s">
+        <v>530</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="58">
+        <v>500</v>
+      </c>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="56">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="57"/>
+    </row>
+    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B32" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="100" t="s">
+      <c r="C32" s="100" t="s">
         <v>243</v>
       </c>
-      <c r="D31" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="E31" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="101"/>
-      <c r="O31" s="101"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="57"/>
-    </row>
-    <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="100" t="s">
-        <v>561</v>
-      </c>
-      <c r="B32" s="100" t="s">
-        <v>222</v>
-      </c>
-      <c r="C32" s="100" t="s">
-        <v>572</v>
-      </c>
       <c r="D32" s="100" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>97</v>
       </c>
       <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
+      <c r="G32" s="101">
+        <v>1</v>
+      </c>
+      <c r="H32" s="101">
+        <v>1</v>
+      </c>
+      <c r="I32" s="101">
+        <v>1</v>
+      </c>
       <c r="J32" s="101"/>
       <c r="K32" s="101"/>
       <c r="L32" s="101"/>
       <c r="M32" s="101"/>
       <c r="N32" s="101"/>
       <c r="O32" s="101"/>
-      <c r="P32" s="56"/>
+      <c r="P32" s="56">
+        <v>31</v>
+      </c>
       <c r="Q32" s="57"/>
     </row>
-    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B33" s="100" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>274</v>
+        <v>570</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>276</v>
+        <v>571</v>
       </c>
       <c r="E33" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="101">
-        <v>500</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F33" s="101"/>
       <c r="G33" s="101"/>
       <c r="H33" s="101"/>
       <c r="I33" s="101"/>
@@ -7480,27 +7625,29 @@
       <c r="M33" s="101"/>
       <c r="N33" s="101"/>
       <c r="O33" s="101"/>
-      <c r="P33" s="56"/>
+      <c r="P33" s="56">
+        <v>32</v>
+      </c>
       <c r="Q33" s="57"/>
     </row>
-    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>228</v>
+        <v>613</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>275</v>
+        <v>614</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>277</v>
+        <v>615</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="101">
-        <v>500</v>
+        <v>50</v>
       </c>
       <c r="G34" s="101"/>
       <c r="H34" s="101"/>
@@ -7511,27 +7658,29 @@
       <c r="M34" s="101"/>
       <c r="N34" s="101"/>
       <c r="O34" s="101"/>
-      <c r="P34" s="56"/>
+      <c r="P34" s="56">
+        <v>33</v>
+      </c>
       <c r="Q34" s="57"/>
     </row>
-    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B35" s="100" t="s">
-        <v>562</v>
+        <v>227</v>
       </c>
       <c r="C35" s="100" t="s">
-        <v>563</v>
+        <v>274</v>
       </c>
       <c r="D35" s="100" t="s">
-        <v>564</v>
+        <v>276</v>
       </c>
       <c r="E35" s="100" t="s">
         <v>15</v>
       </c>
       <c r="F35" s="101">
-        <v>255</v>
+        <v>500</v>
       </c>
       <c r="G35" s="101"/>
       <c r="H35" s="101"/>
@@ -7542,26 +7691,30 @@
       <c r="M35" s="101"/>
       <c r="N35" s="101"/>
       <c r="O35" s="101"/>
-      <c r="P35" s="56"/>
+      <c r="P35" s="56">
+        <v>34</v>
+      </c>
       <c r="Q35" s="57"/>
     </row>
-    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B36" s="100" t="s">
-        <v>567</v>
+        <v>228</v>
       </c>
       <c r="C36" s="100" t="s">
-        <v>565</v>
+        <v>275</v>
       </c>
       <c r="D36" s="100" t="s">
-        <v>566</v>
+        <v>277</v>
       </c>
       <c r="E36" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F36" s="101">
+        <v>500</v>
+      </c>
       <c r="G36" s="101"/>
       <c r="H36" s="101"/>
       <c r="I36" s="101"/>
@@ -7571,26 +7724,30 @@
       <c r="M36" s="101"/>
       <c r="N36" s="101"/>
       <c r="O36" s="101"/>
-      <c r="P36" s="56"/>
+      <c r="P36" s="56">
+        <v>35</v>
+      </c>
       <c r="Q36" s="57"/>
     </row>
-    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B37" s="100" t="s">
+        <v>560</v>
+      </c>
+      <c r="C37" s="100" t="s">
         <v>561</v>
       </c>
-      <c r="B37" s="100" t="s">
-        <v>205</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>237</v>
-      </c>
       <c r="D37" s="100" t="s">
-        <v>132</v>
+        <v>562</v>
       </c>
       <c r="E37" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="F37" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F37" s="101">
+        <v>255</v>
+      </c>
       <c r="G37" s="101"/>
       <c r="H37" s="101"/>
       <c r="I37" s="101"/>
@@ -7600,24 +7757,26 @@
       <c r="M37" s="101"/>
       <c r="N37" s="101"/>
       <c r="O37" s="101"/>
-      <c r="P37" s="56"/>
+      <c r="P37" s="56">
+        <v>36</v>
+      </c>
       <c r="Q37" s="57"/>
     </row>
-    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>231</v>
+        <v>565</v>
       </c>
       <c r="C38" s="100" t="s">
-        <v>249</v>
+        <v>563</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>297</v>
+        <v>564</v>
       </c>
       <c r="E38" s="100" t="s">
-        <v>50</v>
+        <v>97</v>
       </c>
       <c r="F38" s="101"/>
       <c r="G38" s="101"/>
@@ -7629,28 +7788,28 @@
       <c r="M38" s="101"/>
       <c r="N38" s="101"/>
       <c r="O38" s="101"/>
-      <c r="P38" s="56"/>
+      <c r="P38" s="56">
+        <v>37</v>
+      </c>
       <c r="Q38" s="57"/>
     </row>
-    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B39" s="100" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
       <c r="C39" s="100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D39" s="100" t="s">
-        <v>176</v>
+        <v>132</v>
       </c>
       <c r="E39" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="101">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F39" s="101"/>
       <c r="G39" s="101"/>
       <c r="H39" s="101"/>
       <c r="I39" s="101"/>
@@ -7660,21 +7819,23 @@
       <c r="M39" s="101"/>
       <c r="N39" s="101"/>
       <c r="O39" s="101"/>
-      <c r="P39" s="56"/>
+      <c r="P39" s="56">
+        <v>38</v>
+      </c>
       <c r="Q39" s="57"/>
     </row>
-    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B40" s="100" t="s">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="C40" s="100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D40" s="100" t="s">
-        <v>177</v>
+        <v>296</v>
       </c>
       <c r="E40" s="100" t="s">
         <v>50</v>
@@ -7689,26 +7850,30 @@
       <c r="M40" s="101"/>
       <c r="N40" s="101"/>
       <c r="O40" s="101"/>
-      <c r="P40" s="56"/>
+      <c r="P40" s="56">
+        <v>39</v>
+      </c>
       <c r="Q40" s="57"/>
     </row>
-    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="100" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B41" s="100" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C41" s="100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D41" s="100" t="s">
-        <v>568</v>
+        <v>176</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F41" s="101"/>
+        <v>15</v>
+      </c>
+      <c r="F41" s="101">
+        <v>255</v>
+      </c>
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
@@ -7718,153 +7883,159 @@
       <c r="M41" s="101"/>
       <c r="N41" s="101"/>
       <c r="O41" s="101"/>
-      <c r="P41" s="56"/>
+      <c r="P41" s="56">
+        <v>40</v>
+      </c>
       <c r="Q41" s="57"/>
     </row>
-    <row r="42" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B42" s="50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D42" s="50" t="s">
-        <v>281</v>
-      </c>
-      <c r="E42" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
+    <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B42" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="100" t="s">
+        <v>248</v>
+      </c>
+      <c r="D42" s="100" t="s">
+        <v>177</v>
+      </c>
+      <c r="E42" s="100" t="s">
+        <v>50</v>
+      </c>
+      <c r="F42" s="101"/>
+      <c r="G42" s="101"/>
+      <c r="H42" s="101"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="101"/>
+      <c r="K42" s="101"/>
+      <c r="L42" s="101"/>
+      <c r="M42" s="101"/>
+      <c r="N42" s="101"/>
+      <c r="O42" s="101"/>
       <c r="P42" s="56">
-        <v>26</v>
-      </c>
-      <c r="Q42" s="59"/>
-    </row>
-    <row r="43" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B43" s="50" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="D43" s="50" t="s">
-        <v>367</v>
-      </c>
-      <c r="E43" s="50" t="s">
-        <v>16</v>
-      </c>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
+        <v>41</v>
+      </c>
+      <c r="Q42" s="57"/>
+    </row>
+    <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100" t="s">
+        <v>559</v>
+      </c>
+      <c r="B43" s="100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="100" t="s">
+        <v>236</v>
+      </c>
+      <c r="D43" s="100" t="s">
+        <v>566</v>
+      </c>
+      <c r="E43" s="100" t="s">
+        <v>97</v>
+      </c>
+      <c r="F43" s="101"/>
+      <c r="G43" s="101"/>
+      <c r="H43" s="101"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="101"/>
+      <c r="K43" s="101"/>
+      <c r="L43" s="101"/>
+      <c r="M43" s="101"/>
+      <c r="N43" s="101"/>
+      <c r="O43" s="101"/>
       <c r="P43" s="56">
-        <v>27</v>
-      </c>
-      <c r="Q43" s="59"/>
-    </row>
-    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="Q43" s="57"/>
+    </row>
+    <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B44" s="50" t="s">
-        <v>184</v>
+        <v>18</v>
       </c>
       <c r="C44" s="50" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F44" s="55">
-        <v>50</v>
-      </c>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
+        <v>16</v>
+      </c>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55">
+        <v>1</v>
+      </c>
+      <c r="H44" s="55">
+        <v>1</v>
+      </c>
+      <c r="I44" s="55">
+        <v>1</v>
+      </c>
       <c r="J44" s="55"/>
       <c r="K44" s="55"/>
-      <c r="L44" s="60" t="s">
-        <v>218</v>
-      </c>
+      <c r="L44" s="55"/>
       <c r="M44" s="55"/>
       <c r="N44" s="55"/>
       <c r="O44" s="55"/>
       <c r="P44" s="56">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="Q44" s="59"/>
     </row>
-    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>285</v>
+        <v>222</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="E45" s="50"/>
+        <v>366</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="F45" s="55"/>
       <c r="G45" s="55"/>
       <c r="H45" s="55"/>
       <c r="I45" s="55"/>
       <c r="J45" s="55"/>
       <c r="K45" s="55"/>
-      <c r="L45" s="61"/>
+      <c r="L45" s="55"/>
       <c r="M45" s="55"/>
       <c r="N45" s="55"/>
       <c r="O45" s="55"/>
       <c r="P45" s="56">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="Q45" s="59"/>
     </row>
-    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>229</v>
+        <v>613</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>254</v>
+        <v>616</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>288</v>
+        <v>617</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F46" s="55">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
@@ -7876,58 +8047,58 @@
       <c r="N46" s="55"/>
       <c r="O46" s="55"/>
       <c r="P46" s="56">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="Q46" s="59"/>
     </row>
-    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C47" s="50" t="s">
-        <v>236</v>
+        <v>283</v>
       </c>
       <c r="D47" s="50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F47" s="55">
-        <v>255</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F47" s="55"/>
       <c r="G47" s="55"/>
       <c r="H47" s="55"/>
       <c r="I47" s="55"/>
       <c r="J47" s="55"/>
       <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
+      <c r="L47" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M47" s="55"/>
       <c r="N47" s="55"/>
       <c r="O47" s="55"/>
       <c r="P47" s="56">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q47" s="59"/>
     </row>
-    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C48" s="50" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>240</v>
+        <v>618</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F48" s="55"/>
       <c r="G48" s="55"/>
@@ -7935,33 +8106,33 @@
       <c r="I48" s="55"/>
       <c r="J48" s="55"/>
       <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
+      <c r="L48" s="61"/>
       <c r="M48" s="55"/>
       <c r="N48" s="55"/>
       <c r="O48" s="55"/>
       <c r="P48" s="56">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q48" s="59"/>
     </row>
-    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="55">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G49" s="55"/>
       <c r="H49" s="55"/>
@@ -7973,27 +8144,29 @@
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
       <c r="P49" s="56">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B50" s="50" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="50" t="s">
-        <v>206</v>
+        <v>288</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="F50" s="55"/>
+        <v>15</v>
+      </c>
+      <c r="F50" s="55">
+        <v>255</v>
+      </c>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
@@ -8004,22 +8177,22 @@
       <c r="N50" s="55"/>
       <c r="O50" s="55"/>
       <c r="P50" s="56">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="Q50" s="59"/>
     </row>
-    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
         <v>280</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>45</v>
+        <v>486</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>248</v>
+        <v>487</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>177</v>
+        <v>488</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>15</v>
@@ -8036,237 +8209,229 @@
       <c r="M51" s="55"/>
       <c r="N51" s="55"/>
       <c r="O51" s="55"/>
-      <c r="P51" s="56">
-        <v>36</v>
-      </c>
+      <c r="P51" s="56"/>
       <c r="Q51" s="59"/>
     </row>
-    <row r="52" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B52" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="52" t="s">
-        <v>243</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46">
-        <v>1</v>
-      </c>
-      <c r="H52" s="46">
-        <v>1</v>
-      </c>
-      <c r="I52" s="46">
-        <v>1</v>
-      </c>
-      <c r="J52" s="46">
-        <v>1</v>
-      </c>
-      <c r="K52" s="46"/>
-      <c r="L52" s="46"/>
-      <c r="M52" s="46"/>
-      <c r="N52" s="46"/>
-      <c r="O52" s="46"/>
+    <row r="52" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B52" s="50" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="D52" s="50" t="s">
+        <v>240</v>
+      </c>
+      <c r="E52" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F52" s="55"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="55"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="55"/>
+      <c r="L52" s="55"/>
+      <c r="M52" s="55"/>
+      <c r="N52" s="55"/>
+      <c r="O52" s="55"/>
       <c r="P52" s="56">
-        <v>37</v>
-      </c>
-      <c r="Q52" s="57"/>
-    </row>
-    <row r="53" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="52" t="s">
-        <v>222</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>293</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" s="46"/>
-      <c r="G53" s="46">
-        <v>1</v>
-      </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="46"/>
-      <c r="J53" s="46"/>
-      <c r="K53" s="46"/>
-      <c r="L53" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="M53" s="46"/>
-      <c r="N53" s="46"/>
-      <c r="O53" s="46"/>
+        <v>50</v>
+      </c>
+      <c r="Q52" s="59"/>
+    </row>
+    <row r="53" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B53" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="55">
+        <v>255</v>
+      </c>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="55"/>
+      <c r="K53" s="55"/>
+      <c r="L53" s="55"/>
+      <c r="M53" s="55"/>
+      <c r="N53" s="55"/>
+      <c r="O53" s="55"/>
       <c r="P53" s="56">
-        <v>38</v>
-      </c>
-      <c r="Q53" s="57"/>
-    </row>
-    <row r="54" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B54" s="52" t="s">
-        <v>184</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>283</v>
-      </c>
-      <c r="D54" s="52" t="s">
-        <v>301</v>
-      </c>
-      <c r="E54" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" s="46"/>
-      <c r="G54" s="46">
-        <v>1</v>
-      </c>
-      <c r="H54" s="46"/>
-      <c r="I54" s="46"/>
-      <c r="J54" s="46"/>
-      <c r="K54" s="46"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="46"/>
-      <c r="N54" s="46"/>
-      <c r="O54" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="Q53" s="59"/>
+    </row>
+    <row r="54" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B54" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="50" t="s">
+        <v>238</v>
+      </c>
+      <c r="D54" s="50" t="s">
+        <v>206</v>
+      </c>
+      <c r="E54" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" s="55"/>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55"/>
+      <c r="J54" s="55"/>
+      <c r="K54" s="55"/>
+      <c r="L54" s="55"/>
+      <c r="M54" s="55"/>
+      <c r="N54" s="55"/>
+      <c r="O54" s="55"/>
       <c r="P54" s="56">
-        <v>39</v>
-      </c>
-      <c r="Q54" s="57"/>
-    </row>
-    <row r="55" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B55" s="52" t="s">
-        <v>285</v>
-      </c>
-      <c r="C55" s="52" t="s">
-        <v>286</v>
-      </c>
-      <c r="D55" s="52" t="s">
-        <v>302</v>
-      </c>
-      <c r="E55" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q54" s="59"/>
+    </row>
+    <row r="55" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="B55" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="D55" s="50" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F55" s="46">
+      <c r="F55" s="55">
         <v>255</v>
       </c>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-      <c r="I55" s="46"/>
-      <c r="J55" s="46"/>
-      <c r="K55" s="46"/>
-      <c r="L55" s="60"/>
-      <c r="M55" s="46"/>
-      <c r="N55" s="46"/>
-      <c r="O55" s="46"/>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="55"/>
+      <c r="J55" s="55"/>
+      <c r="K55" s="55"/>
+      <c r="L55" s="55"/>
+      <c r="M55" s="55"/>
+      <c r="N55" s="55"/>
+      <c r="O55" s="55"/>
       <c r="P55" s="56">
-        <v>40</v>
-      </c>
-      <c r="Q55" s="57"/>
-    </row>
-    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+      <c r="Q55" s="59"/>
+    </row>
+    <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B56" s="52" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>233</v>
+        <v>179</v>
       </c>
       <c r="E56" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F56" s="46">
-        <v>2000</v>
-      </c>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-      <c r="I56" s="46"/>
-      <c r="J56" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46">
+        <v>1</v>
+      </c>
+      <c r="H56" s="46">
+        <v>1</v>
+      </c>
+      <c r="I56" s="46">
+        <v>1</v>
+      </c>
+      <c r="J56" s="46">
+        <v>1</v>
+      </c>
       <c r="K56" s="46"/>
-      <c r="L56" s="60"/>
+      <c r="L56" s="46"/>
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
       <c r="O56" s="46"/>
       <c r="P56" s="56">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B57" s="52" t="s">
-        <v>298</v>
+        <v>222</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>299</v>
-      </c>
-      <c r="D57" s="98" t="s">
-        <v>491</v>
+        <v>282</v>
+      </c>
+      <c r="D57" s="52" t="s">
+        <v>292</v>
       </c>
       <c r="E57" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F57" s="46">
-        <v>255</v>
-      </c>
-      <c r="G57" s="46"/>
+        <v>16</v>
+      </c>
+      <c r="F57" s="46"/>
+      <c r="G57" s="46">
+        <v>1</v>
+      </c>
       <c r="H57" s="46"/>
       <c r="I57" s="46"/>
       <c r="J57" s="46"/>
       <c r="K57" s="46"/>
-      <c r="L57" s="60"/>
+      <c r="L57" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M57" s="46"/>
       <c r="N57" s="46"/>
       <c r="O57" s="46"/>
       <c r="P57" s="56">
-        <v>42</v>
-      </c>
-      <c r="Q57" s="57" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="Q57" s="57"/>
+    </row>
+    <row r="58" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>217</v>
+        <v>613</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>256</v>
+        <v>616</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>304</v>
+        <v>619</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F58" s="46">
-        <v>2000</v>
+        <v>50</v>
       </c>
       <c r="G58" s="46"/>
       <c r="H58" s="46"/>
@@ -8278,28 +8443,30 @@
       <c r="N58" s="46"/>
       <c r="O58" s="46"/>
       <c r="P58" s="56">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="Q58" s="57"/>
     </row>
-    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B59" s="52" t="s">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>492</v>
+        <v>283</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="E59" s="52" t="s">
-        <v>97</v>
+        <v>16</v>
       </c>
       <c r="F59" s="46"/>
-      <c r="G59" s="46"/>
+      <c r="G59" s="46">
+        <v>1</v>
+      </c>
       <c r="H59" s="46"/>
       <c r="I59" s="46"/>
       <c r="J59" s="46"/>
@@ -8309,59 +8476,61 @@
       <c r="N59" s="46"/>
       <c r="O59" s="46"/>
       <c r="P59" s="56">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="Q59" s="57"/>
     </row>
-    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B60" s="52" t="s">
-        <v>205</v>
+        <v>285</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>132</v>
+        <v>301</v>
       </c>
       <c r="E60" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F60" s="46">
+        <v>255</v>
+      </c>
       <c r="G60" s="46"/>
       <c r="H60" s="46"/>
       <c r="I60" s="46"/>
       <c r="J60" s="46"/>
       <c r="K60" s="46"/>
-      <c r="L60" s="46"/>
+      <c r="L60" s="60"/>
       <c r="M60" s="46"/>
       <c r="N60" s="46"/>
       <c r="O60" s="46"/>
       <c r="P60" s="56">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="Q60" s="57"/>
     </row>
-    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B61" s="52" t="s">
-        <v>231</v>
+        <v>4</v>
       </c>
       <c r="C61" s="52" t="s">
         <v>291</v>
       </c>
       <c r="D61" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="46">
-        <v>50</v>
+        <v>2000</v>
       </c>
       <c r="G61" s="46"/>
       <c r="H61" s="46"/>
@@ -8373,298 +8542,294 @@
       <c r="N61" s="46"/>
       <c r="O61" s="46"/>
       <c r="P61" s="56">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="Q61" s="57"/>
     </row>
-    <row r="62" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="52" t="s">
         <v>279</v>
       </c>
       <c r="B62" s="52" t="s">
-        <v>19</v>
+        <v>297</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="D62" s="52" t="s">
-        <v>493</v>
+        <v>298</v>
+      </c>
+      <c r="D62" s="98" t="s">
+        <v>489</v>
       </c>
       <c r="E62" s="52" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="46"/>
+        <v>15</v>
+      </c>
+      <c r="F62" s="46">
+        <v>255</v>
+      </c>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
       <c r="J62" s="46"/>
       <c r="K62" s="46"/>
-      <c r="L62" s="46"/>
+      <c r="L62" s="60"/>
       <c r="M62" s="46"/>
       <c r="N62" s="46"/>
       <c r="O62" s="46"/>
       <c r="P62" s="56">
-        <v>47</v>
-      </c>
-      <c r="Q62" s="57"/>
-    </row>
-    <row r="63" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="65" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q62" s="57" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="52" t="s">
         <v>279</v>
       </c>
-      <c r="B63" s="65" t="s">
+      <c r="B63" s="52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C63" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="D63" s="52" t="s">
+        <v>303</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="46">
+        <v>2000</v>
+      </c>
+      <c r="G63" s="46"/>
+      <c r="H63" s="46"/>
+      <c r="I63" s="46"/>
+      <c r="J63" s="46"/>
+      <c r="K63" s="46"/>
+      <c r="L63" s="60"/>
+      <c r="M63" s="46"/>
+      <c r="N63" s="46"/>
+      <c r="O63" s="46"/>
+      <c r="P63" s="56">
+        <v>61</v>
+      </c>
+      <c r="Q63" s="57"/>
+    </row>
+    <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B64" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="52" t="s">
+        <v>490</v>
+      </c>
+      <c r="D64" s="52" t="s">
+        <v>523</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>97</v>
+      </c>
+      <c r="F64" s="46"/>
+      <c r="G64" s="46"/>
+      <c r="H64" s="46"/>
+      <c r="I64" s="46"/>
+      <c r="J64" s="46"/>
+      <c r="K64" s="46"/>
+      <c r="L64" s="60"/>
+      <c r="M64" s="46"/>
+      <c r="N64" s="46"/>
+      <c r="O64" s="46"/>
+      <c r="P64" s="56">
+        <v>62</v>
+      </c>
+      <c r="Q64" s="57"/>
+    </row>
+    <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C65" s="52" t="s">
+        <v>237</v>
+      </c>
+      <c r="D65" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65" s="46"/>
+      <c r="G65" s="46"/>
+      <c r="H65" s="46"/>
+      <c r="I65" s="46"/>
+      <c r="J65" s="46"/>
+      <c r="K65" s="46"/>
+      <c r="L65" s="46"/>
+      <c r="M65" s="46"/>
+      <c r="N65" s="46"/>
+      <c r="O65" s="46"/>
+      <c r="P65" s="56">
+        <v>63</v>
+      </c>
+      <c r="Q65" s="57"/>
+    </row>
+    <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B66" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C66" s="52" t="s">
+        <v>290</v>
+      </c>
+      <c r="D66" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="E66" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="46">
+        <v>50</v>
+      </c>
+      <c r="G66" s="46"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="46"/>
+      <c r="J66" s="46"/>
+      <c r="K66" s="46"/>
+      <c r="L66" s="60"/>
+      <c r="M66" s="46"/>
+      <c r="N66" s="46"/>
+      <c r="O66" s="46"/>
+      <c r="P66" s="56">
+        <v>64</v>
+      </c>
+      <c r="Q66" s="57"/>
+    </row>
+    <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="52" t="s">
+        <v>279</v>
+      </c>
+      <c r="B67" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="D67" s="52" t="s">
+        <v>491</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="F67" s="46"/>
+      <c r="G67" s="46"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="46"/>
+      <c r="J67" s="46"/>
+      <c r="K67" s="46"/>
+      <c r="L67" s="46"/>
+      <c r="M67" s="46"/>
+      <c r="N67" s="46"/>
+      <c r="O67" s="46"/>
+      <c r="P67" s="56">
+        <v>65</v>
+      </c>
+      <c r="Q67" s="57"/>
+    </row>
+    <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="65" t="s">
+        <v>279</v>
+      </c>
+      <c r="B68" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C63" s="65" t="s">
+      <c r="C68" s="65" t="s">
         <v>248</v>
       </c>
-      <c r="D63" s="65" t="s">
+      <c r="D68" s="65" t="s">
         <v>177</v>
       </c>
-      <c r="E63" s="65" t="s">
+      <c r="E68" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F63" s="48">
+      <c r="F68" s="48">
         <v>255</v>
       </c>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="48"/>
-      <c r="J63" s="48"/>
-      <c r="K63" s="48"/>
-      <c r="L63" s="48"/>
-      <c r="M63" s="48"/>
-      <c r="N63" s="48"/>
-      <c r="O63" s="48"/>
-      <c r="P63" s="56">
-        <v>48</v>
-      </c>
-      <c r="Q63" s="57"/>
-    </row>
-    <row r="64" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B64" s="53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64" s="53" t="s">
-        <v>272</v>
-      </c>
-      <c r="D64" s="53" t="s">
-        <v>216</v>
-      </c>
-      <c r="E64" s="53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62">
-        <v>1</v>
-      </c>
-      <c r="H64" s="62">
-        <v>1</v>
-      </c>
-      <c r="I64" s="62">
-        <v>1</v>
-      </c>
-      <c r="J64" s="62">
-        <v>1</v>
-      </c>
-      <c r="K64" s="62"/>
-      <c r="L64" s="62"/>
-      <c r="M64" s="62"/>
-      <c r="N64" s="62"/>
-      <c r="O64" s="62"/>
-      <c r="P64" s="56">
-        <v>59</v>
-      </c>
-      <c r="Q64" s="59"/>
-    </row>
-    <row r="65" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B65" s="53" t="s">
-        <v>327</v>
-      </c>
-      <c r="C65" s="53" t="s">
-        <v>552</v>
-      </c>
-      <c r="D65" s="53" t="s">
-        <v>553</v>
-      </c>
-      <c r="E65" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F65" s="62">
-        <v>50</v>
-      </c>
-      <c r="G65" s="62"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
-      <c r="J65" s="62"/>
-      <c r="K65" s="62"/>
-      <c r="L65" s="62"/>
-      <c r="M65" s="62"/>
-      <c r="N65" s="62"/>
-      <c r="O65" s="62"/>
-      <c r="P65" s="56">
-        <v>60</v>
-      </c>
-      <c r="Q65" s="59"/>
-    </row>
-    <row r="66" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B66" s="53" t="s">
-        <v>298</v>
-      </c>
-      <c r="C66" s="53" t="s">
-        <v>246</v>
-      </c>
-      <c r="D66" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="E66" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F66" s="62">
-        <v>255</v>
-      </c>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
-      <c r="I66" s="62"/>
-      <c r="J66" s="62"/>
-      <c r="K66" s="62"/>
-      <c r="L66" s="60" t="s">
-        <v>218</v>
-      </c>
-      <c r="M66" s="62"/>
-      <c r="N66" s="62"/>
-      <c r="O66" s="62"/>
-      <c r="P66" s="56">
-        <v>61</v>
-      </c>
-      <c r="Q66" s="59"/>
-    </row>
-    <row r="67" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B67" s="53" t="s">
-        <v>208</v>
-      </c>
-      <c r="C67" s="53" t="s">
-        <v>268</v>
-      </c>
-      <c r="D67" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="E67" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F67" s="62">
-        <v>255</v>
-      </c>
-      <c r="G67" s="62"/>
-      <c r="H67" s="62"/>
-      <c r="I67" s="62"/>
-      <c r="J67" s="62"/>
-      <c r="K67" s="62"/>
-      <c r="L67" s="62"/>
-      <c r="M67" s="62"/>
-      <c r="N67" s="62"/>
-      <c r="O67" s="62"/>
-      <c r="P67" s="56">
-        <v>62</v>
-      </c>
-      <c r="Q67" s="59"/>
-    </row>
-    <row r="68" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="53" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" s="53" t="s">
-        <v>209</v>
-      </c>
-      <c r="C68" s="53" t="s">
-        <v>269</v>
-      </c>
-      <c r="D68" s="53" t="s">
-        <v>214</v>
-      </c>
-      <c r="E68" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F68" s="62">
-        <v>255</v>
-      </c>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
-      <c r="I68" s="62"/>
-      <c r="J68" s="62"/>
-      <c r="K68" s="62"/>
-      <c r="L68" s="62"/>
-      <c r="M68" s="62"/>
-      <c r="N68" s="62"/>
-      <c r="O68" s="62"/>
+      <c r="G68" s="48"/>
+      <c r="H68" s="48"/>
+      <c r="I68" s="48"/>
+      <c r="J68" s="48"/>
+      <c r="K68" s="48"/>
+      <c r="L68" s="48"/>
+      <c r="M68" s="48"/>
+      <c r="N68" s="48"/>
+      <c r="O68" s="48"/>
       <c r="P68" s="56">
-        <v>63</v>
-      </c>
-      <c r="Q68" s="59"/>
-    </row>
-    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="Q68" s="57"/>
+    </row>
+    <row r="69" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B69" s="53" t="s">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="D69" s="53" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="E69" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="62">
-        <v>255</v>
-      </c>
-      <c r="G69" s="62"/>
-      <c r="H69" s="62"/>
-      <c r="I69" s="62"/>
-      <c r="J69" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="F69" s="62"/>
+      <c r="G69" s="62">
+        <v>1</v>
+      </c>
+      <c r="H69" s="62">
+        <v>1</v>
+      </c>
+      <c r="I69" s="62">
+        <v>1</v>
+      </c>
+      <c r="J69" s="62">
+        <v>1</v>
+      </c>
       <c r="K69" s="62"/>
       <c r="L69" s="62"/>
       <c r="M69" s="62"/>
       <c r="N69" s="62"/>
       <c r="O69" s="62"/>
       <c r="P69" s="56">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q69" s="59"/>
     </row>
-    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>178</v>
+        <v>326</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>270</v>
+        <v>550</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>271</v>
+        <v>551</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
       </c>
       <c r="F70" s="62">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="G70" s="62"/>
       <c r="H70" s="62"/>
@@ -8676,53 +8841,57 @@
       <c r="N70" s="62"/>
       <c r="O70" s="62"/>
       <c r="P70" s="56">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q70" s="59"/>
     </row>
-    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B71" s="53" t="s">
-        <v>205</v>
+        <v>297</v>
       </c>
       <c r="C71" s="53" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="D71" s="53" t="s">
-        <v>132</v>
+        <v>267</v>
       </c>
       <c r="E71" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F71" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F71" s="62">
+        <v>255</v>
+      </c>
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
       <c r="J71" s="62"/>
       <c r="K71" s="62"/>
-      <c r="L71" s="62"/>
+      <c r="L71" s="60" t="s">
+        <v>218</v>
+      </c>
       <c r="M71" s="62"/>
       <c r="N71" s="62"/>
       <c r="O71" s="62"/>
       <c r="P71" s="56">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q71" s="59"/>
     </row>
-    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B72" s="53" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>249</v>
+        <v>268</v>
       </c>
       <c r="D72" s="53" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="E72" s="53" t="s">
         <v>15</v>
@@ -8740,27 +8909,29 @@
       <c r="N72" s="62"/>
       <c r="O72" s="62"/>
       <c r="P72" s="56">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q72" s="59"/>
     </row>
-    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B73" s="53" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>238</v>
+        <v>269</v>
       </c>
       <c r="D73" s="53" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="E73" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="F73" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F73" s="62">
+        <v>255</v>
+      </c>
       <c r="G73" s="62"/>
       <c r="H73" s="62"/>
       <c r="I73" s="62"/>
@@ -8771,28 +8942,28 @@
       <c r="N73" s="62"/>
       <c r="O73" s="62"/>
       <c r="P73" s="56">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q73" s="59"/>
     </row>
-    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B74" s="53" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="C74" s="53" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D74" s="53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E74" s="53" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F74" s="62">
-        <v>50</v>
+        <v>255</v>
       </c>
       <c r="G74" s="62"/>
       <c r="H74" s="62"/>
@@ -8804,263 +8975,261 @@
       <c r="N74" s="62"/>
       <c r="O74" s="62"/>
       <c r="P74" s="56">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q74" s="59"/>
     </row>
-    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="53" t="s">
         <v>217</v>
       </c>
       <c r="B75" s="53" t="s">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="C75" s="53" t="s">
-        <v>236</v>
+        <v>270</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="E75" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="F75" s="62"/>
+        <v>15</v>
+      </c>
+      <c r="F75" s="62">
+        <v>255</v>
+      </c>
       <c r="G75" s="62"/>
       <c r="H75" s="62"/>
       <c r="I75" s="62"/>
       <c r="J75" s="62"/>
       <c r="K75" s="62"/>
       <c r="L75" s="62"/>
-      <c r="M75" s="62">
-        <v>1</v>
-      </c>
+      <c r="M75" s="62"/>
       <c r="N75" s="62"/>
       <c r="O75" s="62"/>
       <c r="P75" s="56">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q75" s="59"/>
     </row>
-    <row r="76" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B76" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>243</v>
-      </c>
-      <c r="D76" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="E76" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45">
-        <v>1</v>
-      </c>
-      <c r="H76" s="45">
-        <v>1</v>
-      </c>
-      <c r="I76" s="45"/>
-      <c r="J76" s="45">
-        <v>1</v>
-      </c>
-      <c r="K76" s="45"/>
-      <c r="L76" s="45"/>
-      <c r="M76" s="45"/>
-      <c r="N76" s="45"/>
-      <c r="O76" s="45"/>
+    <row r="76" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B76" s="53" t="s">
+        <v>205</v>
+      </c>
+      <c r="C76" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="D76" s="53" t="s">
+        <v>132</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="62"/>
+      <c r="G76" s="62"/>
+      <c r="H76" s="62"/>
+      <c r="I76" s="62"/>
+      <c r="J76" s="62"/>
+      <c r="K76" s="62"/>
+      <c r="L76" s="62"/>
+      <c r="M76" s="62"/>
+      <c r="N76" s="62"/>
+      <c r="O76" s="62"/>
       <c r="P76" s="56">
-        <v>71</v>
-      </c>
-      <c r="Q76" s="57"/>
-    </row>
-    <row r="77" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B77" s="44" t="s">
-        <v>139</v>
-      </c>
-      <c r="C77" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="D77" s="63" t="s">
-        <v>414</v>
-      </c>
-      <c r="E77" s="63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="45"/>
-      <c r="G77" s="45">
-        <v>1</v>
-      </c>
-      <c r="H77" s="45"/>
-      <c r="I77" s="45"/>
-      <c r="J77" s="45"/>
-      <c r="K77" s="45"/>
-      <c r="L77" s="45"/>
-      <c r="M77" s="45"/>
-      <c r="N77" s="45"/>
-      <c r="O77" s="45"/>
+        <v>74</v>
+      </c>
+      <c r="Q76" s="59"/>
+    </row>
+    <row r="77" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B77" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C77" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="D77" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="62">
+        <v>255</v>
+      </c>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="62"/>
+      <c r="N77" s="62"/>
+      <c r="O77" s="62"/>
       <c r="P77" s="56">
-        <v>72</v>
-      </c>
-      <c r="Q77" s="57"/>
-    </row>
-    <row r="78" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B78" s="44" t="s">
-        <v>596</v>
-      </c>
-      <c r="C78" s="44" t="s">
-        <v>597</v>
-      </c>
-      <c r="D78" s="63" t="s">
-        <v>598</v>
-      </c>
-      <c r="E78" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F78" s="45">
-        <v>2000</v>
-      </c>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-      <c r="I78" s="45"/>
-      <c r="J78" s="45"/>
-      <c r="K78" s="45"/>
-      <c r="L78" s="45"/>
-      <c r="M78" s="45"/>
-      <c r="N78" s="45"/>
-      <c r="O78" s="45"/>
-      <c r="P78" s="56"/>
-      <c r="Q78" s="57"/>
-    </row>
-    <row r="79" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B79" s="44" t="s">
-        <v>242</v>
-      </c>
-      <c r="C79" s="44" t="s">
-        <v>244</v>
-      </c>
-      <c r="D79" s="63" t="s">
-        <v>303</v>
-      </c>
-      <c r="E79" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="45">
+        <v>75</v>
+      </c>
+      <c r="Q77" s="59"/>
+    </row>
+    <row r="78" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B78" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="53" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="G79" s="45">
-        <v>1</v>
-      </c>
-      <c r="H79" s="45"/>
-      <c r="I79" s="45"/>
-      <c r="J79" s="45"/>
-      <c r="K79" s="45"/>
-      <c r="L79" s="45"/>
-      <c r="M79" s="45"/>
-      <c r="N79" s="45"/>
-      <c r="O79" s="45"/>
+      <c r="F78" s="62"/>
+      <c r="G78" s="62"/>
+      <c r="H78" s="62"/>
+      <c r="I78" s="62"/>
+      <c r="J78" s="62"/>
+      <c r="K78" s="62"/>
+      <c r="L78" s="62"/>
+      <c r="M78" s="62"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="62"/>
+      <c r="P78" s="56">
+        <v>76</v>
+      </c>
+      <c r="Q78" s="59"/>
+    </row>
+    <row r="79" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="D79" s="53" t="s">
+        <v>212</v>
+      </c>
+      <c r="E79" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="F79" s="62">
+        <v>50</v>
+      </c>
+      <c r="G79" s="62"/>
+      <c r="H79" s="62"/>
+      <c r="I79" s="62"/>
+      <c r="J79" s="62"/>
+      <c r="K79" s="62"/>
+      <c r="L79" s="62"/>
+      <c r="M79" s="62"/>
+      <c r="N79" s="62"/>
+      <c r="O79" s="62"/>
       <c r="P79" s="56">
-        <v>73</v>
-      </c>
-      <c r="Q79" s="57"/>
-    </row>
-    <row r="80" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="44" t="s">
-        <v>169</v>
-      </c>
-      <c r="B80" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="44" t="s">
-        <v>207</v>
-      </c>
-      <c r="D80" s="63" t="s">
-        <v>273</v>
-      </c>
-      <c r="E80" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F80" s="45">
-        <v>50</v>
-      </c>
-      <c r="G80" s="45"/>
-      <c r="H80" s="45"/>
-      <c r="I80" s="45"/>
-      <c r="J80" s="45"/>
-      <c r="K80" s="45"/>
-      <c r="L80" s="45"/>
-      <c r="M80" s="45"/>
-      <c r="N80" s="45"/>
-      <c r="O80" s="45"/>
+        <v>77</v>
+      </c>
+      <c r="Q79" s="59"/>
+    </row>
+    <row r="80" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="53" t="s">
+        <v>217</v>
+      </c>
+      <c r="B80" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="E80" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="F80" s="62"/>
+      <c r="G80" s="62"/>
+      <c r="H80" s="62"/>
+      <c r="I80" s="62"/>
+      <c r="J80" s="62"/>
+      <c r="K80" s="62"/>
+      <c r="L80" s="62"/>
+      <c r="M80" s="62">
+        <v>1</v>
+      </c>
+      <c r="N80" s="62"/>
+      <c r="O80" s="62"/>
       <c r="P80" s="56">
-        <v>74</v>
-      </c>
-      <c r="Q80" s="57"/>
-    </row>
-    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="Q80" s="59"/>
+    </row>
+    <row r="81" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D81" s="63" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="E81" s="63" t="s">
-        <v>15</v>
-      </c>
-      <c r="F81" s="45">
-        <v>255</v>
-      </c>
-      <c r="G81" s="45"/>
-      <c r="H81" s="45"/>
+        <v>16</v>
+      </c>
+      <c r="F81" s="45"/>
+      <c r="G81" s="45">
+        <v>1</v>
+      </c>
+      <c r="H81" s="45">
+        <v>1</v>
+      </c>
       <c r="I81" s="45"/>
-      <c r="J81" s="45"/>
+      <c r="J81" s="45">
+        <v>1</v>
+      </c>
       <c r="K81" s="45"/>
       <c r="L81" s="45"/>
       <c r="M81" s="45"/>
       <c r="N81" s="45"/>
       <c r="O81" s="45"/>
       <c r="P81" s="56">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="Q81" s="57"/>
     </row>
-    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>205</v>
+        <v>139</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>237</v>
+        <v>412</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="64" t="s">
-        <v>50</v>
+        <v>413</v>
+      </c>
+      <c r="E82" s="63" t="s">
+        <v>16</v>
       </c>
       <c r="F82" s="45"/>
-      <c r="G82" s="45"/>
+      <c r="G82" s="45">
+        <v>1</v>
+      </c>
       <c r="H82" s="45"/>
       <c r="I82" s="45"/>
       <c r="J82" s="45"/>
@@ -9070,28 +9239,28 @@
       <c r="N82" s="45"/>
       <c r="O82" s="45"/>
       <c r="P82" s="56">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="Q82" s="57"/>
     </row>
-    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>231</v>
+        <v>592</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>249</v>
+        <v>593</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="64" t="s">
+        <v>594</v>
+      </c>
+      <c r="E83" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F83" s="45">
-        <v>255</v>
+        <v>2000</v>
       </c>
       <c r="G83" s="45"/>
       <c r="H83" s="45"/>
@@ -9103,28 +9272,32 @@
       <c r="N83" s="45"/>
       <c r="O83" s="45"/>
       <c r="P83" s="56">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q83" s="57"/>
     </row>
-    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="C84" s="44" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="E84" s="64" t="s">
+        <v>302</v>
+      </c>
+      <c r="E84" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="45">
         <v>50</v>
       </c>
-      <c r="F84" s="45"/>
-      <c r="G84" s="45"/>
+      <c r="G84" s="45">
+        <v>1</v>
+      </c>
       <c r="H84" s="45"/>
       <c r="I84" s="45"/>
       <c r="J84" s="45"/>
@@ -9134,24 +9307,24 @@
       <c r="N84" s="45"/>
       <c r="O84" s="45"/>
       <c r="P84" s="56">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="Q84" s="57"/>
     </row>
-    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C85" s="44" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>171</v>
-      </c>
-      <c r="E85" s="64" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="63" t="s">
         <v>15</v>
       </c>
       <c r="F85" s="45">
@@ -9167,42 +9340,203 @@
       <c r="N85" s="45"/>
       <c r="O85" s="45"/>
       <c r="P85" s="56">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="Q85" s="57"/>
     </row>
-    <row r="86" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="44" t="s">
         <v>169</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C86" s="44" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="D86" s="63" t="s">
-        <v>172</v>
+        <v>234</v>
       </c>
       <c r="E86" s="63" t="s">
-        <v>17</v>
-      </c>
-      <c r="F86" s="45"/>
+        <v>15</v>
+      </c>
+      <c r="F86" s="45">
+        <v>255</v>
+      </c>
       <c r="G86" s="45"/>
       <c r="H86" s="45"/>
       <c r="I86" s="45"/>
       <c r="J86" s="45"/>
       <c r="K86" s="45"/>
       <c r="L86" s="45"/>
-      <c r="M86" s="45">
-        <v>1</v>
-      </c>
+      <c r="M86" s="45"/>
       <c r="N86" s="45"/>
       <c r="O86" s="45"/>
       <c r="P86" s="56">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="Q86" s="57"/>
+    </row>
+    <row r="87" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>205</v>
+      </c>
+      <c r="C87" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="D87" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="E87" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F87" s="45"/>
+      <c r="G87" s="45"/>
+      <c r="H87" s="45"/>
+      <c r="I87" s="45"/>
+      <c r="J87" s="45"/>
+      <c r="K87" s="45"/>
+      <c r="L87" s="45"/>
+      <c r="M87" s="45"/>
+      <c r="N87" s="45"/>
+      <c r="O87" s="45"/>
+      <c r="P87" s="56">
+        <v>85</v>
+      </c>
+      <c r="Q87" s="57"/>
+    </row>
+    <row r="88" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" s="44" t="s">
+        <v>249</v>
+      </c>
+      <c r="D88" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="45">
+        <v>255</v>
+      </c>
+      <c r="G88" s="45"/>
+      <c r="H88" s="45"/>
+      <c r="I88" s="45"/>
+      <c r="J88" s="45"/>
+      <c r="K88" s="45"/>
+      <c r="L88" s="45"/>
+      <c r="M88" s="45"/>
+      <c r="N88" s="45"/>
+      <c r="O88" s="45"/>
+      <c r="P88" s="56">
+        <v>86</v>
+      </c>
+      <c r="Q88" s="57"/>
+    </row>
+    <row r="89" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="D89" s="63" t="s">
+        <v>247</v>
+      </c>
+      <c r="E89" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" s="45"/>
+      <c r="G89" s="45"/>
+      <c r="H89" s="45"/>
+      <c r="I89" s="45"/>
+      <c r="J89" s="45"/>
+      <c r="K89" s="45"/>
+      <c r="L89" s="45"/>
+      <c r="M89" s="45"/>
+      <c r="N89" s="45"/>
+      <c r="O89" s="45"/>
+      <c r="P89" s="56">
+        <v>87</v>
+      </c>
+      <c r="Q89" s="57"/>
+    </row>
+    <row r="90" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" s="44" t="s">
+        <v>248</v>
+      </c>
+      <c r="D90" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="E90" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="45">
+        <v>50</v>
+      </c>
+      <c r="G90" s="45"/>
+      <c r="H90" s="45"/>
+      <c r="I90" s="45"/>
+      <c r="J90" s="45"/>
+      <c r="K90" s="45"/>
+      <c r="L90" s="45"/>
+      <c r="M90" s="45"/>
+      <c r="N90" s="45"/>
+      <c r="O90" s="45"/>
+      <c r="P90" s="56">
+        <v>88</v>
+      </c>
+      <c r="Q90" s="57"/>
+    </row>
+    <row r="91" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="44" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>17</v>
+      </c>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45">
+        <v>1</v>
+      </c>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="56">
+        <v>89</v>
+      </c>
+      <c r="Q91" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9211,29 +9545,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>18</v>
       </c>
@@ -9250,42 +9585,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="G1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="I1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="J1" s="39" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="92">
         <v>1</v>
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="92" t="s">
         <v>388</v>
       </c>
-      <c r="D2" s="92" t="s">
-        <v>389</v>
-      </c>
       <c r="E2" s="92" t="s">
-        <v>394</v>
-      </c>
-      <c r="F2" s="92"/>
+        <v>393</v>
+      </c>
+      <c r="F2" s="92" t="s">
+        <v>598</v>
+      </c>
       <c r="G2" s="92"/>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="92"/>
+      <c r="I2" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I2" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>11</v>
       </c>
@@ -9293,22 +9634,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" t="s">
-        <v>397</v>
-      </c>
-      <c r="H3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" t="s">
+        <v>599</v>
+      </c>
+      <c r="I3" t="s">
         <v>188</v>
       </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12</v>
       </c>
@@ -9316,22 +9660,25 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D4" t="s">
         <v>392</v>
       </c>
-      <c r="D4" t="s">
-        <v>393</v>
-      </c>
       <c r="E4" t="s">
-        <v>398</v>
-      </c>
-      <c r="H4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F4" t="s">
+        <v>600</v>
+      </c>
+      <c r="I4" t="s">
         <v>188</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>13</v>
       </c>
@@ -9339,22 +9686,25 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" t="s">
         <v>401</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>402</v>
       </c>
-      <c r="E5" t="s">
-        <v>403</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" t="s">
+        <v>601</v>
+      </c>
+      <c r="I5" t="s">
         <v>188</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>14</v>
       </c>
@@ -9362,22 +9712,25 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="E6" t="s">
-        <v>546</v>
-      </c>
-      <c r="H6" t="s">
+        <v>544</v>
+      </c>
+      <c r="F6" t="s">
+        <v>602</v>
+      </c>
+      <c r="I6" t="s">
         <v>188</v>
       </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>15</v>
       </c>
@@ -9385,22 +9738,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D7" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" t="s">
+        <v>603</v>
+      </c>
+      <c r="I7" t="s">
         <v>188</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>16</v>
       </c>
@@ -9408,45 +9764,51 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D8" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>400</v>
-      </c>
-      <c r="H8" t="s">
+        <v>399</v>
+      </c>
+      <c r="F8" t="s">
+        <v>604</v>
+      </c>
+      <c r="I8" t="s">
         <v>188</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="92">
         <v>2</v>
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="D9" s="92" t="s">
         <v>404</v>
       </c>
-      <c r="D9" s="92" t="s">
-        <v>405</v>
-      </c>
       <c r="E9" s="92" t="s">
-        <v>412</v>
-      </c>
-      <c r="F9" s="92"/>
+        <v>411</v>
+      </c>
+      <c r="F9" s="92" t="s">
+        <v>605</v>
+      </c>
       <c r="G9" s="92"/>
-      <c r="H9" s="92" t="s">
+      <c r="H9" s="92"/>
+      <c r="I9" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I9" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -9454,22 +9816,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D10" t="s">
+        <v>408</v>
+      </c>
+      <c r="E10" t="s">
         <v>409</v>
       </c>
-      <c r="E10" t="s">
-        <v>410</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="F10" t="s">
+        <v>603</v>
+      </c>
+      <c r="I10" t="s">
         <v>188</v>
       </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>22</v>
       </c>
@@ -9477,45 +9842,51 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" t="s">
         <v>407</v>
       </c>
-      <c r="D11" t="s">
-        <v>408</v>
-      </c>
       <c r="E11" t="s">
-        <v>411</v>
-      </c>
-      <c r="H11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F11" t="s">
+        <v>599</v>
+      </c>
+      <c r="I11" t="s">
         <v>188</v>
       </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="92">
         <v>3</v>
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D12" s="92" t="s">
+        <v>414</v>
+      </c>
+      <c r="E12" s="92" t="s">
         <v>415</v>
       </c>
-      <c r="E12" s="92" t="s">
-        <v>416</v>
-      </c>
-      <c r="F12" s="92"/>
+      <c r="F12" s="92" t="s">
+        <v>598</v>
+      </c>
       <c r="G12" s="92"/>
-      <c r="H12" s="92" t="s">
+      <c r="H12" s="92"/>
+      <c r="I12" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I12" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>31</v>
       </c>
@@ -9523,22 +9894,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E13" t="s">
-        <v>420</v>
-      </c>
-      <c r="H13" t="s">
+        <v>419</v>
+      </c>
+      <c r="F13" t="s">
+        <v>599</v>
+      </c>
+      <c r="I13" t="s">
         <v>188</v>
       </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>32</v>
       </c>
@@ -9546,22 +9920,25 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E14" t="s">
-        <v>421</v>
-      </c>
-      <c r="H14" t="s">
+        <v>420</v>
+      </c>
+      <c r="F14" t="s">
+        <v>600</v>
+      </c>
+      <c r="I14" t="s">
         <v>188</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>33</v>
       </c>
@@ -9569,22 +9946,25 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E15" t="s">
-        <v>422</v>
-      </c>
-      <c r="H15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F15" t="s">
+        <v>601</v>
+      </c>
+      <c r="I15" t="s">
         <v>188</v>
       </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>34</v>
       </c>
@@ -9592,22 +9972,25 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D16" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E16" t="s">
-        <v>423</v>
-      </c>
-      <c r="H16" t="s">
+        <v>422</v>
+      </c>
+      <c r="F16" t="s">
+        <v>602</v>
+      </c>
+      <c r="I16" t="s">
         <v>188</v>
       </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>35</v>
       </c>
@@ -9615,22 +9998,25 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D17" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E17" t="s">
-        <v>424</v>
-      </c>
-      <c r="H17" t="s">
+        <v>423</v>
+      </c>
+      <c r="F17" t="s">
+        <v>603</v>
+      </c>
+      <c r="I17" t="s">
         <v>188</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>36</v>
       </c>
@@ -9638,45 +10024,51 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D18" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E18" t="s">
-        <v>425</v>
-      </c>
-      <c r="H18" t="s">
+        <v>424</v>
+      </c>
+      <c r="F18" t="s">
+        <v>604</v>
+      </c>
+      <c r="I18" t="s">
         <v>188</v>
       </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="92">
         <v>4</v>
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D19" s="92" t="s">
+        <v>425</v>
+      </c>
+      <c r="E19" s="92" t="s">
         <v>426</v>
       </c>
-      <c r="E19" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="F19" s="92"/>
+      <c r="F19" s="92" t="s">
+        <v>605</v>
+      </c>
       <c r="G19" s="92"/>
-      <c r="H19" s="92" t="s">
+      <c r="H19" s="92"/>
+      <c r="I19" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I19" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41</v>
       </c>
@@ -9684,22 +10076,25 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
-      </c>
-      <c r="H20" t="s">
+        <v>427</v>
+      </c>
+      <c r="F20" t="s">
+        <v>603</v>
+      </c>
+      <c r="I20" t="s">
         <v>188</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>42</v>
       </c>
@@ -9707,22 +10102,25 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D21" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
-      </c>
-      <c r="H21" t="s">
+        <v>428</v>
+      </c>
+      <c r="F21" t="s">
+        <v>599</v>
+      </c>
+      <c r="I21" t="s">
         <v>188</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>43</v>
       </c>
@@ -9730,22 +10128,25 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D22" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
-      </c>
-      <c r="H22" t="s">
+        <v>429</v>
+      </c>
+      <c r="F22" t="s">
+        <v>598</v>
+      </c>
+      <c r="I22" t="s">
         <v>188</v>
       </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>44</v>
       </c>
@@ -9753,45 +10154,51 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D23" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E23" t="s">
-        <v>431</v>
-      </c>
-      <c r="H23" t="s">
+        <v>430</v>
+      </c>
+      <c r="F23" t="s">
+        <v>599</v>
+      </c>
+      <c r="I23" t="s">
         <v>188</v>
       </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="92">
         <v>5</v>
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>427</v>
-      </c>
-      <c r="F24" s="92"/>
+        <v>426</v>
+      </c>
+      <c r="F24" s="92" t="s">
+        <v>600</v>
+      </c>
       <c r="G24" s="92"/>
-      <c r="H24" s="92" t="s">
+      <c r="H24" s="92"/>
+      <c r="I24" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="I24" s="92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>51</v>
       </c>
@@ -9799,22 +10206,25 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
+        <v>556</v>
+      </c>
+      <c r="D25" t="s">
+        <v>557</v>
+      </c>
+      <c r="E25" t="s">
         <v>558</v>
       </c>
-      <c r="D25" t="s">
-        <v>559</v>
-      </c>
-      <c r="E25" t="s">
-        <v>560</v>
-      </c>
-      <c r="H25" t="s">
+      <c r="F25" t="s">
+        <v>601</v>
+      </c>
+      <c r="I25" t="s">
         <v>188</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>52</v>
       </c>
@@ -9822,22 +10232,25 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D26" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E26" t="s">
-        <v>498</v>
-      </c>
-      <c r="H26" t="s">
+        <v>496</v>
+      </c>
+      <c r="F26" t="s">
+        <v>602</v>
+      </c>
+      <c r="I26" t="s">
         <v>188</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>53</v>
       </c>
@@ -9845,22 +10258,25 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D27" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E27" t="s">
-        <v>500</v>
-      </c>
-      <c r="H27" t="s">
+        <v>498</v>
+      </c>
+      <c r="F27" t="s">
+        <v>603</v>
+      </c>
+      <c r="I27" t="s">
         <v>188</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>54</v>
       </c>
@@ -9868,22 +10284,25 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D28" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E28" t="s">
-        <v>502</v>
-      </c>
-      <c r="H28" t="s">
+        <v>500</v>
+      </c>
+      <c r="F28" t="s">
+        <v>604</v>
+      </c>
+      <c r="I28" t="s">
         <v>188</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>55</v>
       </c>
@@ -9891,22 +10310,25 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
+        <v>504</v>
+      </c>
+      <c r="D29" t="s">
+        <v>505</v>
+      </c>
+      <c r="E29" t="s">
         <v>506</v>
       </c>
-      <c r="D29" t="s">
-        <v>507</v>
-      </c>
-      <c r="E29" t="s">
-        <v>508</v>
-      </c>
-      <c r="H29" t="s">
+      <c r="F29" t="s">
+        <v>605</v>
+      </c>
+      <c r="I29" t="s">
         <v>188</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>56</v>
       </c>
@@ -9914,22 +10336,25 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
+        <v>507</v>
+      </c>
+      <c r="D30" t="s">
+        <v>508</v>
+      </c>
+      <c r="E30" t="s">
         <v>509</v>
       </c>
-      <c r="D30" t="s">
-        <v>510</v>
-      </c>
-      <c r="E30" t="s">
-        <v>511</v>
-      </c>
-      <c r="H30" t="s">
+      <c r="F30" t="s">
+        <v>603</v>
+      </c>
+      <c r="I30" t="s">
         <v>188</v>
       </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>57</v>
       </c>
@@ -9937,22 +10362,25 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
+        <v>510</v>
+      </c>
+      <c r="D31" t="s">
+        <v>511</v>
+      </c>
+      <c r="E31" t="s">
         <v>512</v>
       </c>
-      <c r="D31" t="s">
-        <v>513</v>
-      </c>
-      <c r="E31" t="s">
-        <v>514</v>
-      </c>
-      <c r="H31" t="s">
+      <c r="F31" t="s">
+        <v>599</v>
+      </c>
+      <c r="I31" t="s">
         <v>188</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>58</v>
       </c>
@@ -9960,22 +10388,25 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D32" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E32" t="s">
-        <v>515</v>
-      </c>
-      <c r="H32" s="99" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" t="s">
+        <v>606</v>
+      </c>
+      <c r="I32" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I32" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>59</v>
       </c>
@@ -9983,22 +10414,25 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D33" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="E33" t="s">
-        <v>551</v>
-      </c>
-      <c r="H33" s="99" t="s">
+        <v>549</v>
+      </c>
+      <c r="F33" t="s">
+        <v>607</v>
+      </c>
+      <c r="I33" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I33" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>510</v>
       </c>
@@ -10006,22 +10440,25 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
+        <v>545</v>
+      </c>
+      <c r="D34" t="s">
+        <v>546</v>
+      </c>
+      <c r="E34" t="s">
         <v>547</v>
       </c>
-      <c r="D34" t="s">
-        <v>548</v>
-      </c>
-      <c r="E34" t="s">
-        <v>549</v>
-      </c>
-      <c r="H34" s="99" t="s">
+      <c r="F34" t="s">
+        <v>608</v>
+      </c>
+      <c r="I34" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I34" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>511</v>
       </c>
@@ -10029,22 +10466,25 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
+        <v>531</v>
+      </c>
+      <c r="D35" t="s">
+        <v>532</v>
+      </c>
+      <c r="E35" t="s">
         <v>533</v>
       </c>
-      <c r="D35" t="s">
-        <v>534</v>
-      </c>
-      <c r="E35" t="s">
-        <v>535</v>
-      </c>
-      <c r="H35" s="99" t="s">
+      <c r="F35" t="s">
+        <v>609</v>
+      </c>
+      <c r="I35" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I35" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>512</v>
       </c>
@@ -10052,22 +10492,25 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" t="s">
         <v>520</v>
       </c>
-      <c r="D36" t="s">
-        <v>522</v>
-      </c>
       <c r="E36" t="s">
-        <v>523</v>
-      </c>
-      <c r="H36" s="99" t="s">
+        <v>521</v>
+      </c>
+      <c r="F36" t="s">
+        <v>610</v>
+      </c>
+      <c r="I36" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I36" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>513</v>
       </c>
@@ -10075,22 +10518,25 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D37" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E37" t="s">
-        <v>524</v>
-      </c>
-      <c r="H37" s="99" t="s">
+        <v>522</v>
+      </c>
+      <c r="F37" t="s">
+        <v>611</v>
+      </c>
+      <c r="I37" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I37" s="99">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>514</v>
       </c>
@@ -10098,18 +10544,21 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>534</v>
+      </c>
+      <c r="D38" t="s">
+        <v>535</v>
+      </c>
+      <c r="E38" t="s">
         <v>536</v>
       </c>
-      <c r="D38" t="s">
-        <v>537</v>
-      </c>
-      <c r="E38" t="s">
-        <v>538</v>
-      </c>
-      <c r="H38" s="99" t="s">
+      <c r="F38" t="s">
+        <v>612</v>
+      </c>
+      <c r="I38" s="99" t="s">
         <v>188</v>
       </c>
-      <c r="I38" s="99">
+      <c r="J38" s="99">
         <v>1</v>
       </c>
     </row>
@@ -10120,7 +10569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10130,16 +10579,16 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" customWidth="1"/>
-    <col min="5" max="12" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>18</v>
       </c>
@@ -10150,7 +10599,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>186</v>
@@ -10177,15 +10626,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" t="s">
         <v>305</v>
-      </c>
-      <c r="C2" t="s">
-        <v>306</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -10206,7 +10655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
@@ -10216,22 +10665,22 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10269,21 +10718,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
       <c r="D2" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
@@ -10297,21 +10746,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
       <c r="D3" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F3" s="41"/>
       <c r="G3" s="41"/>
@@ -10325,21 +10774,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
       <c r="D4" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F4" s="41"/>
       <c r="G4" s="41"/>
@@ -10353,7 +10802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10367,7 +10816,7 @@
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10387,7 +10836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10397,18 +10846,18 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
-    <col min="7" max="7" width="24.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10443,7 +10892,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10457,7 +10906,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10471,7 +10920,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10485,7 +10934,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10499,7 +10948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10513,7 +10962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10534,7 +10983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
@@ -10544,22 +10993,22 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="26.5" customWidth="1"/>
-    <col min="10" max="10" width="22.83203125" customWidth="1"/>
-    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.42578125" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="67" t="s">
         <v>18</v>
       </c>
@@ -10576,7 +11025,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>217</v>
@@ -10597,7 +11046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10611,7 +11060,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -10621,37 +11070,37 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomRight" activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="85.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.5" style="17" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="85.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" style="17" customWidth="1"/>
     <col min="16" max="16" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>2</v>
       </c>
@@ -10692,16 +11141,16 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>39</v>
       </c>
@@ -10737,7 +11186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>39</v>
       </c>
@@ -10765,7 +11214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>39</v>
       </c>
@@ -10795,7 +11244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>39</v>
       </c>
@@ -10825,7 +11274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -10859,7 +11308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>39</v>
       </c>
@@ -10887,7 +11336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>39</v>
       </c>
@@ -10915,7 +11364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>39</v>
       </c>
@@ -10943,7 +11392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>39</v>
       </c>
@@ -10971,7 +11420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
@@ -11001,7 +11450,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -11029,7 +11478,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -11059,7 +11508,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>39</v>
       </c>
@@ -11087,7 +11536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>39</v>
       </c>
@@ -11115,7 +11564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="79" t="s">
         <v>38</v>
       </c>
@@ -11151,7 +11600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
         <v>38</v>
       </c>
@@ -11181,16 +11630,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11209,7 +11658,7 @@
       <c r="O18" s="80"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
         <v>38</v>
       </c>
@@ -11239,7 +11688,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
         <v>38</v>
       </c>
@@ -11267,7 +11716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
         <v>38</v>
       </c>
@@ -11295,7 +11744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
         <v>38</v>
       </c>
@@ -11304,7 +11753,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -11325,7 +11774,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
         <v>38</v>
       </c>
@@ -11355,7 +11804,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>46</v>
       </c>
@@ -11391,16 +11840,16 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -11419,7 +11868,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>46</v>
       </c>
@@ -11449,7 +11898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>46</v>
       </c>
@@ -11479,16 +11928,16 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -11509,7 +11958,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -11539,7 +11988,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>46</v>
       </c>
@@ -11569,7 +12018,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>46</v>
       </c>
@@ -11599,7 +12048,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>46</v>
       </c>
@@ -11627,7 +12076,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>46</v>
       </c>
@@ -11636,7 +12085,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -11657,7 +12106,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>46</v>
       </c>
@@ -11687,7 +12136,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
         <v>144</v>
       </c>
@@ -11721,7 +12170,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
         <v>144</v>
       </c>
@@ -11749,7 +12198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
         <v>144</v>
       </c>
@@ -11779,7 +12228,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
         <v>144</v>
       </c>
@@ -11809,7 +12258,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="79" t="s">
         <v>144</v>
       </c>
@@ -11839,7 +12288,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
         <v>144</v>
       </c>
@@ -11848,7 +12297,7 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -11869,7 +12318,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
         <v>144</v>
       </c>
@@ -11899,7 +12348,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
         <v>144</v>
       </c>
@@ -11929,7 +12378,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
         <v>144</v>
       </c>
@@ -11959,7 +12408,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
         <v>144</v>
       </c>
@@ -11989,7 +12438,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
         <v>144</v>
       </c>
@@ -12017,7 +12466,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
         <v>144</v>
       </c>
@@ -12026,7 +12475,7 @@
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -12045,7 +12494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="79" t="s">
         <v>144</v>
       </c>
@@ -12054,7 +12503,7 @@
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -12075,7 +12524,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="79" t="s">
         <v>144</v>
       </c>
@@ -12084,7 +12533,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12105,7 +12554,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="42" t="s">
         <v>181</v>
       </c>
@@ -12142,7 +12591,7 @@
       </c>
       <c r="Q49" s="57"/>
     </row>
-    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="42" t="s">
         <v>181</v>
       </c>
@@ -12173,7 +12622,7 @@
       </c>
       <c r="Q50" s="57"/>
     </row>
-    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="42" t="s">
         <v>181</v>
       </c>
@@ -12182,7 +12631,7 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -12204,7 +12653,7 @@
       </c>
       <c r="Q51" s="57"/>
     </row>
-    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="42" t="s">
         <v>181</v>
       </c>
@@ -12213,7 +12662,7 @@
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -12235,7 +12684,7 @@
       </c>
       <c r="Q52" s="57"/>
     </row>
-    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="42" t="s">
         <v>181</v>
       </c>
@@ -12264,7 +12713,7 @@
       </c>
       <c r="Q53" s="57"/>
     </row>
-    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
         <v>181</v>
       </c>
@@ -12293,7 +12742,7 @@
       </c>
       <c r="Q54" s="57"/>
     </row>
-    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="42" t="s">
         <v>181</v>
       </c>
@@ -12322,7 +12771,7 @@
       </c>
       <c r="Q55" s="57"/>
     </row>
-    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="42" t="s">
         <v>181</v>
       </c>
@@ -12353,7 +12802,7 @@
       </c>
       <c r="Q56" s="57"/>
     </row>
-    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" s="37" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="42" t="s">
         <v>181</v>
       </c>
@@ -12384,16 +12833,16 @@
       </c>
       <c r="Q57" s="57"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B58" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12420,16 +12869,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
+        <v>356</v>
+      </c>
+      <c r="B59" s="68" t="s">
         <v>357</v>
-      </c>
-      <c r="B59" s="68" t="s">
-        <v>358</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
@@ -12456,16 +12905,16 @@
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>15</v>
@@ -12486,16 +12935,16 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B61" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>50</v>
@@ -12514,16 +12963,16 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="68" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="72" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>15</v>
@@ -12544,7 +12993,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63" s="68"/>
       <c r="B63" s="68"/>
       <c r="C63" s="68"/>
@@ -12574,38 +13023,38 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="2" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:N52"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
     <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="57" customWidth="1"/>
-    <col min="11" max="11" width="54.33203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="35.6640625" style="5" customWidth="1"/>
-    <col min="14" max="14" width="51.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.7109375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="51.140625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>18</v>
       </c>
@@ -12649,7 +13098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -12657,7 +13106,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>53</v>
@@ -12687,7 +13136,7 @@
       <c r="M2" s="25"/>
       <c r="N2" s="26"/>
     </row>
-    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="25">
         <v>2</v>
       </c>
@@ -12695,7 +13144,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>53</v>
@@ -12725,7 +13174,7 @@
       <c r="M3" s="25"/>
       <c r="N3" s="26"/>
     </row>
-    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25">
         <v>3</v>
       </c>
@@ -12733,7 +13182,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>53</v>
@@ -12763,7 +13212,7 @@
       <c r="M4" s="25"/>
       <c r="N4" s="26"/>
     </row>
-    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25">
         <v>4</v>
       </c>
@@ -12771,7 +13220,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -12801,7 +13250,7 @@
       <c r="M5" s="25"/>
       <c r="N5" s="26"/>
     </row>
-    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>5</v>
       </c>
@@ -12809,7 +13258,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -12839,7 +13288,7 @@
       <c r="M6" s="25"/>
       <c r="N6" s="26"/>
     </row>
-    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>6</v>
       </c>
@@ -12847,7 +13296,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -12877,7 +13326,7 @@
       <c r="M7" s="25"/>
       <c r="N7" s="26"/>
     </row>
-    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>7</v>
       </c>
@@ -12885,7 +13334,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -12915,7 +13364,7 @@
       <c r="M8" s="25"/>
       <c r="N8" s="26"/>
     </row>
-    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>8</v>
       </c>
@@ -12923,7 +13372,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -12953,7 +13402,7 @@
       <c r="M9" s="25"/>
       <c r="N9" s="26"/>
     </row>
-    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>9</v>
       </c>
@@ -12961,7 +13410,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>53</v>
@@ -12991,7 +13440,7 @@
       <c r="M10" s="25"/>
       <c r="N10" s="26"/>
     </row>
-    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>10</v>
       </c>
@@ -12999,7 +13448,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>53</v>
@@ -13029,7 +13478,7 @@
       <c r="M11" s="25"/>
       <c r="N11" s="26"/>
     </row>
-    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>11</v>
       </c>
@@ -13037,7 +13486,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>53</v>
@@ -13067,7 +13516,7 @@
       <c r="M12" s="25"/>
       <c r="N12" s="26"/>
     </row>
-    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>12</v>
       </c>
@@ -13075,7 +13524,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>53</v>
@@ -13105,7 +13554,7 @@
       <c r="M13" s="25"/>
       <c r="N13" s="26"/>
     </row>
-    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>13</v>
       </c>
@@ -13113,7 +13562,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>53</v>
@@ -13143,7 +13592,7 @@
       <c r="M14" s="25"/>
       <c r="N14" s="26"/>
     </row>
-    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>14</v>
       </c>
@@ -13151,7 +13600,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>53</v>
@@ -13181,7 +13630,7 @@
       <c r="M15" s="25"/>
       <c r="N15" s="26"/>
     </row>
-    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>15</v>
       </c>
@@ -13189,7 +13638,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>53</v>
@@ -13219,7 +13668,7 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
         <v>16</v>
       </c>
@@ -13227,7 +13676,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>53</v>
@@ -13257,7 +13706,7 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" s="21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
         <v>50</v>
       </c>
@@ -13265,7 +13714,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>53</v>
@@ -13295,7 +13744,7 @@
       <c r="M18" s="25"/>
       <c r="N18" s="26"/>
     </row>
-    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="68">
         <v>51</v>
       </c>
@@ -13303,13 +13752,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F19" s="68">
         <v>1</v>
@@ -13329,7 +13778,7 @@
       <c r="M19" s="71"/>
       <c r="N19" s="73"/>
     </row>
-    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>52</v>
       </c>
@@ -13337,13 +13786,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="F20" s="68">
         <v>1</v>
@@ -13363,7 +13812,7 @@
       <c r="M20" s="71"/>
       <c r="N20" s="73"/>
     </row>
-    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="68">
         <v>53</v>
       </c>
@@ -13371,13 +13820,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F21" s="68">
         <v>1</v>
@@ -13397,7 +13846,7 @@
       <c r="M21" s="71"/>
       <c r="N21" s="73"/>
     </row>
-    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
         <v>54</v>
       </c>
@@ -13405,13 +13854,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F22" s="68">
         <v>1</v>
@@ -13431,7 +13880,7 @@
       <c r="M22" s="71"/>
       <c r="N22" s="73"/>
     </row>
-    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="68">
         <v>55</v>
       </c>
@@ -13439,13 +13888,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F23" s="68">
         <v>1</v>
@@ -13465,7 +13914,7 @@
       <c r="M23" s="71"/>
       <c r="N23" s="73"/>
     </row>
-    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
         <v>56</v>
       </c>
@@ -13473,13 +13922,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F24" s="68">
         <v>1</v>
@@ -13499,7 +13948,7 @@
       <c r="M24" s="71"/>
       <c r="N24" s="73"/>
     </row>
-    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="68">
         <v>57</v>
       </c>
@@ -13507,13 +13956,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F25" s="68">
         <v>1</v>
@@ -13533,7 +13982,7 @@
       <c r="M25" s="71"/>
       <c r="N25" s="73"/>
     </row>
-    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
         <v>58</v>
       </c>
@@ -13541,13 +13990,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -13567,7 +14016,7 @@
       <c r="M26" s="71"/>
       <c r="N26" s="73"/>
     </row>
-    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="68">
         <v>59</v>
       </c>
@@ -13575,13 +14024,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -13601,7 +14050,7 @@
       <c r="M27" s="71"/>
       <c r="N27" s="73"/>
     </row>
-    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
         <v>60</v>
       </c>
@@ -13609,13 +14058,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -13635,7 +14084,7 @@
       <c r="M28" s="71"/>
       <c r="N28" s="73"/>
     </row>
-    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="68">
         <v>61</v>
       </c>
@@ -13643,13 +14092,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -13669,7 +14118,7 @@
       <c r="M29" s="71"/>
       <c r="N29" s="73"/>
     </row>
-    <row r="30" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
         <v>62</v>
       </c>
@@ -13677,13 +14126,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -13703,7 +14152,7 @@
       <c r="M30" s="71"/>
       <c r="N30" s="73"/>
     </row>
-    <row r="31" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="68">
         <v>63</v>
       </c>
@@ -13711,13 +14160,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -13737,7 +14186,7 @@
       <c r="M31" s="71"/>
       <c r="N31" s="73"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>101</v>
       </c>
@@ -13745,13 +14194,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -13770,7 +14219,7 @@
       </c>
       <c r="M32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="34">
         <v>102</v>
       </c>
@@ -13778,13 +14227,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -13803,7 +14252,7 @@
       </c>
       <c r="M33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="34">
         <v>103</v>
       </c>
@@ -13811,13 +14260,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -13836,7 +14285,7 @@
       </c>
       <c r="M34" s="36"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34">
         <v>104</v>
       </c>
@@ -13844,13 +14293,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -13869,7 +14318,7 @@
       </c>
       <c r="M35" s="36"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="34">
         <v>105</v>
       </c>
@@ -13877,13 +14326,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -13896,7 +14345,7 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36">
@@ -13904,7 +14353,7 @@
       </c>
       <c r="M36" s="36"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="34">
         <v>106</v>
       </c>
@@ -13912,13 +14361,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -13937,7 +14386,7 @@
       </c>
       <c r="M37" s="36"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="34">
         <v>107</v>
       </c>
@@ -13945,13 +14394,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -13970,7 +14419,7 @@
       </c>
       <c r="M38" s="36"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="34">
         <v>108</v>
       </c>
@@ -13978,13 +14427,13 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -14003,7 +14452,7 @@
       </c>
       <c r="M39" s="36"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="34">
         <v>109</v>
       </c>
@@ -14011,13 +14460,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -14030,7 +14479,7 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="34" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
@@ -14038,7 +14487,7 @@
       </c>
       <c r="M40" s="36"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="34">
         <v>110</v>
       </c>
@@ -14046,13 +14495,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -14071,7 +14520,7 @@
       </c>
       <c r="M41" s="36"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="34">
         <v>111</v>
       </c>
@@ -14079,13 +14528,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -14104,7 +14553,7 @@
       </c>
       <c r="M42" s="36"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="34">
         <v>112</v>
       </c>
@@ -14112,13 +14561,13 @@
         <v>22</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -14137,7 +14586,7 @@
       </c>
       <c r="M43" s="36"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="34">
         <v>113</v>
       </c>
@@ -14145,13 +14594,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F44" s="34">
         <v>1</v>
@@ -14170,7 +14619,7 @@
       </c>
       <c r="M44" s="36"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="34">
         <v>114</v>
       </c>
@@ -14178,13 +14627,13 @@
         <v>22</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F45" s="34">
         <v>1</v>
@@ -14203,7 +14652,7 @@
       </c>
       <c r="M45" s="3"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="34">
         <v>115</v>
       </c>
@@ -14211,13 +14660,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F46" s="34">
         <v>1</v>
@@ -14236,7 +14685,7 @@
       </c>
       <c r="M46" s="3"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="34">
         <v>116</v>
       </c>
@@ -14244,13 +14693,13 @@
         <v>22</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F47" s="34">
         <v>1</v>
@@ -14269,7 +14718,7 @@
       </c>
       <c r="M47" s="3"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="34">
         <v>117</v>
       </c>
@@ -14277,13 +14726,13 @@
         <v>22</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F48" s="34">
         <v>1</v>
@@ -14302,7 +14751,7 @@
       </c>
       <c r="M48" s="3"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="34">
         <v>118</v>
       </c>
@@ -14310,13 +14759,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F49" s="34">
         <v>1</v>
@@ -14335,54 +14784,54 @@
       </c>
       <c r="M49" s="3"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="102">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" s="108">
         <v>119</v>
       </c>
-      <c r="B50" s="102" t="s">
+      <c r="B50" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="102" t="s">
-        <v>294</v>
-      </c>
-      <c r="D50" s="102" t="s">
+      <c r="C50" s="108" t="s">
+        <v>293</v>
+      </c>
+      <c r="D50" s="108" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="103" t="s">
-        <v>574</v>
-      </c>
-      <c r="F50" s="102">
-        <v>1</v>
-      </c>
-      <c r="G50" s="102">
-        <v>1</v>
-      </c>
-      <c r="H50" s="102">
-        <v>1</v>
-      </c>
-      <c r="I50" s="104"/>
-      <c r="J50" s="102"/>
-      <c r="K50" s="102"/>
-      <c r="L50" s="105">
-        <v>1</v>
-      </c>
-      <c r="M50" s="104"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="E50" s="109" t="s">
+        <v>572</v>
+      </c>
+      <c r="F50" s="108">
+        <v>1</v>
+      </c>
+      <c r="G50" s="108">
+        <v>1</v>
+      </c>
+      <c r="H50" s="108">
+        <v>1</v>
+      </c>
+      <c r="I50" s="110"/>
+      <c r="J50" s="108"/>
+      <c r="K50" s="108"/>
+      <c r="L50" s="111">
+        <v>1</v>
+      </c>
+      <c r="M50" s="110"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="102">
         <v>120</v>
       </c>
       <c r="B51" s="102" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C51" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D51" s="102" t="s">
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>575</v>
+        <v>622</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14401,7 +14850,7 @@
       </c>
       <c r="M51" s="104"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="102">
         <v>121</v>
       </c>
@@ -14409,13 +14858,13 @@
         <v>22</v>
       </c>
       <c r="C52" s="102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D52" s="102" t="s">
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>576</v>
+        <v>623</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>
@@ -14434,8 +14883,173 @@
       </c>
       <c r="M52" s="104"/>
     </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" s="102">
+        <v>122</v>
+      </c>
+      <c r="B53" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D53" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="103" t="s">
+        <v>621</v>
+      </c>
+      <c r="F53" s="102">
+        <v>1</v>
+      </c>
+      <c r="G53" s="102">
+        <v>1</v>
+      </c>
+      <c r="H53" s="102">
+        <v>1</v>
+      </c>
+      <c r="I53" s="104"/>
+      <c r="J53" s="102"/>
+      <c r="K53" s="102"/>
+      <c r="L53" s="105">
+        <v>1</v>
+      </c>
+      <c r="M53" s="104"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" s="102">
+        <v>123</v>
+      </c>
+      <c r="B54" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C54" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D54" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="103" t="s">
+        <v>624</v>
+      </c>
+      <c r="F54" s="102">
+        <v>1</v>
+      </c>
+      <c r="G54" s="102">
+        <v>1</v>
+      </c>
+      <c r="H54" s="102">
+        <v>1</v>
+      </c>
+      <c r="I54" s="104"/>
+      <c r="J54" s="102"/>
+      <c r="K54" s="102"/>
+      <c r="L54" s="105">
+        <v>1</v>
+      </c>
+      <c r="M54" s="104"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" s="102">
+        <v>124</v>
+      </c>
+      <c r="B55" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D55" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E55" s="103" t="s">
+        <v>625</v>
+      </c>
+      <c r="F55" s="102">
+        <v>1</v>
+      </c>
+      <c r="G55" s="102">
+        <v>1</v>
+      </c>
+      <c r="H55" s="102">
+        <v>1</v>
+      </c>
+      <c r="I55" s="104"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
+      <c r="L55" s="105">
+        <v>1</v>
+      </c>
+      <c r="M55" s="104"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" s="102">
+        <v>125</v>
+      </c>
+      <c r="B56" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D56" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E56" s="103" t="s">
+        <v>620</v>
+      </c>
+      <c r="F56" s="102">
+        <v>1</v>
+      </c>
+      <c r="G56" s="102">
+        <v>1</v>
+      </c>
+      <c r="H56" s="102">
+        <v>1</v>
+      </c>
+      <c r="I56" s="104"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="105">
+        <v>1</v>
+      </c>
+      <c r="M56" s="104"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" s="102">
+        <v>126</v>
+      </c>
+      <c r="B57" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="D57" s="102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E57" s="103" t="s">
+        <v>626</v>
+      </c>
+      <c r="F57" s="102">
+        <v>1</v>
+      </c>
+      <c r="G57" s="102">
+        <v>1</v>
+      </c>
+      <c r="H57" s="102">
+        <v>1</v>
+      </c>
+      <c r="I57" s="104"/>
+      <c r="J57" s="102"/>
+      <c r="K57" s="102"/>
+      <c r="L57" s="105">
+        <v>1</v>
+      </c>
+      <c r="M57" s="104"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>
+  <autoFilter ref="A1:M16"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C802BE7D-565C-9D4E-9D33-77140543047D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBA5D4-DC62-5A40-A5C7-03D901824460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="38400" windowHeight="20080" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="640">
   <si>
     <t>status</t>
   </si>
@@ -1354,57 +1354,12 @@
     <t>User cập nhập người dùng này</t>
   </si>
   <si>
-    <t>P.TH</t>
-  </si>
-  <si>
-    <t>P.DVKT</t>
-  </si>
-  <si>
     <t>BGĐ</t>
   </si>
   <si>
-    <t>P.CSKH</t>
-  </si>
-  <si>
-    <t>P.KHCN</t>
-  </si>
-  <si>
-    <t>P.KHDN</t>
-  </si>
-  <si>
-    <t>P.KT</t>
-  </si>
-  <si>
-    <t>MBF.DNA2</t>
-  </si>
-  <si>
-    <t>MBF.DNA1</t>
-  </si>
-  <si>
-    <t>MBF.QNG</t>
-  </si>
-  <si>
-    <t>MBF.QNA</t>
-  </si>
-  <si>
-    <t>MBF.TTH</t>
-  </si>
-  <si>
-    <t>MBF.BDI</t>
-  </si>
-  <si>
-    <t>MBF.QTR</t>
-  </si>
-  <si>
-    <t>MBF.PYE</t>
-  </si>
-  <si>
     <t>Công ty 3</t>
   </si>
   <si>
-    <t>CTy3</t>
-  </si>
-  <si>
     <t>Mã của tổ chức (dùng khi select</t>
   </si>
   <si>
@@ -1663,18 +1618,6 @@
     <t>Cập nhập hoàn thành cho chỉ đạo này</t>
   </si>
   <si>
-    <t>MT_INST</t>
-  </si>
-  <si>
-    <t>MT_WEEK</t>
-  </si>
-  <si>
-    <t>MT_MONTH</t>
-  </si>
-  <si>
-    <t>MT_YEAR</t>
-  </si>
-  <si>
     <t>direct-organization</t>
   </si>
   <si>
@@ -1960,24 +1903,6 @@
     <t>P.TH nhập ý kiến của lãnh đạo</t>
   </si>
   <si>
-    <t>DT_WEEK</t>
-  </si>
-  <si>
-    <t>DT_MONTH</t>
-  </si>
-  <si>
-    <t>DT_YEAR</t>
-  </si>
-  <si>
-    <t>DT_1WEEK</t>
-  </si>
-  <si>
-    <t>DT_1MONTH</t>
-  </si>
-  <si>
-    <t>DT_1YEAR</t>
-  </si>
-  <si>
     <t>CMPLT_PERCENT</t>
   </si>
   <si>
@@ -2228,6 +2153,120 @@
   </si>
   <si>
     <t>/get-direct-by-ids</t>
+  </si>
+  <si>
+    <t>HDX</t>
+  </si>
+  <si>
+    <t>GBT</t>
+  </si>
+  <si>
+    <t>HTH</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>TUA</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>NA1</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>DVK</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>CSH</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>KHD</t>
+  </si>
+  <si>
+    <t>KTO</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>DN2</t>
+  </si>
+  <si>
+    <t>QNG</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>QTR</t>
+  </si>
+  <si>
+    <t>PYE</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>Danh mục thành viên BGĐ</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Trần Vinh</t>
+  </si>
+  <si>
+    <t>PG1</t>
+  </si>
+  <si>
+    <t>PG2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tuyền</t>
+  </si>
+  <si>
+    <t>Võ Đình Mẫn</t>
+  </si>
+  <si>
+    <t>Giám Đốc Công Ty</t>
+  </si>
+  <si>
+    <t>Phó Giám Đốc thứ 1 của Công Ty</t>
+  </si>
+  <si>
+    <t>Phó Giám Đốc thứ 2 của Công Ty</t>
+  </si>
+  <si>
+    <t>Chỉ đạo chung của cả Ban Giám Đốc</t>
   </si>
 </sst>
 </file>
@@ -5084,7 +5123,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -5101,16 +5140,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>573</v>
+        <v>548</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>583</v>
+        <v>558</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -5121,16 +5160,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>574</v>
+        <v>549</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5224,22 +5263,22 @@
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
@@ -5260,18 +5299,18 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
@@ -5292,18 +5331,18 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
@@ -5324,18 +5363,18 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
@@ -5356,18 +5395,18 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
@@ -5388,18 +5427,18 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
@@ -5420,18 +5459,18 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
@@ -5450,22 +5489,22 @@
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>588</v>
+        <v>563</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
@@ -5486,18 +5525,18 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
@@ -5518,18 +5557,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>589</v>
+        <v>564</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
@@ -5550,18 +5589,18 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>585</v>
+        <v>560</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
@@ -5582,18 +5621,18 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>586</v>
+        <v>561</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
@@ -5612,22 +5651,22 @@
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
@@ -5648,18 +5687,18 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
@@ -5678,20 +5717,20 @@
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>587</v>
+        <v>562</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
@@ -5742,7 +5781,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5751,7 +5790,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5786,7 +5825,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5813,7 +5852,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5840,7 +5879,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5867,7 +5906,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5899,14 +5938,16 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
@@ -5925,7 +5966,7 @@
         <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>596</v>
+        <v>571</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>180</v>
@@ -5951,13 +5992,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>612</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="I2" t="s">
         <v>188</v>
@@ -5974,10 +6015,10 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5997,10 +6038,10 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>613</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -6020,10 +6061,10 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>614</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6043,10 +6084,10 @@
         <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>615</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6066,10 +6107,10 @@
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>616</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6089,10 +6130,10 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>617</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6112,10 +6153,10 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>618</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6135,10 +6176,10 @@
         <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>619</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6158,10 +6199,10 @@
         <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>620</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6181,10 +6222,10 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>621</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6204,10 +6245,10 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>622</v>
       </c>
       <c r="D13" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6227,10 +6268,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>623</v>
       </c>
       <c r="D14" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6250,10 +6291,10 @@
         <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>614</v>
       </c>
       <c r="D15" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6273,10 +6314,10 @@
         <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>624</v>
       </c>
       <c r="D16" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6296,10 +6337,10 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>625</v>
       </c>
       <c r="D17" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6319,10 +6360,10 @@
         <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>626</v>
       </c>
       <c r="D18" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6359,10 +6400,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>19</v>
@@ -6407,7 +6448,7 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -6421,7 +6462,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>528</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -6449,7 +6490,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>554</v>
+        <v>529</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -6463,7 +6504,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>530</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
@@ -6491,7 +6532,7 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>590</v>
+        <v>565</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -6505,7 +6546,7 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>566</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -6520,11 +6561,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C59" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C51" sqref="C51"/>
+      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6587,10 +6628,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
@@ -7044,10 +7085,10 @@
         <v>326</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>15</v>
@@ -7144,13 +7185,13 @@
         <v>221</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>482</v>
+        <v>463</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
@@ -7309,13 +7350,13 @@
         <v>221</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>484</v>
+        <v>465</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>485</v>
+        <v>466</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -7474,7 +7515,7 @@
         <v>278</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7503,13 +7544,13 @@
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7536,13 +7577,13 @@
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>525</v>
+        <v>506</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>526</v>
+        <v>507</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7569,13 +7610,13 @@
         <v>221</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="E31" s="51" t="s">
         <v>15</v>
@@ -7599,7 +7640,7 @@
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B32" s="100" t="s">
         <v>18</v>
@@ -7608,7 +7649,7 @@
         <v>243</v>
       </c>
       <c r="D32" s="100" t="s">
-        <v>569</v>
+        <v>544</v>
       </c>
       <c r="E32" s="100" t="s">
         <v>97</v>
@@ -7630,16 +7671,16 @@
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B33" s="100" t="s">
         <v>222</v>
       </c>
       <c r="C33" s="100" t="s">
-        <v>570</v>
+        <v>545</v>
       </c>
       <c r="D33" s="100" t="s">
-        <v>571</v>
+        <v>546</v>
       </c>
       <c r="E33" s="100" t="s">
         <v>97</v>
@@ -7661,16 +7702,16 @@
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B34" s="100" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C34" s="100" t="s">
-        <v>614</v>
+        <v>589</v>
       </c>
       <c r="D34" s="100" t="s">
-        <v>615</v>
+        <v>590</v>
       </c>
       <c r="E34" s="100" t="s">
         <v>15</v>
@@ -7694,7 +7735,7 @@
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B35" s="100" t="s">
         <v>227</v>
@@ -7727,7 +7768,7 @@
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B36" s="100" t="s">
         <v>228</v>
@@ -7760,16 +7801,16 @@
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B37" s="100" t="s">
-        <v>560</v>
+        <v>535</v>
       </c>
       <c r="C37" s="100" t="s">
-        <v>561</v>
+        <v>536</v>
       </c>
       <c r="D37" s="100" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="E37" s="100" t="s">
         <v>15</v>
@@ -7793,16 +7834,16 @@
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B38" s="100" t="s">
-        <v>565</v>
+        <v>540</v>
       </c>
       <c r="C38" s="100" t="s">
-        <v>563</v>
+        <v>538</v>
       </c>
       <c r="D38" s="100" t="s">
-        <v>564</v>
+        <v>539</v>
       </c>
       <c r="E38" s="100" t="s">
         <v>97</v>
@@ -7824,7 +7865,7 @@
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B39" s="100" t="s">
         <v>205</v>
@@ -7855,7 +7896,7 @@
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B40" s="100" t="s">
         <v>231</v>
@@ -7886,7 +7927,7 @@
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B41" s="100" t="s">
         <v>19</v>
@@ -7919,7 +7960,7 @@
     </row>
     <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B42" s="100" t="s">
         <v>45</v>
@@ -7950,7 +7991,7 @@
     </row>
     <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="100" t="s">
-        <v>559</v>
+        <v>534</v>
       </c>
       <c r="B43" s="100" t="s">
         <v>0</v>
@@ -7959,7 +8000,7 @@
         <v>236</v>
       </c>
       <c r="D43" s="100" t="s">
-        <v>566</v>
+        <v>541</v>
       </c>
       <c r="E43" s="100" t="s">
         <v>97</v>
@@ -8021,7 +8062,7 @@
         <v>282</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>16</v>
@@ -8046,13 +8087,13 @@
         <v>280</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>617</v>
+        <v>592</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
@@ -8118,7 +8159,7 @@
         <v>286</v>
       </c>
       <c r="D48" s="50" t="s">
-        <v>618</v>
+        <v>593</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>16</v>
@@ -8209,13 +8250,13 @@
         <v>280</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>486</v>
+        <v>467</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>15</v>
@@ -8442,13 +8483,13 @@
         <v>279</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>613</v>
+        <v>588</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>616</v>
+        <v>591</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>619</v>
+        <v>594</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>15</v>
@@ -8580,7 +8621,7 @@
         <v>298</v>
       </c>
       <c r="D62" s="98" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="E62" s="52" t="s">
         <v>15</v>
@@ -8645,10 +8686,10 @@
         <v>0</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>523</v>
+        <v>504</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>97</v>
@@ -8743,7 +8784,7 @@
         <v>238</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>50</v>
@@ -8843,10 +8884,10 @@
         <v>326</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>550</v>
+        <v>525</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>551</v>
+        <v>526</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
@@ -9241,10 +9282,10 @@
         <v>139</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="E82" s="63" t="s">
         <v>16</v>
@@ -9271,13 +9312,13 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>592</v>
+        <v>567</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>593</v>
+        <v>568</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
       <c r="E83" s="63" t="s">
         <v>15</v>
@@ -9572,10 +9613,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9608,7 +9649,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>205</v>
@@ -9629,16 +9670,16 @@
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -9657,16 +9698,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I3" t="s">
         <v>188</v>
@@ -9683,16 +9724,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="I4" t="s">
         <v>188</v>
@@ -9709,16 +9750,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="F5" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="I5" t="s">
         <v>188</v>
@@ -9735,16 +9776,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>518</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>519</v>
       </c>
       <c r="F6" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="I6" t="s">
         <v>188</v>
@@ -9761,16 +9802,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>542</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="F7" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I7" t="s">
         <v>188</v>
@@ -9787,16 +9828,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>568</v>
+        <v>543</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="I8" t="s">
         <v>188</v>
@@ -9811,16 +9852,16 @@
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
@@ -9839,16 +9880,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I10" t="s">
         <v>188</v>
@@ -9865,16 +9906,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="F11" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I11" t="s">
         <v>188</v>
@@ -9889,16 +9930,16 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>516</v>
+        <v>497</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -9917,16 +9958,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>537</v>
+        <v>606</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="F13" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I13" t="s">
         <v>188</v>
@@ -9943,16 +9984,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>607</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="E14" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="F14" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="I14" t="s">
         <v>188</v>
@@ -9969,16 +10010,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>539</v>
+        <v>608</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E15" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="F15" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="I15" t="s">
         <v>188</v>
@@ -9995,16 +10036,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>540</v>
+        <v>609</v>
       </c>
       <c r="D16" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="F16" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="I16" t="s">
         <v>188</v>
@@ -10021,16 +10062,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>541</v>
+        <v>610</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="F17" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I17" t="s">
         <v>188</v>
@@ -10047,16 +10088,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>611</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="E18" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="I18" t="s">
         <v>188</v>
@@ -10071,16 +10112,16 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>517</v>
+        <v>498</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="G19" s="92"/>
       <c r="H19" s="92"/>
@@ -10099,16 +10140,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>602</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="F20" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I20" t="s">
         <v>188</v>
@@ -10125,16 +10166,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>603</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I21" t="s">
         <v>188</v>
@@ -10151,16 +10192,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>604</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E22" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="I22" t="s">
         <v>188</v>
@@ -10177,16 +10218,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>605</v>
       </c>
       <c r="D23" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="F23" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I23" t="s">
         <v>188</v>
@@ -10201,16 +10242,16 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
@@ -10229,16 +10270,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>556</v>
+        <v>531</v>
       </c>
       <c r="D25" t="s">
-        <v>557</v>
+        <v>532</v>
       </c>
       <c r="E25" t="s">
-        <v>558</v>
+        <v>533</v>
       </c>
       <c r="F25" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="I25" t="s">
         <v>188</v>
@@ -10255,16 +10296,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D26" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="E26" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F26" t="s">
-        <v>602</v>
+        <v>577</v>
       </c>
       <c r="I26" t="s">
         <v>188</v>
@@ -10281,16 +10322,16 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="D27" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="F27" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I27" t="s">
         <v>188</v>
@@ -10307,16 +10348,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="F28" t="s">
-        <v>604</v>
+        <v>579</v>
       </c>
       <c r="I28" t="s">
         <v>188</v>
@@ -10333,16 +10374,16 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="D29" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="F29" t="s">
-        <v>605</v>
+        <v>580</v>
       </c>
       <c r="I29" t="s">
         <v>188</v>
@@ -10359,16 +10400,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="E30" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>578</v>
       </c>
       <c r="I30" t="s">
         <v>188</v>
@@ -10385,16 +10426,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F31" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="I31" t="s">
         <v>188</v>
@@ -10411,16 +10452,16 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>515</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>495</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
+        <v>494</v>
       </c>
       <c r="F32" t="s">
-        <v>606</v>
+        <v>581</v>
       </c>
       <c r="I32" s="99" t="s">
         <v>188</v>
@@ -10437,16 +10478,16 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
+        <v>505</v>
+      </c>
+      <c r="D33" t="s">
+        <v>523</v>
+      </c>
+      <c r="E33" t="s">
         <v>524</v>
       </c>
-      <c r="D33" t="s">
-        <v>548</v>
-      </c>
-      <c r="E33" t="s">
-        <v>549</v>
-      </c>
       <c r="F33" t="s">
-        <v>607</v>
+        <v>582</v>
       </c>
       <c r="I33" s="99" t="s">
         <v>188</v>
@@ -10463,16 +10504,16 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="D34" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
       <c r="E34" t="s">
-        <v>547</v>
+        <v>522</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
+        <v>583</v>
       </c>
       <c r="I34" s="99" t="s">
         <v>188</v>
@@ -10489,16 +10530,16 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="F35" t="s">
-        <v>609</v>
+        <v>584</v>
       </c>
       <c r="I35" s="99" t="s">
         <v>188</v>
@@ -10515,16 +10556,16 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>518</v>
+        <v>499</v>
       </c>
       <c r="D36" t="s">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="E36" t="s">
-        <v>521</v>
+        <v>502</v>
       </c>
       <c r="F36" t="s">
-        <v>610</v>
+        <v>585</v>
       </c>
       <c r="I36" s="99" t="s">
         <v>188</v>
@@ -10541,16 +10582,16 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>519</v>
+        <v>500</v>
       </c>
       <c r="D37" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="E37" t="s">
-        <v>522</v>
+        <v>503</v>
       </c>
       <c r="F37" t="s">
-        <v>611</v>
+        <v>586</v>
       </c>
       <c r="I37" s="99" t="s">
         <v>188</v>
@@ -10567,21 +10608,151 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="D38" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="E38" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="F38" t="s">
-        <v>612</v>
+        <v>587</v>
       </c>
       <c r="I38" s="99" t="s">
         <v>188</v>
       </c>
       <c r="J38" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="92">
+        <v>6</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92" t="s">
+        <v>627</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>628</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>629</v>
+      </c>
+      <c r="F39" s="92" t="s">
+        <v>575</v>
+      </c>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>630</v>
+      </c>
+      <c r="D40" t="s">
+        <v>631</v>
+      </c>
+      <c r="E40" t="s">
+        <v>636</v>
+      </c>
+      <c r="F40" t="s">
+        <v>585</v>
+      </c>
+      <c r="I40" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>632</v>
+      </c>
+      <c r="D41" t="s">
+        <v>634</v>
+      </c>
+      <c r="E41" t="s">
+        <v>637</v>
+      </c>
+      <c r="F41" t="s">
+        <v>586</v>
+      </c>
+      <c r="I41" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>633</v>
+      </c>
+      <c r="D42" t="s">
+        <v>635</v>
+      </c>
+      <c r="E42" t="s">
+        <v>638</v>
+      </c>
+      <c r="F42" t="s">
+        <v>587</v>
+      </c>
+      <c r="I42" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>627</v>
+      </c>
+      <c r="D43" t="s">
+        <v>628</v>
+      </c>
+      <c r="E43" t="s">
+        <v>639</v>
+      </c>
+      <c r="F43" t="s">
+        <v>584</v>
+      </c>
+      <c r="I43" s="99" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="99">
         <v>1</v>
       </c>
     </row>
@@ -10599,7 +10770,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10682,10 +10853,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10693,17 +10864,18 @@
     <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10714,118 +10886,130 @@
         <v>169</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="K1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="L1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="M1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>433</v>
+      <c r="D2" s="41">
+        <v>61</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>418</v>
+      </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="41"/>
       <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>436</v>
+      <c r="D3" s="41">
+        <v>61</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F3" s="41"/>
+        <v>421</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>421</v>
+      </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="41"/>
       <c r="K3" s="41"/>
-      <c r="L3" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>435</v>
+      <c r="D4" s="41">
+        <v>61</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="F4" s="41"/>
+        <v>420</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>420</v>
+      </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="41"/>
       <c r="K4" s="41"/>
-      <c r="L4" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L4" s="41"/>
+      <c r="M4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10838,8 +11022,9 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10852,6 +11037,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11083,7 +11269,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -11164,10 +11350,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
@@ -11658,11 +11844,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11776,7 +11962,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -11868,11 +12054,11 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -11956,11 +12142,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>582</v>
+        <v>557</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -12320,7 +12506,7 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -12498,7 +12684,7 @@
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -12526,7 +12712,7 @@
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -12556,7 +12742,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12654,7 +12840,7 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -12685,7 +12871,7 @@
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -12858,14 +13044,14 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B58" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>581</v>
+        <v>556</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12894,14 +13080,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
@@ -12930,14 +13116,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>15</v>
@@ -12960,14 +13146,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B61" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>50</v>
@@ -12988,14 +13174,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="68" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="72" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>15</v>
@@ -14019,7 +14205,7 @@
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>575</v>
+        <v>550</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -14053,7 +14239,7 @@
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>576</v>
+        <v>551</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -14087,7 +14273,7 @@
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>577</v>
+        <v>552</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -14121,7 +14307,7 @@
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>578</v>
+        <v>553</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -14155,7 +14341,7 @@
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>579</v>
+        <v>554</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -14189,7 +14375,7 @@
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>580</v>
+        <v>555</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -14821,7 +15007,7 @@
         <v>168</v>
       </c>
       <c r="E50" s="109" t="s">
-        <v>572</v>
+        <v>547</v>
       </c>
       <c r="F50" s="108">
         <v>1</v>
@@ -14854,7 +15040,7 @@
         <v>168</v>
       </c>
       <c r="E51" s="103" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="F51" s="102">
         <v>1</v>
@@ -14887,7 +15073,7 @@
         <v>168</v>
       </c>
       <c r="E52" s="103" t="s">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="F52" s="102">
         <v>1</v>
@@ -14920,7 +15106,7 @@
         <v>168</v>
       </c>
       <c r="E53" s="103" t="s">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="F53" s="102">
         <v>1</v>
@@ -14953,7 +15139,7 @@
         <v>168</v>
       </c>
       <c r="E54" s="103" t="s">
-        <v>624</v>
+        <v>599</v>
       </c>
       <c r="F54" s="102">
         <v>1</v>
@@ -14986,7 +15172,7 @@
         <v>168</v>
       </c>
       <c r="E55" s="103" t="s">
-        <v>625</v>
+        <v>600</v>
       </c>
       <c r="F55" s="102">
         <v>1</v>
@@ -15019,7 +15205,7 @@
         <v>168</v>
       </c>
       <c r="E56" s="103" t="s">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="F56" s="102">
         <v>1</v>
@@ -15052,7 +15238,7 @@
         <v>168</v>
       </c>
       <c r="E57" s="103" t="s">
-        <v>626</v>
+        <v>601</v>
       </c>
       <c r="F57" s="102">
         <v>1</v>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -5183,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -5281,7 +5281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -5377,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -5409,7 +5409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
@@ -5443,7 +5443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5475,7 +5475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5539,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5571,7 +5571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
@@ -5605,7 +5605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
@@ -6489,7 +6489,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I44" sqref="I44"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7838,9 +7838,11 @@
         <v>296</v>
       </c>
       <c r="E40" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="101">
         <v>50</v>
       </c>
-      <c r="F40" s="101"/>
       <c r="G40" s="101"/>
       <c r="H40" s="101"/>
       <c r="I40" s="101"/>
@@ -7869,11 +7871,9 @@
         <v>176</v>
       </c>
       <c r="E41" s="100" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="101">
-        <v>255</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F41" s="101"/>
       <c r="G41" s="101"/>
       <c r="H41" s="101"/>
       <c r="I41" s="101"/>
@@ -7902,9 +7902,11 @@
         <v>177</v>
       </c>
       <c r="E42" s="100" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="101">
         <v>50</v>
       </c>
-      <c r="F42" s="101"/>
       <c r="G42" s="101"/>
       <c r="H42" s="101"/>
       <c r="I42" s="101"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="25605" yWindow="495" windowWidth="38400" windowHeight="20085" tabRatio="800" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="495" windowWidth="38400" windowHeight="20055" tabRatio="800" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -292,7 +292,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="638">
   <si>
     <t>status</t>
   </si>
@@ -1056,9 +1056,6 @@
     <t>Phân loại chỉ đạo này thuộc cái gì (Công việc thường xuyên/Cập nhập hàng tuần) - lấy từ categories</t>
   </si>
   <si>
-    <t>Lịch Sử Xử Lý</t>
-  </si>
-  <si>
     <t>Hình ảnh</t>
   </si>
   <si>
@@ -1153,45 +1150,6 @@
   </si>
   <si>
     <t>Vai Trò Đơn Vị</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mã lưu các thông tin lịch sử xử lý của chỉ đạo này (Mục tiêu là lưu hết đơn vị nào thực hiện cập nhập và xử lý gì -&gt; Lưu Id của bảng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>direct_executes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trạng thái của của chỉ đạo giao cho đơn vị này (lấy từ bảng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1353,57 +1311,12 @@
     <t>User cập nhập người dùng này</t>
   </si>
   <si>
-    <t>P.TH</t>
-  </si>
-  <si>
-    <t>P.DVKT</t>
-  </si>
-  <si>
     <t>BGĐ</t>
   </si>
   <si>
-    <t>P.CSKH</t>
-  </si>
-  <si>
-    <t>P.KHCN</t>
-  </si>
-  <si>
-    <t>P.KHDN</t>
-  </si>
-  <si>
-    <t>P.KT</t>
-  </si>
-  <si>
-    <t>MBF.DNA2</t>
-  </si>
-  <si>
-    <t>MBF.DNA1</t>
-  </si>
-  <si>
-    <t>MBF.QNG</t>
-  </si>
-  <si>
-    <t>MBF.QNA</t>
-  </si>
-  <si>
-    <t>MBF.TTH</t>
-  </si>
-  <si>
-    <t>MBF.BDI</t>
-  </si>
-  <si>
-    <t>MBF.QTR</t>
-  </si>
-  <si>
-    <t>MBF.PYE</t>
-  </si>
-  <si>
     <t>Công ty 3</t>
   </si>
   <si>
-    <t>CTy3</t>
-  </si>
-  <si>
     <t>Mã của tổ chức (dùng khi select</t>
   </si>
   <si>
@@ -1662,18 +1575,6 @@
     <t>Cập nhập hoàn thành cho chỉ đạo này</t>
   </si>
   <si>
-    <t>MT_INST</t>
-  </si>
-  <si>
-    <t>MT_WEEK</t>
-  </si>
-  <si>
-    <t>MT_MONTH</t>
-  </si>
-  <si>
-    <t>MT_YEAR</t>
-  </si>
-  <si>
     <t>direct-organization</t>
   </si>
   <si>
@@ -1959,24 +1860,6 @@
     <t>P.TH nhập ý kiến của lãnh đạo</t>
   </si>
   <si>
-    <t>DT_WEEK</t>
-  </si>
-  <si>
-    <t>DT_MONTH</t>
-  </si>
-  <si>
-    <t>DT_YEAR</t>
-  </si>
-  <si>
-    <t>DT_1WEEK</t>
-  </si>
-  <si>
-    <t>DT_1MONTH</t>
-  </si>
-  <si>
-    <t>DT_1YEAR</t>
-  </si>
-  <si>
     <t>CMPLT_PERCENT</t>
   </si>
   <si>
@@ -2227,13 +2110,151 @@
   </si>
   <si>
     <t>/get-direct-by-ids</t>
+  </si>
+  <si>
+    <t>HDX</t>
+  </si>
+  <si>
+    <t>GBT</t>
+  </si>
+  <si>
+    <t>HTH</t>
+  </si>
+  <si>
+    <t>TKN</t>
+  </si>
+  <si>
+    <t>TUA</t>
+  </si>
+  <si>
+    <t>THA</t>
+  </si>
+  <si>
+    <t>NAM</t>
+  </si>
+  <si>
+    <t>TA1</t>
+  </si>
+  <si>
+    <t>TH1</t>
+  </si>
+  <si>
+    <t>NA1</t>
+  </si>
+  <si>
+    <t>CT3</t>
+  </si>
+  <si>
+    <t>DVK</t>
+  </si>
+  <si>
+    <t>TTH</t>
+  </si>
+  <si>
+    <t>PTH</t>
+  </si>
+  <si>
+    <t>CSH</t>
+  </si>
+  <si>
+    <t>KHC</t>
+  </si>
+  <si>
+    <t>KHD</t>
+  </si>
+  <si>
+    <t>KTO</t>
+  </si>
+  <si>
+    <t>DN1</t>
+  </si>
+  <si>
+    <t>DN2</t>
+  </si>
+  <si>
+    <t>QNG</t>
+  </si>
+  <si>
+    <t>QNA</t>
+  </si>
+  <si>
+    <t>BDI</t>
+  </si>
+  <si>
+    <t>QTR</t>
+  </si>
+  <si>
+    <t>PYE</t>
+  </si>
+  <si>
+    <t>BGD</t>
+  </si>
+  <si>
+    <t>Ban Giám Đốc</t>
+  </si>
+  <si>
+    <t>Danh mục thành viên BGĐ</t>
+  </si>
+  <si>
+    <t>GD</t>
+  </si>
+  <si>
+    <t>Trần Vinh</t>
+  </si>
+  <si>
+    <t>PG1</t>
+  </si>
+  <si>
+    <t>PG2</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tuyền</t>
+  </si>
+  <si>
+    <t>Võ Đình Mẫn</t>
+  </si>
+  <si>
+    <t>Giám Đốc Công Ty</t>
+  </si>
+  <si>
+    <t>Phó Giám Đốc thứ 1 của Công Ty</t>
+  </si>
+  <si>
+    <t>Phó Giám Đốc thứ 2 của Công Ty</t>
+  </si>
+  <si>
+    <t>Chỉ đạo chung của cả Ban Giám Đốc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng thái của của chỉ đạo giao cho đơn vị này (lấy từ bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2384,6 +2405,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -3416,7 +3444,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3653,9 +3681,6 @@
     <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3693,6 +3718,37 @@
     <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="829">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -5049,7 +5105,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -5066,16 +5122,16 @@
         <v>99</v>
       </c>
       <c r="B2" s="97" t="s">
-        <v>573</v>
+        <v>545</v>
       </c>
       <c r="C2" s="97" t="s">
-        <v>471</v>
+        <v>449</v>
       </c>
       <c r="D2" s="96" t="s">
-        <v>583</v>
+        <v>555</v>
       </c>
       <c r="E2" s="96" t="s">
-        <v>470</v>
+        <v>448</v>
       </c>
       <c r="F2" s="96">
         <v>1</v>
@@ -5086,16 +5142,16 @@
         <v>21</v>
       </c>
       <c r="B3" s="95" t="s">
-        <v>574</v>
+        <v>546</v>
       </c>
       <c r="C3" s="95" t="s">
-        <v>472</v>
+        <v>450</v>
       </c>
       <c r="D3" s="94" t="s">
-        <v>473</v>
+        <v>451</v>
       </c>
       <c r="E3" s="94" t="s">
-        <v>474</v>
+        <v>452</v>
       </c>
       <c r="F3" s="94">
         <v>1</v>
@@ -5183,41 +5239,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2" s="90">
         <v>1</v>
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>459</v>
+        <v>437</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>468</v>
+        <v>446</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="90">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A3" s="86">
         <v>11</v>
       </c>
@@ -5225,31 +5281,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>453</v>
+        <v>431</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N3" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A4" s="86">
         <v>12</v>
       </c>
@@ -5257,31 +5313,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
       <c r="F4" s="87"/>
       <c r="G4" s="87" t="s">
-        <v>454</v>
+        <v>432</v>
       </c>
       <c r="H4" s="86" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="I4" s="86"/>
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N4" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A5" s="86">
         <v>13</v>
       </c>
@@ -5289,31 +5345,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="86" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="D5" s="86"/>
       <c r="E5" s="87" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="F5" s="87"/>
       <c r="G5" s="87" t="s">
-        <v>455</v>
+        <v>433</v>
       </c>
       <c r="H5" s="86" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="I5" s="86"/>
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N5" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A6" s="86">
         <v>14</v>
       </c>
@@ -5321,31 +5377,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="D6" s="86"/>
       <c r="E6" s="87" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87" t="s">
-        <v>456</v>
+        <v>434</v>
       </c>
       <c r="H6" s="86" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="I6" s="86"/>
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N6" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A7" s="86">
         <v>15</v>
       </c>
@@ -5353,31 +5409,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="86" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="D7" s="86"/>
       <c r="E7" s="87" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="F7" s="87"/>
       <c r="G7" s="87" t="s">
-        <v>457</v>
+        <v>435</v>
       </c>
       <c r="H7" s="86" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N7" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A8" s="86">
         <v>16</v>
       </c>
@@ -5385,65 +5441,65 @@
         <v>1</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="D8" s="86"/>
       <c r="E8" s="87" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="F8" s="87"/>
       <c r="G8" s="87" t="s">
-        <v>458</v>
+        <v>436</v>
       </c>
       <c r="H8" s="86" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="I8" s="86"/>
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N8" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="90">
         <v>2</v>
       </c>
       <c r="B9" s="90"/>
       <c r="C9" s="90" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D9" s="90" t="s">
-        <v>588</v>
+        <v>560</v>
       </c>
       <c r="E9" s="91" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F9" s="91" t="s">
-        <v>595</v>
+        <v>567</v>
       </c>
       <c r="G9" s="91" t="s">
-        <v>460</v>
+        <v>438</v>
       </c>
       <c r="H9" s="90" t="s">
-        <v>478</v>
+        <v>456</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="106" t="s">
+      <c r="M9" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N9" s="90">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A10" s="86">
         <v>21</v>
       </c>
@@ -5451,31 +5507,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="D10" s="86"/>
       <c r="E10" s="87" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="F10" s="87"/>
       <c r="G10" s="87" t="s">
-        <v>461</v>
+        <v>439</v>
       </c>
       <c r="H10" s="86" t="s">
-        <v>443</v>
+        <v>421</v>
       </c>
       <c r="I10" s="86"/>
       <c r="J10" s="88"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N10" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="86">
         <v>22</v>
       </c>
@@ -5483,31 +5539,31 @@
         <v>2</v>
       </c>
       <c r="C11" s="86" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="D11" s="86"/>
       <c r="E11" s="87" t="s">
-        <v>589</v>
+        <v>561</v>
       </c>
       <c r="F11" s="87"/>
       <c r="G11" s="87" t="s">
-        <v>462</v>
+        <v>440</v>
       </c>
       <c r="H11" s="86" t="s">
-        <v>444</v>
+        <v>422</v>
       </c>
       <c r="I11" s="86"/>
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N11" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A12" s="86">
         <v>23</v>
       </c>
@@ -5515,31 +5571,31 @@
         <v>2</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="D12" s="86"/>
       <c r="E12" s="87" t="s">
-        <v>585</v>
+        <v>557</v>
       </c>
       <c r="F12" s="87"/>
       <c r="G12" s="87" t="s">
-        <v>463</v>
+        <v>441</v>
       </c>
       <c r="H12" s="86" t="s">
-        <v>445</v>
+        <v>423</v>
       </c>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="107" t="s">
+      <c r="M12" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N12" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A13" s="86">
         <v>24</v>
       </c>
@@ -5547,65 +5603,65 @@
         <v>2</v>
       </c>
       <c r="C13" s="86" t="s">
-        <v>442</v>
+        <v>420</v>
       </c>
       <c r="D13" s="86"/>
       <c r="E13" s="87" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="F13" s="87"/>
       <c r="G13" s="87" t="s">
-        <v>464</v>
+        <v>442</v>
       </c>
       <c r="H13" s="86" t="s">
-        <v>446</v>
+        <v>424</v>
       </c>
       <c r="I13" s="86"/>
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N13" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A14" s="90">
         <v>3</v>
       </c>
       <c r="B14" s="90"/>
       <c r="C14" s="90" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="D14" s="90" t="s">
-        <v>449</v>
+        <v>427</v>
       </c>
       <c r="E14" s="91" t="s">
-        <v>447</v>
+        <v>425</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>477</v>
+        <v>455</v>
       </c>
       <c r="G14" s="91" t="s">
-        <v>467</v>
+        <v>445</v>
       </c>
       <c r="H14" s="90" t="s">
-        <v>479</v>
+        <v>457</v>
       </c>
       <c r="I14" s="90"/>
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N14" s="90">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A15" s="86">
         <v>31</v>
       </c>
@@ -5613,56 +5669,56 @@
         <v>3</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="D15" s="86"/>
       <c r="E15" s="87" t="s">
-        <v>448</v>
+        <v>426</v>
       </c>
       <c r="F15" s="87"/>
       <c r="G15" s="87" t="s">
-        <v>465</v>
+        <v>443</v>
       </c>
       <c r="H15" s="86" t="s">
-        <v>450</v>
+        <v>428</v>
       </c>
       <c r="I15" s="86"/>
       <c r="J15" s="88"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N15" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A16" s="90">
         <v>4</v>
       </c>
       <c r="B16" s="90"/>
       <c r="C16" s="90" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="D16" s="90"/>
       <c r="E16" s="91" t="s">
-        <v>451</v>
+        <v>429</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>466</v>
+        <v>444</v>
       </c>
       <c r="H16" s="90" t="s">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="I16" s="90"/>
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
-      <c r="M16" s="106" t="s">
+      <c r="M16" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N16" s="90">
@@ -5707,7 +5763,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="22" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C1" s="22" t="s">
         <v>38</v>
@@ -5716,7 +5772,7 @@
         <v>39</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>140</v>
@@ -5751,7 +5807,7 @@
         <v>138</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="F2" s="30"/>
       <c r="G2" s="30"/>
@@ -5778,7 +5834,7 @@
         <v>138</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="F3" s="30"/>
       <c r="G3" s="30"/>
@@ -5805,7 +5861,7 @@
         <v>138</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="F4" s="28"/>
       <c r="G4" s="28"/>
@@ -5832,7 +5888,7 @@
         <v>138</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>584</v>
+        <v>556</v>
       </c>
       <c r="F5" s="28"/>
       <c r="G5" s="28"/>
@@ -5864,14 +5920,16 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
@@ -5890,7 +5948,7 @@
         <v>242</v>
       </c>
       <c r="D1" s="40" t="s">
-        <v>596</v>
+        <v>568</v>
       </c>
       <c r="E1" s="40" t="s">
         <v>180</v>
@@ -5916,13 +5974,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s">
-        <v>351</v>
+        <v>609</v>
       </c>
       <c r="D2" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="I2" t="s">
         <v>188</v>
@@ -5939,10 +5997,10 @@
         <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D3" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -5962,10 +6020,10 @@
         <v>190</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>610</v>
       </c>
       <c r="D4" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -5985,10 +6043,10 @@
         <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>335</v>
+        <v>611</v>
       </c>
       <c r="D5" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6008,10 +6066,10 @@
         <v>192</v>
       </c>
       <c r="C6" t="s">
-        <v>335</v>
+        <v>612</v>
       </c>
       <c r="D6" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -6031,10 +6089,10 @@
         <v>194</v>
       </c>
       <c r="C7" t="s">
-        <v>338</v>
+        <v>613</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6054,10 +6112,10 @@
         <v>196</v>
       </c>
       <c r="C8" t="s">
-        <v>339</v>
+        <v>614</v>
       </c>
       <c r="D8" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -6077,10 +6135,10 @@
         <v>197</v>
       </c>
       <c r="C9" t="s">
-        <v>340</v>
+        <v>615</v>
       </c>
       <c r="D9" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -6100,10 +6158,10 @@
         <v>198</v>
       </c>
       <c r="C10" t="s">
-        <v>341</v>
+        <v>616</v>
       </c>
       <c r="D10" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -6123,10 +6181,10 @@
         <v>195</v>
       </c>
       <c r="C11" t="s">
-        <v>343</v>
+        <v>617</v>
       </c>
       <c r="D11" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -6146,10 +6204,10 @@
         <v>193</v>
       </c>
       <c r="C12" t="s">
-        <v>342</v>
+        <v>618</v>
       </c>
       <c r="D12" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -6169,10 +6227,10 @@
         <v>199</v>
       </c>
       <c r="C13" t="s">
-        <v>344</v>
+        <v>619</v>
       </c>
       <c r="D13" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -6192,10 +6250,10 @@
         <v>200</v>
       </c>
       <c r="C14" t="s">
-        <v>345</v>
+        <v>620</v>
       </c>
       <c r="D14" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -6215,10 +6273,10 @@
         <v>201</v>
       </c>
       <c r="C15" t="s">
-        <v>346</v>
+        <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -6238,10 +6296,10 @@
         <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>347</v>
+        <v>621</v>
       </c>
       <c r="D16" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -6261,10 +6319,10 @@
         <v>203</v>
       </c>
       <c r="C17" t="s">
-        <v>348</v>
+        <v>622</v>
       </c>
       <c r="D17" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -6284,10 +6342,10 @@
         <v>204</v>
       </c>
       <c r="C18" t="s">
-        <v>349</v>
+        <v>623</v>
       </c>
       <c r="D18" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -6324,10 +6382,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C1" s="67" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="D1" s="67" t="s">
         <v>19</v>
@@ -6372,7 +6430,7 @@
         <v>231</v>
       </c>
       <c r="C4" t="s">
-        <v>552</v>
+        <v>524</v>
       </c>
       <c r="E4" t="s">
         <v>188</v>
@@ -6386,7 +6444,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>553</v>
+        <v>525</v>
       </c>
       <c r="E5" t="s">
         <v>188</v>
@@ -6414,7 +6472,7 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
       <c r="E7" t="s">
         <v>188</v>
@@ -6428,7 +6486,7 @@
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>555</v>
+        <v>527</v>
       </c>
       <c r="E8" t="s">
         <v>188</v>
@@ -6439,7 +6497,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C9" t="s">
         <v>246</v>
@@ -6456,7 +6514,7 @@
         <v>155</v>
       </c>
       <c r="C10" t="s">
-        <v>590</v>
+        <v>562</v>
       </c>
       <c r="E10" t="s">
         <v>188</v>
@@ -6470,7 +6528,7 @@
         <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>591</v>
+        <v>563</v>
       </c>
       <c r="E11" t="s">
         <v>188</v>
@@ -6486,10 +6544,10 @@
   <dimension ref="A1:Q91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D26" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C74" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6552,10 +6610,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="54" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="O1" s="54" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="P1" s="54" t="s">
         <v>14</v>
@@ -6564,7 +6622,7 @@
     </row>
     <row r="2" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B2" s="50" t="s">
         <v>18</v>
@@ -6603,16 +6661,16 @@
     </row>
     <row r="3" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B3" s="50" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D3" s="50" t="s">
         <v>258</v>
-      </c>
-      <c r="D3" s="50" t="s">
-        <v>259</v>
       </c>
       <c r="E3" s="50" t="s">
         <v>15</v>
@@ -6636,16 +6694,16 @@
     </row>
     <row r="4" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B4" s="50" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="D4" s="50" t="s">
         <v>260</v>
-      </c>
-      <c r="D4" s="50" t="s">
-        <v>261</v>
       </c>
       <c r="E4" s="50" t="s">
         <v>15</v>
@@ -6668,24 +6726,22 @@
       <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
-        <v>257</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="C5" s="50" t="s">
+      <c r="A5" s="111" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>294</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>261</v>
+      </c>
+      <c r="D5" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="55">
-        <v>255</v>
-      </c>
+      <c r="E5" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="112"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
@@ -6702,16 +6758,16 @@
     </row>
     <row r="6" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B6" s="50" t="s">
         <v>186</v>
       </c>
       <c r="C6" s="50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>15</v>
@@ -6735,13 +6791,13 @@
     </row>
     <row r="7" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="50" t="s">
         <v>217</v>
       </c>
       <c r="C7" s="50" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D7" s="50" t="s">
         <v>226</v>
@@ -6768,16 +6824,16 @@
     </row>
     <row r="8" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B8" s="50" t="s">
         <v>221</v>
       </c>
       <c r="C8" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="50" t="s">
         <v>265</v>
-      </c>
-      <c r="D8" s="50" t="s">
-        <v>266</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>15</v>
@@ -6801,7 +6857,7 @@
     </row>
     <row r="9" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B9" s="50" t="s">
         <v>205</v>
@@ -6832,7 +6888,7 @@
     </row>
     <row r="10" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B10" s="50" t="s">
         <v>231</v>
@@ -6841,7 +6897,7 @@
         <v>249</v>
       </c>
       <c r="D10" s="50" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E10" s="50" t="s">
         <v>15</v>
@@ -6862,12 +6918,12 @@
         <v>9</v>
       </c>
       <c r="Q10" s="57" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B11" s="50" t="s">
         <v>19</v>
@@ -6898,7 +6954,7 @@
     </row>
     <row r="12" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B12" s="50" t="s">
         <v>45</v>
@@ -6931,7 +6987,7 @@
     </row>
     <row r="13" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13" s="50" t="s">
         <v>0</v>
@@ -7006,13 +7062,13 @@
         <v>221</v>
       </c>
       <c r="B15" s="51" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C15" s="51" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D15" s="51" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="E15" s="51" t="s">
         <v>15</v>
@@ -7072,24 +7128,22 @@
       <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="51" t="s">
-        <v>297</v>
-      </c>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="113" t="s">
+        <v>294</v>
+      </c>
+      <c r="C17" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="58">
-        <v>255</v>
-      </c>
+      <c r="E17" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="114"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
@@ -7109,13 +7163,13 @@
         <v>221</v>
       </c>
       <c r="B18" s="51" t="s">
-        <v>481</v>
+        <v>459</v>
       </c>
       <c r="C18" s="51" t="s">
-        <v>480</v>
+        <v>458</v>
       </c>
       <c r="D18" s="51" t="s">
-        <v>482</v>
+        <v>460</v>
       </c>
       <c r="E18" s="51" t="s">
         <v>15</v>
@@ -7145,10 +7199,10 @@
         <v>227</v>
       </c>
       <c r="C19" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E19" s="51" t="s">
         <v>15</v>
@@ -7178,10 +7232,10 @@
         <v>228</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D20" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" s="51" t="s">
         <v>15</v>
@@ -7211,7 +7265,7 @@
         <v>186</v>
       </c>
       <c r="C21" s="51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D21" s="51" t="s">
         <v>225</v>
@@ -7244,7 +7298,7 @@
         <v>217</v>
       </c>
       <c r="C22" s="51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D22" s="51" t="s">
         <v>226</v>
@@ -7274,13 +7328,13 @@
         <v>221</v>
       </c>
       <c r="B23" s="51" t="s">
-        <v>483</v>
+        <v>461</v>
       </c>
       <c r="C23" s="51" t="s">
-        <v>484</v>
+        <v>462</v>
       </c>
       <c r="D23" s="51" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="E23" s="51" t="s">
         <v>50</v>
@@ -7342,7 +7396,7 @@
         <v>249</v>
       </c>
       <c r="D25" s="51" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E25" s="51" t="s">
         <v>15</v>
@@ -7436,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="C28" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D28" s="51" t="s">
-        <v>492</v>
+        <v>470</v>
       </c>
       <c r="E28" s="51" t="s">
         <v>15</v>
@@ -7468,13 +7522,13 @@
         <v>221</v>
       </c>
       <c r="B29" s="51" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C29" s="51" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D29" s="51" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E29" s="51" t="s">
         <v>15</v>
@@ -7501,13 +7555,13 @@
         <v>221</v>
       </c>
       <c r="B30" s="51" t="s">
-        <v>525</v>
+        <v>503</v>
       </c>
       <c r="C30" s="51" t="s">
-        <v>526</v>
+        <v>504</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>527</v>
+        <v>505</v>
       </c>
       <c r="E30" s="51" t="s">
         <v>15</v>
@@ -7534,13 +7588,13 @@
         <v>221</v>
       </c>
       <c r="B31" s="51" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="C31" s="51" t="s">
-        <v>529</v>
+        <v>507</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>530</v>
+        <v>508</v>
       </c>
       <c r="E31" s="51" t="s">
         <v>15</v>
@@ -7563,390 +7617,390 @@
       <c r="Q31" s="57"/>
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B32" s="100" t="s">
+      <c r="A32" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B32" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="100" t="s">
-        <v>569</v>
-      </c>
-      <c r="E32" s="100" t="s">
+      <c r="D32" s="99" t="s">
+        <v>541</v>
+      </c>
+      <c r="E32" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101">
-        <v>1</v>
-      </c>
-      <c r="H32" s="101">
-        <v>1</v>
-      </c>
-      <c r="I32" s="101">
-        <v>1</v>
-      </c>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100">
+        <v>1</v>
+      </c>
+      <c r="H32" s="100">
+        <v>1</v>
+      </c>
+      <c r="I32" s="100">
+        <v>1</v>
+      </c>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="56">
         <v>31</v>
       </c>
       <c r="Q32" s="57"/>
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B33" s="100" t="s">
+      <c r="A33" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B33" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="100" t="s">
-        <v>570</v>
-      </c>
-      <c r="D33" s="100" t="s">
-        <v>571</v>
-      </c>
-      <c r="E33" s="100" t="s">
+      <c r="C33" s="99" t="s">
+        <v>542</v>
+      </c>
+      <c r="D33" s="99" t="s">
+        <v>543</v>
+      </c>
+      <c r="E33" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
       <c r="P33" s="56">
         <v>32</v>
       </c>
       <c r="Q33" s="57"/>
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B34" s="100" t="s">
-        <v>613</v>
-      </c>
-      <c r="C34" s="100" t="s">
-        <v>614</v>
-      </c>
-      <c r="D34" s="100" t="s">
-        <v>615</v>
-      </c>
-      <c r="E34" s="100" t="s">
+      <c r="A34" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="99" t="s">
+        <v>585</v>
+      </c>
+      <c r="C34" s="99" t="s">
+        <v>586</v>
+      </c>
+      <c r="D34" s="99" t="s">
+        <v>587</v>
+      </c>
+      <c r="E34" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="100">
         <v>50</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="56">
         <v>33</v>
       </c>
       <c r="Q34" s="57"/>
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B35" s="100" t="s">
+      <c r="A35" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B35" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="100" t="s">
-        <v>274</v>
-      </c>
-      <c r="D35" s="100" t="s">
-        <v>276</v>
-      </c>
-      <c r="E35" s="100" t="s">
+      <c r="C35" s="99" t="s">
+        <v>273</v>
+      </c>
+      <c r="D35" s="99" t="s">
+        <v>275</v>
+      </c>
+      <c r="E35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="100">
         <v>500</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="56">
         <v>34</v>
       </c>
       <c r="Q35" s="57"/>
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B36" s="100" t="s">
+      <c r="A36" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B36" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="100" t="s">
-        <v>275</v>
-      </c>
-      <c r="D36" s="100" t="s">
-        <v>277</v>
-      </c>
-      <c r="E36" s="100" t="s">
+      <c r="C36" s="99" t="s">
+        <v>274</v>
+      </c>
+      <c r="D36" s="99" t="s">
+        <v>276</v>
+      </c>
+      <c r="E36" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="101">
+      <c r="F36" s="100">
         <v>500</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="56">
         <v>35</v>
       </c>
       <c r="Q36" s="57"/>
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B37" s="100" t="s">
-        <v>560</v>
-      </c>
-      <c r="C37" s="100" t="s">
-        <v>561</v>
-      </c>
-      <c r="D37" s="100" t="s">
-        <v>562</v>
-      </c>
-      <c r="E37" s="100" t="s">
+      <c r="A37" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B37" s="99" t="s">
+        <v>532</v>
+      </c>
+      <c r="C37" s="99" t="s">
+        <v>533</v>
+      </c>
+      <c r="D37" s="99" t="s">
+        <v>534</v>
+      </c>
+      <c r="E37" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="101">
+      <c r="F37" s="100">
         <v>255</v>
       </c>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="56">
         <v>36</v>
       </c>
       <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B38" s="100" t="s">
-        <v>565</v>
-      </c>
-      <c r="C38" s="100" t="s">
-        <v>563</v>
-      </c>
-      <c r="D38" s="100" t="s">
-        <v>564</v>
-      </c>
-      <c r="E38" s="100" t="s">
+      <c r="A38" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B38" s="99" t="s">
+        <v>537</v>
+      </c>
+      <c r="C38" s="99" t="s">
+        <v>535</v>
+      </c>
+      <c r="D38" s="99" t="s">
+        <v>536</v>
+      </c>
+      <c r="E38" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="56">
         <v>37</v>
       </c>
       <c r="Q38" s="57"/>
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B39" s="100" t="s">
+      <c r="A39" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B39" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="56">
         <v>38</v>
       </c>
       <c r="Q39" s="57"/>
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B40" s="100" t="s">
+      <c r="A40" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B40" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="100" t="s">
-        <v>296</v>
-      </c>
-      <c r="E40" s="100" t="s">
+      <c r="D40" s="99" t="s">
+        <v>293</v>
+      </c>
+      <c r="E40" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="101">
-        <v>50</v>
-      </c>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
+      <c r="F40" s="100">
+        <v>255</v>
+      </c>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
       <c r="P40" s="56">
         <v>39</v>
       </c>
       <c r="Q40" s="57"/>
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B41" s="100" t="s">
+      <c r="A41" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B41" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="100" t="s">
+      <c r="E41" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F41" s="101"/>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
+      <c r="F41" s="100"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
       <c r="P41" s="56">
         <v>40</v>
       </c>
       <c r="Q41" s="57"/>
     </row>
     <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B42" s="100" t="s">
+      <c r="A42" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B42" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="100" t="s">
+      <c r="E42" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F42" s="101">
-        <v>50</v>
-      </c>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
+      <c r="F42" s="100">
+        <v>255</v>
+      </c>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
       <c r="P42" s="56">
         <v>41</v>
       </c>
       <c r="Q42" s="57"/>
     </row>
     <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="100" t="s">
-        <v>559</v>
-      </c>
-      <c r="B43" s="100" t="s">
+      <c r="A43" s="99" t="s">
+        <v>531</v>
+      </c>
+      <c r="B43" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="100" t="s">
-        <v>566</v>
-      </c>
-      <c r="E43" s="100" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
+      <c r="D43" s="99" t="s">
+        <v>538</v>
+      </c>
+      <c r="E43" s="99" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="56">
         <v>42</v>
       </c>
@@ -7954,7 +8008,7 @@
     </row>
     <row r="44" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B44" s="50" t="s">
         <v>18</v>
@@ -7963,7 +8017,7 @@
         <v>243</v>
       </c>
       <c r="D44" s="50" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E44" s="50" t="s">
         <v>16</v>
@@ -7991,16 +8045,16 @@
     </row>
     <row r="45" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B45" s="50" t="s">
         <v>222</v>
       </c>
       <c r="C45" s="50" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D45" s="50" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="E45" s="50" t="s">
         <v>16</v>
@@ -8022,16 +8076,16 @@
     </row>
     <row r="46" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C46" s="50" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="D46" s="50" t="s">
-        <v>617</v>
+        <v>589</v>
       </c>
       <c r="E46" s="50" t="s">
         <v>15</v>
@@ -8055,16 +8109,16 @@
     </row>
     <row r="47" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B47" s="50" t="s">
         <v>184</v>
       </c>
       <c r="C47" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="D47" s="50" t="s">
         <v>283</v>
-      </c>
-      <c r="D47" s="50" t="s">
-        <v>284</v>
       </c>
       <c r="E47" s="50" t="s">
         <v>16</v>
@@ -8088,16 +8142,16 @@
     </row>
     <row r="48" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B48" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="C48" s="50" t="s">
         <v>285</v>
       </c>
-      <c r="C48" s="50" t="s">
-        <v>286</v>
-      </c>
       <c r="D48" s="50" t="s">
-        <v>618</v>
+        <v>590</v>
       </c>
       <c r="E48" s="50" t="s">
         <v>16</v>
@@ -8119,16 +8173,16 @@
     </row>
     <row r="49" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B49" s="50" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C49" s="50" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D49" s="50" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E49" s="50" t="s">
         <v>15</v>
@@ -8146,55 +8200,53 @@
       <c r="N49" s="55"/>
       <c r="O49" s="55"/>
       <c r="P49" s="56">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="Q49" s="59"/>
     </row>
-    <row r="50" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="50" t="s">
-        <v>280</v>
-      </c>
-      <c r="B50" s="50" t="s">
+    <row r="50" spans="1:17" s="121" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="111" t="s">
+        <v>279</v>
+      </c>
+      <c r="B50" s="111" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="50" t="s">
+      <c r="C50" s="111" t="s">
         <v>236</v>
       </c>
-      <c r="D50" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="E50" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F50" s="55">
-        <v>255</v>
-      </c>
-      <c r="G50" s="55"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="55"/>
-      <c r="K50" s="55"/>
-      <c r="L50" s="55"/>
-      <c r="M50" s="55"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="55"/>
+      <c r="D50" s="111" t="s">
+        <v>637</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="112"/>
+      <c r="G50" s="112"/>
+      <c r="H50" s="112"/>
+      <c r="I50" s="112"/>
+      <c r="J50" s="112"/>
+      <c r="K50" s="112"/>
+      <c r="L50" s="112"/>
+      <c r="M50" s="112"/>
+      <c r="N50" s="112"/>
+      <c r="O50" s="112"/>
       <c r="P50" s="56">
         <v>49</v>
       </c>
-      <c r="Q50" s="59"/>
+      <c r="Q50" s="120"/>
     </row>
     <row r="51" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B51" s="50" t="s">
-        <v>486</v>
+        <v>464</v>
       </c>
       <c r="C51" s="50" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="D51" s="50" t="s">
-        <v>488</v>
+        <v>466</v>
       </c>
       <c r="E51" s="50" t="s">
         <v>15</v>
@@ -8216,7 +8268,7 @@
     </row>
     <row r="52" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B52" s="50" t="s">
         <v>205</v>
@@ -8247,7 +8299,7 @@
     </row>
     <row r="53" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B53" s="50" t="s">
         <v>231</v>
@@ -8256,7 +8308,7 @@
         <v>249</v>
       </c>
       <c r="D53" s="50" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E53" s="50" t="s">
         <v>15</v>
@@ -8280,7 +8332,7 @@
     </row>
     <row r="54" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B54" s="50" t="s">
         <v>19</v>
@@ -8311,7 +8363,7 @@
     </row>
     <row r="55" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="50" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B55" s="50" t="s">
         <v>45</v>
@@ -8344,7 +8396,7 @@
     </row>
     <row r="56" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B56" s="52" t="s">
         <v>18</v>
@@ -8383,16 +8435,16 @@
     </row>
     <row r="57" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B57" s="52" t="s">
         <v>222</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>16</v>
@@ -8418,16 +8470,16 @@
     </row>
     <row r="58" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B58" s="52" t="s">
-        <v>613</v>
+        <v>585</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>616</v>
+        <v>588</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>619</v>
+        <v>591</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>15</v>
@@ -8451,16 +8503,16 @@
     </row>
     <row r="59" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B59" s="52" t="s">
         <v>184</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E59" s="52" t="s">
         <v>16</v>
@@ -8484,16 +8536,16 @@
     </row>
     <row r="60" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B60" s="52" t="s">
+        <v>284</v>
+      </c>
+      <c r="C60" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="C60" s="52" t="s">
-        <v>286</v>
-      </c>
       <c r="D60" s="52" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E60" s="52" t="s">
         <v>15</v>
@@ -8517,13 +8569,13 @@
     </row>
     <row r="61" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B61" s="52" t="s">
         <v>4</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>233</v>
@@ -8549,24 +8601,22 @@
       <c r="Q61" s="57"/>
     </row>
     <row r="62" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="52" t="s">
-        <v>279</v>
-      </c>
-      <c r="B62" s="52" t="s">
-        <v>297</v>
-      </c>
-      <c r="C62" s="52" t="s">
-        <v>298</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>489</v>
-      </c>
-      <c r="E62" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="46">
-        <v>255</v>
-      </c>
+      <c r="A62" s="115" t="s">
+        <v>278</v>
+      </c>
+      <c r="B62" s="115" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="115" t="s">
+        <v>295</v>
+      </c>
+      <c r="D62" s="116" t="s">
+        <v>467</v>
+      </c>
+      <c r="E62" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="117"/>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
@@ -8580,21 +8630,21 @@
         <v>60</v>
       </c>
       <c r="Q62" s="57" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="63" spans="1:17" s="82" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B63" s="52" t="s">
         <v>217</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E63" s="52" t="s">
         <v>15</v>
@@ -8618,16 +8668,16 @@
     </row>
     <row r="64" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B64" s="52" t="s">
         <v>0</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>490</v>
+        <v>468</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>523</v>
+        <v>501</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>97</v>
@@ -8649,7 +8699,7 @@
     </row>
     <row r="65" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B65" s="52" t="s">
         <v>205</v>
@@ -8680,13 +8730,13 @@
     </row>
     <row r="66" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B66" s="52" t="s">
         <v>231</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>232</v>
@@ -8713,7 +8763,7 @@
     </row>
     <row r="67" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="52" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B67" s="52" t="s">
         <v>19</v>
@@ -8722,7 +8772,7 @@
         <v>238</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>491</v>
+        <v>469</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>50</v>
@@ -8744,7 +8794,7 @@
     </row>
     <row r="68" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B68" s="65" t="s">
         <v>45</v>
@@ -8783,7 +8833,7 @@
         <v>18</v>
       </c>
       <c r="C69" s="53" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D69" s="53" t="s">
         <v>216</v>
@@ -8819,13 +8869,13 @@
         <v>217</v>
       </c>
       <c r="B70" s="53" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C70" s="53" t="s">
-        <v>550</v>
+        <v>522</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>551</v>
+        <v>523</v>
       </c>
       <c r="E70" s="53" t="s">
         <v>15</v>
@@ -8848,24 +8898,22 @@
       <c r="Q70" s="59"/>
     </row>
     <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="53" t="s">
-        <v>297</v>
-      </c>
-      <c r="C71" s="53" t="s">
+      <c r="B71" s="118" t="s">
+        <v>294</v>
+      </c>
+      <c r="C71" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="E71" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="62">
-        <v>255</v>
-      </c>
+      <c r="D71" s="118" t="s">
+        <v>266</v>
+      </c>
+      <c r="E71" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="119"/>
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
@@ -8890,7 +8938,7 @@
         <v>208</v>
       </c>
       <c r="C72" s="53" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D72" s="53" t="s">
         <v>215</v>
@@ -8923,7 +8971,7 @@
         <v>209</v>
       </c>
       <c r="C73" s="53" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D73" s="53" t="s">
         <v>214</v>
@@ -8989,10 +9037,10 @@
         <v>178</v>
       </c>
       <c r="C75" s="53" t="s">
+        <v>269</v>
+      </c>
+      <c r="D75" s="53" t="s">
         <v>270</v>
-      </c>
-      <c r="D75" s="53" t="s">
-        <v>271</v>
       </c>
       <c r="E75" s="53" t="s">
         <v>15</v>
@@ -9123,7 +9171,7 @@
         <v>212</v>
       </c>
       <c r="E79" s="53" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F79" s="62">
         <v>50</v>
@@ -9220,10 +9268,10 @@
         <v>139</v>
       </c>
       <c r="C82" s="44" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
       <c r="D82" s="63" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="E82" s="63" t="s">
         <v>16</v>
@@ -9250,13 +9298,13 @@
         <v>169</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>592</v>
+        <v>564</v>
       </c>
       <c r="C83" s="44" t="s">
-        <v>593</v>
+        <v>565</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>594</v>
+        <v>566</v>
       </c>
       <c r="E83" s="63" t="s">
         <v>15</v>
@@ -9289,7 +9337,7 @@
         <v>244</v>
       </c>
       <c r="D84" s="63" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E84" s="63" t="s">
         <v>15</v>
@@ -9324,7 +9372,7 @@
         <v>207</v>
       </c>
       <c r="D85" s="63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E85" s="63" t="s">
         <v>15</v>
@@ -9551,10 +9599,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9587,7 +9635,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="39" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="G1" s="39" t="s">
         <v>205</v>
@@ -9608,16 +9656,16 @@
       </c>
       <c r="B2" s="92"/>
       <c r="C2" s="92" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="D2" s="92" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="E2" s="92" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="F2" s="92" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="G2" s="92"/>
       <c r="H2" s="92"/>
@@ -9636,16 +9684,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="D3" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I3" t="s">
         <v>188</v>
@@ -9662,16 +9710,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="E4" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="F4" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="I4" t="s">
         <v>188</v>
@@ -9688,16 +9736,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E5" t="s">
-        <v>402</v>
+        <v>384</v>
       </c>
       <c r="F5" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="I5" t="s">
         <v>188</v>
@@ -9714,16 +9762,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E6" t="s">
-        <v>544</v>
+        <v>516</v>
       </c>
       <c r="F6" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="I6" t="s">
         <v>188</v>
@@ -9740,16 +9788,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>567</v>
+        <v>539</v>
       </c>
       <c r="D7" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="E7" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="F7" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I7" t="s">
         <v>188</v>
@@ -9766,16 +9814,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>568</v>
+        <v>540</v>
       </c>
       <c r="D8" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="I8" t="s">
         <v>188</v>
@@ -9790,16 +9838,16 @@
       </c>
       <c r="B9" s="92"/>
       <c r="C9" s="92" t="s">
-        <v>403</v>
+        <v>385</v>
       </c>
       <c r="D9" s="92" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E9" s="92" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="F9" s="92" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="G9" s="92"/>
       <c r="H9" s="92"/>
@@ -9818,16 +9866,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>405</v>
+        <v>387</v>
       </c>
       <c r="D10" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="E10" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="F10" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I10" t="s">
         <v>188</v>
@@ -9844,16 +9892,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
       <c r="D11" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="E11" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="F11" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I11" t="s">
         <v>188</v>
@@ -9868,16 +9916,16 @@
       </c>
       <c r="B12" s="92"/>
       <c r="C12" s="92" t="s">
-        <v>516</v>
+        <v>494</v>
       </c>
       <c r="D12" s="92" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="E12" s="92" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="F12" s="92" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="92"/>
@@ -9896,16 +9944,16 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="D13" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="E13" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="F13" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I13" t="s">
         <v>188</v>
@@ -9922,16 +9970,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="D14" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="E14" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="F14" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="I14" t="s">
         <v>188</v>
@@ -9948,16 +9996,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="D15" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="E15" t="s">
-        <v>421</v>
+        <v>403</v>
       </c>
       <c r="F15" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="I15" t="s">
         <v>188</v>
@@ -9974,16 +10022,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="D16" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="E16" t="s">
-        <v>422</v>
+        <v>404</v>
       </c>
       <c r="F16" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="I16" t="s">
         <v>188</v>
@@ -10000,16 +10048,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
       <c r="D17" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="E17" t="s">
-        <v>423</v>
+        <v>405</v>
       </c>
       <c r="F17" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I17" t="s">
         <v>188</v>
@@ -10026,16 +10074,16 @@
         <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>542</v>
+        <v>608</v>
       </c>
       <c r="D18" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="E18" t="s">
-        <v>424</v>
+        <v>406</v>
       </c>
       <c r="F18" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="I18" t="s">
         <v>188</v>
@@ -10050,16 +10098,16 @@
       </c>
       <c r="B19" s="92"/>
       <c r="C19" s="92" t="s">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D19" s="92" t="s">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="E19" s="92" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F19" s="92" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="G19" s="92"/>
       <c r="H19" s="92"/>
@@ -10078,16 +10126,16 @@
         <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>438</v>
+        <v>599</v>
       </c>
       <c r="D20" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="E20" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="F20" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I20" t="s">
         <v>188</v>
@@ -10104,16 +10152,16 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>439</v>
+        <v>600</v>
       </c>
       <c r="D21" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="E21" t="s">
-        <v>428</v>
+        <v>410</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I21" t="s">
         <v>188</v>
@@ -10130,16 +10178,16 @@
         <v>4</v>
       </c>
       <c r="C22" t="s">
-        <v>440</v>
+        <v>601</v>
       </c>
       <c r="D22" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="E22" t="s">
-        <v>429</v>
+        <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>598</v>
+        <v>570</v>
       </c>
       <c r="I22" t="s">
         <v>188</v>
@@ -10156,16 +10204,16 @@
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>441</v>
+        <v>602</v>
       </c>
       <c r="D23" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="E23" t="s">
-        <v>430</v>
+        <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I23" t="s">
         <v>188</v>
@@ -10180,16 +10228,16 @@
       </c>
       <c r="B24" s="92"/>
       <c r="C24" s="92" t="s">
-        <v>493</v>
+        <v>471</v>
       </c>
       <c r="D24" s="92" t="s">
-        <v>494</v>
+        <v>472</v>
       </c>
       <c r="E24" s="92" t="s">
-        <v>426</v>
+        <v>408</v>
       </c>
       <c r="F24" s="92" t="s">
-        <v>600</v>
+        <v>572</v>
       </c>
       <c r="G24" s="92"/>
       <c r="H24" s="92"/>
@@ -10208,16 +10256,16 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>556</v>
+        <v>528</v>
       </c>
       <c r="D25" t="s">
-        <v>557</v>
+        <v>529</v>
       </c>
       <c r="E25" t="s">
-        <v>558</v>
+        <v>530</v>
       </c>
       <c r="F25" t="s">
-        <v>601</v>
+        <v>573</v>
       </c>
       <c r="I25" t="s">
         <v>188</v>
@@ -10234,16 +10282,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>473</v>
       </c>
       <c r="D26" t="s">
-        <v>501</v>
+        <v>479</v>
       </c>
       <c r="E26" t="s">
-        <v>496</v>
+        <v>474</v>
       </c>
       <c r="F26" t="s">
-        <v>602</v>
+        <v>574</v>
       </c>
       <c r="I26" t="s">
         <v>188</v>
@@ -10260,16 +10308,16 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>475</v>
       </c>
       <c r="D27" t="s">
-        <v>502</v>
+        <v>480</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="F27" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I27" t="s">
         <v>188</v>
@@ -10286,16 +10334,16 @@
         <v>5</v>
       </c>
       <c r="C28" t="s">
-        <v>499</v>
+        <v>477</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>481</v>
       </c>
       <c r="E28" t="s">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="F28" t="s">
-        <v>604</v>
+        <v>576</v>
       </c>
       <c r="I28" t="s">
         <v>188</v>
@@ -10312,16 +10360,16 @@
         <v>5</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="D29" t="s">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="E29" t="s">
-        <v>506</v>
+        <v>484</v>
       </c>
       <c r="F29" t="s">
-        <v>605</v>
+        <v>577</v>
       </c>
       <c r="I29" t="s">
         <v>188</v>
@@ -10338,16 +10386,16 @@
         <v>5</v>
       </c>
       <c r="C30" t="s">
-        <v>507</v>
+        <v>485</v>
       </c>
       <c r="D30" t="s">
-        <v>508</v>
+        <v>486</v>
       </c>
       <c r="E30" t="s">
-        <v>509</v>
+        <v>487</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>575</v>
       </c>
       <c r="I30" t="s">
         <v>188</v>
@@ -10364,16 +10412,16 @@
         <v>5</v>
       </c>
       <c r="C31" t="s">
-        <v>510</v>
+        <v>488</v>
       </c>
       <c r="D31" t="s">
-        <v>511</v>
+        <v>489</v>
       </c>
       <c r="E31" t="s">
-        <v>512</v>
+        <v>490</v>
       </c>
       <c r="F31" t="s">
-        <v>599</v>
+        <v>571</v>
       </c>
       <c r="I31" t="s">
         <v>188</v>
@@ -10390,21 +10438,21 @@
         <v>5</v>
       </c>
       <c r="C32" t="s">
-        <v>515</v>
+        <v>493</v>
       </c>
       <c r="D32" t="s">
-        <v>514</v>
+        <v>492</v>
       </c>
       <c r="E32" t="s">
-        <v>513</v>
+        <v>491</v>
       </c>
       <c r="F32" t="s">
-        <v>606</v>
-      </c>
-      <c r="I32" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="I32" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="99">
+      <c r="J32" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10416,21 +10464,21 @@
         <v>5</v>
       </c>
       <c r="C33" t="s">
-        <v>524</v>
+        <v>502</v>
       </c>
       <c r="D33" t="s">
-        <v>548</v>
+        <v>520</v>
       </c>
       <c r="E33" t="s">
-        <v>549</v>
+        <v>521</v>
       </c>
       <c r="F33" t="s">
-        <v>607</v>
-      </c>
-      <c r="I33" s="99" t="s">
+        <v>579</v>
+      </c>
+      <c r="I33" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="99">
+      <c r="J33" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10442,21 +10490,21 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>545</v>
+        <v>517</v>
       </c>
       <c r="D34" t="s">
-        <v>546</v>
+        <v>518</v>
       </c>
       <c r="E34" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
-      </c>
-      <c r="I34" s="99" t="s">
+        <v>580</v>
+      </c>
+      <c r="I34" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J34" s="99">
+      <c r="J34" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10468,21 +10516,21 @@
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>531</v>
+        <v>509</v>
       </c>
       <c r="D35" t="s">
-        <v>532</v>
+        <v>510</v>
       </c>
       <c r="E35" t="s">
-        <v>533</v>
+        <v>511</v>
       </c>
       <c r="F35" t="s">
-        <v>609</v>
-      </c>
-      <c r="I35" s="99" t="s">
+        <v>581</v>
+      </c>
+      <c r="I35" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="99">
+      <c r="J35" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10494,21 +10542,21 @@
         <v>5</v>
       </c>
       <c r="C36" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="D36" t="s">
-        <v>520</v>
+        <v>498</v>
       </c>
       <c r="E36" t="s">
-        <v>521</v>
+        <v>499</v>
       </c>
       <c r="F36" t="s">
-        <v>610</v>
-      </c>
-      <c r="I36" s="99" t="s">
+        <v>582</v>
+      </c>
+      <c r="I36" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="99">
+      <c r="J36" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10520,21 +10568,21 @@
         <v>5</v>
       </c>
       <c r="C37" t="s">
-        <v>519</v>
+        <v>497</v>
       </c>
       <c r="D37" t="s">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="E37" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="F37" t="s">
-        <v>611</v>
-      </c>
-      <c r="I37" s="99" t="s">
+        <v>583</v>
+      </c>
+      <c r="I37" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="99">
+      <c r="J37" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10546,21 +10594,151 @@
         <v>5</v>
       </c>
       <c r="C38" t="s">
-        <v>534</v>
+        <v>512</v>
       </c>
       <c r="D38" t="s">
-        <v>535</v>
+        <v>513</v>
       </c>
       <c r="E38" t="s">
-        <v>536</v>
+        <v>514</v>
       </c>
       <c r="F38" t="s">
-        <v>612</v>
-      </c>
-      <c r="I38" s="99" t="s">
+        <v>584</v>
+      </c>
+      <c r="I38" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J38" s="99">
+      <c r="J38" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="92">
+        <v>6</v>
+      </c>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92" t="s">
+        <v>624</v>
+      </c>
+      <c r="D39" s="92" t="s">
+        <v>625</v>
+      </c>
+      <c r="E39" s="92" t="s">
+        <v>626</v>
+      </c>
+      <c r="F39" s="92" t="s">
+        <v>572</v>
+      </c>
+      <c r="G39" s="92"/>
+      <c r="H39" s="92"/>
+      <c r="I39" s="92" t="s">
+        <v>188</v>
+      </c>
+      <c r="J39" s="92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>61</v>
+      </c>
+      <c r="B40">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>627</v>
+      </c>
+      <c r="D40" t="s">
+        <v>628</v>
+      </c>
+      <c r="E40" t="s">
+        <v>633</v>
+      </c>
+      <c r="F40" t="s">
+        <v>582</v>
+      </c>
+      <c r="I40" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="J40" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>62</v>
+      </c>
+      <c r="B41">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>629</v>
+      </c>
+      <c r="D41" t="s">
+        <v>631</v>
+      </c>
+      <c r="E41" t="s">
+        <v>634</v>
+      </c>
+      <c r="F41" t="s">
+        <v>583</v>
+      </c>
+      <c r="I41" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="J41" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>63</v>
+      </c>
+      <c r="B42">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>630</v>
+      </c>
+      <c r="D42" t="s">
+        <v>632</v>
+      </c>
+      <c r="E42" t="s">
+        <v>635</v>
+      </c>
+      <c r="F42" t="s">
+        <v>584</v>
+      </c>
+      <c r="I42" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="J42" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>64</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>624</v>
+      </c>
+      <c r="D43" t="s">
+        <v>625</v>
+      </c>
+      <c r="E43" t="s">
+        <v>636</v>
+      </c>
+      <c r="F43" t="s">
+        <v>581</v>
+      </c>
+      <c r="I43" s="98" t="s">
+        <v>188</v>
+      </c>
+      <c r="J43" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10578,7 +10756,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10601,7 +10779,7 @@
         <v>4</v>
       </c>
       <c r="D1" s="38" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E1" s="38" t="s">
         <v>186</v>
@@ -10633,10 +10811,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="D2">
         <v>42</v>
@@ -10661,10 +10839,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10672,17 +10850,18 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="61" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>18</v>
       </c>
@@ -10693,118 +10872,130 @@
         <v>169</v>
       </c>
       <c r="D1" s="66" t="s">
+        <v>459</v>
+      </c>
+      <c r="E1" s="66" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="F1" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="66" t="s">
+      <c r="G1" s="66" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="66" t="s">
+      <c r="H1" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="I1" s="66" t="s">
         <v>205</v>
       </c>
-      <c r="I1" s="66" t="s">
+      <c r="J1" s="66" t="s">
         <v>231</v>
       </c>
-      <c r="J1" s="66" t="s">
+      <c r="K1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="66" t="s">
+      <c r="L1" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="66" t="s">
+      <c r="M1" s="66" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="41">
         <v>1</v>
       </c>
       <c r="B2" s="93" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="C2" s="41">
         <v>31</v>
       </c>
-      <c r="D2" s="41" t="s">
-        <v>433</v>
+      <c r="D2" s="41">
+        <v>61</v>
       </c>
       <c r="E2" s="41" t="s">
-        <v>433</v>
-      </c>
-      <c r="F2" s="41"/>
+        <v>415</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>415</v>
+      </c>
       <c r="G2" s="41"/>
       <c r="H2" s="41"/>
-      <c r="I2" s="41" t="s">
+      <c r="I2" s="41"/>
+      <c r="J2" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J2" s="41"/>
       <c r="K2" s="41"/>
-      <c r="L2" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="41">
         <v>2</v>
       </c>
       <c r="B3" s="93" t="s">
-        <v>432</v>
+        <v>414</v>
       </c>
       <c r="C3" s="41">
         <v>31</v>
       </c>
-      <c r="D3" s="41" t="s">
-        <v>436</v>
+      <c r="D3" s="41">
+        <v>61</v>
       </c>
       <c r="E3" s="41" t="s">
-        <v>436</v>
-      </c>
-      <c r="F3" s="41"/>
+        <v>418</v>
+      </c>
+      <c r="F3" s="41" t="s">
+        <v>418</v>
+      </c>
       <c r="G3" s="41"/>
       <c r="H3" s="41"/>
-      <c r="I3" s="41" t="s">
+      <c r="I3" s="41"/>
+      <c r="J3" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J3" s="41"/>
       <c r="K3" s="41"/>
-      <c r="L3" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="L3" s="41"/>
+      <c r="M3" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="41">
         <v>3</v>
       </c>
       <c r="B4" s="93" t="s">
-        <v>434</v>
+        <v>416</v>
       </c>
       <c r="C4" s="41">
         <v>31</v>
       </c>
-      <c r="D4" s="41" t="s">
-        <v>435</v>
+      <c r="D4" s="41">
+        <v>61</v>
       </c>
       <c r="E4" s="41" t="s">
-        <v>435</v>
-      </c>
-      <c r="F4" s="41"/>
+        <v>417</v>
+      </c>
+      <c r="F4" s="41" t="s">
+        <v>417</v>
+      </c>
       <c r="G4" s="41"/>
       <c r="H4" s="41"/>
-      <c r="I4" s="41" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="J4" s="41"/>
       <c r="K4" s="41"/>
-      <c r="L4" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="41"/>
+      <c r="M4" s="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="41"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
@@ -10817,8 +11008,9 @@
       <c r="J5" s="41"/>
       <c r="K5" s="41"/>
       <c r="L5" s="41"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="41"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="41"/>
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
@@ -10831,6 +11023,7 @@
       <c r="J6" s="41"/>
       <c r="K6" s="41"/>
       <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10870,7 +11063,7 @@
         <v>184</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>4</v>
@@ -11021,13 +11214,13 @@
         <v>184</v>
       </c>
       <c r="D1" s="67" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="67" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="G1" s="67" t="s">
         <v>217</v>
@@ -11062,7 +11255,7 @@
         <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>437</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -11143,10 +11336,10 @@
         <v>13</v>
       </c>
       <c r="N1" s="75" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="O1" s="75" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="P1" s="20" t="s">
         <v>14</v>
@@ -11637,11 +11830,11 @@
         <v>38</v>
       </c>
       <c r="B18" s="79" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C18" s="79"/>
       <c r="D18" s="79" t="s">
-        <v>475</v>
+        <v>453</v>
       </c>
       <c r="E18" s="81" t="s">
         <v>15</v>
@@ -11755,7 +11948,7 @@
       </c>
       <c r="C22" s="79"/>
       <c r="D22" s="79" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E22" s="81" t="s">
         <v>15</v>
@@ -11847,11 +12040,11 @@
         <v>46</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>363</v>
+        <v>345</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
-        <v>364</v>
+        <v>346</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>16</v>
@@ -11935,11 +12128,11 @@
         <v>46</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>469</v>
+        <v>447</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>582</v>
+        <v>554</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>15</v>
@@ -12087,7 +12280,7 @@
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>15</v>
@@ -12299,7 +12492,7 @@
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="79" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="E40" s="79" t="s">
         <v>15</v>
@@ -12477,7 +12670,7 @@
       </c>
       <c r="C46" s="79"/>
       <c r="D46" s="79" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="E46" s="79" t="s">
         <v>50</v>
@@ -12505,7 +12698,7 @@
       </c>
       <c r="C47" s="79"/>
       <c r="D47" s="79" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="E47" s="79" t="s">
         <v>15</v>
@@ -12535,7 +12728,7 @@
       </c>
       <c r="C48" s="79"/>
       <c r="D48" s="79" t="s">
-        <v>476</v>
+        <v>454</v>
       </c>
       <c r="E48" s="79" t="s">
         <v>17</v>
@@ -12633,7 +12826,7 @@
       </c>
       <c r="C51" s="42"/>
       <c r="D51" s="43" t="s">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="E51" s="42" t="s">
         <v>15</v>
@@ -12664,7 +12857,7 @@
       </c>
       <c r="C52" s="42"/>
       <c r="D52" s="43" t="s">
-        <v>353</v>
+        <v>335</v>
       </c>
       <c r="E52" s="42" t="s">
         <v>15</v>
@@ -12837,14 +13030,14 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" s="68" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B58" s="68" t="s">
         <v>18</v>
       </c>
       <c r="C58" s="68"/>
       <c r="D58" s="72" t="s">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="E58" s="68" t="s">
         <v>16</v>
@@ -12873,14 +13066,14 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59" s="68" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B59" s="68" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="C59" s="68"/>
       <c r="D59" s="72" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E59" s="68" t="s">
         <v>15</v>
@@ -12909,14 +13102,14 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" s="68" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B60" s="68" t="s">
-        <v>358</v>
+        <v>340</v>
       </c>
       <c r="C60" s="68"/>
       <c r="D60" s="72" t="s">
-        <v>360</v>
+        <v>342</v>
       </c>
       <c r="E60" s="68" t="s">
         <v>15</v>
@@ -12939,14 +13132,14 @@
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61" s="68" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B61" s="68" t="s">
         <v>19</v>
       </c>
       <c r="C61" s="68"/>
       <c r="D61" s="72" t="s">
-        <v>361</v>
+        <v>343</v>
       </c>
       <c r="E61" s="72" t="s">
         <v>50</v>
@@ -12967,14 +13160,14 @@
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62" s="68" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="B62" s="68" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="68"/>
       <c r="D62" s="72" t="s">
-        <v>362</v>
+        <v>344</v>
       </c>
       <c r="E62" s="72" t="s">
         <v>15</v>
@@ -13108,7 +13301,7 @@
         <v>21</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>53</v>
@@ -13146,7 +13339,7 @@
         <v>21</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D3" s="25" t="s">
         <v>53</v>
@@ -13184,7 +13377,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D4" s="25" t="s">
         <v>53</v>
@@ -13222,7 +13415,7 @@
         <v>21</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D5" s="25" t="s">
         <v>53</v>
@@ -13260,7 +13453,7 @@
         <v>21</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D6" s="25" t="s">
         <v>53</v>
@@ -13298,7 +13491,7 @@
         <v>22</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>53</v>
@@ -13336,7 +13529,7 @@
         <v>22</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D8" s="25" t="s">
         <v>53</v>
@@ -13374,7 +13567,7 @@
         <v>22</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D9" s="25" t="s">
         <v>53</v>
@@ -13412,7 +13605,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D10" s="25" t="s">
         <v>53</v>
@@ -13450,7 +13643,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D11" s="25" t="s">
         <v>53</v>
@@ -13488,7 +13681,7 @@
         <v>22</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>53</v>
@@ -13526,7 +13719,7 @@
         <v>22</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>53</v>
@@ -13564,7 +13757,7 @@
         <v>22</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D14" s="25" t="s">
         <v>53</v>
@@ -13602,7 +13795,7 @@
         <v>22</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D15" s="25" t="s">
         <v>53</v>
@@ -13640,7 +13833,7 @@
         <v>22</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D16" s="25" t="s">
         <v>53</v>
@@ -13678,7 +13871,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>53</v>
@@ -13716,7 +13909,7 @@
         <v>21</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D18" s="27" t="s">
         <v>53</v>
@@ -13754,13 +13947,13 @@
         <v>22</v>
       </c>
       <c r="C19" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D19" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E19" s="70" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F19" s="68">
         <v>1</v>
@@ -13788,13 +13981,13 @@
         <v>22</v>
       </c>
       <c r="C20" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D20" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E20" s="70" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F20" s="68">
         <v>1</v>
@@ -13822,13 +14015,13 @@
         <v>22</v>
       </c>
       <c r="C21" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D21" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E21" s="70" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F21" s="68">
         <v>1</v>
@@ -13856,13 +14049,13 @@
         <v>22</v>
       </c>
       <c r="C22" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D22" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="70" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F22" s="68">
         <v>1</v>
@@ -13890,13 +14083,13 @@
         <v>22</v>
       </c>
       <c r="C23" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D23" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="70" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F23" s="68">
         <v>1</v>
@@ -13924,13 +14117,13 @@
         <v>22</v>
       </c>
       <c r="C24" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D24" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="70" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F24" s="68">
         <v>1</v>
@@ -13958,13 +14151,13 @@
         <v>22</v>
       </c>
       <c r="C25" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D25" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E25" s="70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F25" s="68">
         <v>1</v>
@@ -13992,13 +14185,13 @@
         <v>22</v>
       </c>
       <c r="C26" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D26" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="70" t="s">
-        <v>575</v>
+        <v>547</v>
       </c>
       <c r="F26" s="68">
         <v>1</v>
@@ -14026,13 +14219,13 @@
         <v>22</v>
       </c>
       <c r="C27" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D27" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="70" t="s">
-        <v>576</v>
+        <v>548</v>
       </c>
       <c r="F27" s="68">
         <v>1</v>
@@ -14060,13 +14253,13 @@
         <v>22</v>
       </c>
       <c r="C28" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D28" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="70" t="s">
-        <v>577</v>
+        <v>549</v>
       </c>
       <c r="F28" s="68">
         <v>1</v>
@@ -14094,13 +14287,13 @@
         <v>22</v>
       </c>
       <c r="C29" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D29" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="70" t="s">
-        <v>578</v>
+        <v>550</v>
       </c>
       <c r="F29" s="68">
         <v>1</v>
@@ -14128,13 +14321,13 @@
         <v>22</v>
       </c>
       <c r="C30" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D30" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>579</v>
+        <v>551</v>
       </c>
       <c r="F30" s="68">
         <v>1</v>
@@ -14162,13 +14355,13 @@
         <v>22</v>
       </c>
       <c r="C31" s="68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D31" s="69" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>580</v>
+        <v>552</v>
       </c>
       <c r="F31" s="68">
         <v>1</v>
@@ -14196,13 +14389,13 @@
         <v>22</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E32" s="34" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F32" s="34">
         <v>1</v>
@@ -14229,13 +14422,13 @@
         <v>22</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F33" s="34">
         <v>1</v>
@@ -14262,13 +14455,13 @@
         <v>22</v>
       </c>
       <c r="C34" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D34" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E34" s="49" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F34" s="34">
         <v>1</v>
@@ -14295,13 +14488,13 @@
         <v>22</v>
       </c>
       <c r="C35" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D35" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E35" s="49" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F35" s="34">
         <v>1</v>
@@ -14328,13 +14521,13 @@
         <v>22</v>
       </c>
       <c r="C36" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D36" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E36" s="49" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F36" s="34">
         <v>1</v>
@@ -14347,7 +14540,7 @@
       </c>
       <c r="I36" s="36"/>
       <c r="J36" s="34" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K36" s="34"/>
       <c r="L36" s="36">
@@ -14363,13 +14556,13 @@
         <v>22</v>
       </c>
       <c r="C37" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F37" s="34">
         <v>1</v>
@@ -14396,13 +14589,13 @@
         <v>22</v>
       </c>
       <c r="C38" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E38" s="49" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F38" s="34">
         <v>1</v>
@@ -14429,13 +14622,13 @@
         <v>22</v>
       </c>
       <c r="C39" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E39" s="49" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F39" s="34">
         <v>1</v>
@@ -14462,13 +14655,13 @@
         <v>22</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D40" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E40" s="49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F40" s="34">
         <v>1</v>
@@ -14481,7 +14674,7 @@
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="K40" s="34"/>
       <c r="L40" s="36">
@@ -14497,13 +14690,13 @@
         <v>22</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D41" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E41" s="49" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F41" s="34">
         <v>1</v>
@@ -14530,13 +14723,13 @@
         <v>22</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D42" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E42" s="49" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F42" s="34">
         <v>1</v>
@@ -14563,13 +14756,13 @@
         <v>22</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D43" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E43" s="49" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F43" s="34">
         <v>1</v>
@@ -14596,13 +14789,13 @@
         <v>22</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D44" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E44" s="49" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F44" s="34">
         <v>1</v>
@@ -14629,13 +14822,13 @@
         <v>22</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D45" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E45" s="49" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F45" s="34">
         <v>1</v>
@@ -14662,13 +14855,13 @@
         <v>22</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E46" s="49" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F46" s="34">
         <v>1</v>
@@ -14695,13 +14888,13 @@
         <v>22</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F47" s="34">
         <v>1</v>
@@ -14728,13 +14921,13 @@
         <v>22</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E48" s="49" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F48" s="34">
         <v>1</v>
@@ -14761,13 +14954,13 @@
         <v>22</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>168</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F49" s="34">
         <v>1</v>
@@ -14787,268 +14980,268 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="108">
+      <c r="A50" s="107">
         <v>119</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="108" t="s">
-        <v>293</v>
-      </c>
-      <c r="D50" s="108" t="s">
+      <c r="C50" s="107" t="s">
+        <v>290</v>
+      </c>
+      <c r="D50" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="109" t="s">
-        <v>572</v>
-      </c>
-      <c r="F50" s="108">
-        <v>1</v>
-      </c>
-      <c r="G50" s="108">
-        <v>1</v>
-      </c>
-      <c r="H50" s="108">
-        <v>1</v>
-      </c>
-      <c r="I50" s="110"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="111">
-        <v>1</v>
-      </c>
-      <c r="M50" s="110"/>
+      <c r="E50" s="108" t="s">
+        <v>544</v>
+      </c>
+      <c r="F50" s="107">
+        <v>1</v>
+      </c>
+      <c r="G50" s="107">
+        <v>1</v>
+      </c>
+      <c r="H50" s="107">
+        <v>1</v>
+      </c>
+      <c r="I50" s="109"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="110">
+        <v>1</v>
+      </c>
+      <c r="M50" s="109"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="102">
+      <c r="A51" s="101">
         <v>120</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D51" s="102" t="s">
+      <c r="C51" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D51" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="103" t="s">
-        <v>622</v>
-      </c>
-      <c r="F51" s="102">
-        <v>1</v>
-      </c>
-      <c r="G51" s="102">
-        <v>1</v>
-      </c>
-      <c r="H51" s="102">
-        <v>1</v>
-      </c>
-      <c r="I51" s="104"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="105">
-        <v>1</v>
-      </c>
-      <c r="M51" s="104"/>
+      <c r="E51" s="102" t="s">
+        <v>594</v>
+      </c>
+      <c r="F51" s="101">
+        <v>1</v>
+      </c>
+      <c r="G51" s="101">
+        <v>1</v>
+      </c>
+      <c r="H51" s="101">
+        <v>1</v>
+      </c>
+      <c r="I51" s="103"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="104">
+        <v>1</v>
+      </c>
+      <c r="M51" s="103"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="102">
+      <c r="A52" s="101">
         <v>121</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D52" s="102" t="s">
+      <c r="C52" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D52" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="103" t="s">
-        <v>623</v>
-      </c>
-      <c r="F52" s="102">
-        <v>1</v>
-      </c>
-      <c r="G52" s="102">
-        <v>1</v>
-      </c>
-      <c r="H52" s="102">
-        <v>1</v>
-      </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="105">
-        <v>1</v>
-      </c>
-      <c r="M52" s="104"/>
+      <c r="E52" s="102" t="s">
+        <v>595</v>
+      </c>
+      <c r="F52" s="101">
+        <v>1</v>
+      </c>
+      <c r="G52" s="101">
+        <v>1</v>
+      </c>
+      <c r="H52" s="101">
+        <v>1</v>
+      </c>
+      <c r="I52" s="103"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="104">
+        <v>1</v>
+      </c>
+      <c r="M52" s="103"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="102">
+      <c r="A53" s="101">
         <v>122</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D53" s="102" t="s">
+      <c r="C53" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D53" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="103" t="s">
-        <v>621</v>
-      </c>
-      <c r="F53" s="102">
-        <v>1</v>
-      </c>
-      <c r="G53" s="102">
-        <v>1</v>
-      </c>
-      <c r="H53" s="102">
-        <v>1</v>
-      </c>
-      <c r="I53" s="104"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="105">
-        <v>1</v>
-      </c>
-      <c r="M53" s="104"/>
+      <c r="E53" s="102" t="s">
+        <v>593</v>
+      </c>
+      <c r="F53" s="101">
+        <v>1</v>
+      </c>
+      <c r="G53" s="101">
+        <v>1</v>
+      </c>
+      <c r="H53" s="101">
+        <v>1</v>
+      </c>
+      <c r="I53" s="103"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="104">
+        <v>1</v>
+      </c>
+      <c r="M53" s="103"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="102">
+      <c r="A54" s="101">
         <v>123</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D54" s="102" t="s">
+      <c r="C54" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D54" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="103" t="s">
-        <v>624</v>
-      </c>
-      <c r="F54" s="102">
-        <v>1</v>
-      </c>
-      <c r="G54" s="102">
-        <v>1</v>
-      </c>
-      <c r="H54" s="102">
-        <v>1</v>
-      </c>
-      <c r="I54" s="104"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="105">
-        <v>1</v>
-      </c>
-      <c r="M54" s="104"/>
+      <c r="E54" s="102" t="s">
+        <v>596</v>
+      </c>
+      <c r="F54" s="101">
+        <v>1</v>
+      </c>
+      <c r="G54" s="101">
+        <v>1</v>
+      </c>
+      <c r="H54" s="101">
+        <v>1</v>
+      </c>
+      <c r="I54" s="103"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="104">
+        <v>1</v>
+      </c>
+      <c r="M54" s="103"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="102">
+      <c r="A55" s="101">
         <v>124</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D55" s="102" t="s">
+      <c r="C55" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D55" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="103" t="s">
-        <v>625</v>
-      </c>
-      <c r="F55" s="102">
-        <v>1</v>
-      </c>
-      <c r="G55" s="102">
-        <v>1</v>
-      </c>
-      <c r="H55" s="102">
-        <v>1</v>
-      </c>
-      <c r="I55" s="104"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="105">
-        <v>1</v>
-      </c>
-      <c r="M55" s="104"/>
+      <c r="E55" s="102" t="s">
+        <v>597</v>
+      </c>
+      <c r="F55" s="101">
+        <v>1</v>
+      </c>
+      <c r="G55" s="101">
+        <v>1</v>
+      </c>
+      <c r="H55" s="101">
+        <v>1</v>
+      </c>
+      <c r="I55" s="103"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="104">
+        <v>1</v>
+      </c>
+      <c r="M55" s="103"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="102">
+      <c r="A56" s="101">
         <v>125</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D56" s="102" t="s">
+      <c r="C56" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D56" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="103" t="s">
-        <v>620</v>
-      </c>
-      <c r="F56" s="102">
-        <v>1</v>
-      </c>
-      <c r="G56" s="102">
-        <v>1</v>
-      </c>
-      <c r="H56" s="102">
-        <v>1</v>
-      </c>
-      <c r="I56" s="104"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="105">
-        <v>1</v>
-      </c>
-      <c r="M56" s="104"/>
+      <c r="E56" s="102" t="s">
+        <v>592</v>
+      </c>
+      <c r="F56" s="101">
+        <v>1</v>
+      </c>
+      <c r="G56" s="101">
+        <v>1</v>
+      </c>
+      <c r="H56" s="101">
+        <v>1</v>
+      </c>
+      <c r="I56" s="103"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="104">
+        <v>1</v>
+      </c>
+      <c r="M56" s="103"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="102">
+      <c r="A57" s="101">
         <v>126</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="102" t="s">
-        <v>293</v>
-      </c>
-      <c r="D57" s="102" t="s">
+      <c r="C57" s="101" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="103" t="s">
-        <v>626</v>
-      </c>
-      <c r="F57" s="102">
-        <v>1</v>
-      </c>
-      <c r="G57" s="102">
-        <v>1</v>
-      </c>
-      <c r="H57" s="102">
-        <v>1</v>
-      </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="105">
-        <v>1</v>
-      </c>
-      <c r="M57" s="104"/>
+      <c r="E57" s="102" t="s">
+        <v>598</v>
+      </c>
+      <c r="F57" s="101">
+        <v>1</v>
+      </c>
+      <c r="G57" s="101">
+        <v>1</v>
+      </c>
+      <c r="H57" s="101">
+        <v>1</v>
+      </c>
+      <c r="I57" s="103"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="104">
+        <v>1</v>
+      </c>
+      <c r="M57" s="103"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0FBA5D4-DC62-5A40-A5C7-03D901824460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCC694-E6DC-9E45-B718-D934190C698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19480" tabRatio="800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -3456,7 +3456,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3693,9 +3693,6 @@
     <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3732,6 +3729,33 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="829">
@@ -5284,7 +5308,7 @@
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="106" t="s">
+      <c r="M2" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="90">
@@ -5316,7 +5340,7 @@
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="107" t="s">
+      <c r="M3" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N3" s="86">
@@ -5348,7 +5372,7 @@
       <c r="J4" s="86"/>
       <c r="K4" s="86"/>
       <c r="L4" s="86"/>
-      <c r="M4" s="107" t="s">
+      <c r="M4" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N4" s="86">
@@ -5380,7 +5404,7 @@
       <c r="J5" s="86"/>
       <c r="K5" s="86"/>
       <c r="L5" s="86"/>
-      <c r="M5" s="107" t="s">
+      <c r="M5" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N5" s="86">
@@ -5412,7 +5436,7 @@
       <c r="J6" s="86"/>
       <c r="K6" s="86"/>
       <c r="L6" s="86"/>
-      <c r="M6" s="107" t="s">
+      <c r="M6" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N6" s="86">
@@ -5444,7 +5468,7 @@
       <c r="J7" s="86"/>
       <c r="K7" s="86"/>
       <c r="L7" s="86"/>
-      <c r="M7" s="107" t="s">
+      <c r="M7" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N7" s="86">
@@ -5476,7 +5500,7 @@
       <c r="J8" s="86"/>
       <c r="K8" s="86"/>
       <c r="L8" s="86"/>
-      <c r="M8" s="107" t="s">
+      <c r="M8" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N8" s="86">
@@ -5510,7 +5534,7 @@
       <c r="J9" s="90"/>
       <c r="K9" s="90"/>
       <c r="L9" s="90"/>
-      <c r="M9" s="106" t="s">
+      <c r="M9" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N9" s="90">
@@ -5542,7 +5566,7 @@
       <c r="J10" s="88"/>
       <c r="K10" s="86"/>
       <c r="L10" s="86"/>
-      <c r="M10" s="107" t="s">
+      <c r="M10" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N10" s="86">
@@ -5574,7 +5598,7 @@
       <c r="J11" s="86"/>
       <c r="K11" s="86"/>
       <c r="L11" s="86"/>
-      <c r="M11" s="107" t="s">
+      <c r="M11" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N11" s="86">
@@ -5606,7 +5630,7 @@
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
       <c r="L12" s="86"/>
-      <c r="M12" s="107" t="s">
+      <c r="M12" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N12" s="86">
@@ -5638,7 +5662,7 @@
       <c r="J13" s="86"/>
       <c r="K13" s="86"/>
       <c r="L13" s="86"/>
-      <c r="M13" s="107" t="s">
+      <c r="M13" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N13" s="86">
@@ -5672,7 +5696,7 @@
       <c r="J14" s="90"/>
       <c r="K14" s="90"/>
       <c r="L14" s="90"/>
-      <c r="M14" s="106" t="s">
+      <c r="M14" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N14" s="90">
@@ -5704,7 +5728,7 @@
       <c r="J15" s="88"/>
       <c r="K15" s="86"/>
       <c r="L15" s="86"/>
-      <c r="M15" s="107" t="s">
+      <c r="M15" s="106" t="s">
         <v>188</v>
       </c>
       <c r="N15" s="86">
@@ -5736,7 +5760,7 @@
       <c r="J16" s="90"/>
       <c r="K16" s="90"/>
       <c r="L16" s="90"/>
-      <c r="M16" s="106" t="s">
+      <c r="M16" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N16" s="90">
@@ -6561,11 +6585,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q91"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B18" sqref="B18"/>
+      <selection pane="bottomRight" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6744,24 +6768,22 @@
       <c r="Q4" s="57"/>
     </row>
     <row r="5" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="111" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="111" t="s">
         <v>262</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="111" t="s">
         <v>263</v>
       </c>
-      <c r="E5" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="55">
-        <v>255</v>
-      </c>
+      <c r="E5" s="111" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="112"/>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
@@ -7148,24 +7170,22 @@
       <c r="Q16" s="57"/>
     </row>
     <row r="17" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="113" t="s">
         <v>221</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="C17" s="51" t="s">
+      <c r="C17" s="113" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="51" t="s">
+      <c r="D17" s="113" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="58">
-        <v>255</v>
-      </c>
+      <c r="E17" s="113" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="114"/>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="58"/>
@@ -7639,382 +7659,382 @@
       <c r="Q31" s="57"/>
     </row>
     <row r="32" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B32" s="100" t="s">
+      <c r="B32" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="100" t="s">
+      <c r="C32" s="99" t="s">
         <v>243</v>
       </c>
-      <c r="D32" s="100" t="s">
+      <c r="D32" s="99" t="s">
         <v>544</v>
       </c>
-      <c r="E32" s="100" t="s">
+      <c r="E32" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="101"/>
-      <c r="G32" s="101"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101"/>
+      <c r="F32" s="100"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="100"/>
+      <c r="I32" s="100"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="100"/>
+      <c r="M32" s="100"/>
+      <c r="N32" s="100"/>
+      <c r="O32" s="100"/>
       <c r="P32" s="56">
         <v>31</v>
       </c>
       <c r="Q32" s="57"/>
     </row>
     <row r="33" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="100" t="s">
+      <c r="A33" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B33" s="100" t="s">
+      <c r="B33" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="C33" s="100" t="s">
+      <c r="C33" s="99" t="s">
         <v>545</v>
       </c>
-      <c r="D33" s="100" t="s">
+      <c r="D33" s="99" t="s">
         <v>546</v>
       </c>
-      <c r="E33" s="100" t="s">
+      <c r="E33" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F33" s="101"/>
-      <c r="G33" s="101"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
-      <c r="M33" s="101"/>
-      <c r="N33" s="101"/>
-      <c r="O33" s="101"/>
+      <c r="F33" s="100"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="100"/>
+      <c r="I33" s="100"/>
+      <c r="J33" s="100"/>
+      <c r="K33" s="100"/>
+      <c r="L33" s="100"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="100"/>
+      <c r="O33" s="100"/>
       <c r="P33" s="56">
         <v>32</v>
       </c>
       <c r="Q33" s="57"/>
     </row>
     <row r="34" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B34" s="100" t="s">
+      <c r="B34" s="99" t="s">
         <v>588</v>
       </c>
-      <c r="C34" s="100" t="s">
+      <c r="C34" s="99" t="s">
         <v>589</v>
       </c>
-      <c r="D34" s="100" t="s">
+      <c r="D34" s="99" t="s">
         <v>590</v>
       </c>
-      <c r="E34" s="100" t="s">
+      <c r="E34" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="101">
+      <c r="F34" s="100">
         <v>50</v>
       </c>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
-      <c r="M34" s="101"/>
-      <c r="N34" s="101"/>
-      <c r="O34" s="101"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="100"/>
+      <c r="J34" s="100"/>
+      <c r="K34" s="100"/>
+      <c r="L34" s="100"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="100"/>
+      <c r="O34" s="100"/>
       <c r="P34" s="56">
         <v>33</v>
       </c>
       <c r="Q34" s="57"/>
     </row>
     <row r="35" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="100" t="s">
+      <c r="A35" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B35" s="100" t="s">
+      <c r="B35" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="100" t="s">
+      <c r="C35" s="99" t="s">
         <v>274</v>
       </c>
-      <c r="D35" s="100" t="s">
+      <c r="D35" s="99" t="s">
         <v>276</v>
       </c>
-      <c r="E35" s="100" t="s">
+      <c r="E35" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F35" s="101">
+      <c r="F35" s="100">
         <v>500</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="101"/>
-      <c r="I35" s="101"/>
-      <c r="J35" s="101"/>
-      <c r="K35" s="101"/>
-      <c r="L35" s="101"/>
-      <c r="M35" s="101"/>
-      <c r="N35" s="101"/>
-      <c r="O35" s="101"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
+      <c r="K35" s="100"/>
+      <c r="L35" s="100"/>
+      <c r="M35" s="100"/>
+      <c r="N35" s="100"/>
+      <c r="O35" s="100"/>
       <c r="P35" s="56">
         <v>34</v>
       </c>
       <c r="Q35" s="57"/>
     </row>
     <row r="36" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B36" s="100" t="s">
+      <c r="B36" s="99" t="s">
         <v>228</v>
       </c>
-      <c r="C36" s="100" t="s">
+      <c r="C36" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="D36" s="100" t="s">
+      <c r="D36" s="99" t="s">
         <v>277</v>
       </c>
-      <c r="E36" s="100" t="s">
+      <c r="E36" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="101">
+      <c r="F36" s="100">
         <v>500</v>
       </c>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="101"/>
-      <c r="M36" s="101"/>
-      <c r="N36" s="101"/>
-      <c r="O36" s="101"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
+      <c r="K36" s="100"/>
+      <c r="L36" s="100"/>
+      <c r="M36" s="100"/>
+      <c r="N36" s="100"/>
+      <c r="O36" s="100"/>
       <c r="P36" s="56">
         <v>35</v>
       </c>
       <c r="Q36" s="57"/>
     </row>
     <row r="37" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="100" t="s">
+      <c r="A37" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B37" s="100" t="s">
+      <c r="B37" s="99" t="s">
         <v>535</v>
       </c>
-      <c r="C37" s="100" t="s">
+      <c r="C37" s="99" t="s">
         <v>536</v>
       </c>
-      <c r="D37" s="100" t="s">
+      <c r="D37" s="99" t="s">
         <v>537</v>
       </c>
-      <c r="E37" s="100" t="s">
+      <c r="E37" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="101">
+      <c r="F37" s="100">
         <v>255</v>
       </c>
-      <c r="G37" s="101"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="101"/>
-      <c r="K37" s="101"/>
-      <c r="L37" s="101"/>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="100"/>
+      <c r="K37" s="100"/>
+      <c r="L37" s="100"/>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
       <c r="P37" s="56">
         <v>36</v>
       </c>
       <c r="Q37" s="57"/>
     </row>
     <row r="38" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B38" s="100" t="s">
+      <c r="B38" s="99" t="s">
         <v>540</v>
       </c>
-      <c r="C38" s="100" t="s">
+      <c r="C38" s="99" t="s">
         <v>538</v>
       </c>
-      <c r="D38" s="100" t="s">
+      <c r="D38" s="99" t="s">
         <v>539</v>
       </c>
-      <c r="E38" s="100" t="s">
+      <c r="E38" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="101"/>
-      <c r="H38" s="101"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="101"/>
-      <c r="K38" s="101"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
+      <c r="F38" s="100"/>
+      <c r="G38" s="100"/>
+      <c r="H38" s="100"/>
+      <c r="I38" s="100"/>
+      <c r="J38" s="100"/>
+      <c r="K38" s="100"/>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
       <c r="P38" s="56">
         <v>37</v>
       </c>
       <c r="Q38" s="57"/>
     </row>
     <row r="39" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="100" t="s">
+      <c r="A39" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B39" s="100" t="s">
+      <c r="B39" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="C39" s="100" t="s">
+      <c r="C39" s="99" t="s">
         <v>237</v>
       </c>
-      <c r="D39" s="100" t="s">
+      <c r="D39" s="99" t="s">
         <v>132</v>
       </c>
-      <c r="E39" s="100" t="s">
+      <c r="E39" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F39" s="101"/>
-      <c r="G39" s="101"/>
-      <c r="H39" s="101"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="101"/>
-      <c r="K39" s="101"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="100"/>
+      <c r="J39" s="100"/>
+      <c r="K39" s="100"/>
+      <c r="L39" s="100"/>
+      <c r="M39" s="100"/>
+      <c r="N39" s="100"/>
+      <c r="O39" s="100"/>
       <c r="P39" s="56">
         <v>38</v>
       </c>
       <c r="Q39" s="57"/>
     </row>
     <row r="40" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="100" t="s">
+      <c r="A40" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="99" t="s">
         <v>231</v>
       </c>
-      <c r="C40" s="100" t="s">
+      <c r="C40" s="99" t="s">
         <v>249</v>
       </c>
-      <c r="D40" s="100" t="s">
+      <c r="D40" s="99" t="s">
         <v>296</v>
       </c>
-      <c r="E40" s="100" t="s">
+      <c r="E40" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="101"/>
-      <c r="G40" s="101"/>
-      <c r="H40" s="101"/>
-      <c r="I40" s="101"/>
-      <c r="J40" s="101"/>
-      <c r="K40" s="101"/>
-      <c r="L40" s="101"/>
-      <c r="M40" s="101"/>
-      <c r="N40" s="101"/>
-      <c r="O40" s="101"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="100"/>
+      <c r="K40" s="100"/>
+      <c r="L40" s="100"/>
+      <c r="M40" s="100"/>
+      <c r="N40" s="100"/>
+      <c r="O40" s="100"/>
       <c r="P40" s="56">
         <v>39</v>
       </c>
       <c r="Q40" s="57"/>
     </row>
     <row r="41" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="100" t="s">
+      <c r="A41" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B41" s="100" t="s">
+      <c r="B41" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="99" t="s">
         <v>238</v>
       </c>
-      <c r="D41" s="100" t="s">
+      <c r="D41" s="99" t="s">
         <v>176</v>
       </c>
-      <c r="E41" s="100" t="s">
+      <c r="E41" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="F41" s="101">
+      <c r="F41" s="100">
         <v>255</v>
       </c>
-      <c r="G41" s="101"/>
-      <c r="H41" s="101"/>
-      <c r="I41" s="101"/>
-      <c r="J41" s="101"/>
-      <c r="K41" s="101"/>
-      <c r="L41" s="101"/>
-      <c r="M41" s="101"/>
-      <c r="N41" s="101"/>
-      <c r="O41" s="101"/>
+      <c r="G41" s="100"/>
+      <c r="H41" s="100"/>
+      <c r="I41" s="100"/>
+      <c r="J41" s="100"/>
+      <c r="K41" s="100"/>
+      <c r="L41" s="100"/>
+      <c r="M41" s="100"/>
+      <c r="N41" s="100"/>
+      <c r="O41" s="100"/>
       <c r="P41" s="56">
         <v>40</v>
       </c>
       <c r="Q41" s="57"/>
     </row>
     <row r="42" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="100" t="s">
+      <c r="A42" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B42" s="100" t="s">
+      <c r="B42" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="C42" s="100" t="s">
+      <c r="C42" s="99" t="s">
         <v>248</v>
       </c>
-      <c r="D42" s="100" t="s">
+      <c r="D42" s="99" t="s">
         <v>177</v>
       </c>
-      <c r="E42" s="100" t="s">
+      <c r="E42" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F42" s="101"/>
-      <c r="G42" s="101"/>
-      <c r="H42" s="101"/>
-      <c r="I42" s="101"/>
-      <c r="J42" s="101"/>
-      <c r="K42" s="101"/>
-      <c r="L42" s="101"/>
-      <c r="M42" s="101"/>
-      <c r="N42" s="101"/>
-      <c r="O42" s="101"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="100"/>
+      <c r="K42" s="100"/>
+      <c r="L42" s="100"/>
+      <c r="M42" s="100"/>
+      <c r="N42" s="100"/>
+      <c r="O42" s="100"/>
       <c r="P42" s="56">
         <v>41</v>
       </c>
       <c r="Q42" s="57"/>
     </row>
     <row r="43" spans="1:17" s="82" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="100" t="s">
+      <c r="A43" s="99" t="s">
         <v>534</v>
       </c>
-      <c r="B43" s="100" t="s">
+      <c r="B43" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="100" t="s">
+      <c r="C43" s="99" t="s">
         <v>236</v>
       </c>
-      <c r="D43" s="100" t="s">
+      <c r="D43" s="99" t="s">
         <v>541</v>
       </c>
-      <c r="E43" s="100" t="s">
+      <c r="E43" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="100"/>
+      <c r="H43" s="100"/>
+      <c r="I43" s="100"/>
+      <c r="J43" s="100"/>
+      <c r="K43" s="100"/>
+      <c r="L43" s="100"/>
+      <c r="M43" s="100"/>
+      <c r="N43" s="100"/>
+      <c r="O43" s="100"/>
       <c r="P43" s="56">
         <v>42</v>
       </c>
@@ -8611,24 +8631,22 @@
       <c r="Q61" s="57"/>
     </row>
     <row r="62" spans="1:17" s="82" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="115" t="s">
         <v>279</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="115" t="s">
         <v>297</v>
       </c>
-      <c r="C62" s="52" t="s">
+      <c r="C62" s="115" t="s">
         <v>298</v>
       </c>
-      <c r="D62" s="98" t="s">
+      <c r="D62" s="116" t="s">
         <v>470</v>
       </c>
-      <c r="E62" s="52" t="s">
-        <v>15</v>
-      </c>
-      <c r="F62" s="46">
-        <v>255</v>
-      </c>
+      <c r="E62" s="115" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="117"/>
       <c r="G62" s="46"/>
       <c r="H62" s="46"/>
       <c r="I62" s="46"/>
@@ -8910,24 +8928,22 @@
       <c r="Q70" s="59"/>
     </row>
     <row r="71" spans="1:17" s="83" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="53" t="s">
+      <c r="A71" s="118" t="s">
         <v>217</v>
       </c>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="118" t="s">
         <v>297</v>
       </c>
-      <c r="C71" s="53" t="s">
+      <c r="C71" s="118" t="s">
         <v>246</v>
       </c>
-      <c r="D71" s="53" t="s">
+      <c r="D71" s="118" t="s">
         <v>267</v>
       </c>
-      <c r="E71" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="62">
-        <v>255</v>
-      </c>
+      <c r="E71" s="118" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="119"/>
       <c r="G71" s="62"/>
       <c r="H71" s="62"/>
       <c r="I71" s="62"/>
@@ -9615,7 +9631,7 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -10463,10 +10479,10 @@
       <c r="F32" t="s">
         <v>581</v>
       </c>
-      <c r="I32" s="99" t="s">
+      <c r="I32" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J32" s="99">
+      <c r="J32" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10489,10 +10505,10 @@
       <c r="F33" t="s">
         <v>582</v>
       </c>
-      <c r="I33" s="99" t="s">
+      <c r="I33" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J33" s="99">
+      <c r="J33" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10515,10 +10531,10 @@
       <c r="F34" t="s">
         <v>583</v>
       </c>
-      <c r="I34" s="99" t="s">
+      <c r="I34" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J34" s="99">
+      <c r="J34" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10541,10 +10557,10 @@
       <c r="F35" t="s">
         <v>584</v>
       </c>
-      <c r="I35" s="99" t="s">
+      <c r="I35" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J35" s="99">
+      <c r="J35" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10567,10 +10583,10 @@
       <c r="F36" t="s">
         <v>585</v>
       </c>
-      <c r="I36" s="99" t="s">
+      <c r="I36" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J36" s="99">
+      <c r="J36" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10593,10 +10609,10 @@
       <c r="F37" t="s">
         <v>586</v>
       </c>
-      <c r="I37" s="99" t="s">
+      <c r="I37" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J37" s="99">
+      <c r="J37" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10619,10 +10635,10 @@
       <c r="F38" t="s">
         <v>587</v>
       </c>
-      <c r="I38" s="99" t="s">
+      <c r="I38" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J38" s="99">
+      <c r="J38" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10671,10 +10687,10 @@
       <c r="F40" t="s">
         <v>585</v>
       </c>
-      <c r="I40" s="99" t="s">
+      <c r="I40" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J40" s="99">
+      <c r="J40" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10697,10 +10713,10 @@
       <c r="F41" t="s">
         <v>586</v>
       </c>
-      <c r="I41" s="99" t="s">
+      <c r="I41" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J41" s="99">
+      <c r="J41" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10723,10 +10739,10 @@
       <c r="F42" t="s">
         <v>587</v>
       </c>
-      <c r="I42" s="99" t="s">
+      <c r="I42" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J42" s="99">
+      <c r="J42" s="98">
         <v>1</v>
       </c>
     </row>
@@ -10749,10 +10765,10 @@
       <c r="F43" t="s">
         <v>584</v>
       </c>
-      <c r="I43" s="99" t="s">
+      <c r="I43" s="98" t="s">
         <v>188</v>
       </c>
-      <c r="J43" s="99">
+      <c r="J43" s="98">
         <v>1</v>
       </c>
     </row>
@@ -14994,268 +15010,268 @@
       <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A50" s="108">
+      <c r="A50" s="107">
         <v>119</v>
       </c>
-      <c r="B50" s="108" t="s">
+      <c r="B50" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="108" t="s">
+      <c r="C50" s="107" t="s">
         <v>293</v>
       </c>
-      <c r="D50" s="108" t="s">
+      <c r="D50" s="107" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="109" t="s">
+      <c r="E50" s="108" t="s">
         <v>547</v>
       </c>
-      <c r="F50" s="108">
-        <v>1</v>
-      </c>
-      <c r="G50" s="108">
-        <v>1</v>
-      </c>
-      <c r="H50" s="108">
-        <v>1</v>
-      </c>
-      <c r="I50" s="110"/>
-      <c r="J50" s="108"/>
-      <c r="K50" s="108"/>
-      <c r="L50" s="111">
-        <v>1</v>
-      </c>
-      <c r="M50" s="110"/>
+      <c r="F50" s="107">
+        <v>1</v>
+      </c>
+      <c r="G50" s="107">
+        <v>1</v>
+      </c>
+      <c r="H50" s="107">
+        <v>1</v>
+      </c>
+      <c r="I50" s="109"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="110">
+        <v>1</v>
+      </c>
+      <c r="M50" s="109"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A51" s="102">
+      <c r="A51" s="101">
         <v>120</v>
       </c>
-      <c r="B51" s="102" t="s">
+      <c r="B51" s="101" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="102" t="s">
+      <c r="C51" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D51" s="102" t="s">
+      <c r="D51" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E51" s="103" t="s">
+      <c r="E51" s="102" t="s">
         <v>597</v>
       </c>
-      <c r="F51" s="102">
-        <v>1</v>
-      </c>
-      <c r="G51" s="102">
-        <v>1</v>
-      </c>
-      <c r="H51" s="102">
-        <v>1</v>
-      </c>
-      <c r="I51" s="104"/>
-      <c r="J51" s="102"/>
-      <c r="K51" s="102"/>
-      <c r="L51" s="105">
-        <v>1</v>
-      </c>
-      <c r="M51" s="104"/>
+      <c r="F51" s="101">
+        <v>1</v>
+      </c>
+      <c r="G51" s="101">
+        <v>1</v>
+      </c>
+      <c r="H51" s="101">
+        <v>1</v>
+      </c>
+      <c r="I51" s="103"/>
+      <c r="J51" s="101"/>
+      <c r="K51" s="101"/>
+      <c r="L51" s="104">
+        <v>1</v>
+      </c>
+      <c r="M51" s="103"/>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A52" s="102">
+      <c r="A52" s="101">
         <v>121</v>
       </c>
-      <c r="B52" s="102" t="s">
+      <c r="B52" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C52" s="102" t="s">
+      <c r="C52" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D52" s="102" t="s">
+      <c r="D52" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E52" s="103" t="s">
+      <c r="E52" s="102" t="s">
         <v>598</v>
       </c>
-      <c r="F52" s="102">
-        <v>1</v>
-      </c>
-      <c r="G52" s="102">
-        <v>1</v>
-      </c>
-      <c r="H52" s="102">
-        <v>1</v>
-      </c>
-      <c r="I52" s="104"/>
-      <c r="J52" s="102"/>
-      <c r="K52" s="102"/>
-      <c r="L52" s="105">
-        <v>1</v>
-      </c>
-      <c r="M52" s="104"/>
+      <c r="F52" s="101">
+        <v>1</v>
+      </c>
+      <c r="G52" s="101">
+        <v>1</v>
+      </c>
+      <c r="H52" s="101">
+        <v>1</v>
+      </c>
+      <c r="I52" s="103"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="104">
+        <v>1</v>
+      </c>
+      <c r="M52" s="103"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A53" s="102">
+      <c r="A53" s="101">
         <v>122</v>
       </c>
-      <c r="B53" s="102" t="s">
+      <c r="B53" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C53" s="102" t="s">
+      <c r="C53" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D53" s="102" t="s">
+      <c r="D53" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E53" s="103" t="s">
+      <c r="E53" s="102" t="s">
         <v>596</v>
       </c>
-      <c r="F53" s="102">
-        <v>1</v>
-      </c>
-      <c r="G53" s="102">
-        <v>1</v>
-      </c>
-      <c r="H53" s="102">
-        <v>1</v>
-      </c>
-      <c r="I53" s="104"/>
-      <c r="J53" s="102"/>
-      <c r="K53" s="102"/>
-      <c r="L53" s="105">
-        <v>1</v>
-      </c>
-      <c r="M53" s="104"/>
+      <c r="F53" s="101">
+        <v>1</v>
+      </c>
+      <c r="G53" s="101">
+        <v>1</v>
+      </c>
+      <c r="H53" s="101">
+        <v>1</v>
+      </c>
+      <c r="I53" s="103"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="104">
+        <v>1</v>
+      </c>
+      <c r="M53" s="103"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A54" s="102">
+      <c r="A54" s="101">
         <v>123</v>
       </c>
-      <c r="B54" s="102" t="s">
+      <c r="B54" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D54" s="102" t="s">
+      <c r="D54" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E54" s="103" t="s">
+      <c r="E54" s="102" t="s">
         <v>599</v>
       </c>
-      <c r="F54" s="102">
-        <v>1</v>
-      </c>
-      <c r="G54" s="102">
-        <v>1</v>
-      </c>
-      <c r="H54" s="102">
-        <v>1</v>
-      </c>
-      <c r="I54" s="104"/>
-      <c r="J54" s="102"/>
-      <c r="K54" s="102"/>
-      <c r="L54" s="105">
-        <v>1</v>
-      </c>
-      <c r="M54" s="104"/>
+      <c r="F54" s="101">
+        <v>1</v>
+      </c>
+      <c r="G54" s="101">
+        <v>1</v>
+      </c>
+      <c r="H54" s="101">
+        <v>1</v>
+      </c>
+      <c r="I54" s="103"/>
+      <c r="J54" s="101"/>
+      <c r="K54" s="101"/>
+      <c r="L54" s="104">
+        <v>1</v>
+      </c>
+      <c r="M54" s="103"/>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" s="102">
+      <c r="A55" s="101">
         <v>124</v>
       </c>
-      <c r="B55" s="102" t="s">
+      <c r="B55" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D55" s="102" t="s">
+      <c r="D55" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E55" s="103" t="s">
+      <c r="E55" s="102" t="s">
         <v>600</v>
       </c>
-      <c r="F55" s="102">
-        <v>1</v>
-      </c>
-      <c r="G55" s="102">
-        <v>1</v>
-      </c>
-      <c r="H55" s="102">
-        <v>1</v>
-      </c>
-      <c r="I55" s="104"/>
-      <c r="J55" s="102"/>
-      <c r="K55" s="102"/>
-      <c r="L55" s="105">
-        <v>1</v>
-      </c>
-      <c r="M55" s="104"/>
+      <c r="F55" s="101">
+        <v>1</v>
+      </c>
+      <c r="G55" s="101">
+        <v>1</v>
+      </c>
+      <c r="H55" s="101">
+        <v>1</v>
+      </c>
+      <c r="I55" s="103"/>
+      <c r="J55" s="101"/>
+      <c r="K55" s="101"/>
+      <c r="L55" s="104">
+        <v>1</v>
+      </c>
+      <c r="M55" s="103"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A56" s="102">
+      <c r="A56" s="101">
         <v>125</v>
       </c>
-      <c r="B56" s="102" t="s">
+      <c r="B56" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D56" s="102" t="s">
+      <c r="D56" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E56" s="103" t="s">
+      <c r="E56" s="102" t="s">
         <v>595</v>
       </c>
-      <c r="F56" s="102">
-        <v>1</v>
-      </c>
-      <c r="G56" s="102">
-        <v>1</v>
-      </c>
-      <c r="H56" s="102">
-        <v>1</v>
-      </c>
-      <c r="I56" s="104"/>
-      <c r="J56" s="102"/>
-      <c r="K56" s="102"/>
-      <c r="L56" s="105">
-        <v>1</v>
-      </c>
-      <c r="M56" s="104"/>
+      <c r="F56" s="101">
+        <v>1</v>
+      </c>
+      <c r="G56" s="101">
+        <v>1</v>
+      </c>
+      <c r="H56" s="101">
+        <v>1</v>
+      </c>
+      <c r="I56" s="103"/>
+      <c r="J56" s="101"/>
+      <c r="K56" s="101"/>
+      <c r="L56" s="104">
+        <v>1</v>
+      </c>
+      <c r="M56" s="103"/>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A57" s="102">
+      <c r="A57" s="101">
         <v>126</v>
       </c>
-      <c r="B57" s="102" t="s">
+      <c r="B57" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="101" t="s">
         <v>293</v>
       </c>
-      <c r="D57" s="102" t="s">
+      <c r="D57" s="101" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="103" t="s">
+      <c r="E57" s="102" t="s">
         <v>601</v>
       </c>
-      <c r="F57" s="102">
-        <v>1</v>
-      </c>
-      <c r="G57" s="102">
-        <v>1</v>
-      </c>
-      <c r="H57" s="102">
-        <v>1</v>
-      </c>
-      <c r="I57" s="104"/>
-      <c r="J57" s="102"/>
-      <c r="K57" s="102"/>
-      <c r="L57" s="105">
-        <v>1</v>
-      </c>
-      <c r="M57" s="104"/>
+      <c r="F57" s="101">
+        <v>1</v>
+      </c>
+      <c r="G57" s="101">
+        <v>1</v>
+      </c>
+      <c r="H57" s="101">
+        <v>1</v>
+      </c>
+      <c r="I57" s="103"/>
+      <c r="J57" s="101"/>
+      <c r="K57" s="101"/>
+      <c r="L57" s="104">
+        <v>1</v>
+      </c>
+      <c r="M57" s="103"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:M16" xr:uid="{00000000-0009-0000-0000-000008000000}"/>

--- a/db/excel/api-function-granted-users-cdld.xlsx
+++ b/db/excel/api-function-granted-users-cdld.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCC694-E6DC-9E45-B718-D934190C698F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFBB0A4-AC9A-2B42-A9B7-52514AF580F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="20060" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" tabRatio="800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_types" sheetId="27" r:id="rId1"/>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="644">
   <si>
     <t>status</t>
   </si>
@@ -1054,12 +1054,6 @@
     <t>Phân Loại Chỉ Đạo</t>
   </si>
   <si>
-    <t>Phân loại chỉ đạo này thuộc cái gì (Công việc thường xuyên/Cập nhập hàng tuần) - lấy từ categories</t>
-  </si>
-  <si>
-    <t>Lịch Sử Xử Lý</t>
-  </si>
-  <si>
     <t>Hình ảnh</t>
   </si>
   <si>
@@ -1084,9 +1078,6 @@
     <t>Phân Loại Cuộc Họp</t>
   </si>
   <si>
-    <t>Cuộc họp này là họp gì (tuần/tháng/năm/đột xuất) - lấy từ bảng categories</t>
-  </si>
-  <si>
     <t>Ảnh cover dùng để render card cho cuộc họp này (mặc định thì mình truyền dô)</t>
   </si>
   <si>
@@ -1096,9 +1087,6 @@
     <t>Mảng chứa thông tin các kết luận đi kèm theo cuộc họp này</t>
   </si>
   <si>
-    <t>Attachment này dùng cho loại nào (cho DIRECT hay cho MEETING)</t>
-  </si>
-  <si>
     <t>Tên File Đính Kèm</t>
   </si>
   <si>
@@ -1154,45 +1142,6 @@
   </si>
   <si>
     <t>Vai Trò Đơn Vị</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mã lưu các thông tin lịch sử xử lý của chỉ đạo này (Mục tiêu là lưu hết đơn vị nào thực hiện cập nhập và xử lý gì -&gt; Lưu Id của bảng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>direct_executes</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Trạng thái của của chỉ đạo giao cho đơn vị này (lấy từ bảng </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>categories</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1552,15 +1501,6 @@
     <t>Danh mục phân loại chỉ đạo (chỉ đạo tuần, tháng, năm)</t>
   </si>
   <si>
-    <t>Chỉ đạo tuần</t>
-  </si>
-  <si>
-    <t>Chỉ đạo tháng</t>
-  </si>
-  <si>
-    <t>Chỉ đạo năm</t>
-  </si>
-  <si>
     <t>Chỉ đạo này thực hiện hàng tuần</t>
   </si>
   <si>
@@ -1597,27 +1537,6 @@
     <t>Họp tổng kết năm</t>
   </si>
   <si>
-    <t>Các đơn vị nâng cao tinh thần phòng dịch, thực hiện nghiêm túc 5K, tìm hiểu và trang bị kiến thức về dịch, đảm bảo an toàn trong mùa dịch đồng thời vẫn tạo điều kiện để công việc được thông suốt</t>
-  </si>
-  <si>
-    <t>P. KHCN và các Mobifone tỉnh/tp đẩy mạnh bán hàng online, cải thiện tỷ lệ tương tác, mua hàng qua kênh online của khách hàng so với các đối thủ</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>P. CSKH cân đối lại kế hoạch thay sim 4G cho Mobifone tp Đà Nẵng 1, Đà Nẵng 2 trong thời điểm dịch bệnh</t>
-  </si>
-  <si>
-    <t>[6]</t>
-  </si>
-  <si>
-    <t>[7]</t>
-  </si>
-  <si>
-    <t>Cập nhập hoàn thành cho chỉ đạo này</t>
-  </si>
-  <si>
     <t>direct-organization</t>
   </si>
   <si>
@@ -1759,18 +1678,12 @@
     <t>Tỷ lệ hoàn thành (dùng cập nhập khi trạng thái hoàn thành là %)</t>
   </si>
   <si>
-    <t>Lý do cập nhập cho history này (CẬP NHẬP THỰC HIỆN, ĐÁNH GIÁ TIẾN ĐỘ, ĐÁNH GIÁ CHẬM TIẾN ĐỘ) - lấy từ danh mục categories (code DIRECT_EXEC)</t>
-  </si>
-  <si>
     <t>Trạng Thái Lịch Sử Này</t>
   </si>
   <si>
     <t>Thời gian update history này</t>
   </si>
   <si>
-    <t>Trạng thái của chỉ đạo này (đang thực hiện, hoàn thành %, hoàn thành)</t>
-  </si>
-  <si>
     <t>EXEC_TYPES</t>
   </si>
   <si>
@@ -2267,13 +2180,160 @@
   </si>
   <si>
     <t>Chỉ đạo chung của cả Ban Giám Đốc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trạng thái của của chỉ đạo giao cho đơn vị này (lấy từ bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bản ghi này hoạt động hay không hoạt động</t>
+  </si>
+  <si>
+    <t>Trạng thái của bản ghi này</t>
+  </si>
+  <si>
+    <t>exec_status</t>
+  </si>
+  <si>
+    <t>Attachment này dùng cho loại nào (cho DIRECT_ORG hay cho MEETING)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cuộc họp này là họp gì (tuần/tháng/năm/đột xuất) - lấy từ bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Phân loại chỉ đạo này thuộc cái gì (Công việc thường xuyên/Cập nhập hàng tuần) - lấy từ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>categories</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mảng chứa thông tin các đơn vị thực hiện (phân cho đơn vị nào) - lấy từ bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>organizations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mảng chứa thông tin các đơn vị đánh giá (phân cho đơn vị nào) - lấy từ bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>organizations</t>
+    </r>
+  </si>
+  <si>
+    <t>Lý do cập nhập cho history này - lấy từ danh mục categories (code EXEC_TYPES)</t>
+  </si>
+  <si>
+    <t>Lịch Sử Xử Lý</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Mã lưu các thông tin lịch sử xử lý của chỉ đạo này (Mục tiêu là lưu hết đơn vị nào thực hiện cập nhập và xử lý gì -&gt; Lưu Id của bảng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>direct_executes</t>
+    </r>
+  </si>
+  <si>
+    <t>direct_org_id</t>
+  </si>
+  <si>
+    <t>Mã Chỉ Đạo Đơn Vị</t>
+  </si>
+  <si>
+    <t>Mã UUID</t>
+  </si>
+  <si>
+    <t>Khi tạo exec thì sinh ra uuid để lưu vào histories của direct_orgs</t>
+  </si>
+  <si>
+    <t>Thực hiện 1 lần trong tuần</t>
+  </si>
+  <si>
+    <t>Thực hiện 1 lần trong tháng</t>
+  </si>
+  <si>
+    <t>Thực hiện 1 lần trong năm</t>
+  </si>
+  <si>
+    <t>Chỉ đạo hàng tuần</t>
+  </si>
+  <si>
+    <t>Chỉ đạo hàng tháng</t>
+  </si>
+  <si>
+    <t>Chỉ đạo hàng năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2424,6 +2484,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="20">
@@ -3456,7 +3523,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3678,9 +3745,6 @@
     <xf numFmtId="0" fontId="17" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3755,6 +3819,16 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5147,7 +5221,7 @@
         <v>39</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>25</v>
@@ -5160,42 +5234,42 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="112" x14ac:dyDescent="0.2">
-      <c r="A2" s="96">
+      <c r="A2" s="95">
         <v>99</v>
       </c>
-      <c r="B2" s="97" t="s">
-        <v>548</v>
-      </c>
-      <c r="C2" s="97" t="s">
-        <v>452</v>
-      </c>
-      <c r="D2" s="96" t="s">
-        <v>558</v>
-      </c>
-      <c r="E2" s="96" t="s">
-        <v>451</v>
-      </c>
-      <c r="F2" s="96">
+      <c r="B2" s="96" t="s">
+        <v>530</v>
+      </c>
+      <c r="C2" s="96" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>435</v>
+      </c>
+      <c r="F2" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="64" x14ac:dyDescent="0.2">
-      <c r="A3" s="94">
+      <c r="A3" s="93">
         <v>21</v>
       </c>
-      <c r="B3" s="95" t="s">
-        <v>549</v>
-      </c>
-      <c r="C3" s="95" t="s">
-        <v>453</v>
-      </c>
-      <c r="D3" s="94" t="s">
-        <v>454</v>
-      </c>
-      <c r="E3" s="94" t="s">
-        <v>455</v>
-      </c>
-      <c r="F3" s="94">
+      <c r="B3" s="94" t="s">
+        <v>531</v>
+      </c>
+      <c r="C3" s="94" t="s">
+        <v>437</v>
+      </c>
+      <c r="D3" s="93" t="s">
+        <v>438</v>
+      </c>
+      <c r="E3" s="93" t="s">
+        <v>439</v>
+      </c>
+      <c r="F3" s="93">
         <v>1</v>
       </c>
     </row>
@@ -5287,28 +5361,28 @@
       </c>
       <c r="B2" s="90"/>
       <c r="C2" s="90" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="D2" s="90" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
       <c r="E2" s="91" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F2" s="91" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="G2" s="91" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H2" s="90" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="I2" s="90"/>
       <c r="J2" s="90"/>
       <c r="K2" s="90"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="105" t="s">
+      <c r="M2" s="104" t="s">
         <v>188</v>
       </c>
       <c r="N2" s="90">
@@ -5323,24 +5397,24 @@
         <v>1</v>
       </c>
       <c r="C3" s="86" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D3" s="86"/>
       <c r="E3" s="87" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F3" s="87"/>
       <c r="G3" s="87" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="H3" s="86" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="I3" s="86"/>
       <c r="J3" s="86"/>
       <c r="K3" s="86"/>
       <c r="L3" s="86"/>
-      <c r="M3" s="106" t="s">
+      <c r="M3" s="105" t="s">
         <v>188</v>
       </c>
       <c r="N3" s="86">
@@ -5355,24 +5429,24 @@
         <v>1</v>
       </c>
       <c r="C4" s="86" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="D4" s="86"/>
       <c r="E4" s="87" t="s">
-        <v>357</v>
+        <v>351</v>